--- a/文書/04.詳細設計書/【Kai9Tmpl】テーブル定義書.xlsx
+++ b/文書/04.詳細設計書/【Kai9Tmpl】テーブル定義書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d30bd01ee33075e8/work/36.React/10.github/02.tmpl/02.java/文書/04.詳細設計書/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d30bd01ee33075e8/work/25.java/10.Kai9Tmpl/文書/04.詳細設計書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="14_{CD832F92-60E6-4E45-A810-4D5D0E7B03B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F0BE26A-8D5A-4B28-8003-DA8F61FD8A5B}"/>
+  <xr:revisionPtr revIDLastSave="207" documentId="14_{CD832F92-60E6-4E45-A810-4D5D0E7B03B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33F0A254-3C1E-4187-8198-A2D2582E4173}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="758" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3795" yWindow="90" windowWidth="27705" windowHeight="14925" tabRatio="758" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="63" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="342">
   <si>
     <t>初期値</t>
   </si>
@@ -698,10 +698,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>primary key (s_pk,modify_count)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>コメント_B</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -755,10 +751,6 @@
   </si>
   <si>
     <t>related_data</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>primary key (related_pk,modify_count)</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1815,10 +1807,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>シリアル型がある場合、シーケンスにも権限付与が必要</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>※プライマリーキー、及び、Kai9必須カラム以外には指定必須</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2110,10 +2098,6 @@
   </si>
   <si>
     <t>sql_name</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>primary key (sql_pk,modify_count)</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2409,17 +2393,180 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>テーブル定義書の使い方</t>
+    <t>テーブル定義書の書き方</t>
     <rPh sb="4" eb="7">
       <t>テイギショ</t>
     </rPh>
     <rPh sb="8" eb="9">
-      <t>ツカ</t>
+      <t>カ</t>
     </rPh>
     <rPh sb="10" eb="11">
       <t>カタ</t>
     </rPh>
     <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>テーブル作成方法</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>各テーブルシートの、これら4箇所を、SQLとして発行する。</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ハッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コマンドプロンプトでDBに接続する。</t>
+    <rPh sb="13" eb="15">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>例）</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エクセルから、直接全ての行をコピーして、一度に貼り付ける。これを、4箇所分実施(DDL_A、DDL_B、コメント_A、コメント_B)。</t>
+    <rPh sb="7" eb="9">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>--LOGINユーザの権限</t>
+    <rPh sb="11" eb="13">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>--シリアル型がある場合、シーケンスにも権限付与が必要</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>--ユニークインデックス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>STEP1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>STEP2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テーブルを作成する。</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>STEP3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>権限付与、インデックスの作成を行う</t>
+    <rPh sb="0" eb="2">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フヨ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エクセル下部から、一度に全てコピーし、貼り付ける。</t>
+    <rPh sb="4" eb="6">
+      <t>カブ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>STEP4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>\q</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DB切断</t>
+    <rPh sb="2" eb="4">
+      <t>セツダン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>--無し</t>
+    <rPh sb="2" eb="3">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>kai9tmplpg</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -2986,7 +3133,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3267,6 +3414,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3349,7 +3499,7 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>38101</xdr:colOff>
@@ -3391,6 +3541,727 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>152482</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="10" name="グループ化 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30BBCA4F-7022-FAA8-E792-57171B75921F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="342900" y="1114425"/>
+          <a:ext cx="12982575" cy="0"/>
+          <a:chOff x="342900" y="20002501"/>
+          <a:chExt cx="12982575" cy="2314656"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="4" name="図 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C45143F5-84E9-9717-7C85-21BEB3A86C08}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="342900" y="20002501"/>
+            <a:ext cx="12982575" cy="2314656"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="正方形/長方形 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DF284B6-7E0D-4A62-BFB5-E8BA7EDBC783}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3667125" y="20297775"/>
+            <a:ext cx="1857376" cy="1933575"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="41275">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="正方形/長方形 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA1229BF-3299-87EE-2C05-5D629DBB535B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5667375" y="20297775"/>
+            <a:ext cx="1866900" cy="1933575"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="41275">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="正方形/長方形 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FC09024-7559-3F33-A387-323BDB08508B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7648575" y="20297775"/>
+            <a:ext cx="2495550" cy="1933575"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="41275">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="正方形/長方形 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA60D76F-B25B-1BE4-3562-B9115767A5F9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10277475" y="20297775"/>
+            <a:ext cx="2743200" cy="1933575"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="41275">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>124581</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>28893</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23725374-0781-2F21-A266-74791DE2C3B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="342900" y="24126825"/>
+          <a:ext cx="5420481" cy="2276793"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0A402C4-97F7-42A9-9EC6-283A13BC6B02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1057274" y="24898351"/>
+          <a:ext cx="3362325" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="41275">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>271462</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA09D111-AA75-4110-ADCD-A515042C4DAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="12" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2738437" y="23393400"/>
+          <a:ext cx="1900238" cy="1504951"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:headEnd w="lg" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>152985</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="26" name="グループ化 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0E38418-FF87-1ED9-8908-60DF3EF4ECC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="419100" y="1114425"/>
+          <a:ext cx="7010400" cy="0"/>
+          <a:chOff x="8601075" y="27384375"/>
+          <a:chExt cx="7010400" cy="4191585"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="18" name="図 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7F4FF9C-4AB2-0982-7B5A-FB151ECB5EED}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8601075" y="27384375"/>
+            <a:ext cx="7001852" cy="4191585"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="正方形/長方形 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D691947-57A8-1028-0CB4-86C00427DD77}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8839199" y="29289375"/>
+            <a:ext cx="6772276" cy="2095499"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="41275">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>162470</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="25" name="グループ化 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CE6349F-23E6-D5A9-A10D-BEADE5B84E55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7934324" y="1114425"/>
+          <a:ext cx="8010526" cy="0"/>
+          <a:chOff x="276224" y="28146375"/>
+          <a:chExt cx="8010526" cy="3905795"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="20" name="図 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD32479C-4F5F-C383-7283-A045986E276D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="342900" y="28146375"/>
+            <a:ext cx="7744906" cy="3905795"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="正方形/長方形 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C753352F-98CE-5A91-0745-8425EBDFF837}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="276224" y="29232225"/>
+            <a:ext cx="8010526" cy="2333625"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="41275">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55519CC7-D875-4527-BD4E-C3CFBCB5ADC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="3"/>
+          <a:endCxn id="21" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7429500" y="31084838"/>
+          <a:ext cx="504824" cy="4762"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:headEnd w="lg" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4148,44 +5019,44 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="135" t="s">
+      <c r="I9" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="136"/>
-      <c r="K9" s="136"/>
-      <c r="L9" s="136"/>
-      <c r="M9" s="136"/>
-      <c r="N9" s="136"/>
-      <c r="O9" s="136"/>
-      <c r="P9" s="136"/>
-      <c r="Q9" s="136"/>
-      <c r="R9" s="136"/>
-      <c r="S9" s="136"/>
-      <c r="T9" s="136"/>
-      <c r="U9" s="136"/>
-      <c r="V9" s="136"/>
-      <c r="W9" s="136"/>
-      <c r="X9" s="136"/>
-      <c r="Y9" s="136"/>
-      <c r="Z9" s="136"/>
-      <c r="AA9" s="136"/>
-      <c r="AB9" s="136"/>
-      <c r="AC9" s="136"/>
-      <c r="AD9" s="136"/>
-      <c r="AE9" s="136"/>
-      <c r="AF9" s="136"/>
-      <c r="AG9" s="136"/>
-      <c r="AH9" s="136"/>
-      <c r="AI9" s="136"/>
-      <c r="AJ9" s="136"/>
-      <c r="AK9" s="136"/>
-      <c r="AL9" s="136"/>
-      <c r="AM9" s="136"/>
-      <c r="AN9" s="136"/>
-      <c r="AO9" s="136"/>
-      <c r="AP9" s="136"/>
-      <c r="AQ9" s="136"/>
-      <c r="AR9" s="137"/>
+      <c r="J9" s="139"/>
+      <c r="K9" s="139"/>
+      <c r="L9" s="139"/>
+      <c r="M9" s="139"/>
+      <c r="N9" s="139"/>
+      <c r="O9" s="139"/>
+      <c r="P9" s="139"/>
+      <c r="Q9" s="139"/>
+      <c r="R9" s="139"/>
+      <c r="S9" s="139"/>
+      <c r="T9" s="139"/>
+      <c r="U9" s="139"/>
+      <c r="V9" s="139"/>
+      <c r="W9" s="139"/>
+      <c r="X9" s="139"/>
+      <c r="Y9" s="139"/>
+      <c r="Z9" s="139"/>
+      <c r="AA9" s="139"/>
+      <c r="AB9" s="139"/>
+      <c r="AC9" s="139"/>
+      <c r="AD9" s="139"/>
+      <c r="AE9" s="139"/>
+      <c r="AF9" s="139"/>
+      <c r="AG9" s="139"/>
+      <c r="AH9" s="139"/>
+      <c r="AI9" s="139"/>
+      <c r="AJ9" s="139"/>
+      <c r="AK9" s="139"/>
+      <c r="AL9" s="139"/>
+      <c r="AM9" s="139"/>
+      <c r="AN9" s="139"/>
+      <c r="AO9" s="139"/>
+      <c r="AP9" s="139"/>
+      <c r="AQ9" s="139"/>
+      <c r="AR9" s="140"/>
       <c r="AS9" s="9"/>
       <c r="AT9" s="9"/>
       <c r="AU9" s="9"/>
@@ -4204,42 +5075,42 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
-      <c r="I10" s="138"/>
-      <c r="J10" s="139"/>
-      <c r="K10" s="139"/>
-      <c r="L10" s="139"/>
-      <c r="M10" s="139"/>
-      <c r="N10" s="139"/>
-      <c r="O10" s="139"/>
-      <c r="P10" s="139"/>
-      <c r="Q10" s="139"/>
-      <c r="R10" s="139"/>
-      <c r="S10" s="139"/>
-      <c r="T10" s="139"/>
-      <c r="U10" s="139"/>
-      <c r="V10" s="139"/>
-      <c r="W10" s="139"/>
-      <c r="X10" s="139"/>
-      <c r="Y10" s="139"/>
-      <c r="Z10" s="139"/>
-      <c r="AA10" s="139"/>
-      <c r="AB10" s="139"/>
-      <c r="AC10" s="139"/>
-      <c r="AD10" s="139"/>
-      <c r="AE10" s="139"/>
-      <c r="AF10" s="139"/>
-      <c r="AG10" s="139"/>
-      <c r="AH10" s="139"/>
-      <c r="AI10" s="139"/>
-      <c r="AJ10" s="139"/>
-      <c r="AK10" s="139"/>
-      <c r="AL10" s="139"/>
-      <c r="AM10" s="139"/>
-      <c r="AN10" s="139"/>
-      <c r="AO10" s="139"/>
-      <c r="AP10" s="139"/>
-      <c r="AQ10" s="139"/>
-      <c r="AR10" s="140"/>
+      <c r="I10" s="141"/>
+      <c r="J10" s="142"/>
+      <c r="K10" s="142"/>
+      <c r="L10" s="142"/>
+      <c r="M10" s="142"/>
+      <c r="N10" s="142"/>
+      <c r="O10" s="142"/>
+      <c r="P10" s="142"/>
+      <c r="Q10" s="142"/>
+      <c r="R10" s="142"/>
+      <c r="S10" s="142"/>
+      <c r="T10" s="142"/>
+      <c r="U10" s="142"/>
+      <c r="V10" s="142"/>
+      <c r="W10" s="142"/>
+      <c r="X10" s="142"/>
+      <c r="Y10" s="142"/>
+      <c r="Z10" s="142"/>
+      <c r="AA10" s="142"/>
+      <c r="AB10" s="142"/>
+      <c r="AC10" s="142"/>
+      <c r="AD10" s="142"/>
+      <c r="AE10" s="142"/>
+      <c r="AF10" s="142"/>
+      <c r="AG10" s="142"/>
+      <c r="AH10" s="142"/>
+      <c r="AI10" s="142"/>
+      <c r="AJ10" s="142"/>
+      <c r="AK10" s="142"/>
+      <c r="AL10" s="142"/>
+      <c r="AM10" s="142"/>
+      <c r="AN10" s="142"/>
+      <c r="AO10" s="142"/>
+      <c r="AP10" s="142"/>
+      <c r="AQ10" s="142"/>
+      <c r="AR10" s="143"/>
       <c r="AS10" s="9"/>
       <c r="AT10" s="9"/>
       <c r="AU10" s="9"/>
@@ -4258,42 +5129,42 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
-      <c r="I11" s="138"/>
-      <c r="J11" s="139"/>
-      <c r="K11" s="139"/>
-      <c r="L11" s="139"/>
-      <c r="M11" s="139"/>
-      <c r="N11" s="139"/>
-      <c r="O11" s="139"/>
-      <c r="P11" s="139"/>
-      <c r="Q11" s="139"/>
-      <c r="R11" s="139"/>
-      <c r="S11" s="139"/>
-      <c r="T11" s="139"/>
-      <c r="U11" s="139"/>
-      <c r="V11" s="139"/>
-      <c r="W11" s="139"/>
-      <c r="X11" s="139"/>
-      <c r="Y11" s="139"/>
-      <c r="Z11" s="139"/>
-      <c r="AA11" s="139"/>
-      <c r="AB11" s="139"/>
-      <c r="AC11" s="139"/>
-      <c r="AD11" s="139"/>
-      <c r="AE11" s="139"/>
-      <c r="AF11" s="139"/>
-      <c r="AG11" s="139"/>
-      <c r="AH11" s="139"/>
-      <c r="AI11" s="139"/>
-      <c r="AJ11" s="139"/>
-      <c r="AK11" s="139"/>
-      <c r="AL11" s="139"/>
-      <c r="AM11" s="139"/>
-      <c r="AN11" s="139"/>
-      <c r="AO11" s="139"/>
-      <c r="AP11" s="139"/>
-      <c r="AQ11" s="139"/>
-      <c r="AR11" s="140"/>
+      <c r="I11" s="141"/>
+      <c r="J11" s="142"/>
+      <c r="K11" s="142"/>
+      <c r="L11" s="142"/>
+      <c r="M11" s="142"/>
+      <c r="N11" s="142"/>
+      <c r="O11" s="142"/>
+      <c r="P11" s="142"/>
+      <c r="Q11" s="142"/>
+      <c r="R11" s="142"/>
+      <c r="S11" s="142"/>
+      <c r="T11" s="142"/>
+      <c r="U11" s="142"/>
+      <c r="V11" s="142"/>
+      <c r="W11" s="142"/>
+      <c r="X11" s="142"/>
+      <c r="Y11" s="142"/>
+      <c r="Z11" s="142"/>
+      <c r="AA11" s="142"/>
+      <c r="AB11" s="142"/>
+      <c r="AC11" s="142"/>
+      <c r="AD11" s="142"/>
+      <c r="AE11" s="142"/>
+      <c r="AF11" s="142"/>
+      <c r="AG11" s="142"/>
+      <c r="AH11" s="142"/>
+      <c r="AI11" s="142"/>
+      <c r="AJ11" s="142"/>
+      <c r="AK11" s="142"/>
+      <c r="AL11" s="142"/>
+      <c r="AM11" s="142"/>
+      <c r="AN11" s="142"/>
+      <c r="AO11" s="142"/>
+      <c r="AP11" s="142"/>
+      <c r="AQ11" s="142"/>
+      <c r="AR11" s="143"/>
       <c r="AS11" s="9"/>
       <c r="AT11" s="9"/>
       <c r="AU11" s="9"/>
@@ -4312,42 +5183,42 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
-      <c r="I12" s="138"/>
-      <c r="J12" s="139"/>
-      <c r="K12" s="139"/>
-      <c r="L12" s="139"/>
-      <c r="M12" s="139"/>
-      <c r="N12" s="139"/>
-      <c r="O12" s="139"/>
-      <c r="P12" s="139"/>
-      <c r="Q12" s="139"/>
-      <c r="R12" s="139"/>
-      <c r="S12" s="139"/>
-      <c r="T12" s="139"/>
-      <c r="U12" s="139"/>
-      <c r="V12" s="139"/>
-      <c r="W12" s="139"/>
-      <c r="X12" s="139"/>
-      <c r="Y12" s="139"/>
-      <c r="Z12" s="139"/>
-      <c r="AA12" s="139"/>
-      <c r="AB12" s="139"/>
-      <c r="AC12" s="139"/>
-      <c r="AD12" s="139"/>
-      <c r="AE12" s="139"/>
-      <c r="AF12" s="139"/>
-      <c r="AG12" s="139"/>
-      <c r="AH12" s="139"/>
-      <c r="AI12" s="139"/>
-      <c r="AJ12" s="139"/>
-      <c r="AK12" s="139"/>
-      <c r="AL12" s="139"/>
-      <c r="AM12" s="139"/>
-      <c r="AN12" s="139"/>
-      <c r="AO12" s="139"/>
-      <c r="AP12" s="139"/>
-      <c r="AQ12" s="139"/>
-      <c r="AR12" s="140"/>
+      <c r="I12" s="141"/>
+      <c r="J12" s="142"/>
+      <c r="K12" s="142"/>
+      <c r="L12" s="142"/>
+      <c r="M12" s="142"/>
+      <c r="N12" s="142"/>
+      <c r="O12" s="142"/>
+      <c r="P12" s="142"/>
+      <c r="Q12" s="142"/>
+      <c r="R12" s="142"/>
+      <c r="S12" s="142"/>
+      <c r="T12" s="142"/>
+      <c r="U12" s="142"/>
+      <c r="V12" s="142"/>
+      <c r="W12" s="142"/>
+      <c r="X12" s="142"/>
+      <c r="Y12" s="142"/>
+      <c r="Z12" s="142"/>
+      <c r="AA12" s="142"/>
+      <c r="AB12" s="142"/>
+      <c r="AC12" s="142"/>
+      <c r="AD12" s="142"/>
+      <c r="AE12" s="142"/>
+      <c r="AF12" s="142"/>
+      <c r="AG12" s="142"/>
+      <c r="AH12" s="142"/>
+      <c r="AI12" s="142"/>
+      <c r="AJ12" s="142"/>
+      <c r="AK12" s="142"/>
+      <c r="AL12" s="142"/>
+      <c r="AM12" s="142"/>
+      <c r="AN12" s="142"/>
+      <c r="AO12" s="142"/>
+      <c r="AP12" s="142"/>
+      <c r="AQ12" s="142"/>
+      <c r="AR12" s="143"/>
       <c r="AS12" s="9"/>
       <c r="AT12" s="9"/>
       <c r="AU12" s="9"/>
@@ -4366,42 +5237,42 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
-      <c r="I13" s="138"/>
-      <c r="J13" s="139"/>
-      <c r="K13" s="139"/>
-      <c r="L13" s="139"/>
-      <c r="M13" s="139"/>
-      <c r="N13" s="139"/>
-      <c r="O13" s="139"/>
-      <c r="P13" s="139"/>
-      <c r="Q13" s="139"/>
-      <c r="R13" s="139"/>
-      <c r="S13" s="139"/>
-      <c r="T13" s="139"/>
-      <c r="U13" s="139"/>
-      <c r="V13" s="139"/>
-      <c r="W13" s="139"/>
-      <c r="X13" s="139"/>
-      <c r="Y13" s="139"/>
-      <c r="Z13" s="139"/>
-      <c r="AA13" s="139"/>
-      <c r="AB13" s="139"/>
-      <c r="AC13" s="139"/>
-      <c r="AD13" s="139"/>
-      <c r="AE13" s="139"/>
-      <c r="AF13" s="139"/>
-      <c r="AG13" s="139"/>
-      <c r="AH13" s="139"/>
-      <c r="AI13" s="139"/>
-      <c r="AJ13" s="139"/>
-      <c r="AK13" s="139"/>
-      <c r="AL13" s="139"/>
-      <c r="AM13" s="139"/>
-      <c r="AN13" s="139"/>
-      <c r="AO13" s="139"/>
-      <c r="AP13" s="139"/>
-      <c r="AQ13" s="139"/>
-      <c r="AR13" s="140"/>
+      <c r="I13" s="141"/>
+      <c r="J13" s="142"/>
+      <c r="K13" s="142"/>
+      <c r="L13" s="142"/>
+      <c r="M13" s="142"/>
+      <c r="N13" s="142"/>
+      <c r="O13" s="142"/>
+      <c r="P13" s="142"/>
+      <c r="Q13" s="142"/>
+      <c r="R13" s="142"/>
+      <c r="S13" s="142"/>
+      <c r="T13" s="142"/>
+      <c r="U13" s="142"/>
+      <c r="V13" s="142"/>
+      <c r="W13" s="142"/>
+      <c r="X13" s="142"/>
+      <c r="Y13" s="142"/>
+      <c r="Z13" s="142"/>
+      <c r="AA13" s="142"/>
+      <c r="AB13" s="142"/>
+      <c r="AC13" s="142"/>
+      <c r="AD13" s="142"/>
+      <c r="AE13" s="142"/>
+      <c r="AF13" s="142"/>
+      <c r="AG13" s="142"/>
+      <c r="AH13" s="142"/>
+      <c r="AI13" s="142"/>
+      <c r="AJ13" s="142"/>
+      <c r="AK13" s="142"/>
+      <c r="AL13" s="142"/>
+      <c r="AM13" s="142"/>
+      <c r="AN13" s="142"/>
+      <c r="AO13" s="142"/>
+      <c r="AP13" s="142"/>
+      <c r="AQ13" s="142"/>
+      <c r="AR13" s="143"/>
       <c r="AS13" s="9"/>
       <c r="AT13" s="9"/>
       <c r="AU13" s="9"/>
@@ -4420,42 +5291,42 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
-      <c r="I14" s="138"/>
-      <c r="J14" s="139"/>
-      <c r="K14" s="139"/>
-      <c r="L14" s="139"/>
-      <c r="M14" s="139"/>
-      <c r="N14" s="139"/>
-      <c r="O14" s="139"/>
-      <c r="P14" s="139"/>
-      <c r="Q14" s="139"/>
-      <c r="R14" s="139"/>
-      <c r="S14" s="139"/>
-      <c r="T14" s="139"/>
-      <c r="U14" s="139"/>
-      <c r="V14" s="139"/>
-      <c r="W14" s="139"/>
-      <c r="X14" s="139"/>
-      <c r="Y14" s="139"/>
-      <c r="Z14" s="139"/>
-      <c r="AA14" s="139"/>
-      <c r="AB14" s="139"/>
-      <c r="AC14" s="139"/>
-      <c r="AD14" s="139"/>
-      <c r="AE14" s="139"/>
-      <c r="AF14" s="139"/>
-      <c r="AG14" s="139"/>
-      <c r="AH14" s="139"/>
-      <c r="AI14" s="139"/>
-      <c r="AJ14" s="139"/>
-      <c r="AK14" s="139"/>
-      <c r="AL14" s="139"/>
-      <c r="AM14" s="139"/>
-      <c r="AN14" s="139"/>
-      <c r="AO14" s="139"/>
-      <c r="AP14" s="139"/>
-      <c r="AQ14" s="139"/>
-      <c r="AR14" s="140"/>
+      <c r="I14" s="141"/>
+      <c r="J14" s="142"/>
+      <c r="K14" s="142"/>
+      <c r="L14" s="142"/>
+      <c r="M14" s="142"/>
+      <c r="N14" s="142"/>
+      <c r="O14" s="142"/>
+      <c r="P14" s="142"/>
+      <c r="Q14" s="142"/>
+      <c r="R14" s="142"/>
+      <c r="S14" s="142"/>
+      <c r="T14" s="142"/>
+      <c r="U14" s="142"/>
+      <c r="V14" s="142"/>
+      <c r="W14" s="142"/>
+      <c r="X14" s="142"/>
+      <c r="Y14" s="142"/>
+      <c r="Z14" s="142"/>
+      <c r="AA14" s="142"/>
+      <c r="AB14" s="142"/>
+      <c r="AC14" s="142"/>
+      <c r="AD14" s="142"/>
+      <c r="AE14" s="142"/>
+      <c r="AF14" s="142"/>
+      <c r="AG14" s="142"/>
+      <c r="AH14" s="142"/>
+      <c r="AI14" s="142"/>
+      <c r="AJ14" s="142"/>
+      <c r="AK14" s="142"/>
+      <c r="AL14" s="142"/>
+      <c r="AM14" s="142"/>
+      <c r="AN14" s="142"/>
+      <c r="AO14" s="142"/>
+      <c r="AP14" s="142"/>
+      <c r="AQ14" s="142"/>
+      <c r="AR14" s="143"/>
       <c r="AS14" s="9"/>
       <c r="AT14" s="9"/>
       <c r="AU14" s="9"/>
@@ -4474,42 +5345,42 @@
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
-      <c r="I15" s="138"/>
-      <c r="J15" s="139"/>
-      <c r="K15" s="139"/>
-      <c r="L15" s="139"/>
-      <c r="M15" s="139"/>
-      <c r="N15" s="139"/>
-      <c r="O15" s="139"/>
-      <c r="P15" s="139"/>
-      <c r="Q15" s="139"/>
-      <c r="R15" s="139"/>
-      <c r="S15" s="139"/>
-      <c r="T15" s="139"/>
-      <c r="U15" s="139"/>
-      <c r="V15" s="139"/>
-      <c r="W15" s="139"/>
-      <c r="X15" s="139"/>
-      <c r="Y15" s="139"/>
-      <c r="Z15" s="139"/>
-      <c r="AA15" s="139"/>
-      <c r="AB15" s="139"/>
-      <c r="AC15" s="139"/>
-      <c r="AD15" s="139"/>
-      <c r="AE15" s="139"/>
-      <c r="AF15" s="139"/>
-      <c r="AG15" s="139"/>
-      <c r="AH15" s="139"/>
-      <c r="AI15" s="139"/>
-      <c r="AJ15" s="139"/>
-      <c r="AK15" s="139"/>
-      <c r="AL15" s="139"/>
-      <c r="AM15" s="139"/>
-      <c r="AN15" s="139"/>
-      <c r="AO15" s="139"/>
-      <c r="AP15" s="139"/>
-      <c r="AQ15" s="139"/>
-      <c r="AR15" s="140"/>
+      <c r="I15" s="141"/>
+      <c r="J15" s="142"/>
+      <c r="K15" s="142"/>
+      <c r="L15" s="142"/>
+      <c r="M15" s="142"/>
+      <c r="N15" s="142"/>
+      <c r="O15" s="142"/>
+      <c r="P15" s="142"/>
+      <c r="Q15" s="142"/>
+      <c r="R15" s="142"/>
+      <c r="S15" s="142"/>
+      <c r="T15" s="142"/>
+      <c r="U15" s="142"/>
+      <c r="V15" s="142"/>
+      <c r="W15" s="142"/>
+      <c r="X15" s="142"/>
+      <c r="Y15" s="142"/>
+      <c r="Z15" s="142"/>
+      <c r="AA15" s="142"/>
+      <c r="AB15" s="142"/>
+      <c r="AC15" s="142"/>
+      <c r="AD15" s="142"/>
+      <c r="AE15" s="142"/>
+      <c r="AF15" s="142"/>
+      <c r="AG15" s="142"/>
+      <c r="AH15" s="142"/>
+      <c r="AI15" s="142"/>
+      <c r="AJ15" s="142"/>
+      <c r="AK15" s="142"/>
+      <c r="AL15" s="142"/>
+      <c r="AM15" s="142"/>
+      <c r="AN15" s="142"/>
+      <c r="AO15" s="142"/>
+      <c r="AP15" s="142"/>
+      <c r="AQ15" s="142"/>
+      <c r="AR15" s="143"/>
       <c r="AS15" s="9"/>
       <c r="AT15" s="9"/>
       <c r="AU15" s="9"/>
@@ -4528,42 +5399,42 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
-      <c r="I16" s="138"/>
-      <c r="J16" s="139"/>
-      <c r="K16" s="139"/>
-      <c r="L16" s="139"/>
-      <c r="M16" s="139"/>
-      <c r="N16" s="139"/>
-      <c r="O16" s="139"/>
-      <c r="P16" s="139"/>
-      <c r="Q16" s="139"/>
-      <c r="R16" s="139"/>
-      <c r="S16" s="139"/>
-      <c r="T16" s="139"/>
-      <c r="U16" s="139"/>
-      <c r="V16" s="139"/>
-      <c r="W16" s="139"/>
-      <c r="X16" s="139"/>
-      <c r="Y16" s="139"/>
-      <c r="Z16" s="139"/>
-      <c r="AA16" s="139"/>
-      <c r="AB16" s="139"/>
-      <c r="AC16" s="139"/>
-      <c r="AD16" s="139"/>
-      <c r="AE16" s="139"/>
-      <c r="AF16" s="139"/>
-      <c r="AG16" s="139"/>
-      <c r="AH16" s="139"/>
-      <c r="AI16" s="139"/>
-      <c r="AJ16" s="139"/>
-      <c r="AK16" s="139"/>
-      <c r="AL16" s="139"/>
-      <c r="AM16" s="139"/>
-      <c r="AN16" s="139"/>
-      <c r="AO16" s="139"/>
-      <c r="AP16" s="139"/>
-      <c r="AQ16" s="139"/>
-      <c r="AR16" s="140"/>
+      <c r="I16" s="141"/>
+      <c r="J16" s="142"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="142"/>
+      <c r="M16" s="142"/>
+      <c r="N16" s="142"/>
+      <c r="O16" s="142"/>
+      <c r="P16" s="142"/>
+      <c r="Q16" s="142"/>
+      <c r="R16" s="142"/>
+      <c r="S16" s="142"/>
+      <c r="T16" s="142"/>
+      <c r="U16" s="142"/>
+      <c r="V16" s="142"/>
+      <c r="W16" s="142"/>
+      <c r="X16" s="142"/>
+      <c r="Y16" s="142"/>
+      <c r="Z16" s="142"/>
+      <c r="AA16" s="142"/>
+      <c r="AB16" s="142"/>
+      <c r="AC16" s="142"/>
+      <c r="AD16" s="142"/>
+      <c r="AE16" s="142"/>
+      <c r="AF16" s="142"/>
+      <c r="AG16" s="142"/>
+      <c r="AH16" s="142"/>
+      <c r="AI16" s="142"/>
+      <c r="AJ16" s="142"/>
+      <c r="AK16" s="142"/>
+      <c r="AL16" s="142"/>
+      <c r="AM16" s="142"/>
+      <c r="AN16" s="142"/>
+      <c r="AO16" s="142"/>
+      <c r="AP16" s="142"/>
+      <c r="AQ16" s="142"/>
+      <c r="AR16" s="143"/>
       <c r="AS16" s="9"/>
       <c r="AT16" s="9"/>
       <c r="AU16" s="9"/>
@@ -4582,42 +5453,42 @@
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="138"/>
-      <c r="J17" s="139"/>
-      <c r="K17" s="139"/>
-      <c r="L17" s="139"/>
-      <c r="M17" s="139"/>
-      <c r="N17" s="139"/>
-      <c r="O17" s="139"/>
-      <c r="P17" s="139"/>
-      <c r="Q17" s="139"/>
-      <c r="R17" s="139"/>
-      <c r="S17" s="139"/>
-      <c r="T17" s="139"/>
-      <c r="U17" s="139"/>
-      <c r="V17" s="139"/>
-      <c r="W17" s="139"/>
-      <c r="X17" s="139"/>
-      <c r="Y17" s="139"/>
-      <c r="Z17" s="139"/>
-      <c r="AA17" s="139"/>
-      <c r="AB17" s="139"/>
-      <c r="AC17" s="139"/>
-      <c r="AD17" s="139"/>
-      <c r="AE17" s="139"/>
-      <c r="AF17" s="139"/>
-      <c r="AG17" s="139"/>
-      <c r="AH17" s="139"/>
-      <c r="AI17" s="139"/>
-      <c r="AJ17" s="139"/>
-      <c r="AK17" s="139"/>
-      <c r="AL17" s="139"/>
-      <c r="AM17" s="139"/>
-      <c r="AN17" s="139"/>
-      <c r="AO17" s="139"/>
-      <c r="AP17" s="139"/>
-      <c r="AQ17" s="139"/>
-      <c r="AR17" s="140"/>
+      <c r="I17" s="141"/>
+      <c r="J17" s="142"/>
+      <c r="K17" s="142"/>
+      <c r="L17" s="142"/>
+      <c r="M17" s="142"/>
+      <c r="N17" s="142"/>
+      <c r="O17" s="142"/>
+      <c r="P17" s="142"/>
+      <c r="Q17" s="142"/>
+      <c r="R17" s="142"/>
+      <c r="S17" s="142"/>
+      <c r="T17" s="142"/>
+      <c r="U17" s="142"/>
+      <c r="V17" s="142"/>
+      <c r="W17" s="142"/>
+      <c r="X17" s="142"/>
+      <c r="Y17" s="142"/>
+      <c r="Z17" s="142"/>
+      <c r="AA17" s="142"/>
+      <c r="AB17" s="142"/>
+      <c r="AC17" s="142"/>
+      <c r="AD17" s="142"/>
+      <c r="AE17" s="142"/>
+      <c r="AF17" s="142"/>
+      <c r="AG17" s="142"/>
+      <c r="AH17" s="142"/>
+      <c r="AI17" s="142"/>
+      <c r="AJ17" s="142"/>
+      <c r="AK17" s="142"/>
+      <c r="AL17" s="142"/>
+      <c r="AM17" s="142"/>
+      <c r="AN17" s="142"/>
+      <c r="AO17" s="142"/>
+      <c r="AP17" s="142"/>
+      <c r="AQ17" s="142"/>
+      <c r="AR17" s="143"/>
       <c r="AS17" s="9"/>
       <c r="AT17" s="9"/>
       <c r="AU17" s="9"/>
@@ -4636,42 +5507,42 @@
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
-      <c r="I18" s="138"/>
-      <c r="J18" s="139"/>
-      <c r="K18" s="139"/>
-      <c r="L18" s="139"/>
-      <c r="M18" s="139"/>
-      <c r="N18" s="139"/>
-      <c r="O18" s="139"/>
-      <c r="P18" s="139"/>
-      <c r="Q18" s="139"/>
-      <c r="R18" s="139"/>
-      <c r="S18" s="139"/>
-      <c r="T18" s="139"/>
-      <c r="U18" s="139"/>
-      <c r="V18" s="139"/>
-      <c r="W18" s="139"/>
-      <c r="X18" s="139"/>
-      <c r="Y18" s="139"/>
-      <c r="Z18" s="139"/>
-      <c r="AA18" s="139"/>
-      <c r="AB18" s="139"/>
-      <c r="AC18" s="139"/>
-      <c r="AD18" s="139"/>
-      <c r="AE18" s="139"/>
-      <c r="AF18" s="139"/>
-      <c r="AG18" s="139"/>
-      <c r="AH18" s="139"/>
-      <c r="AI18" s="139"/>
-      <c r="AJ18" s="139"/>
-      <c r="AK18" s="139"/>
-      <c r="AL18" s="139"/>
-      <c r="AM18" s="139"/>
-      <c r="AN18" s="139"/>
-      <c r="AO18" s="139"/>
-      <c r="AP18" s="139"/>
-      <c r="AQ18" s="139"/>
-      <c r="AR18" s="140"/>
+      <c r="I18" s="141"/>
+      <c r="J18" s="142"/>
+      <c r="K18" s="142"/>
+      <c r="L18" s="142"/>
+      <c r="M18" s="142"/>
+      <c r="N18" s="142"/>
+      <c r="O18" s="142"/>
+      <c r="P18" s="142"/>
+      <c r="Q18" s="142"/>
+      <c r="R18" s="142"/>
+      <c r="S18" s="142"/>
+      <c r="T18" s="142"/>
+      <c r="U18" s="142"/>
+      <c r="V18" s="142"/>
+      <c r="W18" s="142"/>
+      <c r="X18" s="142"/>
+      <c r="Y18" s="142"/>
+      <c r="Z18" s="142"/>
+      <c r="AA18" s="142"/>
+      <c r="AB18" s="142"/>
+      <c r="AC18" s="142"/>
+      <c r="AD18" s="142"/>
+      <c r="AE18" s="142"/>
+      <c r="AF18" s="142"/>
+      <c r="AG18" s="142"/>
+      <c r="AH18" s="142"/>
+      <c r="AI18" s="142"/>
+      <c r="AJ18" s="142"/>
+      <c r="AK18" s="142"/>
+      <c r="AL18" s="142"/>
+      <c r="AM18" s="142"/>
+      <c r="AN18" s="142"/>
+      <c r="AO18" s="142"/>
+      <c r="AP18" s="142"/>
+      <c r="AQ18" s="142"/>
+      <c r="AR18" s="143"/>
       <c r="AS18" s="9"/>
       <c r="AT18" s="9"/>
       <c r="AU18" s="9"/>
@@ -4690,42 +5561,42 @@
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
-      <c r="I19" s="138"/>
-      <c r="J19" s="139"/>
-      <c r="K19" s="139"/>
-      <c r="L19" s="139"/>
-      <c r="M19" s="139"/>
-      <c r="N19" s="139"/>
-      <c r="O19" s="139"/>
-      <c r="P19" s="139"/>
-      <c r="Q19" s="139"/>
-      <c r="R19" s="139"/>
-      <c r="S19" s="139"/>
-      <c r="T19" s="139"/>
-      <c r="U19" s="139"/>
-      <c r="V19" s="139"/>
-      <c r="W19" s="139"/>
-      <c r="X19" s="139"/>
-      <c r="Y19" s="139"/>
-      <c r="Z19" s="139"/>
-      <c r="AA19" s="139"/>
-      <c r="AB19" s="139"/>
-      <c r="AC19" s="139"/>
-      <c r="AD19" s="139"/>
-      <c r="AE19" s="139"/>
-      <c r="AF19" s="139"/>
-      <c r="AG19" s="139"/>
-      <c r="AH19" s="139"/>
-      <c r="AI19" s="139"/>
-      <c r="AJ19" s="139"/>
-      <c r="AK19" s="139"/>
-      <c r="AL19" s="139"/>
-      <c r="AM19" s="139"/>
-      <c r="AN19" s="139"/>
-      <c r="AO19" s="139"/>
-      <c r="AP19" s="139"/>
-      <c r="AQ19" s="139"/>
-      <c r="AR19" s="140"/>
+      <c r="I19" s="141"/>
+      <c r="J19" s="142"/>
+      <c r="K19" s="142"/>
+      <c r="L19" s="142"/>
+      <c r="M19" s="142"/>
+      <c r="N19" s="142"/>
+      <c r="O19" s="142"/>
+      <c r="P19" s="142"/>
+      <c r="Q19" s="142"/>
+      <c r="R19" s="142"/>
+      <c r="S19" s="142"/>
+      <c r="T19" s="142"/>
+      <c r="U19" s="142"/>
+      <c r="V19" s="142"/>
+      <c r="W19" s="142"/>
+      <c r="X19" s="142"/>
+      <c r="Y19" s="142"/>
+      <c r="Z19" s="142"/>
+      <c r="AA19" s="142"/>
+      <c r="AB19" s="142"/>
+      <c r="AC19" s="142"/>
+      <c r="AD19" s="142"/>
+      <c r="AE19" s="142"/>
+      <c r="AF19" s="142"/>
+      <c r="AG19" s="142"/>
+      <c r="AH19" s="142"/>
+      <c r="AI19" s="142"/>
+      <c r="AJ19" s="142"/>
+      <c r="AK19" s="142"/>
+      <c r="AL19" s="142"/>
+      <c r="AM19" s="142"/>
+      <c r="AN19" s="142"/>
+      <c r="AO19" s="142"/>
+      <c r="AP19" s="142"/>
+      <c r="AQ19" s="142"/>
+      <c r="AR19" s="143"/>
       <c r="AS19" s="9"/>
       <c r="AT19" s="9"/>
       <c r="AU19" s="9"/>
@@ -4744,42 +5615,42 @@
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="138"/>
-      <c r="J20" s="139"/>
-      <c r="K20" s="139"/>
-      <c r="L20" s="139"/>
-      <c r="M20" s="139"/>
-      <c r="N20" s="139"/>
-      <c r="O20" s="139"/>
-      <c r="P20" s="139"/>
-      <c r="Q20" s="139"/>
-      <c r="R20" s="139"/>
-      <c r="S20" s="139"/>
-      <c r="T20" s="139"/>
-      <c r="U20" s="139"/>
-      <c r="V20" s="139"/>
-      <c r="W20" s="139"/>
-      <c r="X20" s="139"/>
-      <c r="Y20" s="139"/>
-      <c r="Z20" s="139"/>
-      <c r="AA20" s="139"/>
-      <c r="AB20" s="139"/>
-      <c r="AC20" s="139"/>
-      <c r="AD20" s="139"/>
-      <c r="AE20" s="139"/>
-      <c r="AF20" s="139"/>
-      <c r="AG20" s="139"/>
-      <c r="AH20" s="139"/>
-      <c r="AI20" s="139"/>
-      <c r="AJ20" s="139"/>
-      <c r="AK20" s="139"/>
-      <c r="AL20" s="139"/>
-      <c r="AM20" s="139"/>
-      <c r="AN20" s="139"/>
-      <c r="AO20" s="139"/>
-      <c r="AP20" s="139"/>
-      <c r="AQ20" s="139"/>
-      <c r="AR20" s="140"/>
+      <c r="I20" s="141"/>
+      <c r="J20" s="142"/>
+      <c r="K20" s="142"/>
+      <c r="L20" s="142"/>
+      <c r="M20" s="142"/>
+      <c r="N20" s="142"/>
+      <c r="O20" s="142"/>
+      <c r="P20" s="142"/>
+      <c r="Q20" s="142"/>
+      <c r="R20" s="142"/>
+      <c r="S20" s="142"/>
+      <c r="T20" s="142"/>
+      <c r="U20" s="142"/>
+      <c r="V20" s="142"/>
+      <c r="W20" s="142"/>
+      <c r="X20" s="142"/>
+      <c r="Y20" s="142"/>
+      <c r="Z20" s="142"/>
+      <c r="AA20" s="142"/>
+      <c r="AB20" s="142"/>
+      <c r="AC20" s="142"/>
+      <c r="AD20" s="142"/>
+      <c r="AE20" s="142"/>
+      <c r="AF20" s="142"/>
+      <c r="AG20" s="142"/>
+      <c r="AH20" s="142"/>
+      <c r="AI20" s="142"/>
+      <c r="AJ20" s="142"/>
+      <c r="AK20" s="142"/>
+      <c r="AL20" s="142"/>
+      <c r="AM20" s="142"/>
+      <c r="AN20" s="142"/>
+      <c r="AO20" s="142"/>
+      <c r="AP20" s="142"/>
+      <c r="AQ20" s="142"/>
+      <c r="AR20" s="143"/>
       <c r="AS20" s="9"/>
       <c r="AT20" s="9"/>
       <c r="AU20" s="9"/>
@@ -4798,42 +5669,42 @@
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="138"/>
-      <c r="J21" s="139"/>
-      <c r="K21" s="139"/>
-      <c r="L21" s="139"/>
-      <c r="M21" s="139"/>
-      <c r="N21" s="139"/>
-      <c r="O21" s="139"/>
-      <c r="P21" s="139"/>
-      <c r="Q21" s="139"/>
-      <c r="R21" s="139"/>
-      <c r="S21" s="139"/>
-      <c r="T21" s="139"/>
-      <c r="U21" s="139"/>
-      <c r="V21" s="139"/>
-      <c r="W21" s="139"/>
-      <c r="X21" s="139"/>
-      <c r="Y21" s="139"/>
-      <c r="Z21" s="139"/>
-      <c r="AA21" s="139"/>
-      <c r="AB21" s="139"/>
-      <c r="AC21" s="139"/>
-      <c r="AD21" s="139"/>
-      <c r="AE21" s="139"/>
-      <c r="AF21" s="139"/>
-      <c r="AG21" s="139"/>
-      <c r="AH21" s="139"/>
-      <c r="AI21" s="139"/>
-      <c r="AJ21" s="139"/>
-      <c r="AK21" s="139"/>
-      <c r="AL21" s="139"/>
-      <c r="AM21" s="139"/>
-      <c r="AN21" s="139"/>
-      <c r="AO21" s="139"/>
-      <c r="AP21" s="139"/>
-      <c r="AQ21" s="139"/>
-      <c r="AR21" s="140"/>
+      <c r="I21" s="141"/>
+      <c r="J21" s="142"/>
+      <c r="K21" s="142"/>
+      <c r="L21" s="142"/>
+      <c r="M21" s="142"/>
+      <c r="N21" s="142"/>
+      <c r="O21" s="142"/>
+      <c r="P21" s="142"/>
+      <c r="Q21" s="142"/>
+      <c r="R21" s="142"/>
+      <c r="S21" s="142"/>
+      <c r="T21" s="142"/>
+      <c r="U21" s="142"/>
+      <c r="V21" s="142"/>
+      <c r="W21" s="142"/>
+      <c r="X21" s="142"/>
+      <c r="Y21" s="142"/>
+      <c r="Z21" s="142"/>
+      <c r="AA21" s="142"/>
+      <c r="AB21" s="142"/>
+      <c r="AC21" s="142"/>
+      <c r="AD21" s="142"/>
+      <c r="AE21" s="142"/>
+      <c r="AF21" s="142"/>
+      <c r="AG21" s="142"/>
+      <c r="AH21" s="142"/>
+      <c r="AI21" s="142"/>
+      <c r="AJ21" s="142"/>
+      <c r="AK21" s="142"/>
+      <c r="AL21" s="142"/>
+      <c r="AM21" s="142"/>
+      <c r="AN21" s="142"/>
+      <c r="AO21" s="142"/>
+      <c r="AP21" s="142"/>
+      <c r="AQ21" s="142"/>
+      <c r="AR21" s="143"/>
       <c r="AS21" s="6"/>
       <c r="AT21" s="6"/>
       <c r="AU21" s="6"/>
@@ -4852,42 +5723,42 @@
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="141"/>
-      <c r="J22" s="142"/>
-      <c r="K22" s="142"/>
-      <c r="L22" s="142"/>
-      <c r="M22" s="142"/>
-      <c r="N22" s="142"/>
-      <c r="O22" s="142"/>
-      <c r="P22" s="142"/>
-      <c r="Q22" s="142"/>
-      <c r="R22" s="142"/>
-      <c r="S22" s="142"/>
-      <c r="T22" s="142"/>
-      <c r="U22" s="142"/>
-      <c r="V22" s="142"/>
-      <c r="W22" s="142"/>
-      <c r="X22" s="142"/>
-      <c r="Y22" s="142"/>
-      <c r="Z22" s="142"/>
-      <c r="AA22" s="142"/>
-      <c r="AB22" s="142"/>
-      <c r="AC22" s="142"/>
-      <c r="AD22" s="142"/>
-      <c r="AE22" s="142"/>
-      <c r="AF22" s="142"/>
-      <c r="AG22" s="142"/>
-      <c r="AH22" s="142"/>
-      <c r="AI22" s="142"/>
-      <c r="AJ22" s="142"/>
-      <c r="AK22" s="142"/>
-      <c r="AL22" s="142"/>
-      <c r="AM22" s="142"/>
-      <c r="AN22" s="142"/>
-      <c r="AO22" s="142"/>
-      <c r="AP22" s="142"/>
-      <c r="AQ22" s="142"/>
-      <c r="AR22" s="143"/>
+      <c r="I22" s="144"/>
+      <c r="J22" s="145"/>
+      <c r="K22" s="145"/>
+      <c r="L22" s="145"/>
+      <c r="M22" s="145"/>
+      <c r="N22" s="145"/>
+      <c r="O22" s="145"/>
+      <c r="P22" s="145"/>
+      <c r="Q22" s="145"/>
+      <c r="R22" s="145"/>
+      <c r="S22" s="145"/>
+      <c r="T22" s="145"/>
+      <c r="U22" s="145"/>
+      <c r="V22" s="145"/>
+      <c r="W22" s="145"/>
+      <c r="X22" s="145"/>
+      <c r="Y22" s="145"/>
+      <c r="Z22" s="145"/>
+      <c r="AA22" s="145"/>
+      <c r="AB22" s="145"/>
+      <c r="AC22" s="145"/>
+      <c r="AD22" s="145"/>
+      <c r="AE22" s="145"/>
+      <c r="AF22" s="145"/>
+      <c r="AG22" s="145"/>
+      <c r="AH22" s="145"/>
+      <c r="AI22" s="145"/>
+      <c r="AJ22" s="145"/>
+      <c r="AK22" s="145"/>
+      <c r="AL22" s="145"/>
+      <c r="AM22" s="145"/>
+      <c r="AN22" s="145"/>
+      <c r="AO22" s="145"/>
+      <c r="AP22" s="145"/>
+      <c r="AQ22" s="145"/>
+      <c r="AR22" s="146"/>
       <c r="AS22" s="6"/>
       <c r="AT22" s="6"/>
       <c r="AU22" s="6"/>
@@ -5895,28 +6766,28 @@
       <c r="AC41" s="6"/>
       <c r="AD41" s="6"/>
       <c r="AE41" s="6"/>
-      <c r="AF41" s="132" t="s">
+      <c r="AF41" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="AG41" s="132"/>
-      <c r="AH41" s="132"/>
-      <c r="AI41" s="132"/>
-      <c r="AJ41" s="132"/>
-      <c r="AK41" s="132"/>
-      <c r="AL41" s="133"/>
-      <c r="AM41" s="133"/>
-      <c r="AN41" s="133"/>
-      <c r="AO41" s="133"/>
-      <c r="AP41" s="133"/>
-      <c r="AQ41" s="133"/>
-      <c r="AR41" s="133"/>
-      <c r="AS41" s="133"/>
-      <c r="AT41" s="133"/>
-      <c r="AU41" s="133"/>
-      <c r="AV41" s="133"/>
-      <c r="AW41" s="133"/>
-      <c r="AX41" s="133"/>
-      <c r="AY41" s="133"/>
+      <c r="AG41" s="135"/>
+      <c r="AH41" s="135"/>
+      <c r="AI41" s="135"/>
+      <c r="AJ41" s="135"/>
+      <c r="AK41" s="135"/>
+      <c r="AL41" s="136"/>
+      <c r="AM41" s="136"/>
+      <c r="AN41" s="136"/>
+      <c r="AO41" s="136"/>
+      <c r="AP41" s="136"/>
+      <c r="AQ41" s="136"/>
+      <c r="AR41" s="136"/>
+      <c r="AS41" s="136"/>
+      <c r="AT41" s="136"/>
+      <c r="AU41" s="136"/>
+      <c r="AV41" s="136"/>
+      <c r="AW41" s="136"/>
+      <c r="AX41" s="136"/>
+      <c r="AY41" s="136"/>
       <c r="AZ41" s="7"/>
     </row>
     <row r="42" spans="1:52" ht="14.25" customHeight="1">
@@ -5951,26 +6822,26 @@
       <c r="AC42" s="6"/>
       <c r="AD42" s="6"/>
       <c r="AE42" s="6"/>
-      <c r="AF42" s="132"/>
-      <c r="AG42" s="132"/>
-      <c r="AH42" s="132"/>
-      <c r="AI42" s="132"/>
-      <c r="AJ42" s="132"/>
-      <c r="AK42" s="132"/>
-      <c r="AL42" s="133"/>
-      <c r="AM42" s="133"/>
-      <c r="AN42" s="133"/>
-      <c r="AO42" s="133"/>
-      <c r="AP42" s="133"/>
-      <c r="AQ42" s="133"/>
-      <c r="AR42" s="133"/>
-      <c r="AS42" s="133"/>
-      <c r="AT42" s="133"/>
-      <c r="AU42" s="133"/>
-      <c r="AV42" s="133"/>
-      <c r="AW42" s="133"/>
-      <c r="AX42" s="133"/>
-      <c r="AY42" s="133"/>
+      <c r="AF42" s="135"/>
+      <c r="AG42" s="135"/>
+      <c r="AH42" s="135"/>
+      <c r="AI42" s="135"/>
+      <c r="AJ42" s="135"/>
+      <c r="AK42" s="135"/>
+      <c r="AL42" s="136"/>
+      <c r="AM42" s="136"/>
+      <c r="AN42" s="136"/>
+      <c r="AO42" s="136"/>
+      <c r="AP42" s="136"/>
+      <c r="AQ42" s="136"/>
+      <c r="AR42" s="136"/>
+      <c r="AS42" s="136"/>
+      <c r="AT42" s="136"/>
+      <c r="AU42" s="136"/>
+      <c r="AV42" s="136"/>
+      <c r="AW42" s="136"/>
+      <c r="AX42" s="136"/>
+      <c r="AY42" s="136"/>
       <c r="AZ42" s="7"/>
     </row>
     <row r="43" spans="1:52" ht="10.5" customHeight="1">
@@ -6005,28 +6876,28 @@
       <c r="AC43" s="6"/>
       <c r="AD43" s="6"/>
       <c r="AE43" s="6"/>
-      <c r="AF43" s="132" t="s">
+      <c r="AF43" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="AG43" s="132"/>
-      <c r="AH43" s="132"/>
-      <c r="AI43" s="132"/>
-      <c r="AJ43" s="132"/>
-      <c r="AK43" s="132"/>
-      <c r="AL43" s="133"/>
-      <c r="AM43" s="133"/>
-      <c r="AN43" s="133"/>
-      <c r="AO43" s="133"/>
-      <c r="AP43" s="133"/>
-      <c r="AQ43" s="133"/>
-      <c r="AR43" s="133"/>
-      <c r="AS43" s="133"/>
-      <c r="AT43" s="133"/>
-      <c r="AU43" s="133"/>
-      <c r="AV43" s="133"/>
-      <c r="AW43" s="133"/>
-      <c r="AX43" s="133"/>
-      <c r="AY43" s="133"/>
+      <c r="AG43" s="135"/>
+      <c r="AH43" s="135"/>
+      <c r="AI43" s="135"/>
+      <c r="AJ43" s="135"/>
+      <c r="AK43" s="135"/>
+      <c r="AL43" s="136"/>
+      <c r="AM43" s="136"/>
+      <c r="AN43" s="136"/>
+      <c r="AO43" s="136"/>
+      <c r="AP43" s="136"/>
+      <c r="AQ43" s="136"/>
+      <c r="AR43" s="136"/>
+      <c r="AS43" s="136"/>
+      <c r="AT43" s="136"/>
+      <c r="AU43" s="136"/>
+      <c r="AV43" s="136"/>
+      <c r="AW43" s="136"/>
+      <c r="AX43" s="136"/>
+      <c r="AY43" s="136"/>
       <c r="AZ43" s="7"/>
     </row>
     <row r="44" spans="1:52" ht="10.5" customHeight="1">
@@ -6061,26 +6932,26 @@
       <c r="AC44" s="6"/>
       <c r="AD44" s="6"/>
       <c r="AE44" s="6"/>
-      <c r="AF44" s="132"/>
-      <c r="AG44" s="132"/>
-      <c r="AH44" s="132"/>
-      <c r="AI44" s="132"/>
-      <c r="AJ44" s="132"/>
-      <c r="AK44" s="132"/>
-      <c r="AL44" s="133"/>
-      <c r="AM44" s="133"/>
-      <c r="AN44" s="133"/>
-      <c r="AO44" s="133"/>
-      <c r="AP44" s="133"/>
-      <c r="AQ44" s="133"/>
-      <c r="AR44" s="133"/>
-      <c r="AS44" s="133"/>
-      <c r="AT44" s="133"/>
-      <c r="AU44" s="133"/>
-      <c r="AV44" s="133"/>
-      <c r="AW44" s="133"/>
-      <c r="AX44" s="133"/>
-      <c r="AY44" s="133"/>
+      <c r="AF44" s="135"/>
+      <c r="AG44" s="135"/>
+      <c r="AH44" s="135"/>
+      <c r="AI44" s="135"/>
+      <c r="AJ44" s="135"/>
+      <c r="AK44" s="135"/>
+      <c r="AL44" s="136"/>
+      <c r="AM44" s="136"/>
+      <c r="AN44" s="136"/>
+      <c r="AO44" s="136"/>
+      <c r="AP44" s="136"/>
+      <c r="AQ44" s="136"/>
+      <c r="AR44" s="136"/>
+      <c r="AS44" s="136"/>
+      <c r="AT44" s="136"/>
+      <c r="AU44" s="136"/>
+      <c r="AV44" s="136"/>
+      <c r="AW44" s="136"/>
+      <c r="AX44" s="136"/>
+      <c r="AY44" s="136"/>
       <c r="AZ44" s="7"/>
     </row>
     <row r="45" spans="1:52" ht="10.5" customHeight="1">
@@ -6115,28 +6986,28 @@
       <c r="AC45" s="6"/>
       <c r="AD45" s="6"/>
       <c r="AE45" s="6"/>
-      <c r="AF45" s="132" t="s">
+      <c r="AF45" s="135" t="s">
         <v>29</v>
       </c>
-      <c r="AG45" s="132"/>
-      <c r="AH45" s="132"/>
-      <c r="AI45" s="132"/>
-      <c r="AJ45" s="132"/>
-      <c r="AK45" s="132"/>
-      <c r="AL45" s="133"/>
-      <c r="AM45" s="133"/>
-      <c r="AN45" s="133"/>
-      <c r="AO45" s="133"/>
-      <c r="AP45" s="133"/>
-      <c r="AQ45" s="133"/>
-      <c r="AR45" s="133"/>
-      <c r="AS45" s="133"/>
-      <c r="AT45" s="133"/>
-      <c r="AU45" s="133"/>
-      <c r="AV45" s="133"/>
-      <c r="AW45" s="133"/>
-      <c r="AX45" s="133"/>
-      <c r="AY45" s="133"/>
+      <c r="AG45" s="135"/>
+      <c r="AH45" s="135"/>
+      <c r="AI45" s="135"/>
+      <c r="AJ45" s="135"/>
+      <c r="AK45" s="135"/>
+      <c r="AL45" s="136"/>
+      <c r="AM45" s="136"/>
+      <c r="AN45" s="136"/>
+      <c r="AO45" s="136"/>
+      <c r="AP45" s="136"/>
+      <c r="AQ45" s="136"/>
+      <c r="AR45" s="136"/>
+      <c r="AS45" s="136"/>
+      <c r="AT45" s="136"/>
+      <c r="AU45" s="136"/>
+      <c r="AV45" s="136"/>
+      <c r="AW45" s="136"/>
+      <c r="AX45" s="136"/>
+      <c r="AY45" s="136"/>
       <c r="AZ45" s="7"/>
     </row>
     <row r="46" spans="1:52" ht="10.5" customHeight="1">
@@ -6171,26 +7042,26 @@
       <c r="AC46" s="6"/>
       <c r="AD46" s="6"/>
       <c r="AE46" s="6"/>
-      <c r="AF46" s="132"/>
-      <c r="AG46" s="132"/>
-      <c r="AH46" s="132"/>
-      <c r="AI46" s="132"/>
-      <c r="AJ46" s="132"/>
-      <c r="AK46" s="132"/>
-      <c r="AL46" s="133"/>
-      <c r="AM46" s="133"/>
-      <c r="AN46" s="133"/>
-      <c r="AO46" s="133"/>
-      <c r="AP46" s="133"/>
-      <c r="AQ46" s="133"/>
-      <c r="AR46" s="133"/>
-      <c r="AS46" s="133"/>
-      <c r="AT46" s="133"/>
-      <c r="AU46" s="133"/>
-      <c r="AV46" s="133"/>
-      <c r="AW46" s="133"/>
-      <c r="AX46" s="133"/>
-      <c r="AY46" s="133"/>
+      <c r="AF46" s="135"/>
+      <c r="AG46" s="135"/>
+      <c r="AH46" s="135"/>
+      <c r="AI46" s="135"/>
+      <c r="AJ46" s="135"/>
+      <c r="AK46" s="135"/>
+      <c r="AL46" s="136"/>
+      <c r="AM46" s="136"/>
+      <c r="AN46" s="136"/>
+      <c r="AO46" s="136"/>
+      <c r="AP46" s="136"/>
+      <c r="AQ46" s="136"/>
+      <c r="AR46" s="136"/>
+      <c r="AS46" s="136"/>
+      <c r="AT46" s="136"/>
+      <c r="AU46" s="136"/>
+      <c r="AV46" s="136"/>
+      <c r="AW46" s="136"/>
+      <c r="AX46" s="136"/>
+      <c r="AY46" s="136"/>
       <c r="AZ46" s="7"/>
     </row>
     <row r="47" spans="1:52" ht="14.25" customHeight="1">
@@ -6225,28 +7096,28 @@
       <c r="AC47" s="6"/>
       <c r="AD47" s="6"/>
       <c r="AE47" s="6"/>
-      <c r="AF47" s="132" t="s">
+      <c r="AF47" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="AG47" s="132"/>
-      <c r="AH47" s="132"/>
-      <c r="AI47" s="132"/>
-      <c r="AJ47" s="132"/>
-      <c r="AK47" s="132"/>
-      <c r="AL47" s="134"/>
-      <c r="AM47" s="134"/>
-      <c r="AN47" s="134"/>
-      <c r="AO47" s="134"/>
-      <c r="AP47" s="134"/>
-      <c r="AQ47" s="134"/>
-      <c r="AR47" s="134"/>
-      <c r="AS47" s="134"/>
-      <c r="AT47" s="134"/>
-      <c r="AU47" s="134"/>
-      <c r="AV47" s="134"/>
-      <c r="AW47" s="134"/>
-      <c r="AX47" s="134"/>
-      <c r="AY47" s="134"/>
+      <c r="AG47" s="135"/>
+      <c r="AH47" s="135"/>
+      <c r="AI47" s="135"/>
+      <c r="AJ47" s="135"/>
+      <c r="AK47" s="135"/>
+      <c r="AL47" s="137"/>
+      <c r="AM47" s="137"/>
+      <c r="AN47" s="137"/>
+      <c r="AO47" s="137"/>
+      <c r="AP47" s="137"/>
+      <c r="AQ47" s="137"/>
+      <c r="AR47" s="137"/>
+      <c r="AS47" s="137"/>
+      <c r="AT47" s="137"/>
+      <c r="AU47" s="137"/>
+      <c r="AV47" s="137"/>
+      <c r="AW47" s="137"/>
+      <c r="AX47" s="137"/>
+      <c r="AY47" s="137"/>
       <c r="AZ47" s="7"/>
     </row>
     <row r="48" spans="1:52" ht="14.25" customHeight="1">
@@ -6281,26 +7152,26 @@
       <c r="AC48" s="6"/>
       <c r="AD48" s="6"/>
       <c r="AE48" s="6"/>
-      <c r="AF48" s="132"/>
-      <c r="AG48" s="132"/>
-      <c r="AH48" s="132"/>
-      <c r="AI48" s="132"/>
-      <c r="AJ48" s="132"/>
-      <c r="AK48" s="132"/>
-      <c r="AL48" s="134"/>
-      <c r="AM48" s="134"/>
-      <c r="AN48" s="134"/>
-      <c r="AO48" s="134"/>
-      <c r="AP48" s="134"/>
-      <c r="AQ48" s="134"/>
-      <c r="AR48" s="134"/>
-      <c r="AS48" s="134"/>
-      <c r="AT48" s="134"/>
-      <c r="AU48" s="134"/>
-      <c r="AV48" s="134"/>
-      <c r="AW48" s="134"/>
-      <c r="AX48" s="134"/>
-      <c r="AY48" s="134"/>
+      <c r="AF48" s="135"/>
+      <c r="AG48" s="135"/>
+      <c r="AH48" s="135"/>
+      <c r="AI48" s="135"/>
+      <c r="AJ48" s="135"/>
+      <c r="AK48" s="135"/>
+      <c r="AL48" s="137"/>
+      <c r="AM48" s="137"/>
+      <c r="AN48" s="137"/>
+      <c r="AO48" s="137"/>
+      <c r="AP48" s="137"/>
+      <c r="AQ48" s="137"/>
+      <c r="AR48" s="137"/>
+      <c r="AS48" s="137"/>
+      <c r="AT48" s="137"/>
+      <c r="AU48" s="137"/>
+      <c r="AV48" s="137"/>
+      <c r="AW48" s="137"/>
+      <c r="AX48" s="137"/>
+      <c r="AY48" s="137"/>
       <c r="AZ48" s="7"/>
     </row>
     <row r="49" spans="1:52" ht="14.25" customHeight="1">
@@ -6335,28 +7206,28 @@
       <c r="AC49" s="6"/>
       <c r="AD49" s="6"/>
       <c r="AE49" s="6"/>
-      <c r="AF49" s="132" t="s">
+      <c r="AF49" s="135" t="s">
         <v>31</v>
       </c>
-      <c r="AG49" s="132"/>
-      <c r="AH49" s="132"/>
-      <c r="AI49" s="132"/>
-      <c r="AJ49" s="132"/>
-      <c r="AK49" s="132"/>
-      <c r="AL49" s="133"/>
-      <c r="AM49" s="133"/>
-      <c r="AN49" s="133"/>
-      <c r="AO49" s="133"/>
-      <c r="AP49" s="133"/>
-      <c r="AQ49" s="133"/>
-      <c r="AR49" s="133"/>
-      <c r="AS49" s="133"/>
-      <c r="AT49" s="133"/>
-      <c r="AU49" s="133"/>
-      <c r="AV49" s="133"/>
-      <c r="AW49" s="133"/>
-      <c r="AX49" s="133"/>
-      <c r="AY49" s="133"/>
+      <c r="AG49" s="135"/>
+      <c r="AH49" s="135"/>
+      <c r="AI49" s="135"/>
+      <c r="AJ49" s="135"/>
+      <c r="AK49" s="135"/>
+      <c r="AL49" s="136"/>
+      <c r="AM49" s="136"/>
+      <c r="AN49" s="136"/>
+      <c r="AO49" s="136"/>
+      <c r="AP49" s="136"/>
+      <c r="AQ49" s="136"/>
+      <c r="AR49" s="136"/>
+      <c r="AS49" s="136"/>
+      <c r="AT49" s="136"/>
+      <c r="AU49" s="136"/>
+      <c r="AV49" s="136"/>
+      <c r="AW49" s="136"/>
+      <c r="AX49" s="136"/>
+      <c r="AY49" s="136"/>
       <c r="AZ49" s="7"/>
     </row>
     <row r="50" spans="1:52" ht="14.25" customHeight="1">
@@ -6391,26 +7262,26 @@
       <c r="AC50" s="6"/>
       <c r="AD50" s="6"/>
       <c r="AE50" s="6"/>
-      <c r="AF50" s="132"/>
-      <c r="AG50" s="132"/>
-      <c r="AH50" s="132"/>
-      <c r="AI50" s="132"/>
-      <c r="AJ50" s="132"/>
-      <c r="AK50" s="132"/>
-      <c r="AL50" s="133"/>
-      <c r="AM50" s="133"/>
-      <c r="AN50" s="133"/>
-      <c r="AO50" s="133"/>
-      <c r="AP50" s="133"/>
-      <c r="AQ50" s="133"/>
-      <c r="AR50" s="133"/>
-      <c r="AS50" s="133"/>
-      <c r="AT50" s="133"/>
-      <c r="AU50" s="133"/>
-      <c r="AV50" s="133"/>
-      <c r="AW50" s="133"/>
-      <c r="AX50" s="133"/>
-      <c r="AY50" s="133"/>
+      <c r="AF50" s="135"/>
+      <c r="AG50" s="135"/>
+      <c r="AH50" s="135"/>
+      <c r="AI50" s="135"/>
+      <c r="AJ50" s="135"/>
+      <c r="AK50" s="135"/>
+      <c r="AL50" s="136"/>
+      <c r="AM50" s="136"/>
+      <c r="AN50" s="136"/>
+      <c r="AO50" s="136"/>
+      <c r="AP50" s="136"/>
+      <c r="AQ50" s="136"/>
+      <c r="AR50" s="136"/>
+      <c r="AS50" s="136"/>
+      <c r="AT50" s="136"/>
+      <c r="AU50" s="136"/>
+      <c r="AV50" s="136"/>
+      <c r="AW50" s="136"/>
+      <c r="AX50" s="136"/>
+      <c r="AY50" s="136"/>
       <c r="AZ50" s="7"/>
     </row>
     <row r="51" spans="1:52">
@@ -6549,10 +7420,10 @@
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:X13"/>
+  <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5"/>
@@ -6581,19 +7452,19 @@
         <v>47</v>
       </c>
       <c r="D1" s="114" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="15" customFormat="1">
       <c r="A2" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="153" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="151"/>
+      <c r="C2" s="154"/>
       <c r="D2" s="62" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E2" s="63"/>
       <c r="F2" s="63"/>
@@ -6605,44 +7476,44 @@
       <c r="A3" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="148" t="s">
+      <c r="B3" s="151" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="149"/>
+      <c r="C3" s="152"/>
       <c r="D3" s="64" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E3" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="146" t="s">
+      <c r="F3" s="149" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="147"/>
+      <c r="G3" s="150"/>
     </row>
     <row r="4" spans="1:24" s="15" customFormat="1" ht="18.75">
       <c r="A4" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="148" t="s">
+      <c r="B4" s="151" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="149"/>
+      <c r="C4" s="152"/>
       <c r="D4" s="91" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E4" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="144">
+      <c r="F4" s="147">
         <v>45448</v>
       </c>
-      <c r="G4" s="145"/>
+      <c r="G4" s="148"/>
     </row>
     <row r="5" spans="1:24" ht="8.25" customHeight="1"/>
     <row r="6" spans="1:24">
       <c r="L6" s="79" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M6" s="80"/>
       <c r="N6" s="80"/>
@@ -6684,37 +7555,37 @@
         <v>2</v>
       </c>
       <c r="I7" s="78" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J7" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="K7" s="78" t="s">
+        <v>183</v>
+      </c>
+      <c r="L7" s="89" t="s">
+        <v>195</v>
+      </c>
+      <c r="M7" s="89" t="s">
         <v>196</v>
       </c>
-      <c r="K7" s="78" t="s">
-        <v>185</v>
-      </c>
-      <c r="L7" s="89" t="s">
+      <c r="N7" s="89" t="s">
         <v>197</v>
       </c>
-      <c r="M7" s="89" t="s">
+      <c r="O7" s="89" t="s">
         <v>198</v>
       </c>
-      <c r="N7" s="89" t="s">
+      <c r="P7" s="89" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q7" s="89" t="s">
         <v>199</v>
       </c>
-      <c r="O7" s="89" t="s">
+      <c r="R7" s="89" t="s">
+        <v>179</v>
+      </c>
+      <c r="S7" s="90" t="s">
         <v>200</v>
-      </c>
-      <c r="P7" s="89" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q7" s="89" t="s">
-        <v>201</v>
-      </c>
-      <c r="R7" s="89" t="s">
-        <v>181</v>
-      </c>
-      <c r="S7" s="90" t="s">
-        <v>202</v>
       </c>
       <c r="T7" s="89" t="s">
         <v>1</v>
@@ -6731,7 +7602,7 @@
         <v>73</v>
       </c>
       <c r="X7" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -6746,7 +7617,7 @@
         <v>69</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>62</v>
@@ -6766,7 +7637,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="92" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M8" s="93"/>
       <c r="N8" s="93"/>
@@ -6799,10 +7670,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>62</v>
@@ -6847,10 +7718,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="67" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D10" s="67" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E10" s="67" t="s">
         <v>62</v>
@@ -6991,7 +7862,7 @@
       <c r="B13" s="38"/>
       <c r="C13" s="39"/>
       <c r="D13" s="39" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
@@ -7019,6 +7890,58 @@
       </c>
       <c r="W13" s="40"/>
       <c r="X13" s="40"/>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="C15" s="115" t="s">
+        <v>328</v>
+      </c>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72" t="s">
+        <v>341</v>
+      </c>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="C16" s="30" t="str">
+        <f>"GRANT SELECT, INSERT, UPDATE, DELETE ON TABLE "&amp;$D$3&amp;" TO "&amp;$E15&amp;";"</f>
+        <v>GRANT SELECT, INSERT, UPDATE, DELETE ON TABLE db_version_a TO kai9tmplpg;</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7">
+      <c r="C17" s="30" t="str">
+        <f>"GRANT SELECT, INSERT, UPDATE, DELETE ON TABLE "&amp;$D$4&amp;" TO "&amp;$E15&amp;";"</f>
+        <v>GRANT SELECT, INSERT, UPDATE, DELETE ON TABLE db_version_b TO kai9tmplpg;</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="C19" s="115" t="s">
+        <v>329</v>
+      </c>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="C20" s="134" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7">
+      <c r="C22" s="115" t="s">
+        <v>330</v>
+      </c>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22" s="72"/>
+    </row>
+    <row r="23" spans="3:7">
+      <c r="C23" s="134" t="s">
+        <v>340</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7041,7 +7964,7 @@
   </sheetPr>
   <dimension ref="B2:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="T34" sqref="T34"/>
       <selection pane="bottomLeft" activeCell="T34" sqref="T34"/>
@@ -7718,56 +8641,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E577099C-5DA6-4ECF-BB1A-165961CAD88E}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A2:BG93"/>
+  <dimension ref="A2:BG168"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J183" sqref="J183"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="15.75" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="16384" width="4.625" style="76"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:59" s="15" customFormat="1" ht="18.75">
-      <c r="A2" s="46" t="s">
+    <row r="2" spans="1:59" s="15" customFormat="1" ht="18.75" collapsed="1">
+      <c r="A2" s="132" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="47"/>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="47"/>
-      <c r="AI2" s="47"/>
-      <c r="AJ2" s="47"/>
-      <c r="AK2" s="47"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="133"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="133"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="133"/>
+      <c r="T2" s="133"/>
+      <c r="U2" s="133"/>
+      <c r="V2" s="133"/>
+      <c r="W2" s="133"/>
+      <c r="X2" s="133"/>
+      <c r="Y2" s="133"/>
+      <c r="Z2" s="133"/>
+      <c r="AA2" s="133"/>
+      <c r="AB2" s="133"/>
+      <c r="AC2" s="133"/>
+      <c r="AD2" s="133"/>
+      <c r="AE2" s="133"/>
+      <c r="AF2" s="133"/>
+      <c r="AG2" s="133"/>
+      <c r="AH2" s="133"/>
+      <c r="AI2" s="133"/>
+      <c r="AJ2" s="133"/>
+      <c r="AK2" s="133"/>
       <c r="AL2" s="48"/>
       <c r="AM2" s="48"/>
       <c r="AN2" s="48"/>
@@ -7791,8 +8717,8 @@
       <c r="BF2" s="48"/>
       <c r="BG2" s="48"/>
     </row>
-    <row r="3" spans="1:59" s="15" customFormat="1" ht="18.75"/>
-    <row r="4" spans="1:59" s="15" customFormat="1" ht="18.75">
+    <row r="3" spans="1:59" s="15" customFormat="1" ht="18.75" hidden="1" outlineLevel="1"/>
+    <row r="4" spans="1:59" s="15" customFormat="1" ht="18.75" hidden="1" outlineLevel="1">
       <c r="B4" s="131" t="s">
         <v>90</v>
       </c>
@@ -7800,7 +8726,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:59" s="15" customFormat="1" ht="18.75">
+    <row r="5" spans="1:59" s="15" customFormat="1" ht="18.75" hidden="1" outlineLevel="1">
       <c r="B5" s="131" t="s">
         <v>92</v>
       </c>
@@ -7808,16 +8734,16 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:59" s="15" customFormat="1" ht="18.75"/>
-    <row r="7" spans="1:59" s="15" customFormat="1" ht="18.75">
+    <row r="6" spans="1:59" s="15" customFormat="1" ht="18.75" hidden="1" outlineLevel="1"/>
+    <row r="7" spans="1:59" s="15" customFormat="1" ht="18.75" hidden="1" outlineLevel="1">
       <c r="B7" s="131" t="s">
         <v>94</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="8" spans="1:59" s="15" customFormat="1" ht="18.75">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:59" s="15" customFormat="1" ht="18.75" hidden="1" outlineLevel="1">
       <c r="B8" s="131" t="s">
         <v>95</v>
       </c>
@@ -7825,13 +8751,13 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:59" s="15" customFormat="1" ht="18.75"/>
-    <row r="10" spans="1:59" s="15" customFormat="1" ht="18.75">
+    <row r="9" spans="1:59" s="15" customFormat="1" ht="18.75" hidden="1" outlineLevel="1"/>
+    <row r="10" spans="1:59" s="15" customFormat="1" ht="18.75" hidden="1" outlineLevel="1">
       <c r="B10" s="15" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:59" s="15" customFormat="1" ht="18.75">
+    <row r="11" spans="1:59" s="15" customFormat="1" ht="18.75" hidden="1" outlineLevel="1">
       <c r="B11" s="15" t="s">
         <v>98</v>
       </c>
@@ -7839,18 +8765,18 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:59" s="15" customFormat="1" ht="18.75">
+    <row r="12" spans="1:59" s="15" customFormat="1" ht="18.75" hidden="1" outlineLevel="1">
       <c r="B12" s="15" t="s">
         <v>98</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="13" spans="1:59" s="15" customFormat="1" ht="18.75"/>
-    <row r="14" spans="1:59" ht="18.75">
-      <c r="A14" s="46" t="s">
-        <v>326</v>
+        <v>321</v>
+      </c>
+    </row>
+    <row r="13" spans="1:59" s="15" customFormat="1" ht="18.75" hidden="1" outlineLevel="1"/>
+    <row r="14" spans="1:59" ht="18.75" collapsed="1">
+      <c r="A14" s="132" t="s">
+        <v>322</v>
       </c>
       <c r="B14" s="77"/>
       <c r="C14" s="77"/>
@@ -7871,10 +8797,28 @@
       <c r="R14" s="77"/>
       <c r="S14" s="77"/>
       <c r="T14" s="77"/>
-    </row>
-    <row r="16" spans="1:59">
+      <c r="U14" s="77"/>
+      <c r="V14" s="77"/>
+      <c r="W14" s="77"/>
+      <c r="X14" s="77"/>
+      <c r="Y14" s="77"/>
+      <c r="Z14" s="77"/>
+      <c r="AA14" s="77"/>
+      <c r="AB14" s="77"/>
+      <c r="AC14" s="77"/>
+      <c r="AD14" s="77"/>
+      <c r="AE14" s="77"/>
+      <c r="AF14" s="77"/>
+      <c r="AG14" s="77"/>
+      <c r="AH14" s="77"/>
+      <c r="AI14" s="77"/>
+      <c r="AJ14" s="77"/>
+      <c r="AK14" s="77"/>
+    </row>
+    <row r="15" spans="1:59" hidden="1" outlineLevel="1"/>
+    <row r="16" spans="1:59" hidden="1" outlineLevel="1">
       <c r="B16" s="77" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C16" s="77"/>
       <c r="D16" s="77"/>
@@ -7895,90 +8839,94 @@
       <c r="S16" s="77"/>
       <c r="T16" s="77"/>
     </row>
-    <row r="18" spans="2:13">
+    <row r="17" spans="2:13" hidden="1" outlineLevel="1"/>
+    <row r="18" spans="2:13" hidden="1" outlineLevel="1">
       <c r="B18" s="122" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" hidden="1" outlineLevel="1">
+      <c r="B19" s="76" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="76" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" hidden="1" outlineLevel="1">
+      <c r="B20" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="D20" s="76" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" hidden="1" outlineLevel="1">
+      <c r="B21" s="76" t="s">
+        <v>174</v>
+      </c>
+      <c r="D21" s="76" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" hidden="1" outlineLevel="1">
+      <c r="D22" s="76" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" hidden="1" outlineLevel="1">
+      <c r="D23" s="76" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" hidden="1" outlineLevel="1">
+      <c r="D24" s="76" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" hidden="1" outlineLevel="1">
+      <c r="D25" s="76" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" hidden="1" outlineLevel="1"/>
+    <row r="27" spans="2:13" hidden="1" outlineLevel="1">
+      <c r="B27" s="122" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" hidden="1" outlineLevel="1">
+      <c r="B28" s="76" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="76" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="19" spans="2:13">
-      <c r="B19" s="76" t="s">
-        <v>122</v>
-      </c>
-      <c r="D19" s="76" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13">
-      <c r="B20" s="76" t="s">
-        <v>123</v>
-      </c>
-      <c r="D20" s="76" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13">
-      <c r="B21" s="76" t="s">
-        <v>176</v>
-      </c>
-      <c r="D21" s="76" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13">
-      <c r="D22" s="76" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13">
-      <c r="D23" s="76" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13">
-      <c r="D24" s="76" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13">
-      <c r="D25" s="76" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13">
-      <c r="B27" s="122" t="s">
+      <c r="M28" s="76" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" hidden="1" outlineLevel="1">
+      <c r="B29" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="76" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" hidden="1" outlineLevel="1">
+      <c r="B30" s="76" t="s">
+        <v>174</v>
+      </c>
+      <c r="D30" s="76" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="28" spans="2:13">
-      <c r="B28" s="76" t="s">
-        <v>122</v>
-      </c>
-      <c r="D28" s="76" t="s">
-        <v>282</v>
-      </c>
-      <c r="M28" s="76" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13">
-      <c r="B29" s="76" t="s">
-        <v>123</v>
-      </c>
-      <c r="D29" s="76" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13">
-      <c r="B30" s="76" t="s">
-        <v>176</v>
-      </c>
-      <c r="D30" s="76" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20">
+    <row r="31" spans="2:13" hidden="1" outlineLevel="1"/>
+    <row r="32" spans="2:13" hidden="1" outlineLevel="1"/>
+    <row r="33" spans="2:20" hidden="1" outlineLevel="1">
       <c r="B33" s="77" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C33" s="77"/>
       <c r="D33" s="77"/>
@@ -7999,19 +8947,20 @@
       <c r="S33" s="77"/>
       <c r="T33" s="77"/>
     </row>
-    <row r="34" spans="2:20">
+    <row r="34" spans="2:20" hidden="1" outlineLevel="1">
       <c r="B34" s="76" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="35" spans="2:20">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" hidden="1" outlineLevel="1">
       <c r="B35" s="76" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20" hidden="1" outlineLevel="1"/>
+    <row r="37" spans="2:20" hidden="1" outlineLevel="1">
       <c r="B37" s="77" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C37" s="77"/>
       <c r="D37" s="77"/>
@@ -8032,33 +8981,44 @@
       <c r="S37" s="77"/>
       <c r="T37" s="77"/>
     </row>
-    <row r="39" spans="2:20">
+    <row r="38" spans="2:20" hidden="1" outlineLevel="1"/>
+    <row r="39" spans="2:20" hidden="1" outlineLevel="1">
       <c r="B39" s="76" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D39" s="76" t="s">
+        <v>173</v>
+      </c>
+      <c r="G39" s="76" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20" hidden="1" outlineLevel="1">
+      <c r="B40" s="76" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20" hidden="1" outlineLevel="1"/>
+    <row r="42" spans="2:20" hidden="1" outlineLevel="1"/>
+    <row r="43" spans="2:20" hidden="1" outlineLevel="1"/>
+    <row r="44" spans="2:20" hidden="1" outlineLevel="1"/>
+    <row r="45" spans="2:20" hidden="1" outlineLevel="1"/>
+    <row r="46" spans="2:20" hidden="1" outlineLevel="1"/>
+    <row r="47" spans="2:20" hidden="1" outlineLevel="1"/>
+    <row r="48" spans="2:20" hidden="1" outlineLevel="1"/>
+    <row r="49" spans="2:20" hidden="1" outlineLevel="1"/>
+    <row r="50" spans="2:20" hidden="1" outlineLevel="1">
+      <c r="B50" s="76" t="s">
+        <v>174</v>
+      </c>
+      <c r="D50" s="76" t="s">
         <v>175</v>
       </c>
-      <c r="G39" s="76" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="40" spans="2:20">
-      <c r="B40" s="76" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="50" spans="2:20">
-      <c r="B50" s="76" t="s">
-        <v>176</v>
-      </c>
-      <c r="D50" s="76" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="52" spans="2:20">
+    </row>
+    <row r="51" spans="2:20" hidden="1" outlineLevel="1"/>
+    <row r="52" spans="2:20" hidden="1" outlineLevel="1">
       <c r="B52" s="77" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C52" s="77"/>
       <c r="D52" s="77"/>
@@ -8079,19 +9039,21 @@
       <c r="S52" s="77"/>
       <c r="T52" s="77"/>
     </row>
-    <row r="53" spans="2:20">
+    <row r="53" spans="2:20" hidden="1" outlineLevel="1">
       <c r="B53" s="76" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="54" spans="2:20">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="54" spans="2:20" hidden="1" outlineLevel="1">
       <c r="B54" s="76" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="57" spans="2:20">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="55" spans="2:20" hidden="1" outlineLevel="1"/>
+    <row r="56" spans="2:20" hidden="1" outlineLevel="1"/>
+    <row r="57" spans="2:20" hidden="1" outlineLevel="1">
       <c r="B57" s="77" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C57" s="77"/>
       <c r="D57" s="77"/>
@@ -8112,157 +9074,162 @@
       <c r="S57" s="77"/>
       <c r="T57" s="77"/>
     </row>
-    <row r="59" spans="2:20">
+    <row r="58" spans="2:20" hidden="1" outlineLevel="1"/>
+    <row r="59" spans="2:20" hidden="1" outlineLevel="1">
       <c r="B59" s="76" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D59" s="76" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="60" spans="2:20" hidden="1" outlineLevel="1">
+      <c r="B60" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="D60" s="76" t="s">
+        <v>128</v>
+      </c>
+      <c r="J60" s="76" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="61" spans="2:20" hidden="1" outlineLevel="1">
+      <c r="D61" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="J61" s="76" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="62" spans="2:20" hidden="1" outlineLevel="1">
+      <c r="D62" s="76" t="s">
+        <v>216</v>
+      </c>
+      <c r="J62" s="76" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="63" spans="2:20" hidden="1" outlineLevel="1">
+      <c r="D63" s="76" t="s">
+        <v>215</v>
+      </c>
+      <c r="J63" s="76" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="64" spans="2:20" hidden="1" outlineLevel="1">
+      <c r="D64" s="76" t="s">
+        <v>217</v>
+      </c>
+      <c r="J64" s="76" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" hidden="1" outlineLevel="1">
+      <c r="D65" s="76" t="s">
+        <v>133</v>
+      </c>
+      <c r="J65" s="76" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" hidden="1" outlineLevel="1">
+      <c r="D66" s="76" t="s">
+        <v>213</v>
+      </c>
+      <c r="J66" s="76" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" hidden="1" outlineLevel="1">
+      <c r="D67" s="76" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" hidden="1" outlineLevel="1">
+      <c r="D68" s="76" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" hidden="1" outlineLevel="1">
+      <c r="D69" s="76" t="s">
+        <v>136</v>
+      </c>
+      <c r="J69" s="76" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" hidden="1" outlineLevel="1">
+      <c r="D70" s="76" t="s">
+        <v>137</v>
+      </c>
+      <c r="J70" s="76" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" hidden="1" outlineLevel="1">
+      <c r="D71" s="76" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" hidden="1" outlineLevel="1">
+      <c r="D72" s="76" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" hidden="1" outlineLevel="1">
+      <c r="D73" s="76" t="s">
+        <v>177</v>
+      </c>
+      <c r="J73" s="76" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" hidden="1" outlineLevel="1">
+      <c r="D74" s="76" t="s">
+        <v>178</v>
+      </c>
+      <c r="J74" s="76" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" hidden="1" outlineLevel="1">
+      <c r="D75" s="76" t="s">
+        <v>221</v>
+      </c>
+      <c r="G75" s="76" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" hidden="1" outlineLevel="1"/>
+    <row r="77" spans="2:10" hidden="1" outlineLevel="1"/>
+    <row r="78" spans="2:10" hidden="1" outlineLevel="1">
+      <c r="B78" s="76" t="s">
+        <v>174</v>
+      </c>
+      <c r="D78" s="76" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="60" spans="2:20">
-      <c r="B60" s="76" t="s">
-        <v>183</v>
-      </c>
-      <c r="D60" s="76" t="s">
-        <v>130</v>
-      </c>
-      <c r="J60" s="76" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="61" spans="2:20">
-      <c r="D61" s="76" t="s">
-        <v>132</v>
-      </c>
-      <c r="J61" s="76" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="62" spans="2:20">
-      <c r="D62" s="76" t="s">
-        <v>218</v>
-      </c>
-      <c r="J62" s="76" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="63" spans="2:20">
-      <c r="D63" s="76" t="s">
-        <v>217</v>
-      </c>
-      <c r="J63" s="76" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="64" spans="2:20">
-      <c r="D64" s="76" t="s">
-        <v>219</v>
-      </c>
-      <c r="J64" s="76" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10">
-      <c r="D65" s="76" t="s">
-        <v>135</v>
-      </c>
-      <c r="J65" s="76" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10">
-      <c r="D66" s="76" t="s">
-        <v>215</v>
-      </c>
-      <c r="J66" s="76" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="67" spans="2:10">
-      <c r="D67" s="76" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="68" spans="2:10">
-      <c r="D68" s="76" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="69" spans="2:10">
-      <c r="D69" s="76" t="s">
-        <v>138</v>
-      </c>
-      <c r="J69" s="76" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="70" spans="2:10">
-      <c r="D70" s="76" t="s">
-        <v>139</v>
-      </c>
-      <c r="J70" s="76" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="71" spans="2:10">
-      <c r="D71" s="76" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="72" spans="2:10">
-      <c r="D72" s="76" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="73" spans="2:10">
-      <c r="D73" s="76" t="s">
-        <v>179</v>
-      </c>
-      <c r="J73" s="76" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="74" spans="2:10">
-      <c r="D74" s="76" t="s">
-        <v>180</v>
-      </c>
-      <c r="J74" s="76" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="75" spans="2:10">
-      <c r="D75" s="76" t="s">
-        <v>223</v>
-      </c>
-      <c r="G75" s="76" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="78" spans="2:10">
-      <c r="B78" s="76" t="s">
-        <v>176</v>
-      </c>
-      <c r="D78" s="76" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="80" spans="2:10">
+    <row r="79" spans="2:10" hidden="1" outlineLevel="1"/>
+    <row r="80" spans="2:10" hidden="1" outlineLevel="1">
       <c r="B80" s="76" t="s">
+        <v>207</v>
+      </c>
+      <c r="D80" s="76" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="81" spans="1:59" hidden="1" outlineLevel="1">
+      <c r="D81" s="76" t="s">
         <v>209</v>
       </c>
-      <c r="D80" s="76" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="81" spans="2:20">
-      <c r="D81" s="76" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="83" spans="2:20">
+    </row>
+    <row r="82" spans="1:59" hidden="1" outlineLevel="1"/>
+    <row r="83" spans="1:59" hidden="1" outlineLevel="1">
       <c r="B83" s="77" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C83" s="77"/>
       <c r="D83" s="77"/>
@@ -8283,28 +9250,30 @@
       <c r="S83" s="77"/>
       <c r="T83" s="77"/>
     </row>
-    <row r="85" spans="2:20">
+    <row r="84" spans="1:59" hidden="1" outlineLevel="1"/>
+    <row r="85" spans="1:59" hidden="1" outlineLevel="1">
       <c r="B85" s="76" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F85" s="76" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="87" spans="2:20">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="86" spans="1:59" hidden="1" outlineLevel="1"/>
+    <row r="87" spans="1:59" hidden="1" outlineLevel="1">
       <c r="B87" s="76" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="88" spans="2:20">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="88" spans="1:59" hidden="1" outlineLevel="1">
       <c r="B88" s="119" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C88" s="120"/>
       <c r="D88" s="120"/>
       <c r="E88" s="121"/>
       <c r="F88" s="119" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G88" s="120"/>
       <c r="H88" s="120"/>
@@ -8313,15 +9282,15 @@
       <c r="K88" s="120"/>
       <c r="L88" s="121"/>
     </row>
-    <row r="89" spans="2:20">
+    <row r="89" spans="1:59" hidden="1" outlineLevel="1">
       <c r="B89" s="116" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C89" s="117"/>
       <c r="D89" s="117"/>
       <c r="E89" s="118"/>
       <c r="F89" s="116" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G89" s="117"/>
       <c r="H89" s="117"/>
@@ -8330,15 +9299,15 @@
       <c r="K89" s="117"/>
       <c r="L89" s="118"/>
     </row>
-    <row r="90" spans="2:20">
+    <row r="90" spans="1:59" hidden="1" outlineLevel="1">
       <c r="B90" s="116" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C90" s="117"/>
       <c r="D90" s="117"/>
       <c r="E90" s="118"/>
       <c r="F90" s="116" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G90" s="117"/>
       <c r="H90" s="117"/>
@@ -8347,15 +9316,15 @@
       <c r="K90" s="117"/>
       <c r="L90" s="118"/>
     </row>
-    <row r="91" spans="2:20">
+    <row r="91" spans="1:59" hidden="1" outlineLevel="1">
       <c r="B91" s="116" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C91" s="117"/>
       <c r="D91" s="117"/>
       <c r="E91" s="118"/>
       <c r="F91" s="116" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G91" s="117"/>
       <c r="H91" s="117"/>
@@ -8364,15 +9333,15 @@
       <c r="K91" s="117"/>
       <c r="L91" s="118"/>
     </row>
-    <row r="92" spans="2:20">
+    <row r="92" spans="1:59" hidden="1" outlineLevel="1">
       <c r="B92" s="116" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C92" s="117"/>
       <c r="D92" s="117"/>
       <c r="E92" s="118"/>
       <c r="F92" s="116" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G92" s="117"/>
       <c r="H92" s="117"/>
@@ -8381,15 +9350,15 @@
       <c r="K92" s="117"/>
       <c r="L92" s="118"/>
     </row>
-    <row r="93" spans="2:20">
+    <row r="93" spans="1:59" hidden="1" outlineLevel="1">
       <c r="B93" s="116" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C93" s="117"/>
       <c r="D93" s="117"/>
       <c r="E93" s="118"/>
       <c r="F93" s="116" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G93" s="117"/>
       <c r="H93" s="117"/>
@@ -8398,6 +9367,338 @@
       <c r="K93" s="117"/>
       <c r="L93" s="118"/>
     </row>
+    <row r="94" spans="1:59" hidden="1" outlineLevel="1"/>
+    <row r="96" spans="1:59" s="15" customFormat="1" ht="18.75" collapsed="1">
+      <c r="A96" s="46" t="s">
+        <v>323</v>
+      </c>
+      <c r="B96" s="47"/>
+      <c r="C96" s="47"/>
+      <c r="D96" s="47"/>
+      <c r="E96" s="47"/>
+      <c r="F96" s="47"/>
+      <c r="G96" s="47"/>
+      <c r="H96" s="47"/>
+      <c r="I96" s="47"/>
+      <c r="J96" s="47"/>
+      <c r="K96" s="47"/>
+      <c r="L96" s="47"/>
+      <c r="M96" s="47"/>
+      <c r="N96" s="47"/>
+      <c r="O96" s="47"/>
+      <c r="P96" s="47"/>
+      <c r="Q96" s="47"/>
+      <c r="R96" s="47"/>
+      <c r="S96" s="47"/>
+      <c r="T96" s="47"/>
+      <c r="U96" s="47"/>
+      <c r="V96" s="47"/>
+      <c r="W96" s="47"/>
+      <c r="X96" s="47"/>
+      <c r="Y96" s="47"/>
+      <c r="Z96" s="47"/>
+      <c r="AA96" s="47"/>
+      <c r="AB96" s="47"/>
+      <c r="AC96" s="47"/>
+      <c r="AD96" s="47"/>
+      <c r="AE96" s="47"/>
+      <c r="AF96" s="47"/>
+      <c r="AG96" s="47"/>
+      <c r="AH96" s="47"/>
+      <c r="AI96" s="47"/>
+      <c r="AJ96" s="47"/>
+      <c r="AK96" s="47"/>
+      <c r="AL96" s="48"/>
+      <c r="AM96" s="48"/>
+      <c r="AN96" s="48"/>
+      <c r="AO96" s="48"/>
+      <c r="AP96" s="48"/>
+      <c r="AQ96" s="48"/>
+      <c r="AR96" s="48"/>
+      <c r="AS96" s="48"/>
+      <c r="AT96" s="48"/>
+      <c r="AU96" s="48"/>
+      <c r="AV96" s="48"/>
+      <c r="AW96" s="48"/>
+      <c r="AX96" s="48"/>
+      <c r="AY96" s="48"/>
+      <c r="AZ96" s="48"/>
+      <c r="BA96" s="48"/>
+      <c r="BB96" s="48"/>
+      <c r="BC96" s="48"/>
+      <c r="BD96" s="48"/>
+      <c r="BE96" s="48"/>
+      <c r="BF96" s="48"/>
+      <c r="BG96" s="48"/>
+    </row>
+    <row r="97" spans="2:37" hidden="1" outlineLevel="1"/>
+    <row r="98" spans="2:37" hidden="1" outlineLevel="1">
+      <c r="B98" s="77" t="s">
+        <v>331</v>
+      </c>
+      <c r="C98" s="77"/>
+      <c r="D98" s="77"/>
+      <c r="E98" s="77"/>
+      <c r="F98" s="77"/>
+      <c r="G98" s="77"/>
+      <c r="H98" s="77"/>
+      <c r="I98" s="77"/>
+      <c r="J98" s="77"/>
+      <c r="K98" s="77"/>
+      <c r="L98" s="77"/>
+      <c r="M98" s="77"/>
+      <c r="N98" s="77"/>
+      <c r="O98" s="77"/>
+      <c r="P98" s="77"/>
+      <c r="Q98" s="77"/>
+      <c r="R98" s="77"/>
+      <c r="S98" s="77"/>
+      <c r="T98" s="77"/>
+      <c r="U98" s="77"/>
+      <c r="V98" s="77"/>
+      <c r="W98" s="77"/>
+      <c r="X98" s="77"/>
+      <c r="Y98" s="77"/>
+      <c r="Z98" s="77"/>
+      <c r="AA98" s="77"/>
+      <c r="AB98" s="77"/>
+      <c r="AC98" s="77"/>
+      <c r="AD98" s="77"/>
+      <c r="AE98" s="77"/>
+      <c r="AF98" s="77"/>
+      <c r="AG98" s="77"/>
+      <c r="AH98" s="77"/>
+      <c r="AI98" s="77"/>
+      <c r="AJ98" s="77"/>
+      <c r="AK98" s="77"/>
+    </row>
+    <row r="99" spans="2:37" hidden="1" outlineLevel="1">
+      <c r="B99" s="76" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="100" spans="2:37" hidden="1" outlineLevel="1">
+      <c r="C100" s="76" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="101" spans="2:37" ht="18.75" hidden="1" outlineLevel="1">
+      <c r="C101" s="48" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="102" spans="2:37" hidden="1" outlineLevel="1"/>
+    <row r="103" spans="2:37" hidden="1" outlineLevel="1">
+      <c r="B103" s="77" t="s">
+        <v>332</v>
+      </c>
+      <c r="C103" s="77"/>
+      <c r="D103" s="77"/>
+      <c r="E103" s="77"/>
+      <c r="F103" s="77"/>
+      <c r="G103" s="77"/>
+      <c r="H103" s="77"/>
+      <c r="I103" s="77"/>
+      <c r="J103" s="77"/>
+      <c r="K103" s="77"/>
+      <c r="L103" s="77"/>
+      <c r="M103" s="77"/>
+      <c r="N103" s="77"/>
+      <c r="O103" s="77"/>
+      <c r="P103" s="77"/>
+      <c r="Q103" s="77"/>
+      <c r="R103" s="77"/>
+      <c r="S103" s="77"/>
+      <c r="T103" s="77"/>
+      <c r="U103" s="77"/>
+      <c r="V103" s="77"/>
+      <c r="W103" s="77"/>
+      <c r="X103" s="77"/>
+      <c r="Y103" s="77"/>
+      <c r="Z103" s="77"/>
+      <c r="AA103" s="77"/>
+      <c r="AB103" s="77"/>
+      <c r="AC103" s="77"/>
+      <c r="AD103" s="77"/>
+      <c r="AE103" s="77"/>
+      <c r="AF103" s="77"/>
+      <c r="AG103" s="77"/>
+      <c r="AH103" s="77"/>
+      <c r="AI103" s="77"/>
+      <c r="AJ103" s="77"/>
+      <c r="AK103" s="77"/>
+    </row>
+    <row r="104" spans="2:37" hidden="1" outlineLevel="1">
+      <c r="B104" s="76" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="105" spans="2:37" hidden="1" outlineLevel="1">
+      <c r="B105" s="76" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="106" spans="2:37" hidden="1" outlineLevel="1"/>
+    <row r="107" spans="2:37" hidden="1" outlineLevel="1"/>
+    <row r="108" spans="2:37" hidden="1" outlineLevel="1"/>
+    <row r="109" spans="2:37" hidden="1" outlineLevel="1"/>
+    <row r="110" spans="2:37" hidden="1" outlineLevel="1"/>
+    <row r="111" spans="2:37" hidden="1" outlineLevel="1"/>
+    <row r="112" spans="2:37" hidden="1" outlineLevel="1"/>
+    <row r="113" spans="2:2" hidden="1" outlineLevel="1"/>
+    <row r="114" spans="2:2" hidden="1" outlineLevel="1"/>
+    <row r="115" spans="2:2" hidden="1" outlineLevel="1"/>
+    <row r="116" spans="2:2" hidden="1" outlineLevel="1"/>
+    <row r="117" spans="2:2" hidden="1" outlineLevel="1"/>
+    <row r="118" spans="2:2" hidden="1" outlineLevel="1"/>
+    <row r="119" spans="2:2" hidden="1" outlineLevel="1">
+      <c r="B119" s="76" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" hidden="1" outlineLevel="1"/>
+    <row r="121" spans="2:2" hidden="1" outlineLevel="1"/>
+    <row r="122" spans="2:2" hidden="1" outlineLevel="1"/>
+    <row r="123" spans="2:2" hidden="1" outlineLevel="1"/>
+    <row r="124" spans="2:2" hidden="1" outlineLevel="1"/>
+    <row r="125" spans="2:2" hidden="1" outlineLevel="1"/>
+    <row r="126" spans="2:2" hidden="1" outlineLevel="1"/>
+    <row r="127" spans="2:2" hidden="1" outlineLevel="1"/>
+    <row r="128" spans="2:2" hidden="1" outlineLevel="1"/>
+    <row r="129" spans="2:37" hidden="1" outlineLevel="1"/>
+    <row r="130" spans="2:37" hidden="1" outlineLevel="1"/>
+    <row r="131" spans="2:37" hidden="1" outlineLevel="1"/>
+    <row r="132" spans="2:37" hidden="1" outlineLevel="1"/>
+    <row r="133" spans="2:37" hidden="1" outlineLevel="1"/>
+    <row r="134" spans="2:37" hidden="1" outlineLevel="1">
+      <c r="B134" s="77" t="s">
+        <v>334</v>
+      </c>
+      <c r="C134" s="77"/>
+      <c r="D134" s="77"/>
+      <c r="E134" s="77"/>
+      <c r="F134" s="77"/>
+      <c r="G134" s="77"/>
+      <c r="H134" s="77"/>
+      <c r="I134" s="77"/>
+      <c r="J134" s="77"/>
+      <c r="K134" s="77"/>
+      <c r="L134" s="77"/>
+      <c r="M134" s="77"/>
+      <c r="N134" s="77"/>
+      <c r="O134" s="77"/>
+      <c r="P134" s="77"/>
+      <c r="Q134" s="77"/>
+      <c r="R134" s="77"/>
+      <c r="S134" s="77"/>
+      <c r="T134" s="77"/>
+      <c r="U134" s="77"/>
+      <c r="V134" s="77"/>
+      <c r="W134" s="77"/>
+      <c r="X134" s="77"/>
+      <c r="Y134" s="77"/>
+      <c r="Z134" s="77"/>
+      <c r="AA134" s="77"/>
+      <c r="AB134" s="77"/>
+      <c r="AC134" s="77"/>
+      <c r="AD134" s="77"/>
+      <c r="AE134" s="77"/>
+      <c r="AF134" s="77"/>
+      <c r="AG134" s="77"/>
+      <c r="AH134" s="77"/>
+      <c r="AI134" s="77"/>
+      <c r="AJ134" s="77"/>
+      <c r="AK134" s="77"/>
+    </row>
+    <row r="135" spans="2:37" hidden="1" outlineLevel="1">
+      <c r="B135" s="76" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="136" spans="2:37" hidden="1" outlineLevel="1"/>
+    <row r="137" spans="2:37" hidden="1" outlineLevel="1">
+      <c r="B137" s="76" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="138" spans="2:37" hidden="1" outlineLevel="1"/>
+    <row r="139" spans="2:37" hidden="1" outlineLevel="1"/>
+    <row r="140" spans="2:37" hidden="1" outlineLevel="1"/>
+    <row r="141" spans="2:37" hidden="1" outlineLevel="1"/>
+    <row r="142" spans="2:37" hidden="1" outlineLevel="1"/>
+    <row r="143" spans="2:37" hidden="1" outlineLevel="1"/>
+    <row r="144" spans="2:37" hidden="1" outlineLevel="1"/>
+    <row r="145" hidden="1" outlineLevel="1"/>
+    <row r="146" hidden="1" outlineLevel="1"/>
+    <row r="147" hidden="1" outlineLevel="1"/>
+    <row r="148" hidden="1" outlineLevel="1"/>
+    <row r="149" hidden="1" outlineLevel="1"/>
+    <row r="150" hidden="1" outlineLevel="1"/>
+    <row r="151" hidden="1" outlineLevel="1"/>
+    <row r="152" hidden="1" outlineLevel="1"/>
+    <row r="153" hidden="1" outlineLevel="1"/>
+    <row r="154" hidden="1" outlineLevel="1"/>
+    <row r="155" hidden="1" outlineLevel="1"/>
+    <row r="156" hidden="1" outlineLevel="1"/>
+    <row r="157" hidden="1" outlineLevel="1"/>
+    <row r="158" hidden="1" outlineLevel="1"/>
+    <row r="159" hidden="1" outlineLevel="1"/>
+    <row r="160" hidden="1" outlineLevel="1"/>
+    <row r="161" spans="2:37" hidden="1" outlineLevel="1"/>
+    <row r="162" spans="2:37" hidden="1" outlineLevel="1"/>
+    <row r="163" spans="2:37" hidden="1" outlineLevel="1">
+      <c r="B163" s="77" t="s">
+        <v>337</v>
+      </c>
+      <c r="C163" s="77"/>
+      <c r="D163" s="77"/>
+      <c r="E163" s="77"/>
+      <c r="F163" s="77"/>
+      <c r="G163" s="77"/>
+      <c r="H163" s="77"/>
+      <c r="I163" s="77"/>
+      <c r="J163" s="77"/>
+      <c r="K163" s="77"/>
+      <c r="L163" s="77"/>
+      <c r="M163" s="77"/>
+      <c r="N163" s="77"/>
+      <c r="O163" s="77"/>
+      <c r="P163" s="77"/>
+      <c r="Q163" s="77"/>
+      <c r="R163" s="77"/>
+      <c r="S163" s="77"/>
+      <c r="T163" s="77"/>
+      <c r="U163" s="77"/>
+      <c r="V163" s="77"/>
+      <c r="W163" s="77"/>
+      <c r="X163" s="77"/>
+      <c r="Y163" s="77"/>
+      <c r="Z163" s="77"/>
+      <c r="AA163" s="77"/>
+      <c r="AB163" s="77"/>
+      <c r="AC163" s="77"/>
+      <c r="AD163" s="77"/>
+      <c r="AE163" s="77"/>
+      <c r="AF163" s="77"/>
+      <c r="AG163" s="77"/>
+      <c r="AH163" s="77"/>
+      <c r="AI163" s="77"/>
+      <c r="AJ163" s="77"/>
+      <c r="AK163" s="77"/>
+    </row>
+    <row r="164" spans="2:37" hidden="1" outlineLevel="1"/>
+    <row r="165" spans="2:37" hidden="1" outlineLevel="1">
+      <c r="B165" s="76" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="166" spans="2:37" hidden="1" outlineLevel="1">
+      <c r="B166" s="76" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="167" spans="2:37" hidden="1" outlineLevel="1"/>
+    <row r="168" spans="2:37" hidden="1" outlineLevel="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8710,7 +10011,7 @@
   <dimension ref="B1:BG28"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="18.75"/>
@@ -8779,7 +10080,7 @@
     </row>
     <row r="2" spans="2:59">
       <c r="B2" s="48" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
@@ -8982,7 +10283,7 @@
       <c r="Q5" s="48"/>
       <c r="R5" s="48"/>
       <c r="T5" s="15" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="U5" s="48"/>
       <c r="W5" s="48"/>
@@ -9086,7 +10387,7 @@
       <c r="D7" s="48"/>
       <c r="E7" s="48"/>
       <c r="F7" s="49" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G7" s="48"/>
       <c r="H7" s="48"/>
@@ -9148,7 +10449,7 @@
       <c r="D8" s="48"/>
       <c r="E8" s="48"/>
       <c r="F8" s="49" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G8" s="48"/>
       <c r="H8" s="48"/>
@@ -9163,7 +10464,7 @@
       <c r="Q8" s="48"/>
       <c r="R8" s="48"/>
       <c r="T8" s="48" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="U8" s="48"/>
       <c r="V8" s="48"/>
@@ -9209,7 +10510,7 @@
       <c r="D9" s="48"/>
       <c r="E9" s="48"/>
       <c r="F9" s="49" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G9" s="48"/>
       <c r="H9" s="48"/>
@@ -9268,7 +10569,7 @@
       <c r="D10" s="48"/>
       <c r="E10" s="48"/>
       <c r="F10" s="49" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G10" s="48"/>
       <c r="H10" s="48"/>
@@ -9283,7 +10584,7 @@
       <c r="Q10" s="48"/>
       <c r="R10" s="48"/>
       <c r="T10" s="48" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="U10" s="48"/>
       <c r="V10" s="48"/>
@@ -9329,7 +10630,7 @@
       <c r="D11" s="48"/>
       <c r="E11" s="48"/>
       <c r="F11" s="49" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G11" s="48"/>
       <c r="H11" s="48"/>
@@ -9445,7 +10746,7 @@
     </row>
     <row r="13" spans="2:59">
       <c r="B13" s="55" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C13" s="48"/>
       <c r="D13" s="48"/>
@@ -9454,7 +10755,7 @@
         <v>41</v>
       </c>
       <c r="T13" s="15" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="U13" s="48"/>
       <c r="V13" s="48"/>
@@ -9676,7 +10977,7 @@
     </row>
     <row r="17" spans="2:59">
       <c r="B17" s="126" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C17" s="127"/>
       <c r="D17" s="127"/>
@@ -9767,13 +11068,13 @@
     </row>
     <row r="19" spans="2:59">
       <c r="B19" s="55" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C19" s="48"/>
       <c r="D19" s="48"/>
       <c r="E19" s="48"/>
       <c r="F19" s="48" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G19" s="48"/>
       <c r="H19" s="48"/>
@@ -9789,7 +11090,7 @@
       <c r="R19" s="48"/>
       <c r="S19" s="48"/>
       <c r="T19" s="48" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="U19" s="48"/>
       <c r="V19" s="48"/>
@@ -9831,13 +11132,13 @@
     </row>
     <row r="21" spans="2:59">
       <c r="B21" s="55" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C21" s="48"/>
       <c r="D21" s="48"/>
       <c r="E21" s="48"/>
       <c r="F21" s="48" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G21" s="48"/>
       <c r="H21" s="48"/>
@@ -9868,7 +11169,7 @@
       <c r="D22" s="48"/>
       <c r="E22" s="48"/>
       <c r="F22" s="48" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G22" s="48"/>
       <c r="H22" s="48"/>
@@ -9884,7 +11185,7 @@
       <c r="R22" s="48"/>
       <c r="S22" s="48"/>
       <c r="T22" s="48" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="V22" s="48"/>
       <c r="W22" s="48"/>
@@ -9900,7 +11201,7 @@
       <c r="D23" s="48"/>
       <c r="E23" s="48"/>
       <c r="F23" s="48" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G23" s="48"/>
       <c r="H23" s="48"/>
@@ -9931,7 +11232,7 @@
       <c r="D24" s="48"/>
       <c r="E24" s="48"/>
       <c r="F24" s="48" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G24" s="48"/>
       <c r="H24" s="48"/>
@@ -9947,7 +11248,7 @@
       <c r="R24" s="48"/>
       <c r="S24" s="48"/>
       <c r="T24" s="48" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="U24" s="48"/>
       <c r="V24" s="48"/>
@@ -9960,7 +11261,7 @@
     </row>
     <row r="25" spans="2:59">
       <c r="B25" s="55" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C25" s="48"/>
       <c r="D25" s="48"/>
@@ -10022,7 +11323,7 @@
     </row>
     <row r="28" spans="2:59">
       <c r="B28" s="114" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D28" s="48"/>
       <c r="E28" s="48"/>
@@ -10093,10 +11394,10 @@
   <dimension ref="A1:X52"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="H17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="V20" sqref="V20"/>
+      <selection pane="bottomRight" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5"/>
@@ -10125,17 +11426,17 @@
         <v>47</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="15" customFormat="1">
       <c r="A2" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="153" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="151"/>
+      <c r="C2" s="154"/>
       <c r="D2" s="62" t="s">
         <v>76</v>
       </c>
@@ -10149,44 +11450,44 @@
       <c r="A3" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="148" t="s">
+      <c r="B3" s="151" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="149"/>
+      <c r="C3" s="152"/>
       <c r="D3" s="64" t="s">
         <v>78</v>
       </c>
       <c r="E3" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="146" t="s">
+      <c r="F3" s="149" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="147"/>
+      <c r="G3" s="150"/>
     </row>
     <row r="4" spans="1:24" s="15" customFormat="1" ht="18.75">
       <c r="A4" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="148" t="s">
+      <c r="B4" s="151" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="149"/>
+      <c r="C4" s="152"/>
       <c r="D4" s="64" t="s">
         <v>79</v>
       </c>
       <c r="E4" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="144">
+      <c r="F4" s="147">
         <v>45406</v>
       </c>
-      <c r="G4" s="145"/>
+      <c r="G4" s="148"/>
     </row>
     <row r="5" spans="1:24" ht="18" customHeight="1"/>
     <row r="6" spans="1:24">
       <c r="L6" s="79" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M6" s="80"/>
       <c r="N6" s="80"/>
@@ -10228,37 +11529,37 @@
         <v>2</v>
       </c>
       <c r="I7" s="78" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J7" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="K7" s="78" t="s">
+        <v>183</v>
+      </c>
+      <c r="L7" s="89" t="s">
+        <v>195</v>
+      </c>
+      <c r="M7" s="89" t="s">
         <v>196</v>
       </c>
-      <c r="K7" s="78" t="s">
-        <v>185</v>
-      </c>
-      <c r="L7" s="89" t="s">
+      <c r="N7" s="89" t="s">
         <v>197</v>
       </c>
-      <c r="M7" s="89" t="s">
+      <c r="O7" s="89" t="s">
         <v>198</v>
       </c>
-      <c r="N7" s="89" t="s">
+      <c r="P7" s="89" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q7" s="89" t="s">
         <v>199</v>
       </c>
-      <c r="O7" s="89" t="s">
+      <c r="R7" s="89" t="s">
+        <v>179</v>
+      </c>
+      <c r="S7" s="90" t="s">
         <v>200</v>
-      </c>
-      <c r="P7" s="89" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q7" s="89" t="s">
-        <v>201</v>
-      </c>
-      <c r="R7" s="89" t="s">
-        <v>181</v>
-      </c>
-      <c r="S7" s="90" t="s">
-        <v>202</v>
       </c>
       <c r="T7" s="89" t="s">
         <v>1</v>
@@ -10275,7 +11576,7 @@
         <v>73</v>
       </c>
       <c r="X7" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -10310,13 +11611,13 @@
         <v>18</v>
       </c>
       <c r="L8" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M8" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N8" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O8" s="85" t="s">
         <v>13</v>
@@ -10376,13 +11677,13 @@
         <v>18</v>
       </c>
       <c r="L9" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M9" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N9" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O9" s="86" t="s">
         <v>59</v>
@@ -10421,13 +11722,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="67" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D10" s="67" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E10" s="67" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F10" s="69">
         <v>10</v>
@@ -10437,29 +11738,29 @@
       </c>
       <c r="H10" s="33"/>
       <c r="I10" s="33" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J10" s="32"/>
       <c r="K10" s="34" t="s">
         <v>18</v>
       </c>
       <c r="L10" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M10" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N10" s="35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O10" s="87">
         <v>5</v>
       </c>
       <c r="P10" s="24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q10" s="82" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="R10" s="84"/>
       <c r="S10" s="74"/>
@@ -10487,13 +11788,13 @@
         <v>4</v>
       </c>
       <c r="C11" s="67" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D11" s="67" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E11" s="67" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F11" s="69">
         <v>10</v>
@@ -10503,29 +11804,29 @@
       </c>
       <c r="H11" s="33"/>
       <c r="I11" s="33" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J11" s="32"/>
       <c r="K11" s="34" t="s">
         <v>18</v>
       </c>
       <c r="L11" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M11" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N11" s="35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O11" s="87">
         <v>1</v>
       </c>
       <c r="P11" s="24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q11" s="82" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="R11" s="83"/>
       <c r="S11" s="74"/>
@@ -10553,13 +11854,13 @@
         <v>5</v>
       </c>
       <c r="C12" s="67" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D12" s="67" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E12" s="67" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F12" s="69">
         <v>10</v>
@@ -10569,29 +11870,29 @@
       </c>
       <c r="H12" s="33"/>
       <c r="I12" s="33" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J12" s="32"/>
       <c r="K12" s="34" t="s">
         <v>18</v>
       </c>
       <c r="L12" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M12" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N12" s="35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O12" s="87">
         <v>1</v>
       </c>
       <c r="P12" s="24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q12" s="82" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="R12" s="83"/>
       <c r="S12" s="74"/>
@@ -10619,13 +11920,13 @@
         <v>6</v>
       </c>
       <c r="C13" s="67" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D13" s="67" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E13" s="67" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F13" s="69">
         <v>10</v>
@@ -10635,29 +11936,29 @@
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J13" s="32"/>
       <c r="K13" s="34" t="s">
         <v>18</v>
       </c>
       <c r="L13" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M13" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N13" s="35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O13" s="87">
         <v>1</v>
       </c>
       <c r="P13" s="24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q13" s="82" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="R13" s="83"/>
       <c r="S13" s="74"/>
@@ -10685,13 +11986,13 @@
         <v>7</v>
       </c>
       <c r="C14" s="67" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D14" s="67" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E14" s="67" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F14" s="69">
         <v>10</v>
@@ -10701,29 +12002,29 @@
       </c>
       <c r="H14" s="33"/>
       <c r="I14" s="33" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J14" s="32"/>
       <c r="K14" s="34" t="s">
         <v>18</v>
       </c>
       <c r="L14" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M14" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N14" s="35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O14" s="87">
         <v>1</v>
       </c>
       <c r="P14" s="24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q14" s="82" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="R14" s="83"/>
       <c r="S14" s="74"/>
@@ -10751,13 +12052,13 @@
         <v>8</v>
       </c>
       <c r="C15" s="67" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D15" s="67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E15" s="67" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F15" s="69">
         <v>10</v>
@@ -10770,25 +12071,25 @@
       <c r="J15" s="32"/>
       <c r="K15" s="34"/>
       <c r="L15" s="35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M15" s="35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N15" s="35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O15" s="87">
         <v>2</v>
       </c>
       <c r="P15" s="24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q15" s="82" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="R15" s="83" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="S15" s="74"/>
       <c r="T15" s="35"/>
@@ -10815,13 +12116,13 @@
         <v>9</v>
       </c>
       <c r="C16" s="67" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D16" s="67" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E16" s="67" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F16" s="69">
         <v>10</v>
@@ -10834,25 +12135,25 @@
       <c r="J16" s="32"/>
       <c r="K16" s="34"/>
       <c r="L16" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M16" s="35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N16" s="35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O16" s="87">
         <v>3</v>
       </c>
       <c r="P16" s="24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q16" s="82" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="R16" s="83" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="S16" s="74"/>
       <c r="T16" s="35"/>
@@ -10879,13 +12180,13 @@
         <v>10</v>
       </c>
       <c r="C17" s="67" t="s">
+        <v>216</v>
+      </c>
+      <c r="D17" s="67" t="s">
         <v>218</v>
       </c>
-      <c r="D17" s="67" t="s">
-        <v>220</v>
-      </c>
       <c r="E17" s="67" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F17" s="69">
         <v>10</v>
@@ -10898,25 +12199,25 @@
       <c r="J17" s="32"/>
       <c r="K17" s="34"/>
       <c r="L17" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M17" s="35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N17" s="35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O17" s="87">
         <v>0</v>
       </c>
       <c r="P17" s="24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q17" s="82" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="R17" s="83" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="S17" s="74"/>
       <c r="T17" s="83"/>
@@ -10943,13 +12244,13 @@
         <v>11</v>
       </c>
       <c r="C18" s="67" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D18" s="67" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E18" s="67" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F18" s="69">
         <v>10</v>
@@ -10962,25 +12263,25 @@
       <c r="J18" s="32"/>
       <c r="K18" s="34"/>
       <c r="L18" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M18" s="35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N18" s="35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O18" s="87">
         <v>0</v>
       </c>
       <c r="P18" s="24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q18" s="82" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="R18" s="83" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="S18" s="74"/>
       <c r="T18" s="83"/>
@@ -11007,13 +12308,13 @@
         <v>12</v>
       </c>
       <c r="C19" s="67" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D19" s="67" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E19" s="67" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F19" s="69">
         <v>10</v>
@@ -11026,25 +12327,25 @@
       <c r="J19" s="32"/>
       <c r="K19" s="34"/>
       <c r="L19" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M19" s="35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N19" s="35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O19" s="87">
         <v>0</v>
       </c>
       <c r="P19" s="24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q19" s="82" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="R19" s="83" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="S19" s="74"/>
       <c r="T19" s="83"/>
@@ -11071,13 +12372,13 @@
         <v>13</v>
       </c>
       <c r="C20" s="67" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D20" s="67" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E20" s="67" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F20" s="69">
         <v>10</v>
@@ -11090,25 +12391,25 @@
       <c r="J20" s="32"/>
       <c r="K20" s="34"/>
       <c r="L20" s="35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M20" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N20" s="35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O20" s="87">
         <v>0</v>
       </c>
       <c r="P20" s="24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q20" s="82" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="R20" s="83" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="S20" s="74"/>
       <c r="T20" s="35"/>
@@ -11135,13 +12436,13 @@
         <v>14</v>
       </c>
       <c r="C21" s="67" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D21" s="67" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E21" s="67" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F21" s="69">
         <v>10</v>
@@ -11154,25 +12455,25 @@
       <c r="J21" s="32"/>
       <c r="K21" s="34"/>
       <c r="L21" s="35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M21" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N21" s="35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O21" s="87">
         <v>0</v>
       </c>
       <c r="P21" s="24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q21" s="82" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="R21" s="83" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="S21" s="74"/>
       <c r="T21" s="83"/>
@@ -11199,10 +12500,10 @@
         <v>15</v>
       </c>
       <c r="C22" s="67" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D22" s="67" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E22" s="67" t="s">
         <v>62</v>
@@ -11218,28 +12519,28 @@
       <c r="J22" s="32"/>
       <c r="K22" s="34"/>
       <c r="L22" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M22" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N22" s="35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O22" s="85" t="s">
         <v>13</v>
       </c>
       <c r="P22" s="24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q22" s="74" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="R22" s="83" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="S22" s="74" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="T22" s="35"/>
       <c r="U22" s="124" t="str">
@@ -11265,13 +12566,13 @@
         <v>16</v>
       </c>
       <c r="C23" s="67" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D23" s="67" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E23" s="67" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F23" s="68" t="s">
         <v>59</v>
@@ -11284,28 +12585,28 @@
       <c r="J23" s="32"/>
       <c r="K23" s="34"/>
       <c r="L23" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M23" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N23" s="35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O23" s="85" t="s">
         <v>13</v>
       </c>
       <c r="P23" s="24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q23" s="74" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="R23" s="83" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="S23" s="74" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="T23" s="35"/>
       <c r="U23" s="124" t="str">
@@ -11331,13 +12632,13 @@
         <v>17</v>
       </c>
       <c r="C24" s="67" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D24" s="67" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E24" s="67" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F24" s="68" t="s">
         <v>59</v>
@@ -11350,25 +12651,25 @@
       <c r="J24" s="32"/>
       <c r="K24" s="34"/>
       <c r="L24" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M24" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N24" s="35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O24" s="85" t="s">
         <v>13</v>
       </c>
       <c r="P24" s="24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q24" s="74" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="R24" s="83" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="S24" s="74"/>
       <c r="T24" s="35"/>
@@ -11395,13 +12696,13 @@
         <v>18</v>
       </c>
       <c r="C25" s="67" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D25" s="67" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E25" s="67" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F25" s="68" t="s">
         <v>59</v>
@@ -11414,25 +12715,25 @@
       <c r="J25" s="32"/>
       <c r="K25" s="34"/>
       <c r="L25" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M25" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N25" s="35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O25" s="85" t="s">
         <v>13</v>
       </c>
       <c r="P25" s="24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q25" s="74" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="R25" s="83" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="S25" s="74"/>
       <c r="T25" s="35"/>
@@ -11459,13 +12760,13 @@
         <v>19</v>
       </c>
       <c r="C26" s="67" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D26" s="67" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E26" s="67" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F26" s="69">
         <v>10</v>
@@ -11478,22 +12779,22 @@
       <c r="J26" s="32"/>
       <c r="K26" s="34"/>
       <c r="L26" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M26" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N26" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O26" s="87">
         <v>0</v>
       </c>
       <c r="P26" s="24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q26" s="82" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="R26" s="83"/>
       <c r="S26" s="74"/>
@@ -11521,13 +12822,13 @@
         <v>20</v>
       </c>
       <c r="C27" s="67" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D27" s="67" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E27" s="67" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F27" s="69">
         <v>7</v>
@@ -11540,25 +12841,25 @@
       <c r="J27" s="32"/>
       <c r="K27" s="34"/>
       <c r="L27" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M27" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N27" s="35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O27" s="87">
         <v>0</v>
       </c>
       <c r="P27" s="24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q27" s="82" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="R27" s="83" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="S27" s="74"/>
       <c r="T27" s="35"/>
@@ -11585,13 +12886,13 @@
         <v>21</v>
       </c>
       <c r="C28" s="67" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D28" s="67" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E28" s="67" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F28" s="69">
         <v>20</v>
@@ -11604,25 +12905,25 @@
       <c r="J28" s="32"/>
       <c r="K28" s="34"/>
       <c r="L28" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M28" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N28" s="35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O28" s="87">
         <v>0</v>
       </c>
       <c r="P28" s="24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q28" s="82" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="R28" s="83" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S28" s="74"/>
       <c r="T28" s="35"/>
@@ -11649,13 +12950,13 @@
         <v>22</v>
       </c>
       <c r="C29" s="67" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D29" s="67" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E29" s="67" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F29" s="68" t="s">
         <v>59</v>
@@ -11668,25 +12969,25 @@
       <c r="J29" s="32"/>
       <c r="K29" s="34"/>
       <c r="L29" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M29" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N29" s="35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O29" s="85" t="s">
         <v>13</v>
       </c>
       <c r="P29" s="24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q29" s="82" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="R29" s="83" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="S29" s="74"/>
       <c r="T29" s="35"/>
@@ -11713,10 +13014,10 @@
         <v>23</v>
       </c>
       <c r="C30" s="67" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D30" s="67" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E30" s="67" t="s">
         <v>64</v>
@@ -11732,25 +13033,25 @@
       <c r="J30" s="32"/>
       <c r="K30" s="34"/>
       <c r="L30" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M30" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N30" s="35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O30" s="85" t="s">
         <v>13</v>
       </c>
       <c r="P30" s="24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q30" s="82" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="R30" s="83" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="S30" s="74"/>
       <c r="T30" s="35"/>
@@ -11777,13 +13078,13 @@
         <v>24</v>
       </c>
       <c r="C31" s="67" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D31" s="67" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E31" s="67" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F31" s="69">
         <v>320</v>
@@ -11796,29 +13097,29 @@
       <c r="J31" s="32"/>
       <c r="K31" s="34"/>
       <c r="L31" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M31" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N31" s="35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O31" s="87">
         <v>0</v>
       </c>
       <c r="P31" s="24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q31" s="74" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="R31" s="83" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="S31" s="74"/>
       <c r="T31" s="35" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="U31" s="124" t="str">
         <f t="shared" si="0"/>
@@ -11843,10 +13144,10 @@
         <v>25</v>
       </c>
       <c r="C32" s="67" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D32" s="67" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E32" s="67" t="s">
         <v>63</v>
@@ -11862,25 +13163,25 @@
       <c r="J32" s="32"/>
       <c r="K32" s="34"/>
       <c r="L32" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M32" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N32" s="35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O32" s="87">
         <v>0</v>
       </c>
       <c r="P32" s="24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q32" s="74" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="R32" s="83" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="S32" s="74"/>
       <c r="T32" s="35"/>
@@ -11907,10 +13208,10 @@
         <v>26</v>
       </c>
       <c r="C33" s="67" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D33" s="67" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E33" s="67" t="s">
         <v>65</v>
@@ -11926,22 +13227,22 @@
       <c r="J33" s="32"/>
       <c r="K33" s="37"/>
       <c r="L33" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M33" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N33" s="35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O33" s="85" t="s">
         <v>13</v>
       </c>
       <c r="P33" s="24" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q33" s="82" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="R33" s="83"/>
       <c r="S33" s="74"/>
@@ -11969,10 +13270,10 @@
         <v>27</v>
       </c>
       <c r="C34" s="67" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D34" s="67" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E34" s="67" t="s">
         <v>63</v>
@@ -11988,29 +13289,29 @@
       <c r="J34" s="32"/>
       <c r="K34" s="34"/>
       <c r="L34" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M34" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N34" s="35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O34" s="87">
         <v>0</v>
       </c>
       <c r="P34" s="24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q34" s="74" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="R34" s="83" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="S34" s="74"/>
       <c r="T34" s="35" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="U34" s="124" t="str">
         <f t="shared" ref="U34" si="15">D34&amp;" " &amp;E34&amp;" "&amp;K34&amp;","</f>
@@ -12054,22 +13355,22 @@
       <c r="J35" s="32"/>
       <c r="K35" s="34"/>
       <c r="L35" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M35" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N35" s="35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O35" s="87">
         <v>0</v>
       </c>
       <c r="P35" s="24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q35" s="74" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="R35" s="83"/>
       <c r="S35" s="75"/>
@@ -12099,10 +13400,10 @@
         <v>29</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="67" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E36" s="67" t="s">
         <v>62</v>
@@ -12118,26 +13419,26 @@
       <c r="J36" s="32"/>
       <c r="K36" s="34"/>
       <c r="L36" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M36" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N36" s="35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O36" s="85" t="s">
         <v>13</v>
       </c>
       <c r="P36" s="24" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Q36" s="82" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="R36" s="83"/>
       <c r="S36" s="74" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="T36" s="35"/>
       <c r="U36" s="124" t="str">
@@ -12182,13 +13483,13 @@
       <c r="J37" s="32"/>
       <c r="K37" s="37"/>
       <c r="L37" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M37" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N37" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O37" s="85" t="s">
         <v>13</v>
@@ -12246,13 +13547,13 @@
       <c r="J38" s="32"/>
       <c r="K38" s="37"/>
       <c r="L38" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M38" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N38" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O38" s="85" t="s">
         <v>13</v>
@@ -12310,22 +13611,22 @@
       <c r="J39" s="32"/>
       <c r="K39" s="37"/>
       <c r="L39" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M39" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N39" s="35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O39" s="85" t="s">
         <v>13</v>
       </c>
       <c r="P39" s="24" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="Q39" s="82" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="R39" s="83"/>
       <c r="S39" s="74"/>
@@ -12352,8 +13653,9 @@
     <row r="40" spans="2:24">
       <c r="B40" s="38"/>
       <c r="C40" s="39"/>
-      <c r="D40" s="39" t="s">
-        <v>105</v>
+      <c r="D40" s="39" t="str">
+        <f>"primary key ("&amp;$D$8&amp;",modify_count)"</f>
+        <v>primary key (s_pk,modify_count)</v>
       </c>
       <c r="E40" s="39"/>
       <c r="F40" s="39"/>
@@ -12384,11 +13686,11 @@
     </row>
     <row r="42" spans="2:24">
       <c r="C42" s="115" t="s">
-        <v>100</v>
+        <v>328</v>
       </c>
       <c r="D42" s="72"/>
       <c r="E42" s="72" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F42" s="72"/>
       <c r="G42" s="72"/>
@@ -12407,7 +13709,7 @@
     </row>
     <row r="46" spans="2:24">
       <c r="C46" s="115" t="s">
-        <v>261</v>
+        <v>329</v>
       </c>
       <c r="D46" s="72"/>
       <c r="E46" s="72"/>
@@ -12422,11 +13724,11 @@
     </row>
     <row r="49" spans="3:6">
       <c r="C49" s="115" t="s">
-        <v>102</v>
+        <v>330</v>
       </c>
       <c r="D49" s="72"/>
       <c r="E49" s="72" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F49" s="72"/>
     </row>
@@ -12438,12 +13740,12 @@
     </row>
     <row r="51" spans="3:6">
       <c r="C51" s="30" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="52" spans="3:6">
       <c r="C52" s="30" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -12464,8 +13766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7AF4FB-3BC2-4BFF-B58C-C1610F351698}">
   <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5"/>
@@ -12494,19 +13796,19 @@
         <v>47</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="15" customFormat="1">
       <c r="A2" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="153" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="151"/>
+      <c r="C2" s="154"/>
       <c r="D2" s="62" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E2" s="63"/>
       <c r="F2" s="63"/>
@@ -12518,44 +13820,44 @@
       <c r="A3" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="148" t="s">
+      <c r="B3" s="151" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="149"/>
+      <c r="C3" s="152"/>
       <c r="D3" s="64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E3" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="146" t="s">
+      <c r="F3" s="149" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="147"/>
+      <c r="G3" s="150"/>
     </row>
     <row r="4" spans="1:24" s="15" customFormat="1" ht="18.75">
       <c r="A4" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="148" t="s">
+      <c r="B4" s="151" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="149"/>
+      <c r="C4" s="152"/>
       <c r="D4" s="64" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E4" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="144">
+      <c r="F4" s="147">
         <v>45126</v>
       </c>
-      <c r="G4" s="145"/>
+      <c r="G4" s="148"/>
     </row>
     <row r="5" spans="1:24" ht="8.25" customHeight="1"/>
     <row r="6" spans="1:24">
       <c r="L6" s="79" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M6" s="80"/>
       <c r="N6" s="80"/>
@@ -12597,37 +13899,37 @@
         <v>2</v>
       </c>
       <c r="I7" s="78" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J7" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="K7" s="78" t="s">
+        <v>183</v>
+      </c>
+      <c r="L7" s="89" t="s">
+        <v>195</v>
+      </c>
+      <c r="M7" s="89" t="s">
         <v>196</v>
       </c>
-      <c r="K7" s="78" t="s">
-        <v>185</v>
-      </c>
-      <c r="L7" s="89" t="s">
+      <c r="N7" s="89" t="s">
         <v>197</v>
       </c>
-      <c r="M7" s="89" t="s">
+      <c r="O7" s="89" t="s">
         <v>198</v>
       </c>
-      <c r="N7" s="89" t="s">
+      <c r="P7" s="89" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q7" s="89" t="s">
         <v>199</v>
       </c>
-      <c r="O7" s="89" t="s">
+      <c r="R7" s="89" t="s">
+        <v>179</v>
+      </c>
+      <c r="S7" s="90" t="s">
         <v>200</v>
-      </c>
-      <c r="P7" s="89" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q7" s="89" t="s">
-        <v>201</v>
-      </c>
-      <c r="R7" s="89" t="s">
-        <v>181</v>
-      </c>
-      <c r="S7" s="90" t="s">
-        <v>202</v>
       </c>
       <c r="T7" s="89" t="s">
         <v>1</v>
@@ -12644,7 +13946,7 @@
         <v>73</v>
       </c>
       <c r="X7" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -12656,10 +13958,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E8" s="32" t="s">
         <v>61</v>
@@ -12679,13 +13981,13 @@
         <v>18</v>
       </c>
       <c r="L8" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M8" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N8" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O8" s="85" t="s">
         <v>13</v>
@@ -12745,13 +14047,13 @@
         <v>18</v>
       </c>
       <c r="L9" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M9" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N9" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O9" s="86" t="s">
         <v>59</v>
@@ -12790,13 +14092,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="67" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="67" t="s">
-        <v>116</v>
-      </c>
       <c r="E10" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F10" s="69">
         <v>50</v>
@@ -12811,22 +14113,22 @@
       <c r="J10" s="32"/>
       <c r="K10" s="34"/>
       <c r="L10" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M10" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N10" s="35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O10" s="87">
         <v>0</v>
       </c>
       <c r="P10" s="24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q10" s="82" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="R10" s="84"/>
       <c r="S10" s="74"/>
@@ -12875,13 +14177,13 @@
       <c r="J11" s="32"/>
       <c r="K11" s="37"/>
       <c r="L11" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M11" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N11" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O11" s="85" t="s">
         <v>13</v>
@@ -12939,13 +14241,13 @@
       <c r="J12" s="32"/>
       <c r="K12" s="37"/>
       <c r="L12" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M12" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N12" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O12" s="85" t="s">
         <v>13</v>
@@ -13003,22 +14305,22 @@
       <c r="J13" s="32"/>
       <c r="K13" s="37"/>
       <c r="L13" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M13" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N13" s="35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O13" s="85" t="s">
         <v>13</v>
       </c>
       <c r="P13" s="24" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="Q13" s="82" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="R13" s="83"/>
       <c r="S13" s="74"/>
@@ -13045,8 +14347,9 @@
     <row r="14" spans="1:24">
       <c r="B14" s="38"/>
       <c r="C14" s="39"/>
-      <c r="D14" s="39" t="s">
-        <v>117</v>
+      <c r="D14" s="39" t="str">
+        <f>"primary key ("&amp;$D$8&amp;",modify_count)"</f>
+        <v>primary key (related_pk,modify_count)</v>
       </c>
       <c r="E14" s="39"/>
       <c r="F14" s="39"/>
@@ -13076,12 +14379,12 @@
       <c r="X14" s="40"/>
     </row>
     <row r="16" spans="1:24">
-      <c r="C16" s="72" t="s">
-        <v>100</v>
+      <c r="C16" s="115" t="s">
+        <v>328</v>
       </c>
       <c r="D16" s="72"/>
       <c r="E16" s="72" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F16" s="72"/>
       <c r="G16" s="72"/>
@@ -13100,8 +14403,8 @@
       </c>
     </row>
     <row r="20" spans="3:8">
-      <c r="C20" s="72" t="s">
-        <v>101</v>
+      <c r="C20" s="115" t="s">
+        <v>329</v>
       </c>
       <c r="D20" s="72"/>
       <c r="E20" s="72"/>
@@ -13116,11 +14419,11 @@
       </c>
     </row>
     <row r="23" spans="3:8">
-      <c r="C23" s="72" t="s">
-        <v>102</v>
+      <c r="C23" s="115" t="s">
+        <v>330</v>
       </c>
       <c r="D23" s="72" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E23" s="72"/>
       <c r="F23" s="72"/>
@@ -13154,7 +14457,7 @@
   <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5"/>
@@ -13188,12 +14491,12 @@
       <c r="A2" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="153" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="151"/>
+      <c r="C2" s="154"/>
       <c r="D2" s="62" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E2" s="63"/>
       <c r="F2" s="63"/>
@@ -13205,44 +14508,44 @@
       <c r="A3" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="148" t="s">
+      <c r="B3" s="151" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="149"/>
+      <c r="C3" s="152"/>
       <c r="D3" s="64" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E3" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="146" t="s">
+      <c r="F3" s="149" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="147"/>
+      <c r="G3" s="150"/>
     </row>
     <row r="4" spans="1:24" s="15" customFormat="1" ht="18.75">
       <c r="A4" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="148" t="s">
+      <c r="B4" s="151" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="149"/>
+      <c r="C4" s="152"/>
       <c r="D4" s="64" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E4" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="144">
+      <c r="F4" s="147">
         <v>45546</v>
       </c>
-      <c r="G4" s="145"/>
+      <c r="G4" s="148"/>
     </row>
     <row r="5" spans="1:24" ht="8.25" customHeight="1"/>
     <row r="6" spans="1:24">
       <c r="L6" s="79" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M6" s="80"/>
       <c r="N6" s="80"/>
@@ -13284,37 +14587,37 @@
         <v>2</v>
       </c>
       <c r="I7" s="78" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J7" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="K7" s="78" t="s">
+        <v>183</v>
+      </c>
+      <c r="L7" s="89" t="s">
+        <v>195</v>
+      </c>
+      <c r="M7" s="89" t="s">
         <v>196</v>
       </c>
-      <c r="K7" s="78" t="s">
-        <v>185</v>
-      </c>
-      <c r="L7" s="89" t="s">
+      <c r="N7" s="89" t="s">
         <v>197</v>
       </c>
-      <c r="M7" s="89" t="s">
+      <c r="O7" s="89" t="s">
         <v>198</v>
       </c>
-      <c r="N7" s="89" t="s">
+      <c r="P7" s="89" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q7" s="89" t="s">
         <v>199</v>
       </c>
-      <c r="O7" s="89" t="s">
+      <c r="R7" s="89" t="s">
+        <v>179</v>
+      </c>
+      <c r="S7" s="90" t="s">
         <v>200</v>
-      </c>
-      <c r="P7" s="89" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q7" s="89" t="s">
-        <v>201</v>
-      </c>
-      <c r="R7" s="89" t="s">
-        <v>181</v>
-      </c>
-      <c r="S7" s="90" t="s">
-        <v>202</v>
       </c>
       <c r="T7" s="89" t="s">
         <v>1</v>
@@ -13331,7 +14634,7 @@
         <v>73</v>
       </c>
       <c r="X7" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -13343,10 +14646,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E8" s="32" t="s">
         <v>61</v>
@@ -13366,13 +14669,13 @@
         <v>18</v>
       </c>
       <c r="L8" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M8" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N8" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O8" s="85" t="s">
         <v>13</v>
@@ -13432,13 +14735,13 @@
         <v>18</v>
       </c>
       <c r="L9" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M9" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N9" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O9" s="86" t="s">
         <v>59</v>
@@ -13477,13 +14780,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="67" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D10" s="67" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E10" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F10" s="69">
         <v>50</v>
@@ -13498,22 +14801,22 @@
       <c r="J10" s="32"/>
       <c r="K10" s="34"/>
       <c r="L10" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M10" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N10" s="35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O10" s="87">
         <v>0</v>
       </c>
       <c r="P10" s="24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q10" s="82" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="R10" s="84"/>
       <c r="S10" s="74"/>
@@ -13543,13 +14846,13 @@
         <v>4</v>
       </c>
       <c r="C11" s="67" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D11" s="67" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E11" s="67" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F11" s="69"/>
       <c r="G11" s="32" t="s">
@@ -13560,22 +14863,22 @@
       <c r="J11" s="32"/>
       <c r="K11" s="34"/>
       <c r="L11" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M11" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N11" s="35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O11" s="87">
         <v>0</v>
       </c>
       <c r="P11" s="24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q11" s="74" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="R11" s="84"/>
       <c r="S11" s="74"/>
@@ -13624,22 +14927,22 @@
       <c r="J12" s="32"/>
       <c r="K12" s="34"/>
       <c r="L12" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M12" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N12" s="35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O12" s="87">
         <v>0</v>
       </c>
       <c r="P12" s="24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q12" s="74" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="R12" s="83"/>
       <c r="S12" s="75"/>
@@ -13688,13 +14991,13 @@
       <c r="J13" s="32"/>
       <c r="K13" s="37"/>
       <c r="L13" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M13" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N13" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O13" s="85" t="s">
         <v>13</v>
@@ -13752,13 +15055,13 @@
       <c r="J14" s="32"/>
       <c r="K14" s="37"/>
       <c r="L14" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M14" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N14" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O14" s="85" t="s">
         <v>13</v>
@@ -13816,22 +15119,22 @@
       <c r="J15" s="32"/>
       <c r="K15" s="37"/>
       <c r="L15" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M15" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N15" s="35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O15" s="85" t="s">
         <v>13</v>
       </c>
       <c r="P15" s="24" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="Q15" s="82" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="R15" s="83"/>
       <c r="S15" s="74"/>
@@ -13858,8 +15161,9 @@
     <row r="16" spans="1:24">
       <c r="B16" s="38"/>
       <c r="C16" s="39"/>
-      <c r="D16" s="39" t="s">
-        <v>301</v>
+      <c r="D16" s="39" t="str">
+        <f>"primary key ("&amp;D8&amp;",modify_count)"</f>
+        <v>primary key (sql_pk,modify_count)</v>
       </c>
       <c r="E16" s="39"/>
       <c r="F16" s="39"/>
@@ -13894,7 +15198,7 @@
       </c>
       <c r="D18" s="72"/>
       <c r="E18" s="72" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F18" s="72"/>
       <c r="G18" s="72"/>
@@ -13933,7 +15237,7 @@
         <v>102</v>
       </c>
       <c r="D25" s="72" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E25" s="72"/>
       <c r="F25" s="72"/>
@@ -13967,7 +15271,7 @@
   <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5"/>
@@ -13996,19 +15300,19 @@
         <v>47</v>
       </c>
       <c r="D1" s="114" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="15" customFormat="1">
       <c r="A2" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="153" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="151"/>
+      <c r="C2" s="154"/>
       <c r="D2" s="62" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E2" s="63"/>
       <c r="F2" s="63"/>
@@ -14020,44 +15324,44 @@
       <c r="A3" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="148" t="s">
+      <c r="B3" s="151" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="149"/>
+      <c r="C3" s="152"/>
       <c r="D3" s="64" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E3" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="146" t="s">
+      <c r="F3" s="149" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="147"/>
+      <c r="G3" s="150"/>
     </row>
     <row r="4" spans="1:24" s="15" customFormat="1" ht="18.75">
       <c r="A4" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="148" t="s">
+      <c r="B4" s="151" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="149"/>
+      <c r="C4" s="152"/>
       <c r="D4" s="64" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E4" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="144">
+      <c r="F4" s="147">
         <v>45126</v>
       </c>
-      <c r="G4" s="145"/>
+      <c r="G4" s="148"/>
     </row>
     <row r="5" spans="1:24" ht="8.25" customHeight="1"/>
     <row r="6" spans="1:24">
       <c r="L6" s="79" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M6" s="80"/>
       <c r="N6" s="80"/>
@@ -14099,37 +15403,37 @@
         <v>2</v>
       </c>
       <c r="I7" s="78" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J7" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="K7" s="78" t="s">
+        <v>183</v>
+      </c>
+      <c r="L7" s="89" t="s">
+        <v>195</v>
+      </c>
+      <c r="M7" s="89" t="s">
         <v>196</v>
       </c>
-      <c r="K7" s="78" t="s">
-        <v>185</v>
-      </c>
-      <c r="L7" s="89" t="s">
+      <c r="N7" s="89" t="s">
         <v>197</v>
       </c>
-      <c r="M7" s="89" t="s">
+      <c r="O7" s="89" t="s">
         <v>198</v>
       </c>
-      <c r="N7" s="89" t="s">
+      <c r="P7" s="89" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q7" s="89" t="s">
         <v>199</v>
       </c>
-      <c r="O7" s="89" t="s">
+      <c r="R7" s="89" t="s">
+        <v>179</v>
+      </c>
+      <c r="S7" s="90" t="s">
         <v>200</v>
-      </c>
-      <c r="P7" s="89" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q7" s="89" t="s">
-        <v>201</v>
-      </c>
-      <c r="R7" s="89" t="s">
-        <v>181</v>
-      </c>
-      <c r="S7" s="90" t="s">
-        <v>202</v>
       </c>
       <c r="T7" s="89" t="s">
         <v>1</v>
@@ -14146,7 +15450,7 @@
         <v>73</v>
       </c>
       <c r="X7" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -14181,13 +15485,13 @@
         <v>18</v>
       </c>
       <c r="L8" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M8" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N8" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O8" s="85" t="s">
         <v>13</v>
@@ -14226,10 +15530,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="67" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D9" s="67" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E9" s="67" t="s">
         <v>72</v>
@@ -14245,22 +15549,22 @@
       <c r="J9" s="32"/>
       <c r="K9" s="34"/>
       <c r="L9" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M9" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N9" s="35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O9" s="86">
         <v>0</v>
       </c>
       <c r="P9" s="24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q9" s="82" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="R9" s="83"/>
       <c r="S9" s="74"/>
@@ -14288,10 +15592,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="67" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D10" s="67" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E10" s="67" t="s">
         <v>62</v>
@@ -14307,25 +15611,25 @@
       <c r="J10" s="32"/>
       <c r="K10" s="34"/>
       <c r="L10" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M10" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N10" s="35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O10" s="85" t="s">
         <v>13</v>
       </c>
       <c r="P10" s="24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q10" s="74" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="R10" s="83" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="S10" s="103"/>
       <c r="T10" s="35"/>
@@ -14371,13 +15675,13 @@
       <c r="J11" s="32"/>
       <c r="K11" s="34"/>
       <c r="L11" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M11" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N11" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O11" s="85" t="s">
         <v>13</v>
@@ -14435,13 +15739,13 @@
       <c r="J12" s="32"/>
       <c r="K12" s="34"/>
       <c r="L12" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M12" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N12" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O12" s="85" t="s">
         <v>13</v>
@@ -14513,7 +15817,7 @@
       </c>
       <c r="D15" s="72"/>
       <c r="E15" s="72" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F15" s="72"/>
       <c r="G15" s="72"/>

--- a/文書/04.詳細設計書/【Kai9Tmpl】テーブル定義書.xlsx
+++ b/文書/04.詳細設計書/【Kai9Tmpl】テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d30bd01ee33075e8/work/25.java/10.Kai9Tmpl/文書/04.詳細設計書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="207" documentId="14_{CD832F92-60E6-4E45-A810-4D5D0E7B03B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33F0A254-3C1E-4187-8198-A2D2582E4173}"/>
+  <xr:revisionPtr revIDLastSave="304" documentId="14_{CD832F92-60E6-4E45-A810-4D5D0E7B03B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8AF197E-9069-45CE-B9B4-A2254E256DE2}"/>
   <bookViews>
-    <workbookView xWindow="3795" yWindow="90" windowWidth="27705" windowHeight="14925" tabRatio="758" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="758" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="63" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="343">
   <si>
     <t>初期値</t>
   </si>
@@ -673,20 +673,6 @@
   </si>
   <si>
     <t>自動採番型のPKと、更新回数（modify_count)を必ず保持する事</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LOGINユーザの権限</t>
-    <rPh sb="9" eb="11">
-      <t>ケンゲン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>シリアル型がある場合、シーケンスにも権限付与が必要</t>
-  </si>
-  <si>
-    <t>ユニークインデックス</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2567,6 +2553,51 @@
   <si>
     <t>kai9tmplpg</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>利用可能なDBの型</t>
+    <rPh sb="0" eb="2">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>https://github.com/kai9jp/kai9_doc/tree/main/04.詳細設計/【型】扱い方.xlsx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自動ソースコード生成として取り扱える型については、別紙参照。</t>
+    <rPh sb="0" eb="2">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>アツカ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ベッシ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※これ以外を利用する場合、自身で作り込めばOK</t>
   </si>
 </sst>
 </file>
@@ -3503,13 +3534,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>228601</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>160712</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3547,13 +3578,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>152482</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3569,8 +3600,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="342900" y="1114425"/>
-          <a:ext cx="12982575" cy="0"/>
+          <a:off x="342900" y="23040976"/>
+          <a:ext cx="12982575" cy="2314656"/>
           <a:chOff x="342900" y="20002501"/>
           <a:chExt cx="12982575" cy="2314656"/>
         </a:xfrm>
@@ -3815,13 +3846,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>124581</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>28893</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3859,13 +3890,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>352424</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3925,13 +3956,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>271462</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3981,13 +4012,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>152985</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -4003,8 +4034,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="419100" y="1114425"/>
-          <a:ext cx="7010400" cy="0"/>
+          <a:off x="419100" y="29565600"/>
+          <a:ext cx="7010400" cy="4191585"/>
           <a:chOff x="8601075" y="27384375"/>
           <a:chExt cx="7010400" cy="4191585"/>
         </a:xfrm>
@@ -4096,13 +4127,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>162470</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -4118,8 +4149,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7934324" y="1114425"/>
-          <a:ext cx="8010526" cy="0"/>
+          <a:off x="7934324" y="30260925"/>
+          <a:ext cx="8010526" cy="3905795"/>
           <a:chOff x="276224" y="28146375"/>
           <a:chExt cx="8010526" cy="3905795"/>
         </a:xfrm>
@@ -4211,13 +4242,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>109538</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7423,7 +7454,7 @@
   <dimension ref="A1:X23"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5"/>
@@ -7452,7 +7483,7 @@
         <v>47</v>
       </c>
       <c r="D1" s="114" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="15" customFormat="1">
@@ -7464,7 +7495,7 @@
       </c>
       <c r="C2" s="154"/>
       <c r="D2" s="62" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E2" s="63"/>
       <c r="F2" s="63"/>
@@ -7481,7 +7512,7 @@
       </c>
       <c r="C3" s="152"/>
       <c r="D3" s="64" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E3" s="65" t="s">
         <v>48</v>
@@ -7500,7 +7531,7 @@
       </c>
       <c r="C4" s="152"/>
       <c r="D4" s="91" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E4" s="66" t="s">
         <v>50</v>
@@ -7513,7 +7544,7 @@
     <row r="5" spans="1:24" ht="8.25" customHeight="1"/>
     <row r="6" spans="1:24">
       <c r="L6" s="79" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M6" s="80"/>
       <c r="N6" s="80"/>
@@ -7555,37 +7586,37 @@
         <v>2</v>
       </c>
       <c r="I7" s="78" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J7" s="78" t="s">
+        <v>191</v>
+      </c>
+      <c r="K7" s="78" t="s">
+        <v>180</v>
+      </c>
+      <c r="L7" s="89" t="s">
+        <v>192</v>
+      </c>
+      <c r="M7" s="89" t="s">
+        <v>193</v>
+      </c>
+      <c r="N7" s="89" t="s">
         <v>194</v>
       </c>
-      <c r="K7" s="78" t="s">
-        <v>183</v>
-      </c>
-      <c r="L7" s="89" t="s">
+      <c r="O7" s="89" t="s">
         <v>195</v>
       </c>
-      <c r="M7" s="89" t="s">
+      <c r="P7" s="89" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q7" s="89" t="s">
         <v>196</v>
       </c>
-      <c r="N7" s="89" t="s">
+      <c r="R7" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="S7" s="90" t="s">
         <v>197</v>
-      </c>
-      <c r="O7" s="89" t="s">
-        <v>198</v>
-      </c>
-      <c r="P7" s="89" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q7" s="89" t="s">
-        <v>199</v>
-      </c>
-      <c r="R7" s="89" t="s">
-        <v>179</v>
-      </c>
-      <c r="S7" s="90" t="s">
-        <v>200</v>
       </c>
       <c r="T7" s="89" t="s">
         <v>1</v>
@@ -7602,7 +7633,7 @@
         <v>73</v>
       </c>
       <c r="X7" s="31" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -7617,7 +7648,7 @@
         <v>69</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>62</v>
@@ -7637,7 +7668,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="92" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="M8" s="93"/>
       <c r="N8" s="93"/>
@@ -7670,10 +7701,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>62</v>
@@ -7718,10 +7749,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="67" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D10" s="67" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E10" s="67" t="s">
         <v>62</v>
@@ -7862,7 +7893,7 @@
       <c r="B13" s="38"/>
       <c r="C13" s="39"/>
       <c r="D13" s="39" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
@@ -7893,11 +7924,11 @@
     </row>
     <row r="15" spans="1:24">
       <c r="C15" s="115" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D15" s="72"/>
       <c r="E15" s="72" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F15" s="72"/>
       <c r="G15" s="72"/>
@@ -7916,7 +7947,7 @@
     </row>
     <row r="19" spans="3:7">
       <c r="C19" s="115" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D19" s="72"/>
       <c r="E19" s="72"/>
@@ -7925,22 +7956,22 @@
     </row>
     <row r="20" spans="3:7">
       <c r="C20" s="134" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="22" spans="3:7">
       <c r="C22" s="115" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D22" s="72"/>
       <c r="E22" s="72" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F22" s="72"/>
     </row>
     <row r="23" spans="3:7">
       <c r="C23" s="134" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -8643,10 +8674,10 @@
     <tabColor theme="8" tint="0.79998168889431442"/>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A2:BG168"/>
+  <dimension ref="A2:BG174"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J183" sqref="J183"/>
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="15.75" outlineLevelRow="1"/>
@@ -8654,7 +8685,7 @@
     <col min="1" max="16384" width="4.625" style="76"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:59" s="15" customFormat="1" ht="18.75" collapsed="1">
+    <row r="2" spans="1:59" s="15" customFormat="1" ht="18.75">
       <c r="A2" s="132" t="s">
         <v>89</v>
       </c>
@@ -8717,8 +8748,8 @@
       <c r="BF2" s="48"/>
       <c r="BG2" s="48"/>
     </row>
-    <row r="3" spans="1:59" s="15" customFormat="1" ht="18.75" hidden="1" outlineLevel="1"/>
-    <row r="4" spans="1:59" s="15" customFormat="1" ht="18.75" hidden="1" outlineLevel="1">
+    <row r="3" spans="1:59" s="15" customFormat="1" ht="18.75" outlineLevel="1"/>
+    <row r="4" spans="1:59" s="15" customFormat="1" ht="18.75" outlineLevel="1">
       <c r="B4" s="131" t="s">
         <v>90</v>
       </c>
@@ -8726,7 +8757,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:59" s="15" customFormat="1" ht="18.75" hidden="1" outlineLevel="1">
+    <row r="5" spans="1:59" s="15" customFormat="1" ht="18.75" outlineLevel="1">
       <c r="B5" s="131" t="s">
         <v>92</v>
       </c>
@@ -8734,16 +8765,16 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:59" s="15" customFormat="1" ht="18.75" hidden="1" outlineLevel="1"/>
-    <row r="7" spans="1:59" s="15" customFormat="1" ht="18.75" hidden="1" outlineLevel="1">
+    <row r="6" spans="1:59" s="15" customFormat="1" ht="18.75" outlineLevel="1"/>
+    <row r="7" spans="1:59" s="15" customFormat="1" ht="18.75" outlineLevel="1">
       <c r="B7" s="131" t="s">
         <v>94</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="8" spans="1:59" s="15" customFormat="1" ht="18.75" hidden="1" outlineLevel="1">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:59" s="15" customFormat="1" ht="18.75" outlineLevel="1">
       <c r="B8" s="131" t="s">
         <v>95</v>
       </c>
@@ -8751,13 +8782,13 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:59" s="15" customFormat="1" ht="18.75" hidden="1" outlineLevel="1"/>
-    <row r="10" spans="1:59" s="15" customFormat="1" ht="18.75" hidden="1" outlineLevel="1">
+    <row r="9" spans="1:59" s="15" customFormat="1" ht="18.75" outlineLevel="1"/>
+    <row r="10" spans="1:59" s="15" customFormat="1" ht="18.75" outlineLevel="1">
       <c r="B10" s="15" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:59" s="15" customFormat="1" ht="18.75" hidden="1" outlineLevel="1">
+    <row r="11" spans="1:59" s="15" customFormat="1" ht="18.75" outlineLevel="1">
       <c r="B11" s="15" t="s">
         <v>98</v>
       </c>
@@ -8765,940 +8796,1020 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:59" s="15" customFormat="1" ht="18.75" hidden="1" outlineLevel="1">
+    <row r="12" spans="1:59" s="15" customFormat="1" ht="18.75" outlineLevel="1">
       <c r="B12" s="15" t="s">
         <v>98</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="13" spans="1:59" s="15" customFormat="1" ht="18.75" hidden="1" outlineLevel="1"/>
-    <row r="14" spans="1:59" ht="18.75" collapsed="1">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="13" spans="1:59" s="15" customFormat="1" ht="18.75" outlineLevel="1"/>
+    <row r="14" spans="1:59" s="15" customFormat="1" ht="18.75">
       <c r="A14" s="132" t="s">
-        <v>322</v>
-      </c>
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="77"/>
-      <c r="N14" s="77"/>
-      <c r="O14" s="77"/>
-      <c r="P14" s="77"/>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="77"/>
-      <c r="S14" s="77"/>
-      <c r="T14" s="77"/>
-      <c r="U14" s="77"/>
-      <c r="V14" s="77"/>
-      <c r="W14" s="77"/>
-      <c r="X14" s="77"/>
-      <c r="Y14" s="77"/>
-      <c r="Z14" s="77"/>
-      <c r="AA14" s="77"/>
-      <c r="AB14" s="77"/>
-      <c r="AC14" s="77"/>
-      <c r="AD14" s="77"/>
-      <c r="AE14" s="77"/>
-      <c r="AF14" s="77"/>
-      <c r="AG14" s="77"/>
-      <c r="AH14" s="77"/>
-      <c r="AI14" s="77"/>
-      <c r="AJ14" s="77"/>
-      <c r="AK14" s="77"/>
-    </row>
-    <row r="15" spans="1:59" hidden="1" outlineLevel="1"/>
-    <row r="16" spans="1:59" hidden="1" outlineLevel="1">
-      <c r="B16" s="77" t="s">
+        <v>339</v>
+      </c>
+      <c r="B14" s="133"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="133"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="133"/>
+      <c r="K14" s="133"/>
+      <c r="L14" s="133"/>
+      <c r="M14" s="133"/>
+      <c r="N14" s="133"/>
+      <c r="O14" s="133"/>
+      <c r="P14" s="133"/>
+      <c r="Q14" s="133"/>
+      <c r="R14" s="133"/>
+      <c r="S14" s="133"/>
+      <c r="T14" s="133"/>
+      <c r="U14" s="133"/>
+      <c r="V14" s="133"/>
+      <c r="W14" s="133"/>
+      <c r="X14" s="133"/>
+      <c r="Y14" s="133"/>
+      <c r="Z14" s="133"/>
+      <c r="AA14" s="133"/>
+      <c r="AB14" s="133"/>
+      <c r="AC14" s="133"/>
+      <c r="AD14" s="133"/>
+      <c r="AE14" s="133"/>
+      <c r="AF14" s="133"/>
+      <c r="AG14" s="133"/>
+      <c r="AH14" s="133"/>
+      <c r="AI14" s="133"/>
+      <c r="AJ14" s="133"/>
+      <c r="AK14" s="133"/>
+      <c r="AL14" s="48"/>
+      <c r="AM14" s="48"/>
+      <c r="AN14" s="48"/>
+      <c r="AO14" s="48"/>
+      <c r="AP14" s="48"/>
+      <c r="AQ14" s="48"/>
+      <c r="AR14" s="48"/>
+      <c r="AS14" s="48"/>
+      <c r="AT14" s="48"/>
+      <c r="AU14" s="48"/>
+      <c r="AV14" s="48"/>
+      <c r="AW14" s="48"/>
+      <c r="AX14" s="48"/>
+      <c r="AY14" s="48"/>
+      <c r="AZ14" s="48"/>
+      <c r="BA14" s="48"/>
+      <c r="BB14" s="48"/>
+      <c r="BC14" s="48"/>
+      <c r="BD14" s="48"/>
+      <c r="BE14" s="48"/>
+      <c r="BF14" s="48"/>
+      <c r="BG14" s="48"/>
+    </row>
+    <row r="15" spans="1:59" s="15" customFormat="1" ht="18.75" outlineLevel="1"/>
+    <row r="16" spans="1:59" s="15" customFormat="1" ht="18.75" outlineLevel="1">
+      <c r="B16" s="15" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" s="15" customFormat="1" ht="18.75" outlineLevel="1">
+      <c r="B17" s="131" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" s="15" customFormat="1" ht="18.75" outlineLevel="1">
+      <c r="B18" s="15" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" s="15" customFormat="1" ht="18.75" outlineLevel="1"/>
+    <row r="20" spans="1:37" ht="18.75">
+      <c r="A20" s="132" t="s">
+        <v>319</v>
+      </c>
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="77"/>
+      <c r="P20" s="77"/>
+      <c r="Q20" s="77"/>
+      <c r="R20" s="77"/>
+      <c r="S20" s="77"/>
+      <c r="T20" s="77"/>
+      <c r="U20" s="77"/>
+      <c r="V20" s="77"/>
+      <c r="W20" s="77"/>
+      <c r="X20" s="77"/>
+      <c r="Y20" s="77"/>
+      <c r="Z20" s="77"/>
+      <c r="AA20" s="77"/>
+      <c r="AB20" s="77"/>
+      <c r="AC20" s="77"/>
+      <c r="AD20" s="77"/>
+      <c r="AE20" s="77"/>
+      <c r="AF20" s="77"/>
+      <c r="AG20" s="77"/>
+      <c r="AH20" s="77"/>
+      <c r="AI20" s="77"/>
+      <c r="AJ20" s="77"/>
+      <c r="AK20" s="77"/>
+    </row>
+    <row r="21" spans="1:37" outlineLevel="1"/>
+    <row r="22" spans="1:37" outlineLevel="1">
+      <c r="B22" s="77" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="77"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="77"/>
+      <c r="P22" s="77"/>
+      <c r="Q22" s="77"/>
+      <c r="R22" s="77"/>
+      <c r="S22" s="77"/>
+      <c r="T22" s="77"/>
+    </row>
+    <row r="23" spans="1:37" outlineLevel="1"/>
+    <row r="24" spans="1:37" outlineLevel="1">
+      <c r="B24" s="122" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" outlineLevel="1">
+      <c r="B25" s="76" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="77"/>
-      <c r="N16" s="77"/>
-      <c r="O16" s="77"/>
-      <c r="P16" s="77"/>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="77"/>
-      <c r="S16" s="77"/>
-      <c r="T16" s="77"/>
-    </row>
-    <row r="17" spans="2:13" hidden="1" outlineLevel="1"/>
-    <row r="18" spans="2:13" hidden="1" outlineLevel="1">
-      <c r="B18" s="122" t="s">
+    </row>
+    <row r="26" spans="1:37" outlineLevel="1">
+      <c r="B26" s="76" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="76" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" outlineLevel="1">
+      <c r="B27" s="76" t="s">
+        <v>171</v>
+      </c>
+      <c r="D27" s="76" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" outlineLevel="1">
+      <c r="D28" s="76" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37" outlineLevel="1">
+      <c r="D29" s="76" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37" outlineLevel="1">
+      <c r="D30" s="76" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37" outlineLevel="1">
+      <c r="D31" s="76" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37" outlineLevel="1"/>
+    <row r="33" spans="2:20" outlineLevel="1">
+      <c r="B33" s="122" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" outlineLevel="1">
+      <c r="B34" s="76" t="s">
+        <v>117</v>
+      </c>
+      <c r="D34" s="76" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" hidden="1" outlineLevel="1">
-      <c r="B19" s="76" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19" s="76" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" hidden="1" outlineLevel="1">
-      <c r="B20" s="76" t="s">
-        <v>121</v>
-      </c>
-      <c r="D20" s="76" t="s">
+      <c r="M34" s="76" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" outlineLevel="1">
+      <c r="B35" s="76" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35" s="76" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20" outlineLevel="1">
+      <c r="B36" s="76" t="s">
+        <v>171</v>
+      </c>
+      <c r="D36" s="76" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" outlineLevel="1"/>
+    <row r="38" spans="2:20" outlineLevel="1"/>
+    <row r="39" spans="2:20" outlineLevel="1">
+      <c r="B39" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="C39" s="77"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="77"/>
+      <c r="H39" s="77"/>
+      <c r="I39" s="77"/>
+      <c r="J39" s="77"/>
+      <c r="K39" s="77"/>
+      <c r="L39" s="77"/>
+      <c r="M39" s="77"/>
+      <c r="N39" s="77"/>
+      <c r="O39" s="77"/>
+      <c r="P39" s="77"/>
+      <c r="Q39" s="77"/>
+      <c r="R39" s="77"/>
+      <c r="S39" s="77"/>
+      <c r="T39" s="77"/>
+    </row>
+    <row r="40" spans="2:20" outlineLevel="1">
+      <c r="B40" s="76" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20" outlineLevel="1">
+      <c r="B41" s="76" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" outlineLevel="1"/>
+    <row r="43" spans="2:20" outlineLevel="1">
+      <c r="B43" s="77" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43" s="77"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="77"/>
+      <c r="I43" s="77"/>
+      <c r="J43" s="77"/>
+      <c r="K43" s="77"/>
+      <c r="L43" s="77"/>
+      <c r="M43" s="77"/>
+      <c r="N43" s="77"/>
+      <c r="O43" s="77"/>
+      <c r="P43" s="77"/>
+      <c r="Q43" s="77"/>
+      <c r="R43" s="77"/>
+      <c r="S43" s="77"/>
+      <c r="T43" s="77"/>
+    </row>
+    <row r="44" spans="2:20" outlineLevel="1"/>
+    <row r="45" spans="2:20" outlineLevel="1">
+      <c r="B45" s="76" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="21" spans="2:13" hidden="1" outlineLevel="1">
-      <c r="B21" s="76" t="s">
-        <v>174</v>
-      </c>
-      <c r="D21" s="76" t="s">
+      <c r="D45" s="76" t="s">
+        <v>170</v>
+      </c>
+      <c r="G45" s="76" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" outlineLevel="1">
+      <c r="B46" s="76" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" outlineLevel="1"/>
+    <row r="48" spans="2:20" outlineLevel="1"/>
+    <row r="49" spans="2:20" outlineLevel="1"/>
+    <row r="50" spans="2:20" outlineLevel="1"/>
+    <row r="51" spans="2:20" outlineLevel="1"/>
+    <row r="52" spans="2:20" outlineLevel="1"/>
+    <row r="53" spans="2:20" outlineLevel="1"/>
+    <row r="54" spans="2:20" outlineLevel="1"/>
+    <row r="55" spans="2:20" outlineLevel="1"/>
+    <row r="56" spans="2:20" outlineLevel="1">
+      <c r="B56" s="76" t="s">
+        <v>171</v>
+      </c>
+      <c r="D56" s="76" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="57" spans="2:20" outlineLevel="1"/>
+    <row r="58" spans="2:20" outlineLevel="1">
+      <c r="B58" s="77" t="s">
+        <v>203</v>
+      </c>
+      <c r="C58" s="77"/>
+      <c r="D58" s="77"/>
+      <c r="E58" s="77"/>
+      <c r="F58" s="77"/>
+      <c r="G58" s="77"/>
+      <c r="H58" s="77"/>
+      <c r="I58" s="77"/>
+      <c r="J58" s="77"/>
+      <c r="K58" s="77"/>
+      <c r="L58" s="77"/>
+      <c r="M58" s="77"/>
+      <c r="N58" s="77"/>
+      <c r="O58" s="77"/>
+      <c r="P58" s="77"/>
+      <c r="Q58" s="77"/>
+      <c r="R58" s="77"/>
+      <c r="S58" s="77"/>
+      <c r="T58" s="77"/>
+    </row>
+    <row r="59" spans="2:20" outlineLevel="1">
+      <c r="B59" s="76" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="60" spans="2:20" outlineLevel="1">
+      <c r="B60" s="76" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="61" spans="2:20" outlineLevel="1"/>
+    <row r="62" spans="2:20" outlineLevel="1"/>
+    <row r="63" spans="2:20" outlineLevel="1">
+      <c r="B63" s="77" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="22" spans="2:13" hidden="1" outlineLevel="1">
-      <c r="D22" s="76" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" hidden="1" outlineLevel="1">
-      <c r="D23" s="76" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" hidden="1" outlineLevel="1">
-      <c r="D24" s="76" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" hidden="1" outlineLevel="1">
-      <c r="D25" s="76" t="s">
+      <c r="C63" s="77"/>
+      <c r="D63" s="77"/>
+      <c r="E63" s="77"/>
+      <c r="F63" s="77"/>
+      <c r="G63" s="77"/>
+      <c r="H63" s="77"/>
+      <c r="I63" s="77"/>
+      <c r="J63" s="77"/>
+      <c r="K63" s="77"/>
+      <c r="L63" s="77"/>
+      <c r="M63" s="77"/>
+      <c r="N63" s="77"/>
+      <c r="O63" s="77"/>
+      <c r="P63" s="77"/>
+      <c r="Q63" s="77"/>
+      <c r="R63" s="77"/>
+      <c r="S63" s="77"/>
+      <c r="T63" s="77"/>
+    </row>
+    <row r="64" spans="2:20" outlineLevel="1"/>
+    <row r="65" spans="2:10" outlineLevel="1">
+      <c r="B65" s="76" t="s">
+        <v>117</v>
+      </c>
+      <c r="D65" s="76" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" outlineLevel="1">
+      <c r="B66" s="76" t="s">
+        <v>178</v>
+      </c>
+      <c r="D66" s="76" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="26" spans="2:13" hidden="1" outlineLevel="1"/>
-    <row r="27" spans="2:13" hidden="1" outlineLevel="1">
-      <c r="B27" s="122" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" hidden="1" outlineLevel="1">
-      <c r="B28" s="76" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28" s="76" t="s">
-        <v>279</v>
-      </c>
-      <c r="M28" s="76" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" hidden="1" outlineLevel="1">
-      <c r="B29" s="76" t="s">
-        <v>121</v>
-      </c>
-      <c r="D29" s="76" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" hidden="1" outlineLevel="1">
-      <c r="B30" s="76" t="s">
-        <v>174</v>
-      </c>
-      <c r="D30" s="76" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" hidden="1" outlineLevel="1"/>
-    <row r="32" spans="2:13" hidden="1" outlineLevel="1"/>
-    <row r="33" spans="2:20" hidden="1" outlineLevel="1">
-      <c r="B33" s="77" t="s">
-        <v>210</v>
-      </c>
-      <c r="C33" s="77"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="77"/>
-      <c r="I33" s="77"/>
-      <c r="J33" s="77"/>
-      <c r="K33" s="77"/>
-      <c r="L33" s="77"/>
-      <c r="M33" s="77"/>
-      <c r="N33" s="77"/>
-      <c r="O33" s="77"/>
-      <c r="P33" s="77"/>
-      <c r="Q33" s="77"/>
-      <c r="R33" s="77"/>
-      <c r="S33" s="77"/>
-      <c r="T33" s="77"/>
-    </row>
-    <row r="34" spans="2:20" hidden="1" outlineLevel="1">
-      <c r="B34" s="76" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="35" spans="2:20" hidden="1" outlineLevel="1">
-      <c r="B35" s="76" t="s">
+      <c r="J66" s="76" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" outlineLevel="1">
+      <c r="D67" s="76" t="s">
+        <v>127</v>
+      </c>
+      <c r="J67" s="76" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" outlineLevel="1">
+      <c r="D68" s="76" t="s">
+        <v>213</v>
+      </c>
+      <c r="J68" s="76" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" outlineLevel="1">
+      <c r="D69" s="76" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="36" spans="2:20" hidden="1" outlineLevel="1"/>
-    <row r="37" spans="2:20" hidden="1" outlineLevel="1">
-      <c r="B37" s="77" t="s">
-        <v>171</v>
-      </c>
-      <c r="C37" s="77"/>
-      <c r="D37" s="77"/>
-      <c r="E37" s="77"/>
-      <c r="F37" s="77"/>
-      <c r="G37" s="77"/>
-      <c r="H37" s="77"/>
-      <c r="I37" s="77"/>
-      <c r="J37" s="77"/>
-      <c r="K37" s="77"/>
-      <c r="L37" s="77"/>
-      <c r="M37" s="77"/>
-      <c r="N37" s="77"/>
-      <c r="O37" s="77"/>
-      <c r="P37" s="77"/>
-      <c r="Q37" s="77"/>
-      <c r="R37" s="77"/>
-      <c r="S37" s="77"/>
-      <c r="T37" s="77"/>
-    </row>
-    <row r="38" spans="2:20" hidden="1" outlineLevel="1"/>
-    <row r="39" spans="2:20" hidden="1" outlineLevel="1">
-      <c r="B39" s="76" t="s">
-        <v>120</v>
-      </c>
-      <c r="D39" s="76" t="s">
-        <v>173</v>
-      </c>
-      <c r="G39" s="76" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="40" spans="2:20" hidden="1" outlineLevel="1">
-      <c r="B40" s="76" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="41" spans="2:20" hidden="1" outlineLevel="1"/>
-    <row r="42" spans="2:20" hidden="1" outlineLevel="1"/>
-    <row r="43" spans="2:20" hidden="1" outlineLevel="1"/>
-    <row r="44" spans="2:20" hidden="1" outlineLevel="1"/>
-    <row r="45" spans="2:20" hidden="1" outlineLevel="1"/>
-    <row r="46" spans="2:20" hidden="1" outlineLevel="1"/>
-    <row r="47" spans="2:20" hidden="1" outlineLevel="1"/>
-    <row r="48" spans="2:20" hidden="1" outlineLevel="1"/>
-    <row r="49" spans="2:20" hidden="1" outlineLevel="1"/>
-    <row r="50" spans="2:20" hidden="1" outlineLevel="1">
-      <c r="B50" s="76" t="s">
-        <v>174</v>
-      </c>
-      <c r="D50" s="76" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="51" spans="2:20" hidden="1" outlineLevel="1"/>
-    <row r="52" spans="2:20" hidden="1" outlineLevel="1">
-      <c r="B52" s="77" t="s">
-        <v>206</v>
-      </c>
-      <c r="C52" s="77"/>
-      <c r="D52" s="77"/>
-      <c r="E52" s="77"/>
-      <c r="F52" s="77"/>
-      <c r="G52" s="77"/>
-      <c r="H52" s="77"/>
-      <c r="I52" s="77"/>
-      <c r="J52" s="77"/>
-      <c r="K52" s="77"/>
-      <c r="L52" s="77"/>
-      <c r="M52" s="77"/>
-      <c r="N52" s="77"/>
-      <c r="O52" s="77"/>
-      <c r="P52" s="77"/>
-      <c r="Q52" s="77"/>
-      <c r="R52" s="77"/>
-      <c r="S52" s="77"/>
-      <c r="T52" s="77"/>
-    </row>
-    <row r="53" spans="2:20" hidden="1" outlineLevel="1">
-      <c r="B53" s="76" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="54" spans="2:20" hidden="1" outlineLevel="1">
-      <c r="B54" s="76" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="55" spans="2:20" hidden="1" outlineLevel="1"/>
-    <row r="56" spans="2:20" hidden="1" outlineLevel="1"/>
-    <row r="57" spans="2:20" hidden="1" outlineLevel="1">
-      <c r="B57" s="77" t="s">
-        <v>179</v>
-      </c>
-      <c r="C57" s="77"/>
-      <c r="D57" s="77"/>
-      <c r="E57" s="77"/>
-      <c r="F57" s="77"/>
-      <c r="G57" s="77"/>
-      <c r="H57" s="77"/>
-      <c r="I57" s="77"/>
-      <c r="J57" s="77"/>
-      <c r="K57" s="77"/>
-      <c r="L57" s="77"/>
-      <c r="M57" s="77"/>
-      <c r="N57" s="77"/>
-      <c r="O57" s="77"/>
-      <c r="P57" s="77"/>
-      <c r="Q57" s="77"/>
-      <c r="R57" s="77"/>
-      <c r="S57" s="77"/>
-      <c r="T57" s="77"/>
-    </row>
-    <row r="58" spans="2:20" hidden="1" outlineLevel="1"/>
-    <row r="59" spans="2:20" hidden="1" outlineLevel="1">
-      <c r="B59" s="76" t="s">
-        <v>120</v>
-      </c>
-      <c r="D59" s="76" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="60" spans="2:20" hidden="1" outlineLevel="1">
-      <c r="B60" s="76" t="s">
-        <v>181</v>
-      </c>
-      <c r="D60" s="76" t="s">
-        <v>128</v>
-      </c>
-      <c r="J60" s="76" t="s">
+      <c r="J69" s="76" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="61" spans="2:20" hidden="1" outlineLevel="1">
-      <c r="D61" s="76" t="s">
-        <v>130</v>
-      </c>
-      <c r="J61" s="76" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="62" spans="2:20" hidden="1" outlineLevel="1">
-      <c r="D62" s="76" t="s">
-        <v>216</v>
-      </c>
-      <c r="J62" s="76" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="63" spans="2:20" hidden="1" outlineLevel="1">
-      <c r="D63" s="76" t="s">
-        <v>215</v>
-      </c>
-      <c r="J63" s="76" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="64" spans="2:20" hidden="1" outlineLevel="1">
-      <c r="D64" s="76" t="s">
-        <v>217</v>
-      </c>
-      <c r="J64" s="76" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10" hidden="1" outlineLevel="1">
-      <c r="D65" s="76" t="s">
-        <v>133</v>
-      </c>
-      <c r="J65" s="76" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10" hidden="1" outlineLevel="1">
-      <c r="D66" s="76" t="s">
-        <v>213</v>
-      </c>
-      <c r="J66" s="76" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="67" spans="2:10" hidden="1" outlineLevel="1">
-      <c r="D67" s="76" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="68" spans="2:10" hidden="1" outlineLevel="1">
-      <c r="D68" s="76" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="69" spans="2:10" hidden="1" outlineLevel="1">
-      <c r="D69" s="76" t="s">
-        <v>136</v>
-      </c>
-      <c r="J69" s="76" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="70" spans="2:10" hidden="1" outlineLevel="1">
+    <row r="70" spans="2:10" outlineLevel="1">
       <c r="D70" s="76" t="s">
-        <v>137</v>
+        <v>214</v>
       </c>
       <c r="J70" s="76" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="71" spans="2:10" hidden="1" outlineLevel="1">
+    <row r="71" spans="2:10" outlineLevel="1">
       <c r="D71" s="76" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="72" spans="2:10" hidden="1" outlineLevel="1">
+        <v>130</v>
+      </c>
+      <c r="J71" s="76" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" outlineLevel="1">
       <c r="D72" s="76" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="73" spans="2:10" hidden="1" outlineLevel="1">
+        <v>210</v>
+      </c>
+      <c r="J72" s="76" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" outlineLevel="1">
       <c r="D73" s="76" t="s">
-        <v>177</v>
-      </c>
-      <c r="J73" s="76" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="74" spans="2:10" hidden="1" outlineLevel="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" outlineLevel="1">
       <c r="D74" s="76" t="s">
-        <v>178</v>
-      </c>
-      <c r="J74" s="76" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="75" spans="2:10" hidden="1" outlineLevel="1">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" outlineLevel="1">
       <c r="D75" s="76" t="s">
-        <v>221</v>
-      </c>
-      <c r="G75" s="76" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="76" spans="2:10" hidden="1" outlineLevel="1"/>
-    <row r="77" spans="2:10" hidden="1" outlineLevel="1"/>
-    <row r="78" spans="2:10" hidden="1" outlineLevel="1">
-      <c r="B78" s="76" t="s">
+        <v>133</v>
+      </c>
+      <c r="J75" s="76" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" outlineLevel="1">
+      <c r="D76" s="76" t="s">
+        <v>134</v>
+      </c>
+      <c r="J76" s="76" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" outlineLevel="1">
+      <c r="D77" s="76" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" outlineLevel="1">
+      <c r="D78" s="76" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" outlineLevel="1">
+      <c r="D79" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="D78" s="76" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="79" spans="2:10" hidden="1" outlineLevel="1"/>
-    <row r="80" spans="2:10" hidden="1" outlineLevel="1">
-      <c r="B80" s="76" t="s">
-        <v>207</v>
-      </c>
+      <c r="J79" s="76" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" outlineLevel="1">
       <c r="D80" s="76" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="81" spans="1:59" hidden="1" outlineLevel="1">
+        <v>175</v>
+      </c>
+      <c r="J80" s="76" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="81" spans="2:20" outlineLevel="1">
       <c r="D81" s="76" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="82" spans="1:59" hidden="1" outlineLevel="1"/>
-    <row r="83" spans="1:59" hidden="1" outlineLevel="1">
-      <c r="B83" s="77" t="s">
-        <v>227</v>
-      </c>
-      <c r="C83" s="77"/>
-      <c r="D83" s="77"/>
-      <c r="E83" s="77"/>
-      <c r="F83" s="77"/>
-      <c r="G83" s="77"/>
-      <c r="H83" s="77"/>
-      <c r="I83" s="77"/>
-      <c r="J83" s="77"/>
-      <c r="K83" s="77"/>
-      <c r="L83" s="77"/>
-      <c r="M83" s="77"/>
-      <c r="N83" s="77"/>
-      <c r="O83" s="77"/>
-      <c r="P83" s="77"/>
-      <c r="Q83" s="77"/>
-      <c r="R83" s="77"/>
-      <c r="S83" s="77"/>
-      <c r="T83" s="77"/>
-    </row>
-    <row r="84" spans="1:59" hidden="1" outlineLevel="1"/>
-    <row r="85" spans="1:59" hidden="1" outlineLevel="1">
-      <c r="B85" s="76" t="s">
-        <v>228</v>
-      </c>
-      <c r="F85" s="76" t="s">
+        <v>218</v>
+      </c>
+      <c r="G81" s="76" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="82" spans="2:20" outlineLevel="1"/>
+    <row r="83" spans="2:20" outlineLevel="1"/>
+    <row r="84" spans="2:20" outlineLevel="1">
+      <c r="B84" s="76" t="s">
+        <v>171</v>
+      </c>
+      <c r="D84" s="76" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="85" spans="2:20" outlineLevel="1"/>
+    <row r="86" spans="2:20" outlineLevel="1">
+      <c r="B86" s="76" t="s">
+        <v>204</v>
+      </c>
+      <c r="D86" s="76" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="87" spans="2:20" outlineLevel="1">
+      <c r="D87" s="76" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="88" spans="2:20" outlineLevel="1"/>
+    <row r="89" spans="2:20" outlineLevel="1">
+      <c r="B89" s="77" t="s">
+        <v>224</v>
+      </c>
+      <c r="C89" s="77"/>
+      <c r="D89" s="77"/>
+      <c r="E89" s="77"/>
+      <c r="F89" s="77"/>
+      <c r="G89" s="77"/>
+      <c r="H89" s="77"/>
+      <c r="I89" s="77"/>
+      <c r="J89" s="77"/>
+      <c r="K89" s="77"/>
+      <c r="L89" s="77"/>
+      <c r="M89" s="77"/>
+      <c r="N89" s="77"/>
+      <c r="O89" s="77"/>
+      <c r="P89" s="77"/>
+      <c r="Q89" s="77"/>
+      <c r="R89" s="77"/>
+      <c r="S89" s="77"/>
+      <c r="T89" s="77"/>
+    </row>
+    <row r="90" spans="2:20" outlineLevel="1"/>
+    <row r="91" spans="2:20" outlineLevel="1">
+      <c r="B91" s="76" t="s">
+        <v>225</v>
+      </c>
+      <c r="F91" s="76" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="92" spans="2:20" outlineLevel="1"/>
+    <row r="93" spans="2:20" outlineLevel="1">
+      <c r="B93" s="76" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="94" spans="2:20" outlineLevel="1">
+      <c r="B94" s="119" t="s">
+        <v>262</v>
+      </c>
+      <c r="C94" s="120"/>
+      <c r="D94" s="120"/>
+      <c r="E94" s="121"/>
+      <c r="F94" s="119" t="s">
+        <v>263</v>
+      </c>
+      <c r="G94" s="120"/>
+      <c r="H94" s="120"/>
+      <c r="I94" s="120"/>
+      <c r="J94" s="120"/>
+      <c r="K94" s="120"/>
+      <c r="L94" s="121"/>
+    </row>
+    <row r="95" spans="2:20" outlineLevel="1">
+      <c r="B95" s="116" t="s">
+        <v>265</v>
+      </c>
+      <c r="C95" s="117"/>
+      <c r="D95" s="117"/>
+      <c r="E95" s="118"/>
+      <c r="F95" s="116" t="s">
+        <v>258</v>
+      </c>
+      <c r="G95" s="117"/>
+      <c r="H95" s="117"/>
+      <c r="I95" s="117"/>
+      <c r="J95" s="117"/>
+      <c r="K95" s="117"/>
+      <c r="L95" s="118"/>
+    </row>
+    <row r="96" spans="2:20" outlineLevel="1">
+      <c r="B96" s="116" t="s">
+        <v>189</v>
+      </c>
+      <c r="C96" s="117"/>
+      <c r="D96" s="117"/>
+      <c r="E96" s="118"/>
+      <c r="F96" s="116" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="86" spans="1:59" hidden="1" outlineLevel="1"/>
-    <row r="87" spans="1:59" hidden="1" outlineLevel="1">
-      <c r="B87" s="76" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="88" spans="1:59" hidden="1" outlineLevel="1">
-      <c r="B88" s="119" t="s">
-        <v>265</v>
-      </c>
-      <c r="C88" s="120"/>
-      <c r="D88" s="120"/>
-      <c r="E88" s="121"/>
-      <c r="F88" s="119" t="s">
+      <c r="G96" s="117"/>
+      <c r="H96" s="117"/>
+      <c r="I96" s="117"/>
+      <c r="J96" s="117"/>
+      <c r="K96" s="117"/>
+      <c r="L96" s="118"/>
+    </row>
+    <row r="97" spans="1:59" outlineLevel="1">
+      <c r="B97" s="116" t="s">
+        <v>190</v>
+      </c>
+      <c r="C97" s="117"/>
+      <c r="D97" s="117"/>
+      <c r="E97" s="118"/>
+      <c r="F97" s="116" t="s">
+        <v>260</v>
+      </c>
+      <c r="G97" s="117"/>
+      <c r="H97" s="117"/>
+      <c r="I97" s="117"/>
+      <c r="J97" s="117"/>
+      <c r="K97" s="117"/>
+      <c r="L97" s="118"/>
+    </row>
+    <row r="98" spans="1:59" outlineLevel="1">
+      <c r="B98" s="116" t="s">
         <v>266</v>
       </c>
-      <c r="G88" s="120"/>
-      <c r="H88" s="120"/>
-      <c r="I88" s="120"/>
-      <c r="J88" s="120"/>
-      <c r="K88" s="120"/>
-      <c r="L88" s="121"/>
-    </row>
-    <row r="89" spans="1:59" hidden="1" outlineLevel="1">
-      <c r="B89" s="116" t="s">
-        <v>268</v>
-      </c>
-      <c r="C89" s="117"/>
-      <c r="D89" s="117"/>
-      <c r="E89" s="118"/>
-      <c r="F89" s="116" t="s">
+      <c r="C98" s="117"/>
+      <c r="D98" s="117"/>
+      <c r="E98" s="118"/>
+      <c r="F98" s="116" t="s">
+        <v>264</v>
+      </c>
+      <c r="G98" s="117"/>
+      <c r="H98" s="117"/>
+      <c r="I98" s="117"/>
+      <c r="J98" s="117"/>
+      <c r="K98" s="117"/>
+      <c r="L98" s="118"/>
+    </row>
+    <row r="99" spans="1:59" outlineLevel="1">
+      <c r="B99" s="116" t="s">
+        <v>199</v>
+      </c>
+      <c r="C99" s="117"/>
+      <c r="D99" s="117"/>
+      <c r="E99" s="118"/>
+      <c r="F99" s="116" t="s">
         <v>261</v>
       </c>
-      <c r="G89" s="117"/>
-      <c r="H89" s="117"/>
-      <c r="I89" s="117"/>
-      <c r="J89" s="117"/>
-      <c r="K89" s="117"/>
-      <c r="L89" s="118"/>
-    </row>
-    <row r="90" spans="1:59" hidden="1" outlineLevel="1">
-      <c r="B90" s="116" t="s">
-        <v>192</v>
-      </c>
-      <c r="C90" s="117"/>
-      <c r="D90" s="117"/>
-      <c r="E90" s="118"/>
-      <c r="F90" s="116" t="s">
-        <v>262</v>
-      </c>
-      <c r="G90" s="117"/>
-      <c r="H90" s="117"/>
-      <c r="I90" s="117"/>
-      <c r="J90" s="117"/>
-      <c r="K90" s="117"/>
-      <c r="L90" s="118"/>
-    </row>
-    <row r="91" spans="1:59" hidden="1" outlineLevel="1">
-      <c r="B91" s="116" t="s">
-        <v>193</v>
-      </c>
-      <c r="C91" s="117"/>
-      <c r="D91" s="117"/>
-      <c r="E91" s="118"/>
-      <c r="F91" s="116" t="s">
-        <v>263</v>
-      </c>
-      <c r="G91" s="117"/>
-      <c r="H91" s="117"/>
-      <c r="I91" s="117"/>
-      <c r="J91" s="117"/>
-      <c r="K91" s="117"/>
-      <c r="L91" s="118"/>
-    </row>
-    <row r="92" spans="1:59" hidden="1" outlineLevel="1">
-      <c r="B92" s="116" t="s">
-        <v>269</v>
-      </c>
-      <c r="C92" s="117"/>
-      <c r="D92" s="117"/>
-      <c r="E92" s="118"/>
-      <c r="F92" s="116" t="s">
-        <v>267</v>
-      </c>
-      <c r="G92" s="117"/>
-      <c r="H92" s="117"/>
-      <c r="I92" s="117"/>
-      <c r="J92" s="117"/>
-      <c r="K92" s="117"/>
-      <c r="L92" s="118"/>
-    </row>
-    <row r="93" spans="1:59" hidden="1" outlineLevel="1">
-      <c r="B93" s="116" t="s">
-        <v>202</v>
-      </c>
-      <c r="C93" s="117"/>
-      <c r="D93" s="117"/>
-      <c r="E93" s="118"/>
-      <c r="F93" s="116" t="s">
-        <v>264</v>
-      </c>
-      <c r="G93" s="117"/>
-      <c r="H93" s="117"/>
-      <c r="I93" s="117"/>
-      <c r="J93" s="117"/>
-      <c r="K93" s="117"/>
-      <c r="L93" s="118"/>
-    </row>
-    <row r="94" spans="1:59" hidden="1" outlineLevel="1"/>
-    <row r="96" spans="1:59" s="15" customFormat="1" ht="18.75" collapsed="1">
-      <c r="A96" s="46" t="s">
+      <c r="G99" s="117"/>
+      <c r="H99" s="117"/>
+      <c r="I99" s="117"/>
+      <c r="J99" s="117"/>
+      <c r="K99" s="117"/>
+      <c r="L99" s="118"/>
+    </row>
+    <row r="100" spans="1:59" outlineLevel="1"/>
+    <row r="102" spans="1:59" s="15" customFormat="1" ht="18.75">
+      <c r="A102" s="46" t="s">
+        <v>320</v>
+      </c>
+      <c r="B102" s="47"/>
+      <c r="C102" s="47"/>
+      <c r="D102" s="47"/>
+      <c r="E102" s="47"/>
+      <c r="F102" s="47"/>
+      <c r="G102" s="47"/>
+      <c r="H102" s="47"/>
+      <c r="I102" s="47"/>
+      <c r="J102" s="47"/>
+      <c r="K102" s="47"/>
+      <c r="L102" s="47"/>
+      <c r="M102" s="47"/>
+      <c r="N102" s="47"/>
+      <c r="O102" s="47"/>
+      <c r="P102" s="47"/>
+      <c r="Q102" s="47"/>
+      <c r="R102" s="47"/>
+      <c r="S102" s="47"/>
+      <c r="T102" s="47"/>
+      <c r="U102" s="47"/>
+      <c r="V102" s="47"/>
+      <c r="W102" s="47"/>
+      <c r="X102" s="47"/>
+      <c r="Y102" s="47"/>
+      <c r="Z102" s="47"/>
+      <c r="AA102" s="47"/>
+      <c r="AB102" s="47"/>
+      <c r="AC102" s="47"/>
+      <c r="AD102" s="47"/>
+      <c r="AE102" s="47"/>
+      <c r="AF102" s="47"/>
+      <c r="AG102" s="47"/>
+      <c r="AH102" s="47"/>
+      <c r="AI102" s="47"/>
+      <c r="AJ102" s="47"/>
+      <c r="AK102" s="47"/>
+      <c r="AL102" s="48"/>
+      <c r="AM102" s="48"/>
+      <c r="AN102" s="48"/>
+      <c r="AO102" s="48"/>
+      <c r="AP102" s="48"/>
+      <c r="AQ102" s="48"/>
+      <c r="AR102" s="48"/>
+      <c r="AS102" s="48"/>
+      <c r="AT102" s="48"/>
+      <c r="AU102" s="48"/>
+      <c r="AV102" s="48"/>
+      <c r="AW102" s="48"/>
+      <c r="AX102" s="48"/>
+      <c r="AY102" s="48"/>
+      <c r="AZ102" s="48"/>
+      <c r="BA102" s="48"/>
+      <c r="BB102" s="48"/>
+      <c r="BC102" s="48"/>
+      <c r="BD102" s="48"/>
+      <c r="BE102" s="48"/>
+      <c r="BF102" s="48"/>
+      <c r="BG102" s="48"/>
+    </row>
+    <row r="103" spans="1:59" outlineLevel="1"/>
+    <row r="104" spans="1:59" outlineLevel="1">
+      <c r="B104" s="77" t="s">
+        <v>328</v>
+      </c>
+      <c r="C104" s="77"/>
+      <c r="D104" s="77"/>
+      <c r="E104" s="77"/>
+      <c r="F104" s="77"/>
+      <c r="G104" s="77"/>
+      <c r="H104" s="77"/>
+      <c r="I104" s="77"/>
+      <c r="J104" s="77"/>
+      <c r="K104" s="77"/>
+      <c r="L104" s="77"/>
+      <c r="M104" s="77"/>
+      <c r="N104" s="77"/>
+      <c r="O104" s="77"/>
+      <c r="P104" s="77"/>
+      <c r="Q104" s="77"/>
+      <c r="R104" s="77"/>
+      <c r="S104" s="77"/>
+      <c r="T104" s="77"/>
+      <c r="U104" s="77"/>
+      <c r="V104" s="77"/>
+      <c r="W104" s="77"/>
+      <c r="X104" s="77"/>
+      <c r="Y104" s="77"/>
+      <c r="Z104" s="77"/>
+      <c r="AA104" s="77"/>
+      <c r="AB104" s="77"/>
+      <c r="AC104" s="77"/>
+      <c r="AD104" s="77"/>
+      <c r="AE104" s="77"/>
+      <c r="AF104" s="77"/>
+      <c r="AG104" s="77"/>
+      <c r="AH104" s="77"/>
+      <c r="AI104" s="77"/>
+      <c r="AJ104" s="77"/>
+      <c r="AK104" s="77"/>
+    </row>
+    <row r="105" spans="1:59" outlineLevel="1">
+      <c r="B105" s="76" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="106" spans="1:59" outlineLevel="1">
+      <c r="C106" s="76" t="s">
         <v>323</v>
       </c>
-      <c r="B96" s="47"/>
-      <c r="C96" s="47"/>
-      <c r="D96" s="47"/>
-      <c r="E96" s="47"/>
-      <c r="F96" s="47"/>
-      <c r="G96" s="47"/>
-      <c r="H96" s="47"/>
-      <c r="I96" s="47"/>
-      <c r="J96" s="47"/>
-      <c r="K96" s="47"/>
-      <c r="L96" s="47"/>
-      <c r="M96" s="47"/>
-      <c r="N96" s="47"/>
-      <c r="O96" s="47"/>
-      <c r="P96" s="47"/>
-      <c r="Q96" s="47"/>
-      <c r="R96" s="47"/>
-      <c r="S96" s="47"/>
-      <c r="T96" s="47"/>
-      <c r="U96" s="47"/>
-      <c r="V96" s="47"/>
-      <c r="W96" s="47"/>
-      <c r="X96" s="47"/>
-      <c r="Y96" s="47"/>
-      <c r="Z96" s="47"/>
-      <c r="AA96" s="47"/>
-      <c r="AB96" s="47"/>
-      <c r="AC96" s="47"/>
-      <c r="AD96" s="47"/>
-      <c r="AE96" s="47"/>
-      <c r="AF96" s="47"/>
-      <c r="AG96" s="47"/>
-      <c r="AH96" s="47"/>
-      <c r="AI96" s="47"/>
-      <c r="AJ96" s="47"/>
-      <c r="AK96" s="47"/>
-      <c r="AL96" s="48"/>
-      <c r="AM96" s="48"/>
-      <c r="AN96" s="48"/>
-      <c r="AO96" s="48"/>
-      <c r="AP96" s="48"/>
-      <c r="AQ96" s="48"/>
-      <c r="AR96" s="48"/>
-      <c r="AS96" s="48"/>
-      <c r="AT96" s="48"/>
-      <c r="AU96" s="48"/>
-      <c r="AV96" s="48"/>
-      <c r="AW96" s="48"/>
-      <c r="AX96" s="48"/>
-      <c r="AY96" s="48"/>
-      <c r="AZ96" s="48"/>
-      <c r="BA96" s="48"/>
-      <c r="BB96" s="48"/>
-      <c r="BC96" s="48"/>
-      <c r="BD96" s="48"/>
-      <c r="BE96" s="48"/>
-      <c r="BF96" s="48"/>
-      <c r="BG96" s="48"/>
-    </row>
-    <row r="97" spans="2:37" hidden="1" outlineLevel="1"/>
-    <row r="98" spans="2:37" hidden="1" outlineLevel="1">
-      <c r="B98" s="77" t="s">
+    </row>
+    <row r="107" spans="1:59" ht="18.75" outlineLevel="1">
+      <c r="C107" s="48" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="108" spans="1:59" outlineLevel="1"/>
+    <row r="109" spans="1:59" outlineLevel="1">
+      <c r="B109" s="77" t="s">
+        <v>329</v>
+      </c>
+      <c r="C109" s="77"/>
+      <c r="D109" s="77"/>
+      <c r="E109" s="77"/>
+      <c r="F109" s="77"/>
+      <c r="G109" s="77"/>
+      <c r="H109" s="77"/>
+      <c r="I109" s="77"/>
+      <c r="J109" s="77"/>
+      <c r="K109" s="77"/>
+      <c r="L109" s="77"/>
+      <c r="M109" s="77"/>
+      <c r="N109" s="77"/>
+      <c r="O109" s="77"/>
+      <c r="P109" s="77"/>
+      <c r="Q109" s="77"/>
+      <c r="R109" s="77"/>
+      <c r="S109" s="77"/>
+      <c r="T109" s="77"/>
+      <c r="U109" s="77"/>
+      <c r="V109" s="77"/>
+      <c r="W109" s="77"/>
+      <c r="X109" s="77"/>
+      <c r="Y109" s="77"/>
+      <c r="Z109" s="77"/>
+      <c r="AA109" s="77"/>
+      <c r="AB109" s="77"/>
+      <c r="AC109" s="77"/>
+      <c r="AD109" s="77"/>
+      <c r="AE109" s="77"/>
+      <c r="AF109" s="77"/>
+      <c r="AG109" s="77"/>
+      <c r="AH109" s="77"/>
+      <c r="AI109" s="77"/>
+      <c r="AJ109" s="77"/>
+      <c r="AK109" s="77"/>
+    </row>
+    <row r="110" spans="1:59" outlineLevel="1">
+      <c r="B110" s="76" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="111" spans="1:59" outlineLevel="1">
+      <c r="B111" s="76" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="112" spans="1:59" outlineLevel="1"/>
+    <row r="113" spans="2:2" outlineLevel="1"/>
+    <row r="114" spans="2:2" outlineLevel="1"/>
+    <row r="115" spans="2:2" outlineLevel="1"/>
+    <row r="116" spans="2:2" outlineLevel="1"/>
+    <row r="117" spans="2:2" outlineLevel="1"/>
+    <row r="118" spans="2:2" outlineLevel="1"/>
+    <row r="119" spans="2:2" outlineLevel="1"/>
+    <row r="120" spans="2:2" outlineLevel="1"/>
+    <row r="121" spans="2:2" outlineLevel="1"/>
+    <row r="122" spans="2:2" outlineLevel="1"/>
+    <row r="123" spans="2:2" outlineLevel="1"/>
+    <row r="124" spans="2:2" outlineLevel="1"/>
+    <row r="125" spans="2:2" outlineLevel="1">
+      <c r="B125" s="76" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" outlineLevel="1"/>
+    <row r="127" spans="2:2" outlineLevel="1"/>
+    <row r="128" spans="2:2" outlineLevel="1"/>
+    <row r="129" spans="2:37" outlineLevel="1"/>
+    <row r="130" spans="2:37" outlineLevel="1"/>
+    <row r="131" spans="2:37" outlineLevel="1"/>
+    <row r="132" spans="2:37" outlineLevel="1"/>
+    <row r="133" spans="2:37" outlineLevel="1"/>
+    <row r="134" spans="2:37" outlineLevel="1"/>
+    <row r="135" spans="2:37" outlineLevel="1"/>
+    <row r="136" spans="2:37" outlineLevel="1"/>
+    <row r="137" spans="2:37" outlineLevel="1"/>
+    <row r="138" spans="2:37" outlineLevel="1"/>
+    <row r="139" spans="2:37" outlineLevel="1"/>
+    <row r="140" spans="2:37" outlineLevel="1">
+      <c r="B140" s="77" t="s">
         <v>331</v>
       </c>
-      <c r="C98" s="77"/>
-      <c r="D98" s="77"/>
-      <c r="E98" s="77"/>
-      <c r="F98" s="77"/>
-      <c r="G98" s="77"/>
-      <c r="H98" s="77"/>
-      <c r="I98" s="77"/>
-      <c r="J98" s="77"/>
-      <c r="K98" s="77"/>
-      <c r="L98" s="77"/>
-      <c r="M98" s="77"/>
-      <c r="N98" s="77"/>
-      <c r="O98" s="77"/>
-      <c r="P98" s="77"/>
-      <c r="Q98" s="77"/>
-      <c r="R98" s="77"/>
-      <c r="S98" s="77"/>
-      <c r="T98" s="77"/>
-      <c r="U98" s="77"/>
-      <c r="V98" s="77"/>
-      <c r="W98" s="77"/>
-      <c r="X98" s="77"/>
-      <c r="Y98" s="77"/>
-      <c r="Z98" s="77"/>
-      <c r="AA98" s="77"/>
-      <c r="AB98" s="77"/>
-      <c r="AC98" s="77"/>
-      <c r="AD98" s="77"/>
-      <c r="AE98" s="77"/>
-      <c r="AF98" s="77"/>
-      <c r="AG98" s="77"/>
-      <c r="AH98" s="77"/>
-      <c r="AI98" s="77"/>
-      <c r="AJ98" s="77"/>
-      <c r="AK98" s="77"/>
-    </row>
-    <row r="99" spans="2:37" hidden="1" outlineLevel="1">
-      <c r="B99" s="76" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="100" spans="2:37" hidden="1" outlineLevel="1">
-      <c r="C100" s="76" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="101" spans="2:37" ht="18.75" hidden="1" outlineLevel="1">
-      <c r="C101" s="48" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="102" spans="2:37" hidden="1" outlineLevel="1"/>
-    <row r="103" spans="2:37" hidden="1" outlineLevel="1">
-      <c r="B103" s="77" t="s">
+      <c r="C140" s="77"/>
+      <c r="D140" s="77"/>
+      <c r="E140" s="77"/>
+      <c r="F140" s="77"/>
+      <c r="G140" s="77"/>
+      <c r="H140" s="77"/>
+      <c r="I140" s="77"/>
+      <c r="J140" s="77"/>
+      <c r="K140" s="77"/>
+      <c r="L140" s="77"/>
+      <c r="M140" s="77"/>
+      <c r="N140" s="77"/>
+      <c r="O140" s="77"/>
+      <c r="P140" s="77"/>
+      <c r="Q140" s="77"/>
+      <c r="R140" s="77"/>
+      <c r="S140" s="77"/>
+      <c r="T140" s="77"/>
+      <c r="U140" s="77"/>
+      <c r="V140" s="77"/>
+      <c r="W140" s="77"/>
+      <c r="X140" s="77"/>
+      <c r="Y140" s="77"/>
+      <c r="Z140" s="77"/>
+      <c r="AA140" s="77"/>
+      <c r="AB140" s="77"/>
+      <c r="AC140" s="77"/>
+      <c r="AD140" s="77"/>
+      <c r="AE140" s="77"/>
+      <c r="AF140" s="77"/>
+      <c r="AG140" s="77"/>
+      <c r="AH140" s="77"/>
+      <c r="AI140" s="77"/>
+      <c r="AJ140" s="77"/>
+      <c r="AK140" s="77"/>
+    </row>
+    <row r="141" spans="2:37" outlineLevel="1">
+      <c r="B141" s="76" t="s">
         <v>332</v>
       </c>
-      <c r="C103" s="77"/>
-      <c r="D103" s="77"/>
-      <c r="E103" s="77"/>
-      <c r="F103" s="77"/>
-      <c r="G103" s="77"/>
-      <c r="H103" s="77"/>
-      <c r="I103" s="77"/>
-      <c r="J103" s="77"/>
-      <c r="K103" s="77"/>
-      <c r="L103" s="77"/>
-      <c r="M103" s="77"/>
-      <c r="N103" s="77"/>
-      <c r="O103" s="77"/>
-      <c r="P103" s="77"/>
-      <c r="Q103" s="77"/>
-      <c r="R103" s="77"/>
-      <c r="S103" s="77"/>
-      <c r="T103" s="77"/>
-      <c r="U103" s="77"/>
-      <c r="V103" s="77"/>
-      <c r="W103" s="77"/>
-      <c r="X103" s="77"/>
-      <c r="Y103" s="77"/>
-      <c r="Z103" s="77"/>
-      <c r="AA103" s="77"/>
-      <c r="AB103" s="77"/>
-      <c r="AC103" s="77"/>
-      <c r="AD103" s="77"/>
-      <c r="AE103" s="77"/>
-      <c r="AF103" s="77"/>
-      <c r="AG103" s="77"/>
-      <c r="AH103" s="77"/>
-      <c r="AI103" s="77"/>
-      <c r="AJ103" s="77"/>
-      <c r="AK103" s="77"/>
-    </row>
-    <row r="104" spans="2:37" hidden="1" outlineLevel="1">
-      <c r="B104" s="76" t="s">
+    </row>
+    <row r="142" spans="2:37" outlineLevel="1"/>
+    <row r="143" spans="2:37" outlineLevel="1">
+      <c r="B143" s="76" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="105" spans="2:37" hidden="1" outlineLevel="1">
-      <c r="B105" s="76" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="106" spans="2:37" hidden="1" outlineLevel="1"/>
-    <row r="107" spans="2:37" hidden="1" outlineLevel="1"/>
-    <row r="108" spans="2:37" hidden="1" outlineLevel="1"/>
-    <row r="109" spans="2:37" hidden="1" outlineLevel="1"/>
-    <row r="110" spans="2:37" hidden="1" outlineLevel="1"/>
-    <row r="111" spans="2:37" hidden="1" outlineLevel="1"/>
-    <row r="112" spans="2:37" hidden="1" outlineLevel="1"/>
-    <row r="113" spans="2:2" hidden="1" outlineLevel="1"/>
-    <row r="114" spans="2:2" hidden="1" outlineLevel="1"/>
-    <row r="115" spans="2:2" hidden="1" outlineLevel="1"/>
-    <row r="116" spans="2:2" hidden="1" outlineLevel="1"/>
-    <row r="117" spans="2:2" hidden="1" outlineLevel="1"/>
-    <row r="118" spans="2:2" hidden="1" outlineLevel="1"/>
-    <row r="119" spans="2:2" hidden="1" outlineLevel="1">
-      <c r="B119" s="76" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="120" spans="2:2" hidden="1" outlineLevel="1"/>
-    <row r="121" spans="2:2" hidden="1" outlineLevel="1"/>
-    <row r="122" spans="2:2" hidden="1" outlineLevel="1"/>
-    <row r="123" spans="2:2" hidden="1" outlineLevel="1"/>
-    <row r="124" spans="2:2" hidden="1" outlineLevel="1"/>
-    <row r="125" spans="2:2" hidden="1" outlineLevel="1"/>
-    <row r="126" spans="2:2" hidden="1" outlineLevel="1"/>
-    <row r="127" spans="2:2" hidden="1" outlineLevel="1"/>
-    <row r="128" spans="2:2" hidden="1" outlineLevel="1"/>
-    <row r="129" spans="2:37" hidden="1" outlineLevel="1"/>
-    <row r="130" spans="2:37" hidden="1" outlineLevel="1"/>
-    <row r="131" spans="2:37" hidden="1" outlineLevel="1"/>
-    <row r="132" spans="2:37" hidden="1" outlineLevel="1"/>
-    <row r="133" spans="2:37" hidden="1" outlineLevel="1"/>
-    <row r="134" spans="2:37" hidden="1" outlineLevel="1">
-      <c r="B134" s="77" t="s">
+    <row r="144" spans="2:37" outlineLevel="1"/>
+    <row r="145" outlineLevel="1"/>
+    <row r="146" outlineLevel="1"/>
+    <row r="147" outlineLevel="1"/>
+    <row r="148" outlineLevel="1"/>
+    <row r="149" outlineLevel="1"/>
+    <row r="150" outlineLevel="1"/>
+    <row r="151" outlineLevel="1"/>
+    <row r="152" outlineLevel="1"/>
+    <row r="153" outlineLevel="1"/>
+    <row r="154" outlineLevel="1"/>
+    <row r="155" outlineLevel="1"/>
+    <row r="156" outlineLevel="1"/>
+    <row r="157" outlineLevel="1"/>
+    <row r="158" outlineLevel="1"/>
+    <row r="159" outlineLevel="1"/>
+    <row r="160" outlineLevel="1"/>
+    <row r="161" spans="2:37" outlineLevel="1"/>
+    <row r="162" spans="2:37" outlineLevel="1"/>
+    <row r="163" spans="2:37" outlineLevel="1"/>
+    <row r="164" spans="2:37" outlineLevel="1"/>
+    <row r="165" spans="2:37" outlineLevel="1"/>
+    <row r="166" spans="2:37" outlineLevel="1"/>
+    <row r="167" spans="2:37" outlineLevel="1"/>
+    <row r="168" spans="2:37" outlineLevel="1"/>
+    <row r="169" spans="2:37" outlineLevel="1">
+      <c r="B169" s="77" t="s">
         <v>334</v>
       </c>
-      <c r="C134" s="77"/>
-      <c r="D134" s="77"/>
-      <c r="E134" s="77"/>
-      <c r="F134" s="77"/>
-      <c r="G134" s="77"/>
-      <c r="H134" s="77"/>
-      <c r="I134" s="77"/>
-      <c r="J134" s="77"/>
-      <c r="K134" s="77"/>
-      <c r="L134" s="77"/>
-      <c r="M134" s="77"/>
-      <c r="N134" s="77"/>
-      <c r="O134" s="77"/>
-      <c r="P134" s="77"/>
-      <c r="Q134" s="77"/>
-      <c r="R134" s="77"/>
-      <c r="S134" s="77"/>
-      <c r="T134" s="77"/>
-      <c r="U134" s="77"/>
-      <c r="V134" s="77"/>
-      <c r="W134" s="77"/>
-      <c r="X134" s="77"/>
-      <c r="Y134" s="77"/>
-      <c r="Z134" s="77"/>
-      <c r="AA134" s="77"/>
-      <c r="AB134" s="77"/>
-      <c r="AC134" s="77"/>
-      <c r="AD134" s="77"/>
-      <c r="AE134" s="77"/>
-      <c r="AF134" s="77"/>
-      <c r="AG134" s="77"/>
-      <c r="AH134" s="77"/>
-      <c r="AI134" s="77"/>
-      <c r="AJ134" s="77"/>
-      <c r="AK134" s="77"/>
-    </row>
-    <row r="135" spans="2:37" hidden="1" outlineLevel="1">
-      <c r="B135" s="76" t="s">
+      <c r="C169" s="77"/>
+      <c r="D169" s="77"/>
+      <c r="E169" s="77"/>
+      <c r="F169" s="77"/>
+      <c r="G169" s="77"/>
+      <c r="H169" s="77"/>
+      <c r="I169" s="77"/>
+      <c r="J169" s="77"/>
+      <c r="K169" s="77"/>
+      <c r="L169" s="77"/>
+      <c r="M169" s="77"/>
+      <c r="N169" s="77"/>
+      <c r="O169" s="77"/>
+      <c r="P169" s="77"/>
+      <c r="Q169" s="77"/>
+      <c r="R169" s="77"/>
+      <c r="S169" s="77"/>
+      <c r="T169" s="77"/>
+      <c r="U169" s="77"/>
+      <c r="V169" s="77"/>
+      <c r="W169" s="77"/>
+      <c r="X169" s="77"/>
+      <c r="Y169" s="77"/>
+      <c r="Z169" s="77"/>
+      <c r="AA169" s="77"/>
+      <c r="AB169" s="77"/>
+      <c r="AC169" s="77"/>
+      <c r="AD169" s="77"/>
+      <c r="AE169" s="77"/>
+      <c r="AF169" s="77"/>
+      <c r="AG169" s="77"/>
+      <c r="AH169" s="77"/>
+      <c r="AI169" s="77"/>
+      <c r="AJ169" s="77"/>
+      <c r="AK169" s="77"/>
+    </row>
+    <row r="170" spans="2:37" outlineLevel="1"/>
+    <row r="171" spans="2:37" outlineLevel="1">
+      <c r="B171" s="76" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="172" spans="2:37" outlineLevel="1">
+      <c r="B172" s="76" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="136" spans="2:37" hidden="1" outlineLevel="1"/>
-    <row r="137" spans="2:37" hidden="1" outlineLevel="1">
-      <c r="B137" s="76" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="138" spans="2:37" hidden="1" outlineLevel="1"/>
-    <row r="139" spans="2:37" hidden="1" outlineLevel="1"/>
-    <row r="140" spans="2:37" hidden="1" outlineLevel="1"/>
-    <row r="141" spans="2:37" hidden="1" outlineLevel="1"/>
-    <row r="142" spans="2:37" hidden="1" outlineLevel="1"/>
-    <row r="143" spans="2:37" hidden="1" outlineLevel="1"/>
-    <row r="144" spans="2:37" hidden="1" outlineLevel="1"/>
-    <row r="145" hidden="1" outlineLevel="1"/>
-    <row r="146" hidden="1" outlineLevel="1"/>
-    <row r="147" hidden="1" outlineLevel="1"/>
-    <row r="148" hidden="1" outlineLevel="1"/>
-    <row r="149" hidden="1" outlineLevel="1"/>
-    <row r="150" hidden="1" outlineLevel="1"/>
-    <row r="151" hidden="1" outlineLevel="1"/>
-    <row r="152" hidden="1" outlineLevel="1"/>
-    <row r="153" hidden="1" outlineLevel="1"/>
-    <row r="154" hidden="1" outlineLevel="1"/>
-    <row r="155" hidden="1" outlineLevel="1"/>
-    <row r="156" hidden="1" outlineLevel="1"/>
-    <row r="157" hidden="1" outlineLevel="1"/>
-    <row r="158" hidden="1" outlineLevel="1"/>
-    <row r="159" hidden="1" outlineLevel="1"/>
-    <row r="160" hidden="1" outlineLevel="1"/>
-    <row r="161" spans="2:37" hidden="1" outlineLevel="1"/>
-    <row r="162" spans="2:37" hidden="1" outlineLevel="1"/>
-    <row r="163" spans="2:37" hidden="1" outlineLevel="1">
-      <c r="B163" s="77" t="s">
-        <v>337</v>
-      </c>
-      <c r="C163" s="77"/>
-      <c r="D163" s="77"/>
-      <c r="E163" s="77"/>
-      <c r="F163" s="77"/>
-      <c r="G163" s="77"/>
-      <c r="H163" s="77"/>
-      <c r="I163" s="77"/>
-      <c r="J163" s="77"/>
-      <c r="K163" s="77"/>
-      <c r="L163" s="77"/>
-      <c r="M163" s="77"/>
-      <c r="N163" s="77"/>
-      <c r="O163" s="77"/>
-      <c r="P163" s="77"/>
-      <c r="Q163" s="77"/>
-      <c r="R163" s="77"/>
-      <c r="S163" s="77"/>
-      <c r="T163" s="77"/>
-      <c r="U163" s="77"/>
-      <c r="V163" s="77"/>
-      <c r="W163" s="77"/>
-      <c r="X163" s="77"/>
-      <c r="Y163" s="77"/>
-      <c r="Z163" s="77"/>
-      <c r="AA163" s="77"/>
-      <c r="AB163" s="77"/>
-      <c r="AC163" s="77"/>
-      <c r="AD163" s="77"/>
-      <c r="AE163" s="77"/>
-      <c r="AF163" s="77"/>
-      <c r="AG163" s="77"/>
-      <c r="AH163" s="77"/>
-      <c r="AI163" s="77"/>
-      <c r="AJ163" s="77"/>
-      <c r="AK163" s="77"/>
-    </row>
-    <row r="164" spans="2:37" hidden="1" outlineLevel="1"/>
-    <row r="165" spans="2:37" hidden="1" outlineLevel="1">
-      <c r="B165" s="76" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="166" spans="2:37" hidden="1" outlineLevel="1">
-      <c r="B166" s="76" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="167" spans="2:37" hidden="1" outlineLevel="1"/>
-    <row r="168" spans="2:37" hidden="1" outlineLevel="1"/>
+    <row r="173" spans="2:37" outlineLevel="1"/>
+    <row r="174" spans="2:37" outlineLevel="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10080,7 +10191,7 @@
     </row>
     <row r="2" spans="2:59">
       <c r="B2" s="48" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
@@ -10283,7 +10394,7 @@
       <c r="Q5" s="48"/>
       <c r="R5" s="48"/>
       <c r="T5" s="15" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="U5" s="48"/>
       <c r="W5" s="48"/>
@@ -10387,7 +10498,7 @@
       <c r="D7" s="48"/>
       <c r="E7" s="48"/>
       <c r="F7" s="49" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G7" s="48"/>
       <c r="H7" s="48"/>
@@ -10449,7 +10560,7 @@
       <c r="D8" s="48"/>
       <c r="E8" s="48"/>
       <c r="F8" s="49" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G8" s="48"/>
       <c r="H8" s="48"/>
@@ -10464,7 +10575,7 @@
       <c r="Q8" s="48"/>
       <c r="R8" s="48"/>
       <c r="T8" s="48" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="U8" s="48"/>
       <c r="V8" s="48"/>
@@ -10510,7 +10621,7 @@
       <c r="D9" s="48"/>
       <c r="E9" s="48"/>
       <c r="F9" s="49" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G9" s="48"/>
       <c r="H9" s="48"/>
@@ -10569,7 +10680,7 @@
       <c r="D10" s="48"/>
       <c r="E10" s="48"/>
       <c r="F10" s="49" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G10" s="48"/>
       <c r="H10" s="48"/>
@@ -10584,7 +10695,7 @@
       <c r="Q10" s="48"/>
       <c r="R10" s="48"/>
       <c r="T10" s="48" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="U10" s="48"/>
       <c r="V10" s="48"/>
@@ -10630,7 +10741,7 @@
       <c r="D11" s="48"/>
       <c r="E11" s="48"/>
       <c r="F11" s="49" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G11" s="48"/>
       <c r="H11" s="48"/>
@@ -10746,7 +10857,7 @@
     </row>
     <row r="13" spans="2:59">
       <c r="B13" s="55" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C13" s="48"/>
       <c r="D13" s="48"/>
@@ -10755,7 +10866,7 @@
         <v>41</v>
       </c>
       <c r="T13" s="15" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="U13" s="48"/>
       <c r="V13" s="48"/>
@@ -10977,7 +11088,7 @@
     </row>
     <row r="17" spans="2:59">
       <c r="B17" s="126" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C17" s="127"/>
       <c r="D17" s="127"/>
@@ -11068,13 +11179,13 @@
     </row>
     <row r="19" spans="2:59">
       <c r="B19" s="55" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C19" s="48"/>
       <c r="D19" s="48"/>
       <c r="E19" s="48"/>
       <c r="F19" s="48" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G19" s="48"/>
       <c r="H19" s="48"/>
@@ -11090,7 +11201,7 @@
       <c r="R19" s="48"/>
       <c r="S19" s="48"/>
       <c r="T19" s="48" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="U19" s="48"/>
       <c r="V19" s="48"/>
@@ -11132,13 +11243,13 @@
     </row>
     <row r="21" spans="2:59">
       <c r="B21" s="55" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C21" s="48"/>
       <c r="D21" s="48"/>
       <c r="E21" s="48"/>
       <c r="F21" s="48" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G21" s="48"/>
       <c r="H21" s="48"/>
@@ -11169,7 +11280,7 @@
       <c r="D22" s="48"/>
       <c r="E22" s="48"/>
       <c r="F22" s="48" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G22" s="48"/>
       <c r="H22" s="48"/>
@@ -11185,7 +11296,7 @@
       <c r="R22" s="48"/>
       <c r="S22" s="48"/>
       <c r="T22" s="48" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="V22" s="48"/>
       <c r="W22" s="48"/>
@@ -11201,7 +11312,7 @@
       <c r="D23" s="48"/>
       <c r="E23" s="48"/>
       <c r="F23" s="48" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G23" s="48"/>
       <c r="H23" s="48"/>
@@ -11232,7 +11343,7 @@
       <c r="D24" s="48"/>
       <c r="E24" s="48"/>
       <c r="F24" s="48" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G24" s="48"/>
       <c r="H24" s="48"/>
@@ -11248,7 +11359,7 @@
       <c r="R24" s="48"/>
       <c r="S24" s="48"/>
       <c r="T24" s="48" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="U24" s="48"/>
       <c r="V24" s="48"/>
@@ -11261,7 +11372,7 @@
     </row>
     <row r="25" spans="2:59">
       <c r="B25" s="55" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C25" s="48"/>
       <c r="D25" s="48"/>
@@ -11323,7 +11434,7 @@
     </row>
     <row r="28" spans="2:59">
       <c r="B28" s="114" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D28" s="48"/>
       <c r="E28" s="48"/>
@@ -11394,7 +11505,7 @@
   <dimension ref="A1:X52"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
       <selection pane="bottomRight" activeCell="D40" sqref="D40"/>
@@ -11426,7 +11537,7 @@
         <v>47</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="15" customFormat="1">
@@ -11487,7 +11598,7 @@
     <row r="5" spans="1:24" ht="18" customHeight="1"/>
     <row r="6" spans="1:24">
       <c r="L6" s="79" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M6" s="80"/>
       <c r="N6" s="80"/>
@@ -11529,37 +11640,37 @@
         <v>2</v>
       </c>
       <c r="I7" s="78" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J7" s="78" t="s">
+        <v>191</v>
+      </c>
+      <c r="K7" s="78" t="s">
+        <v>180</v>
+      </c>
+      <c r="L7" s="89" t="s">
+        <v>192</v>
+      </c>
+      <c r="M7" s="89" t="s">
+        <v>193</v>
+      </c>
+      <c r="N7" s="89" t="s">
         <v>194</v>
       </c>
-      <c r="K7" s="78" t="s">
-        <v>183</v>
-      </c>
-      <c r="L7" s="89" t="s">
+      <c r="O7" s="89" t="s">
         <v>195</v>
       </c>
-      <c r="M7" s="89" t="s">
+      <c r="P7" s="89" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q7" s="89" t="s">
         <v>196</v>
       </c>
-      <c r="N7" s="89" t="s">
+      <c r="R7" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="S7" s="90" t="s">
         <v>197</v>
-      </c>
-      <c r="O7" s="89" t="s">
-        <v>198</v>
-      </c>
-      <c r="P7" s="89" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q7" s="89" t="s">
-        <v>199</v>
-      </c>
-      <c r="R7" s="89" t="s">
-        <v>179</v>
-      </c>
-      <c r="S7" s="90" t="s">
-        <v>200</v>
       </c>
       <c r="T7" s="89" t="s">
         <v>1</v>
@@ -11576,7 +11687,7 @@
         <v>73</v>
       </c>
       <c r="X7" s="31" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -11591,7 +11702,7 @@
         <v>81</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E8" s="32" t="s">
         <v>61</v>
@@ -11611,13 +11722,13 @@
         <v>18</v>
       </c>
       <c r="L8" s="35" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M8" s="35" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N8" s="35" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O8" s="85" t="s">
         <v>13</v>
@@ -11677,13 +11788,13 @@
         <v>18</v>
       </c>
       <c r="L9" s="35" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M9" s="35" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N9" s="35" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O9" s="86" t="s">
         <v>59</v>
@@ -11722,13 +11833,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="67" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D10" s="67" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E10" s="67" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F10" s="69">
         <v>10</v>
@@ -11738,29 +11849,29 @@
       </c>
       <c r="H10" s="33"/>
       <c r="I10" s="33" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J10" s="32"/>
       <c r="K10" s="34" t="s">
         <v>18</v>
       </c>
       <c r="L10" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M10" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N10" s="35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O10" s="87">
         <v>5</v>
       </c>
       <c r="P10" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q10" s="82" t="s">
         <v>187</v>
-      </c>
-      <c r="Q10" s="82" t="s">
-        <v>190</v>
       </c>
       <c r="R10" s="84"/>
       <c r="S10" s="74"/>
@@ -11788,13 +11899,13 @@
         <v>4</v>
       </c>
       <c r="C11" s="67" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D11" s="67" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E11" s="67" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F11" s="69">
         <v>10</v>
@@ -11804,29 +11915,29 @@
       </c>
       <c r="H11" s="33"/>
       <c r="I11" s="33" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J11" s="32"/>
       <c r="K11" s="34" t="s">
         <v>18</v>
       </c>
       <c r="L11" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M11" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N11" s="35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O11" s="87">
         <v>1</v>
       </c>
       <c r="P11" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q11" s="82" t="s">
         <v>187</v>
-      </c>
-      <c r="Q11" s="82" t="s">
-        <v>190</v>
       </c>
       <c r="R11" s="83"/>
       <c r="S11" s="74"/>
@@ -11854,13 +11965,13 @@
         <v>5</v>
       </c>
       <c r="C12" s="67" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D12" s="67" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E12" s="67" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F12" s="69">
         <v>10</v>
@@ -11870,29 +11981,29 @@
       </c>
       <c r="H12" s="33"/>
       <c r="I12" s="33" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J12" s="32"/>
       <c r="K12" s="34" t="s">
         <v>18</v>
       </c>
       <c r="L12" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M12" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N12" s="35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O12" s="87">
         <v>1</v>
       </c>
       <c r="P12" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q12" s="82" t="s">
         <v>187</v>
-      </c>
-      <c r="Q12" s="82" t="s">
-        <v>190</v>
       </c>
       <c r="R12" s="83"/>
       <c r="S12" s="74"/>
@@ -11920,13 +12031,13 @@
         <v>6</v>
       </c>
       <c r="C13" s="67" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D13" s="67" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E13" s="67" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F13" s="69">
         <v>10</v>
@@ -11936,29 +12047,29 @@
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J13" s="32"/>
       <c r="K13" s="34" t="s">
         <v>18</v>
       </c>
       <c r="L13" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M13" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N13" s="35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O13" s="87">
         <v>1</v>
       </c>
       <c r="P13" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q13" s="82" t="s">
         <v>187</v>
-      </c>
-      <c r="Q13" s="82" t="s">
-        <v>190</v>
       </c>
       <c r="R13" s="83"/>
       <c r="S13" s="74"/>
@@ -11986,13 +12097,13 @@
         <v>7</v>
       </c>
       <c r="C14" s="67" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D14" s="67" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E14" s="67" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F14" s="69">
         <v>10</v>
@@ -12002,29 +12113,29 @@
       </c>
       <c r="H14" s="33"/>
       <c r="I14" s="33" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J14" s="32"/>
       <c r="K14" s="34" t="s">
         <v>18</v>
       </c>
       <c r="L14" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M14" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N14" s="35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O14" s="87">
         <v>1</v>
       </c>
       <c r="P14" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q14" s="82" t="s">
         <v>187</v>
-      </c>
-      <c r="Q14" s="82" t="s">
-        <v>190</v>
       </c>
       <c r="R14" s="83"/>
       <c r="S14" s="74"/>
@@ -12052,13 +12163,13 @@
         <v>8</v>
       </c>
       <c r="C15" s="67" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D15" s="67" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E15" s="67" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F15" s="69">
         <v>10</v>
@@ -12071,25 +12182,25 @@
       <c r="J15" s="32"/>
       <c r="K15" s="34"/>
       <c r="L15" s="35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M15" s="35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N15" s="35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O15" s="87">
         <v>2</v>
       </c>
       <c r="P15" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q15" s="82" t="s">
         <v>187</v>
       </c>
-      <c r="Q15" s="82" t="s">
-        <v>190</v>
-      </c>
       <c r="R15" s="83" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="S15" s="74"/>
       <c r="T15" s="35"/>
@@ -12116,13 +12227,13 @@
         <v>9</v>
       </c>
       <c r="C16" s="67" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D16" s="67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E16" s="67" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F16" s="69">
         <v>10</v>
@@ -12135,25 +12246,25 @@
       <c r="J16" s="32"/>
       <c r="K16" s="34"/>
       <c r="L16" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M16" s="35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N16" s="35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O16" s="87">
         <v>3</v>
       </c>
       <c r="P16" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q16" s="82" t="s">
         <v>187</v>
       </c>
-      <c r="Q16" s="82" t="s">
-        <v>190</v>
-      </c>
       <c r="R16" s="83" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="S16" s="74"/>
       <c r="T16" s="35"/>
@@ -12180,13 +12291,13 @@
         <v>10</v>
       </c>
       <c r="C17" s="67" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D17" s="67" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E17" s="67" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F17" s="69">
         <v>10</v>
@@ -12199,25 +12310,25 @@
       <c r="J17" s="32"/>
       <c r="K17" s="34"/>
       <c r="L17" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M17" s="35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N17" s="35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O17" s="87">
         <v>0</v>
       </c>
       <c r="P17" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q17" s="82" t="s">
         <v>187</v>
       </c>
-      <c r="Q17" s="82" t="s">
-        <v>190</v>
-      </c>
       <c r="R17" s="83" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="S17" s="74"/>
       <c r="T17" s="83"/>
@@ -12244,13 +12355,13 @@
         <v>11</v>
       </c>
       <c r="C18" s="67" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D18" s="67" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E18" s="67" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F18" s="69">
         <v>10</v>
@@ -12263,25 +12374,25 @@
       <c r="J18" s="32"/>
       <c r="K18" s="34"/>
       <c r="L18" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M18" s="35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N18" s="35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O18" s="87">
         <v>0</v>
       </c>
       <c r="P18" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q18" s="82" t="s">
         <v>187</v>
       </c>
-      <c r="Q18" s="82" t="s">
-        <v>190</v>
-      </c>
       <c r="R18" s="83" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="S18" s="74"/>
       <c r="T18" s="83"/>
@@ -12308,13 +12419,13 @@
         <v>12</v>
       </c>
       <c r="C19" s="67" t="s">
+        <v>214</v>
+      </c>
+      <c r="D19" s="67" t="s">
         <v>217</v>
       </c>
-      <c r="D19" s="67" t="s">
-        <v>220</v>
-      </c>
       <c r="E19" s="67" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F19" s="69">
         <v>10</v>
@@ -12327,25 +12438,25 @@
       <c r="J19" s="32"/>
       <c r="K19" s="34"/>
       <c r="L19" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M19" s="35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N19" s="35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O19" s="87">
         <v>0</v>
       </c>
       <c r="P19" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q19" s="82" t="s">
         <v>187</v>
       </c>
-      <c r="Q19" s="82" t="s">
-        <v>190</v>
-      </c>
       <c r="R19" s="83" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="S19" s="74"/>
       <c r="T19" s="83"/>
@@ -12372,13 +12483,13 @@
         <v>13</v>
       </c>
       <c r="C20" s="67" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D20" s="67" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E20" s="67" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F20" s="69">
         <v>10</v>
@@ -12391,25 +12502,25 @@
       <c r="J20" s="32"/>
       <c r="K20" s="34"/>
       <c r="L20" s="35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M20" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N20" s="35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O20" s="87">
         <v>0</v>
       </c>
       <c r="P20" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q20" s="82" t="s">
         <v>187</v>
       </c>
-      <c r="Q20" s="82" t="s">
-        <v>190</v>
-      </c>
       <c r="R20" s="83" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="S20" s="74"/>
       <c r="T20" s="35"/>
@@ -12436,13 +12547,13 @@
         <v>14</v>
       </c>
       <c r="C21" s="67" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D21" s="67" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E21" s="67" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F21" s="69">
         <v>10</v>
@@ -12455,25 +12566,25 @@
       <c r="J21" s="32"/>
       <c r="K21" s="34"/>
       <c r="L21" s="35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M21" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N21" s="35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O21" s="87">
         <v>0</v>
       </c>
       <c r="P21" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q21" s="82" t="s">
         <v>187</v>
       </c>
-      <c r="Q21" s="82" t="s">
-        <v>190</v>
-      </c>
       <c r="R21" s="83" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="S21" s="74"/>
       <c r="T21" s="83"/>
@@ -12500,10 +12611,10 @@
         <v>15</v>
       </c>
       <c r="C22" s="67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D22" s="67" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E22" s="67" t="s">
         <v>62</v>
@@ -12519,28 +12630,28 @@
       <c r="J22" s="32"/>
       <c r="K22" s="34"/>
       <c r="L22" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M22" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N22" s="35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O22" s="85" t="s">
         <v>13</v>
       </c>
       <c r="P22" s="24" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Q22" s="74" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="R22" s="83" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="S22" s="74" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="T22" s="35"/>
       <c r="U22" s="124" t="str">
@@ -12566,13 +12677,13 @@
         <v>16</v>
       </c>
       <c r="C23" s="67" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D23" s="67" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E23" s="67" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F23" s="68" t="s">
         <v>59</v>
@@ -12585,28 +12696,28 @@
       <c r="J23" s="32"/>
       <c r="K23" s="34"/>
       <c r="L23" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M23" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N23" s="35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O23" s="85" t="s">
         <v>13</v>
       </c>
       <c r="P23" s="24" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Q23" s="74" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="R23" s="83" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="S23" s="74" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="T23" s="35"/>
       <c r="U23" s="124" t="str">
@@ -12632,13 +12743,13 @@
         <v>17</v>
       </c>
       <c r="C24" s="67" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D24" s="67" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E24" s="67" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F24" s="68" t="s">
         <v>59</v>
@@ -12651,25 +12762,25 @@
       <c r="J24" s="32"/>
       <c r="K24" s="34"/>
       <c r="L24" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M24" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N24" s="35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O24" s="85" t="s">
         <v>13</v>
       </c>
       <c r="P24" s="24" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Q24" s="74" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="R24" s="83" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="S24" s="74"/>
       <c r="T24" s="35"/>
@@ -12696,13 +12807,13 @@
         <v>18</v>
       </c>
       <c r="C25" s="67" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D25" s="67" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E25" s="67" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F25" s="68" t="s">
         <v>59</v>
@@ -12715,25 +12826,25 @@
       <c r="J25" s="32"/>
       <c r="K25" s="34"/>
       <c r="L25" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M25" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N25" s="35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O25" s="85" t="s">
         <v>13</v>
       </c>
       <c r="P25" s="24" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Q25" s="74" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="R25" s="83" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="S25" s="74"/>
       <c r="T25" s="35"/>
@@ -12760,13 +12871,13 @@
         <v>19</v>
       </c>
       <c r="C26" s="67" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D26" s="67" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E26" s="67" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F26" s="69">
         <v>10</v>
@@ -12779,22 +12890,22 @@
       <c r="J26" s="32"/>
       <c r="K26" s="34"/>
       <c r="L26" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M26" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N26" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O26" s="87">
         <v>0</v>
       </c>
       <c r="P26" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q26" s="82" t="s">
         <v>187</v>
-      </c>
-      <c r="Q26" s="82" t="s">
-        <v>190</v>
       </c>
       <c r="R26" s="83"/>
       <c r="S26" s="74"/>
@@ -12822,13 +12933,13 @@
         <v>20</v>
       </c>
       <c r="C27" s="67" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D27" s="67" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E27" s="67" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F27" s="69">
         <v>7</v>
@@ -12841,25 +12952,25 @@
       <c r="J27" s="32"/>
       <c r="K27" s="34"/>
       <c r="L27" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M27" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N27" s="35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O27" s="87">
         <v>0</v>
       </c>
       <c r="P27" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q27" s="82" t="s">
         <v>187</v>
       </c>
-      <c r="Q27" s="82" t="s">
-        <v>190</v>
-      </c>
       <c r="R27" s="83" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="S27" s="74"/>
       <c r="T27" s="35"/>
@@ -12886,13 +12997,13 @@
         <v>21</v>
       </c>
       <c r="C28" s="67" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D28" s="67" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E28" s="67" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F28" s="69">
         <v>20</v>
@@ -12905,25 +13016,25 @@
       <c r="J28" s="32"/>
       <c r="K28" s="34"/>
       <c r="L28" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M28" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N28" s="35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O28" s="87">
         <v>0</v>
       </c>
       <c r="P28" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q28" s="82" t="s">
         <v>187</v>
       </c>
-      <c r="Q28" s="82" t="s">
-        <v>190</v>
-      </c>
       <c r="R28" s="83" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="S28" s="74"/>
       <c r="T28" s="35"/>
@@ -12950,13 +13061,13 @@
         <v>22</v>
       </c>
       <c r="C29" s="67" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D29" s="67" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E29" s="67" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F29" s="68" t="s">
         <v>59</v>
@@ -12969,25 +13080,25 @@
       <c r="J29" s="32"/>
       <c r="K29" s="34"/>
       <c r="L29" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M29" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N29" s="35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O29" s="85" t="s">
         <v>13</v>
       </c>
       <c r="P29" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q29" s="82" t="s">
         <v>187</v>
       </c>
-      <c r="Q29" s="82" t="s">
-        <v>190</v>
-      </c>
       <c r="R29" s="83" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="S29" s="74"/>
       <c r="T29" s="35"/>
@@ -13014,10 +13125,10 @@
         <v>23</v>
       </c>
       <c r="C30" s="67" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D30" s="67" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E30" s="67" t="s">
         <v>64</v>
@@ -13033,25 +13144,25 @@
       <c r="J30" s="32"/>
       <c r="K30" s="34"/>
       <c r="L30" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M30" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N30" s="35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O30" s="85" t="s">
         <v>13</v>
       </c>
       <c r="P30" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q30" s="82" t="s">
         <v>187</v>
       </c>
-      <c r="Q30" s="82" t="s">
-        <v>190</v>
-      </c>
       <c r="R30" s="83" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="S30" s="74"/>
       <c r="T30" s="35"/>
@@ -13078,13 +13189,13 @@
         <v>24</v>
       </c>
       <c r="C31" s="67" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D31" s="67" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E31" s="67" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F31" s="69">
         <v>320</v>
@@ -13097,29 +13208,29 @@
       <c r="J31" s="32"/>
       <c r="K31" s="34"/>
       <c r="L31" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M31" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N31" s="35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O31" s="87">
         <v>0</v>
       </c>
       <c r="P31" s="24" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Q31" s="74" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="R31" s="83" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="S31" s="74"/>
       <c r="T31" s="35" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="U31" s="124" t="str">
         <f t="shared" si="0"/>
@@ -13144,10 +13255,10 @@
         <v>25</v>
       </c>
       <c r="C32" s="67" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D32" s="67" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E32" s="67" t="s">
         <v>63</v>
@@ -13163,25 +13274,25 @@
       <c r="J32" s="32"/>
       <c r="K32" s="34"/>
       <c r="L32" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M32" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N32" s="35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O32" s="87">
         <v>0</v>
       </c>
       <c r="P32" s="24" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Q32" s="74" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="R32" s="83" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="S32" s="74"/>
       <c r="T32" s="35"/>
@@ -13208,10 +13319,10 @@
         <v>26</v>
       </c>
       <c r="C33" s="67" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D33" s="67" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E33" s="67" t="s">
         <v>65</v>
@@ -13227,22 +13338,22 @@
       <c r="J33" s="32"/>
       <c r="K33" s="37"/>
       <c r="L33" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M33" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N33" s="35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O33" s="85" t="s">
         <v>13</v>
       </c>
       <c r="P33" s="24" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="Q33" s="82" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="R33" s="83"/>
       <c r="S33" s="74"/>
@@ -13270,10 +13381,10 @@
         <v>27</v>
       </c>
       <c r="C34" s="67" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D34" s="67" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E34" s="67" t="s">
         <v>63</v>
@@ -13289,29 +13400,29 @@
       <c r="J34" s="32"/>
       <c r="K34" s="34"/>
       <c r="L34" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M34" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N34" s="35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O34" s="87">
         <v>0</v>
       </c>
       <c r="P34" s="24" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Q34" s="74" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="R34" s="83" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="S34" s="74"/>
       <c r="T34" s="35" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="U34" s="124" t="str">
         <f t="shared" ref="U34" si="15">D34&amp;" " &amp;E34&amp;" "&amp;K34&amp;","</f>
@@ -13355,22 +13466,22 @@
       <c r="J35" s="32"/>
       <c r="K35" s="34"/>
       <c r="L35" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M35" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N35" s="35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O35" s="87">
         <v>0</v>
       </c>
       <c r="P35" s="24" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Q35" s="74" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="R35" s="83"/>
       <c r="S35" s="75"/>
@@ -13400,10 +13511,10 @@
         <v>29</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D36" s="67" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E36" s="67" t="s">
         <v>62</v>
@@ -13419,26 +13530,26 @@
       <c r="J36" s="32"/>
       <c r="K36" s="34"/>
       <c r="L36" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M36" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N36" s="35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O36" s="85" t="s">
         <v>13</v>
       </c>
       <c r="P36" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q36" s="82" t="s">
         <v>188</v>
-      </c>
-      <c r="Q36" s="82" t="s">
-        <v>191</v>
       </c>
       <c r="R36" s="83"/>
       <c r="S36" s="74" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="T36" s="35"/>
       <c r="U36" s="124" t="str">
@@ -13483,13 +13594,13 @@
       <c r="J37" s="32"/>
       <c r="K37" s="37"/>
       <c r="L37" s="35" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M37" s="35" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N37" s="35" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O37" s="85" t="s">
         <v>13</v>
@@ -13547,13 +13658,13 @@
       <c r="J38" s="32"/>
       <c r="K38" s="37"/>
       <c r="L38" s="35" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M38" s="35" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N38" s="35" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O38" s="85" t="s">
         <v>13</v>
@@ -13611,22 +13722,22 @@
       <c r="J39" s="32"/>
       <c r="K39" s="37"/>
       <c r="L39" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M39" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N39" s="35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O39" s="85" t="s">
         <v>13</v>
       </c>
       <c r="P39" s="24" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="Q39" s="82" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="R39" s="83"/>
       <c r="S39" s="74"/>
@@ -13686,11 +13797,11 @@
     </row>
     <row r="42" spans="2:24">
       <c r="C42" s="115" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D42" s="72"/>
       <c r="E42" s="72" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F42" s="72"/>
       <c r="G42" s="72"/>
@@ -13709,7 +13820,7 @@
     </row>
     <row r="46" spans="2:24">
       <c r="C46" s="115" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D46" s="72"/>
       <c r="E46" s="72"/>
@@ -13724,11 +13835,11 @@
     </row>
     <row r="49" spans="3:6">
       <c r="C49" s="115" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D49" s="72"/>
       <c r="E49" s="72" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F49" s="72"/>
     </row>
@@ -13740,12 +13851,12 @@
     </row>
     <row r="51" spans="3:6">
       <c r="C51" s="30" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="52" spans="3:6">
       <c r="C52" s="30" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -13766,8 +13877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7AF4FB-3BC2-4BFF-B58C-C1610F351698}">
   <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5"/>
@@ -13796,7 +13907,7 @@
         <v>47</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="15" customFormat="1">
@@ -13808,7 +13919,7 @@
       </c>
       <c r="C2" s="154"/>
       <c r="D2" s="62" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E2" s="63"/>
       <c r="F2" s="63"/>
@@ -13825,7 +13936,7 @@
       </c>
       <c r="C3" s="152"/>
       <c r="D3" s="64" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E3" s="65" t="s">
         <v>48</v>
@@ -13844,7 +13955,7 @@
       </c>
       <c r="C4" s="152"/>
       <c r="D4" s="64" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E4" s="66" t="s">
         <v>50</v>
@@ -13857,7 +13968,7 @@
     <row r="5" spans="1:24" ht="8.25" customHeight="1"/>
     <row r="6" spans="1:24">
       <c r="L6" s="79" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M6" s="80"/>
       <c r="N6" s="80"/>
@@ -13899,37 +14010,37 @@
         <v>2</v>
       </c>
       <c r="I7" s="78" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J7" s="78" t="s">
+        <v>191</v>
+      </c>
+      <c r="K7" s="78" t="s">
+        <v>180</v>
+      </c>
+      <c r="L7" s="89" t="s">
+        <v>192</v>
+      </c>
+      <c r="M7" s="89" t="s">
+        <v>193</v>
+      </c>
+      <c r="N7" s="89" t="s">
         <v>194</v>
       </c>
-      <c r="K7" s="78" t="s">
-        <v>183</v>
-      </c>
-      <c r="L7" s="89" t="s">
+      <c r="O7" s="89" t="s">
         <v>195</v>
       </c>
-      <c r="M7" s="89" t="s">
+      <c r="P7" s="89" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q7" s="89" t="s">
         <v>196</v>
       </c>
-      <c r="N7" s="89" t="s">
+      <c r="R7" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="S7" s="90" t="s">
         <v>197</v>
-      </c>
-      <c r="O7" s="89" t="s">
-        <v>198</v>
-      </c>
-      <c r="P7" s="89" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q7" s="89" t="s">
-        <v>199</v>
-      </c>
-      <c r="R7" s="89" t="s">
-        <v>179</v>
-      </c>
-      <c r="S7" s="90" t="s">
-        <v>200</v>
       </c>
       <c r="T7" s="89" t="s">
         <v>1</v>
@@ -13946,7 +14057,7 @@
         <v>73</v>
       </c>
       <c r="X7" s="31" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -13958,10 +14069,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E8" s="32" t="s">
         <v>61</v>
@@ -13981,13 +14092,13 @@
         <v>18</v>
       </c>
       <c r="L8" s="35" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M8" s="35" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N8" s="35" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O8" s="85" t="s">
         <v>13</v>
@@ -14047,13 +14158,13 @@
         <v>18</v>
       </c>
       <c r="L9" s="35" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M9" s="35" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N9" s="35" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O9" s="86" t="s">
         <v>59</v>
@@ -14092,13 +14203,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="67" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D10" s="67" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E10" s="67" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F10" s="69">
         <v>50</v>
@@ -14113,27 +14224,27 @@
       <c r="J10" s="32"/>
       <c r="K10" s="34"/>
       <c r="L10" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M10" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N10" s="35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O10" s="87">
         <v>0</v>
       </c>
       <c r="P10" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q10" s="82" t="s">
         <v>187</v>
-      </c>
-      <c r="Q10" s="82" t="s">
-        <v>190</v>
       </c>
       <c r="R10" s="84"/>
       <c r="S10" s="74"/>
       <c r="T10" s="35" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="U10" s="124" t="str">
         <f t="shared" si="0"/>
@@ -14177,13 +14288,13 @@
       <c r="J11" s="32"/>
       <c r="K11" s="37"/>
       <c r="L11" s="35" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M11" s="35" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N11" s="35" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O11" s="85" t="s">
         <v>13</v>
@@ -14241,13 +14352,13 @@
       <c r="J12" s="32"/>
       <c r="K12" s="37"/>
       <c r="L12" s="35" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M12" s="35" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N12" s="35" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O12" s="85" t="s">
         <v>13</v>
@@ -14305,22 +14416,22 @@
       <c r="J13" s="32"/>
       <c r="K13" s="37"/>
       <c r="L13" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M13" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N13" s="35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O13" s="85" t="s">
         <v>13</v>
       </c>
       <c r="P13" s="24" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="Q13" s="82" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="R13" s="83"/>
       <c r="S13" s="74"/>
@@ -14380,11 +14491,11 @@
     </row>
     <row r="16" spans="1:24">
       <c r="C16" s="115" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D16" s="72"/>
       <c r="E16" s="72" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F16" s="72"/>
       <c r="G16" s="72"/>
@@ -14404,7 +14515,7 @@
     </row>
     <row r="20" spans="3:8">
       <c r="C20" s="115" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D20" s="72"/>
       <c r="E20" s="72"/>
@@ -14420,10 +14531,10 @@
     </row>
     <row r="23" spans="3:8">
       <c r="C23" s="115" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D23" s="72" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E23" s="72"/>
       <c r="F23" s="72"/>
@@ -14456,8 +14567,8 @@
   </sheetPr>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5"/>
@@ -14496,7 +14607,7 @@
       </c>
       <c r="C2" s="154"/>
       <c r="D2" s="62" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E2" s="63"/>
       <c r="F2" s="63"/>
@@ -14513,7 +14624,7 @@
       </c>
       <c r="C3" s="152"/>
       <c r="D3" s="64" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E3" s="65" t="s">
         <v>48</v>
@@ -14532,7 +14643,7 @@
       </c>
       <c r="C4" s="152"/>
       <c r="D4" s="64" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E4" s="66" t="s">
         <v>50</v>
@@ -14545,7 +14656,7 @@
     <row r="5" spans="1:24" ht="8.25" customHeight="1"/>
     <row r="6" spans="1:24">
       <c r="L6" s="79" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M6" s="80"/>
       <c r="N6" s="80"/>
@@ -14587,37 +14698,37 @@
         <v>2</v>
       </c>
       <c r="I7" s="78" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J7" s="78" t="s">
+        <v>191</v>
+      </c>
+      <c r="K7" s="78" t="s">
+        <v>180</v>
+      </c>
+      <c r="L7" s="89" t="s">
+        <v>192</v>
+      </c>
+      <c r="M7" s="89" t="s">
+        <v>193</v>
+      </c>
+      <c r="N7" s="89" t="s">
         <v>194</v>
       </c>
-      <c r="K7" s="78" t="s">
-        <v>183</v>
-      </c>
-      <c r="L7" s="89" t="s">
+      <c r="O7" s="89" t="s">
         <v>195</v>
       </c>
-      <c r="M7" s="89" t="s">
+      <c r="P7" s="89" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q7" s="89" t="s">
         <v>196</v>
       </c>
-      <c r="N7" s="89" t="s">
+      <c r="R7" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="S7" s="90" t="s">
         <v>197</v>
-      </c>
-      <c r="O7" s="89" t="s">
-        <v>198</v>
-      </c>
-      <c r="P7" s="89" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q7" s="89" t="s">
-        <v>199</v>
-      </c>
-      <c r="R7" s="89" t="s">
-        <v>179</v>
-      </c>
-      <c r="S7" s="90" t="s">
-        <v>200</v>
       </c>
       <c r="T7" s="89" t="s">
         <v>1</v>
@@ -14634,7 +14745,7 @@
         <v>73</v>
       </c>
       <c r="X7" s="31" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -14646,10 +14757,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E8" s="32" t="s">
         <v>61</v>
@@ -14669,13 +14780,13 @@
         <v>18</v>
       </c>
       <c r="L8" s="35" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M8" s="35" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N8" s="35" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O8" s="85" t="s">
         <v>13</v>
@@ -14735,13 +14846,13 @@
         <v>18</v>
       </c>
       <c r="L9" s="35" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M9" s="35" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N9" s="35" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O9" s="86" t="s">
         <v>59</v>
@@ -14780,13 +14891,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="67" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D10" s="67" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E10" s="67" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F10" s="69">
         <v>50</v>
@@ -14801,27 +14912,27 @@
       <c r="J10" s="32"/>
       <c r="K10" s="34"/>
       <c r="L10" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M10" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N10" s="35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O10" s="87">
         <v>0</v>
       </c>
       <c r="P10" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q10" s="82" t="s">
         <v>187</v>
-      </c>
-      <c r="Q10" s="82" t="s">
-        <v>190</v>
       </c>
       <c r="R10" s="84"/>
       <c r="S10" s="74"/>
       <c r="T10" s="35" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="U10" s="124" t="str">
         <f t="shared" si="0"/>
@@ -14846,13 +14957,13 @@
         <v>4</v>
       </c>
       <c r="C11" s="67" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D11" s="67" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E11" s="67" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F11" s="69"/>
       <c r="G11" s="32" t="s">
@@ -14863,22 +14974,22 @@
       <c r="J11" s="32"/>
       <c r="K11" s="34"/>
       <c r="L11" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M11" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N11" s="35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O11" s="87">
         <v>0</v>
       </c>
       <c r="P11" s="24" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Q11" s="74" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="R11" s="84"/>
       <c r="S11" s="74"/>
@@ -14927,22 +15038,22 @@
       <c r="J12" s="32"/>
       <c r="K12" s="34"/>
       <c r="L12" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M12" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N12" s="35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O12" s="87">
         <v>0</v>
       </c>
       <c r="P12" s="24" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Q12" s="74" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="R12" s="83"/>
       <c r="S12" s="75"/>
@@ -14991,13 +15102,13 @@
       <c r="J13" s="32"/>
       <c r="K13" s="37"/>
       <c r="L13" s="35" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M13" s="35" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N13" s="35" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O13" s="85" t="s">
         <v>13</v>
@@ -15055,13 +15166,13 @@
       <c r="J14" s="32"/>
       <c r="K14" s="37"/>
       <c r="L14" s="35" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M14" s="35" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N14" s="35" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O14" s="85" t="s">
         <v>13</v>
@@ -15119,22 +15230,22 @@
       <c r="J15" s="32"/>
       <c r="K15" s="37"/>
       <c r="L15" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M15" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N15" s="35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O15" s="85" t="s">
         <v>13</v>
       </c>
       <c r="P15" s="24" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="Q15" s="82" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="R15" s="83"/>
       <c r="S15" s="74"/>
@@ -15193,12 +15304,12 @@
       <c r="X16" s="40"/>
     </row>
     <row r="18" spans="3:8">
-      <c r="C18" s="72" t="s">
-        <v>100</v>
+      <c r="C18" s="115" t="s">
+        <v>325</v>
       </c>
       <c r="D18" s="72"/>
       <c r="E18" s="72" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F18" s="72"/>
       <c r="G18" s="72"/>
@@ -15217,8 +15328,8 @@
       </c>
     </row>
     <row r="22" spans="3:8">
-      <c r="C22" s="72" t="s">
-        <v>101</v>
+      <c r="C22" s="115" t="s">
+        <v>326</v>
       </c>
       <c r="D22" s="72"/>
       <c r="E22" s="72"/>
@@ -15233,11 +15344,11 @@
       </c>
     </row>
     <row r="25" spans="3:8">
-      <c r="C25" s="72" t="s">
-        <v>102</v>
+      <c r="C25" s="115" t="s">
+        <v>327</v>
       </c>
       <c r="D25" s="72" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E25" s="72"/>
       <c r="F25" s="72"/>
@@ -15271,7 +15382,7 @@
   <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5"/>
@@ -15300,7 +15411,7 @@
         <v>47</v>
       </c>
       <c r="D1" s="114" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="15" customFormat="1">
@@ -15312,7 +15423,7 @@
       </c>
       <c r="C2" s="154"/>
       <c r="D2" s="62" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E2" s="63"/>
       <c r="F2" s="63"/>
@@ -15329,7 +15440,7 @@
       </c>
       <c r="C3" s="152"/>
       <c r="D3" s="64" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E3" s="65" t="s">
         <v>48</v>
@@ -15348,7 +15459,7 @@
       </c>
       <c r="C4" s="152"/>
       <c r="D4" s="64" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E4" s="66" t="s">
         <v>50</v>
@@ -15361,7 +15472,7 @@
     <row r="5" spans="1:24" ht="8.25" customHeight="1"/>
     <row r="6" spans="1:24">
       <c r="L6" s="79" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M6" s="80"/>
       <c r="N6" s="80"/>
@@ -15403,37 +15514,37 @@
         <v>2</v>
       </c>
       <c r="I7" s="78" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J7" s="78" t="s">
+        <v>191</v>
+      </c>
+      <c r="K7" s="78" t="s">
+        <v>180</v>
+      </c>
+      <c r="L7" s="89" t="s">
+        <v>192</v>
+      </c>
+      <c r="M7" s="89" t="s">
+        <v>193</v>
+      </c>
+      <c r="N7" s="89" t="s">
         <v>194</v>
       </c>
-      <c r="K7" s="78" t="s">
-        <v>183</v>
-      </c>
-      <c r="L7" s="89" t="s">
+      <c r="O7" s="89" t="s">
         <v>195</v>
       </c>
-      <c r="M7" s="89" t="s">
+      <c r="P7" s="89" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q7" s="89" t="s">
         <v>196</v>
       </c>
-      <c r="N7" s="89" t="s">
+      <c r="R7" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="S7" s="90" t="s">
         <v>197</v>
-      </c>
-      <c r="O7" s="89" t="s">
-        <v>198</v>
-      </c>
-      <c r="P7" s="89" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q7" s="89" t="s">
-        <v>199</v>
-      </c>
-      <c r="R7" s="89" t="s">
-        <v>179</v>
-      </c>
-      <c r="S7" s="90" t="s">
-        <v>200</v>
       </c>
       <c r="T7" s="89" t="s">
         <v>1</v>
@@ -15450,7 +15561,7 @@
         <v>73</v>
       </c>
       <c r="X7" s="31" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -15485,13 +15596,13 @@
         <v>18</v>
       </c>
       <c r="L8" s="35" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M8" s="35" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N8" s="35" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O8" s="85" t="s">
         <v>13</v>
@@ -15530,10 +15641,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="67" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D9" s="67" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E9" s="67" t="s">
         <v>72</v>
@@ -15549,22 +15660,22 @@
       <c r="J9" s="32"/>
       <c r="K9" s="34"/>
       <c r="L9" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M9" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N9" s="35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O9" s="86">
         <v>0</v>
       </c>
       <c r="P9" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q9" s="82" t="s">
         <v>187</v>
-      </c>
-      <c r="Q9" s="82" t="s">
-        <v>190</v>
       </c>
       <c r="R9" s="83"/>
       <c r="S9" s="74"/>
@@ -15592,10 +15703,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="67" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D10" s="67" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E10" s="67" t="s">
         <v>62</v>
@@ -15611,25 +15722,25 @@
       <c r="J10" s="32"/>
       <c r="K10" s="34"/>
       <c r="L10" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M10" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N10" s="35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O10" s="85" t="s">
         <v>13</v>
       </c>
       <c r="P10" s="24" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Q10" s="74" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="R10" s="83" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="S10" s="103"/>
       <c r="T10" s="35"/>
@@ -15675,13 +15786,13 @@
       <c r="J11" s="32"/>
       <c r="K11" s="34"/>
       <c r="L11" s="35" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M11" s="35" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N11" s="35" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O11" s="85" t="s">
         <v>13</v>
@@ -15739,13 +15850,13 @@
       <c r="J12" s="32"/>
       <c r="K12" s="34"/>
       <c r="L12" s="35" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M12" s="35" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N12" s="35" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O12" s="85" t="s">
         <v>13</v>
@@ -15812,12 +15923,12 @@
       <c r="X13" s="40"/>
     </row>
     <row r="15" spans="1:24">
-      <c r="C15" s="72" t="s">
-        <v>100</v>
+      <c r="C15" s="115" t="s">
+        <v>325</v>
       </c>
       <c r="D15" s="72"/>
       <c r="E15" s="72" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F15" s="72"/>
       <c r="G15" s="72"/>

--- a/文書/04.詳細設計書/【Kai9Tmpl】テーブル定義書.xlsx
+++ b/文書/04.詳細設計書/【Kai9Tmpl】テーブル定義書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d30bd01ee33075e8/work/25.java/10.Kai9Tmpl/文書/04.詳細設計書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="304" documentId="14_{CD832F92-60E6-4E45-A810-4D5D0E7B03B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8AF197E-9069-45CE-B9B4-A2254E256DE2}"/>
+  <xr:revisionPtr revIDLastSave="360" documentId="14_{CD832F92-60E6-4E45-A810-4D5D0E7B03B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C05BF079-F41C-47FB-871F-3DF3C4DB73FA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="758" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="758" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="63" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="350">
   <si>
     <t>初期値</t>
   </si>
@@ -1118,23 +1118,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>候補より入力</t>
-    <rPh sb="0" eb="2">
-      <t>コウホ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>候補</t>
-    <rPh sb="0" eb="2">
-      <t>コウホ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>入力画面で、各条件を満たさない場合、エラー表示する</t>
     <rPh sb="0" eb="2">
       <t>ニュウリョク</t>
@@ -1341,93 +1324,6 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>注釈</t>
-    <rPh sb="0" eb="2">
-      <t>チュウシャク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>例えば、NumberInputで全角限定等が指定されている場合、矛盾が生じ正しく動作しないが、</t>
-    <rPh sb="0" eb="1">
-      <t>タト</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ムジュン</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ドウサ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>その手の、考えれば判る事で、且つ、自動動作確認機能で検知可能な個所については、自動生成時のエラーチェック対象外。</t>
-    <rPh sb="2" eb="3">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>カンガ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ワカ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ケンチ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>カショ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>ガイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2354,31 +2250,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>極力、ナチュラルキーをユニークインデックスとして別途作成し一位制約を可視化する事</t>
-    <rPh sb="0" eb="2">
-      <t>キョクリョク</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ベット</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>イチイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>セイヤク</t>
-    </rPh>
-    <rPh sb="34" eb="37">
-      <t>カシカ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>コト</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>テーブル定義書の書き方</t>
     <rPh sb="4" eb="7">
       <t>テイギショ</t>
@@ -2598,6 +2469,129 @@
   </si>
   <si>
     <t>※これ以外を利用する場合、自身で作り込めばOK</t>
+  </si>
+  <si>
+    <t>極力、ナチュラルキーをユニークインデックスとして別途作成し一意制約を可視化する事</t>
+    <rPh sb="0" eb="2">
+      <t>キョクリョク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ベット</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イチイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>セイヤク</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>カシカ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>正規表現以外で実装 → moment(formState.datetime.value).format('YYYY-MM-DD HH:mm:ss')</t>
+    <rPh sb="0" eb="2">
+      <t>セイキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>正規表現以外で実装 → moment(formState.date.value).format('YYYY-MM-DD')</t>
+    <rPh sb="0" eb="2">
+      <t>セイキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>時刻</t>
+    <rPh sb="0" eb="2">
+      <t>ジコク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>正規表現以外で実装 → moment(formState.datetime.value).format('HH:mm:ss')</t>
+    <rPh sb="0" eb="2">
+      <t>セイキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バリデーションチェック</t>
+  </si>
+  <si>
+    <t>実装方法</t>
+    <rPh sb="0" eb="2">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>利用可能な型</t>
+    <rPh sb="0" eb="2">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>text/varchar/char</t>
+  </si>
+  <si>
+    <t>text/varchar/char</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〃</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -2607,7 +2601,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -2806,6 +2800,13 @@
       <b/>
       <sz val="11"/>
       <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -3164,7 +3165,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3448,6 +3449,7 @@
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3508,6 +3510,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3578,13 +3581,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>152482</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3600,7 +3603,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="342900" y="23040976"/>
+          <a:off x="342900" y="22240876"/>
           <a:ext cx="12982575" cy="2314656"/>
           <a:chOff x="342900" y="20002501"/>
           <a:chExt cx="12982575" cy="2314656"/>
@@ -3846,13 +3849,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>124581</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>28893</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3890,13 +3893,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>352424</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3956,13 +3959,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>271462</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4012,13 +4015,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>152985</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -4034,7 +4037,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="419100" y="29565600"/>
+          <a:off x="419100" y="28765500"/>
           <a:ext cx="7010400" cy="4191585"/>
           <a:chOff x="8601075" y="27384375"/>
           <a:chExt cx="7010400" cy="4191585"/>
@@ -4127,13 +4130,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>162470</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -4149,7 +4152,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7934324" y="30260925"/>
+          <a:off x="7934324" y="29460825"/>
           <a:ext cx="8010526" cy="3905795"/>
           <a:chOff x="276224" y="28146375"/>
           <a:chExt cx="8010526" cy="3905795"/>
@@ -4242,13 +4245,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>109538</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5050,44 +5053,44 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="138" t="s">
+      <c r="I9" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="139"/>
-      <c r="K9" s="139"/>
-      <c r="L9" s="139"/>
-      <c r="M9" s="139"/>
-      <c r="N9" s="139"/>
-      <c r="O9" s="139"/>
-      <c r="P9" s="139"/>
-      <c r="Q9" s="139"/>
-      <c r="R9" s="139"/>
-      <c r="S9" s="139"/>
-      <c r="T9" s="139"/>
-      <c r="U9" s="139"/>
-      <c r="V9" s="139"/>
-      <c r="W9" s="139"/>
-      <c r="X9" s="139"/>
-      <c r="Y9" s="139"/>
-      <c r="Z9" s="139"/>
-      <c r="AA9" s="139"/>
-      <c r="AB9" s="139"/>
-      <c r="AC9" s="139"/>
-      <c r="AD9" s="139"/>
-      <c r="AE9" s="139"/>
-      <c r="AF9" s="139"/>
-      <c r="AG9" s="139"/>
-      <c r="AH9" s="139"/>
-      <c r="AI9" s="139"/>
-      <c r="AJ9" s="139"/>
-      <c r="AK9" s="139"/>
-      <c r="AL9" s="139"/>
-      <c r="AM9" s="139"/>
-      <c r="AN9" s="139"/>
-      <c r="AO9" s="139"/>
-      <c r="AP9" s="139"/>
-      <c r="AQ9" s="139"/>
-      <c r="AR9" s="140"/>
+      <c r="J9" s="140"/>
+      <c r="K9" s="140"/>
+      <c r="L9" s="140"/>
+      <c r="M9" s="140"/>
+      <c r="N9" s="140"/>
+      <c r="O9" s="140"/>
+      <c r="P9" s="140"/>
+      <c r="Q9" s="140"/>
+      <c r="R9" s="140"/>
+      <c r="S9" s="140"/>
+      <c r="T9" s="140"/>
+      <c r="U9" s="140"/>
+      <c r="V9" s="140"/>
+      <c r="W9" s="140"/>
+      <c r="X9" s="140"/>
+      <c r="Y9" s="140"/>
+      <c r="Z9" s="140"/>
+      <c r="AA9" s="140"/>
+      <c r="AB9" s="140"/>
+      <c r="AC9" s="140"/>
+      <c r="AD9" s="140"/>
+      <c r="AE9" s="140"/>
+      <c r="AF9" s="140"/>
+      <c r="AG9" s="140"/>
+      <c r="AH9" s="140"/>
+      <c r="AI9" s="140"/>
+      <c r="AJ9" s="140"/>
+      <c r="AK9" s="140"/>
+      <c r="AL9" s="140"/>
+      <c r="AM9" s="140"/>
+      <c r="AN9" s="140"/>
+      <c r="AO9" s="140"/>
+      <c r="AP9" s="140"/>
+      <c r="AQ9" s="140"/>
+      <c r="AR9" s="141"/>
       <c r="AS9" s="9"/>
       <c r="AT9" s="9"/>
       <c r="AU9" s="9"/>
@@ -5106,42 +5109,42 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
-      <c r="I10" s="141"/>
-      <c r="J10" s="142"/>
-      <c r="K10" s="142"/>
-      <c r="L10" s="142"/>
-      <c r="M10" s="142"/>
-      <c r="N10" s="142"/>
-      <c r="O10" s="142"/>
-      <c r="P10" s="142"/>
-      <c r="Q10" s="142"/>
-      <c r="R10" s="142"/>
-      <c r="S10" s="142"/>
-      <c r="T10" s="142"/>
-      <c r="U10" s="142"/>
-      <c r="V10" s="142"/>
-      <c r="W10" s="142"/>
-      <c r="X10" s="142"/>
-      <c r="Y10" s="142"/>
-      <c r="Z10" s="142"/>
-      <c r="AA10" s="142"/>
-      <c r="AB10" s="142"/>
-      <c r="AC10" s="142"/>
-      <c r="AD10" s="142"/>
-      <c r="AE10" s="142"/>
-      <c r="AF10" s="142"/>
-      <c r="AG10" s="142"/>
-      <c r="AH10" s="142"/>
-      <c r="AI10" s="142"/>
-      <c r="AJ10" s="142"/>
-      <c r="AK10" s="142"/>
-      <c r="AL10" s="142"/>
-      <c r="AM10" s="142"/>
-      <c r="AN10" s="142"/>
-      <c r="AO10" s="142"/>
-      <c r="AP10" s="142"/>
-      <c r="AQ10" s="142"/>
-      <c r="AR10" s="143"/>
+      <c r="I10" s="142"/>
+      <c r="J10" s="143"/>
+      <c r="K10" s="143"/>
+      <c r="L10" s="143"/>
+      <c r="M10" s="143"/>
+      <c r="N10" s="143"/>
+      <c r="O10" s="143"/>
+      <c r="P10" s="143"/>
+      <c r="Q10" s="143"/>
+      <c r="R10" s="143"/>
+      <c r="S10" s="143"/>
+      <c r="T10" s="143"/>
+      <c r="U10" s="143"/>
+      <c r="V10" s="143"/>
+      <c r="W10" s="143"/>
+      <c r="X10" s="143"/>
+      <c r="Y10" s="143"/>
+      <c r="Z10" s="143"/>
+      <c r="AA10" s="143"/>
+      <c r="AB10" s="143"/>
+      <c r="AC10" s="143"/>
+      <c r="AD10" s="143"/>
+      <c r="AE10" s="143"/>
+      <c r="AF10" s="143"/>
+      <c r="AG10" s="143"/>
+      <c r="AH10" s="143"/>
+      <c r="AI10" s="143"/>
+      <c r="AJ10" s="143"/>
+      <c r="AK10" s="143"/>
+      <c r="AL10" s="143"/>
+      <c r="AM10" s="143"/>
+      <c r="AN10" s="143"/>
+      <c r="AO10" s="143"/>
+      <c r="AP10" s="143"/>
+      <c r="AQ10" s="143"/>
+      <c r="AR10" s="144"/>
       <c r="AS10" s="9"/>
       <c r="AT10" s="9"/>
       <c r="AU10" s="9"/>
@@ -5160,42 +5163,42 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
-      <c r="I11" s="141"/>
-      <c r="J11" s="142"/>
-      <c r="K11" s="142"/>
-      <c r="L11" s="142"/>
-      <c r="M11" s="142"/>
-      <c r="N11" s="142"/>
-      <c r="O11" s="142"/>
-      <c r="P11" s="142"/>
-      <c r="Q11" s="142"/>
-      <c r="R11" s="142"/>
-      <c r="S11" s="142"/>
-      <c r="T11" s="142"/>
-      <c r="U11" s="142"/>
-      <c r="V11" s="142"/>
-      <c r="W11" s="142"/>
-      <c r="X11" s="142"/>
-      <c r="Y11" s="142"/>
-      <c r="Z11" s="142"/>
-      <c r="AA11" s="142"/>
-      <c r="AB11" s="142"/>
-      <c r="AC11" s="142"/>
-      <c r="AD11" s="142"/>
-      <c r="AE11" s="142"/>
-      <c r="AF11" s="142"/>
-      <c r="AG11" s="142"/>
-      <c r="AH11" s="142"/>
-      <c r="AI11" s="142"/>
-      <c r="AJ11" s="142"/>
-      <c r="AK11" s="142"/>
-      <c r="AL11" s="142"/>
-      <c r="AM11" s="142"/>
-      <c r="AN11" s="142"/>
-      <c r="AO11" s="142"/>
-      <c r="AP11" s="142"/>
-      <c r="AQ11" s="142"/>
-      <c r="AR11" s="143"/>
+      <c r="I11" s="142"/>
+      <c r="J11" s="143"/>
+      <c r="K11" s="143"/>
+      <c r="L11" s="143"/>
+      <c r="M11" s="143"/>
+      <c r="N11" s="143"/>
+      <c r="O11" s="143"/>
+      <c r="P11" s="143"/>
+      <c r="Q11" s="143"/>
+      <c r="R11" s="143"/>
+      <c r="S11" s="143"/>
+      <c r="T11" s="143"/>
+      <c r="U11" s="143"/>
+      <c r="V11" s="143"/>
+      <c r="W11" s="143"/>
+      <c r="X11" s="143"/>
+      <c r="Y11" s="143"/>
+      <c r="Z11" s="143"/>
+      <c r="AA11" s="143"/>
+      <c r="AB11" s="143"/>
+      <c r="AC11" s="143"/>
+      <c r="AD11" s="143"/>
+      <c r="AE11" s="143"/>
+      <c r="AF11" s="143"/>
+      <c r="AG11" s="143"/>
+      <c r="AH11" s="143"/>
+      <c r="AI11" s="143"/>
+      <c r="AJ11" s="143"/>
+      <c r="AK11" s="143"/>
+      <c r="AL11" s="143"/>
+      <c r="AM11" s="143"/>
+      <c r="AN11" s="143"/>
+      <c r="AO11" s="143"/>
+      <c r="AP11" s="143"/>
+      <c r="AQ11" s="143"/>
+      <c r="AR11" s="144"/>
       <c r="AS11" s="9"/>
       <c r="AT11" s="9"/>
       <c r="AU11" s="9"/>
@@ -5214,42 +5217,42 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
-      <c r="I12" s="141"/>
-      <c r="J12" s="142"/>
-      <c r="K12" s="142"/>
-      <c r="L12" s="142"/>
-      <c r="M12" s="142"/>
-      <c r="N12" s="142"/>
-      <c r="O12" s="142"/>
-      <c r="P12" s="142"/>
-      <c r="Q12" s="142"/>
-      <c r="R12" s="142"/>
-      <c r="S12" s="142"/>
-      <c r="T12" s="142"/>
-      <c r="U12" s="142"/>
-      <c r="V12" s="142"/>
-      <c r="W12" s="142"/>
-      <c r="X12" s="142"/>
-      <c r="Y12" s="142"/>
-      <c r="Z12" s="142"/>
-      <c r="AA12" s="142"/>
-      <c r="AB12" s="142"/>
-      <c r="AC12" s="142"/>
-      <c r="AD12" s="142"/>
-      <c r="AE12" s="142"/>
-      <c r="AF12" s="142"/>
-      <c r="AG12" s="142"/>
-      <c r="AH12" s="142"/>
-      <c r="AI12" s="142"/>
-      <c r="AJ12" s="142"/>
-      <c r="AK12" s="142"/>
-      <c r="AL12" s="142"/>
-      <c r="AM12" s="142"/>
-      <c r="AN12" s="142"/>
-      <c r="AO12" s="142"/>
-      <c r="AP12" s="142"/>
-      <c r="AQ12" s="142"/>
-      <c r="AR12" s="143"/>
+      <c r="I12" s="142"/>
+      <c r="J12" s="143"/>
+      <c r="K12" s="143"/>
+      <c r="L12" s="143"/>
+      <c r="M12" s="143"/>
+      <c r="N12" s="143"/>
+      <c r="O12" s="143"/>
+      <c r="P12" s="143"/>
+      <c r="Q12" s="143"/>
+      <c r="R12" s="143"/>
+      <c r="S12" s="143"/>
+      <c r="T12" s="143"/>
+      <c r="U12" s="143"/>
+      <c r="V12" s="143"/>
+      <c r="W12" s="143"/>
+      <c r="X12" s="143"/>
+      <c r="Y12" s="143"/>
+      <c r="Z12" s="143"/>
+      <c r="AA12" s="143"/>
+      <c r="AB12" s="143"/>
+      <c r="AC12" s="143"/>
+      <c r="AD12" s="143"/>
+      <c r="AE12" s="143"/>
+      <c r="AF12" s="143"/>
+      <c r="AG12" s="143"/>
+      <c r="AH12" s="143"/>
+      <c r="AI12" s="143"/>
+      <c r="AJ12" s="143"/>
+      <c r="AK12" s="143"/>
+      <c r="AL12" s="143"/>
+      <c r="AM12" s="143"/>
+      <c r="AN12" s="143"/>
+      <c r="AO12" s="143"/>
+      <c r="AP12" s="143"/>
+      <c r="AQ12" s="143"/>
+      <c r="AR12" s="144"/>
       <c r="AS12" s="9"/>
       <c r="AT12" s="9"/>
       <c r="AU12" s="9"/>
@@ -5268,42 +5271,42 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
-      <c r="I13" s="141"/>
-      <c r="J13" s="142"/>
-      <c r="K13" s="142"/>
-      <c r="L13" s="142"/>
-      <c r="M13" s="142"/>
-      <c r="N13" s="142"/>
-      <c r="O13" s="142"/>
-      <c r="P13" s="142"/>
-      <c r="Q13" s="142"/>
-      <c r="R13" s="142"/>
-      <c r="S13" s="142"/>
-      <c r="T13" s="142"/>
-      <c r="U13" s="142"/>
-      <c r="V13" s="142"/>
-      <c r="W13" s="142"/>
-      <c r="X13" s="142"/>
-      <c r="Y13" s="142"/>
-      <c r="Z13" s="142"/>
-      <c r="AA13" s="142"/>
-      <c r="AB13" s="142"/>
-      <c r="AC13" s="142"/>
-      <c r="AD13" s="142"/>
-      <c r="AE13" s="142"/>
-      <c r="AF13" s="142"/>
-      <c r="AG13" s="142"/>
-      <c r="AH13" s="142"/>
-      <c r="AI13" s="142"/>
-      <c r="AJ13" s="142"/>
-      <c r="AK13" s="142"/>
-      <c r="AL13" s="142"/>
-      <c r="AM13" s="142"/>
-      <c r="AN13" s="142"/>
-      <c r="AO13" s="142"/>
-      <c r="AP13" s="142"/>
-      <c r="AQ13" s="142"/>
-      <c r="AR13" s="143"/>
+      <c r="I13" s="142"/>
+      <c r="J13" s="143"/>
+      <c r="K13" s="143"/>
+      <c r="L13" s="143"/>
+      <c r="M13" s="143"/>
+      <c r="N13" s="143"/>
+      <c r="O13" s="143"/>
+      <c r="P13" s="143"/>
+      <c r="Q13" s="143"/>
+      <c r="R13" s="143"/>
+      <c r="S13" s="143"/>
+      <c r="T13" s="143"/>
+      <c r="U13" s="143"/>
+      <c r="V13" s="143"/>
+      <c r="W13" s="143"/>
+      <c r="X13" s="143"/>
+      <c r="Y13" s="143"/>
+      <c r="Z13" s="143"/>
+      <c r="AA13" s="143"/>
+      <c r="AB13" s="143"/>
+      <c r="AC13" s="143"/>
+      <c r="AD13" s="143"/>
+      <c r="AE13" s="143"/>
+      <c r="AF13" s="143"/>
+      <c r="AG13" s="143"/>
+      <c r="AH13" s="143"/>
+      <c r="AI13" s="143"/>
+      <c r="AJ13" s="143"/>
+      <c r="AK13" s="143"/>
+      <c r="AL13" s="143"/>
+      <c r="AM13" s="143"/>
+      <c r="AN13" s="143"/>
+      <c r="AO13" s="143"/>
+      <c r="AP13" s="143"/>
+      <c r="AQ13" s="143"/>
+      <c r="AR13" s="144"/>
       <c r="AS13" s="9"/>
       <c r="AT13" s="9"/>
       <c r="AU13" s="9"/>
@@ -5322,42 +5325,42 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
-      <c r="I14" s="141"/>
-      <c r="J14" s="142"/>
-      <c r="K14" s="142"/>
-      <c r="L14" s="142"/>
-      <c r="M14" s="142"/>
-      <c r="N14" s="142"/>
-      <c r="O14" s="142"/>
-      <c r="P14" s="142"/>
-      <c r="Q14" s="142"/>
-      <c r="R14" s="142"/>
-      <c r="S14" s="142"/>
-      <c r="T14" s="142"/>
-      <c r="U14" s="142"/>
-      <c r="V14" s="142"/>
-      <c r="W14" s="142"/>
-      <c r="X14" s="142"/>
-      <c r="Y14" s="142"/>
-      <c r="Z14" s="142"/>
-      <c r="AA14" s="142"/>
-      <c r="AB14" s="142"/>
-      <c r="AC14" s="142"/>
-      <c r="AD14" s="142"/>
-      <c r="AE14" s="142"/>
-      <c r="AF14" s="142"/>
-      <c r="AG14" s="142"/>
-      <c r="AH14" s="142"/>
-      <c r="AI14" s="142"/>
-      <c r="AJ14" s="142"/>
-      <c r="AK14" s="142"/>
-      <c r="AL14" s="142"/>
-      <c r="AM14" s="142"/>
-      <c r="AN14" s="142"/>
-      <c r="AO14" s="142"/>
-      <c r="AP14" s="142"/>
-      <c r="AQ14" s="142"/>
-      <c r="AR14" s="143"/>
+      <c r="I14" s="142"/>
+      <c r="J14" s="143"/>
+      <c r="K14" s="143"/>
+      <c r="L14" s="143"/>
+      <c r="M14" s="143"/>
+      <c r="N14" s="143"/>
+      <c r="O14" s="143"/>
+      <c r="P14" s="143"/>
+      <c r="Q14" s="143"/>
+      <c r="R14" s="143"/>
+      <c r="S14" s="143"/>
+      <c r="T14" s="143"/>
+      <c r="U14" s="143"/>
+      <c r="V14" s="143"/>
+      <c r="W14" s="143"/>
+      <c r="X14" s="143"/>
+      <c r="Y14" s="143"/>
+      <c r="Z14" s="143"/>
+      <c r="AA14" s="143"/>
+      <c r="AB14" s="143"/>
+      <c r="AC14" s="143"/>
+      <c r="AD14" s="143"/>
+      <c r="AE14" s="143"/>
+      <c r="AF14" s="143"/>
+      <c r="AG14" s="143"/>
+      <c r="AH14" s="143"/>
+      <c r="AI14" s="143"/>
+      <c r="AJ14" s="143"/>
+      <c r="AK14" s="143"/>
+      <c r="AL14" s="143"/>
+      <c r="AM14" s="143"/>
+      <c r="AN14" s="143"/>
+      <c r="AO14" s="143"/>
+      <c r="AP14" s="143"/>
+      <c r="AQ14" s="143"/>
+      <c r="AR14" s="144"/>
       <c r="AS14" s="9"/>
       <c r="AT14" s="9"/>
       <c r="AU14" s="9"/>
@@ -5376,42 +5379,42 @@
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
-      <c r="I15" s="141"/>
-      <c r="J15" s="142"/>
-      <c r="K15" s="142"/>
-      <c r="L15" s="142"/>
-      <c r="M15" s="142"/>
-      <c r="N15" s="142"/>
-      <c r="O15" s="142"/>
-      <c r="P15" s="142"/>
-      <c r="Q15" s="142"/>
-      <c r="R15" s="142"/>
-      <c r="S15" s="142"/>
-      <c r="T15" s="142"/>
-      <c r="U15" s="142"/>
-      <c r="V15" s="142"/>
-      <c r="W15" s="142"/>
-      <c r="X15" s="142"/>
-      <c r="Y15" s="142"/>
-      <c r="Z15" s="142"/>
-      <c r="AA15" s="142"/>
-      <c r="AB15" s="142"/>
-      <c r="AC15" s="142"/>
-      <c r="AD15" s="142"/>
-      <c r="AE15" s="142"/>
-      <c r="AF15" s="142"/>
-      <c r="AG15" s="142"/>
-      <c r="AH15" s="142"/>
-      <c r="AI15" s="142"/>
-      <c r="AJ15" s="142"/>
-      <c r="AK15" s="142"/>
-      <c r="AL15" s="142"/>
-      <c r="AM15" s="142"/>
-      <c r="AN15" s="142"/>
-      <c r="AO15" s="142"/>
-      <c r="AP15" s="142"/>
-      <c r="AQ15" s="142"/>
-      <c r="AR15" s="143"/>
+      <c r="I15" s="142"/>
+      <c r="J15" s="143"/>
+      <c r="K15" s="143"/>
+      <c r="L15" s="143"/>
+      <c r="M15" s="143"/>
+      <c r="N15" s="143"/>
+      <c r="O15" s="143"/>
+      <c r="P15" s="143"/>
+      <c r="Q15" s="143"/>
+      <c r="R15" s="143"/>
+      <c r="S15" s="143"/>
+      <c r="T15" s="143"/>
+      <c r="U15" s="143"/>
+      <c r="V15" s="143"/>
+      <c r="W15" s="143"/>
+      <c r="X15" s="143"/>
+      <c r="Y15" s="143"/>
+      <c r="Z15" s="143"/>
+      <c r="AA15" s="143"/>
+      <c r="AB15" s="143"/>
+      <c r="AC15" s="143"/>
+      <c r="AD15" s="143"/>
+      <c r="AE15" s="143"/>
+      <c r="AF15" s="143"/>
+      <c r="AG15" s="143"/>
+      <c r="AH15" s="143"/>
+      <c r="AI15" s="143"/>
+      <c r="AJ15" s="143"/>
+      <c r="AK15" s="143"/>
+      <c r="AL15" s="143"/>
+      <c r="AM15" s="143"/>
+      <c r="AN15" s="143"/>
+      <c r="AO15" s="143"/>
+      <c r="AP15" s="143"/>
+      <c r="AQ15" s="143"/>
+      <c r="AR15" s="144"/>
       <c r="AS15" s="9"/>
       <c r="AT15" s="9"/>
       <c r="AU15" s="9"/>
@@ -5430,42 +5433,42 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
-      <c r="I16" s="141"/>
-      <c r="J16" s="142"/>
-      <c r="K16" s="142"/>
-      <c r="L16" s="142"/>
-      <c r="M16" s="142"/>
-      <c r="N16" s="142"/>
-      <c r="O16" s="142"/>
-      <c r="P16" s="142"/>
-      <c r="Q16" s="142"/>
-      <c r="R16" s="142"/>
-      <c r="S16" s="142"/>
-      <c r="T16" s="142"/>
-      <c r="U16" s="142"/>
-      <c r="V16" s="142"/>
-      <c r="W16" s="142"/>
-      <c r="X16" s="142"/>
-      <c r="Y16" s="142"/>
-      <c r="Z16" s="142"/>
-      <c r="AA16" s="142"/>
-      <c r="AB16" s="142"/>
-      <c r="AC16" s="142"/>
-      <c r="AD16" s="142"/>
-      <c r="AE16" s="142"/>
-      <c r="AF16" s="142"/>
-      <c r="AG16" s="142"/>
-      <c r="AH16" s="142"/>
-      <c r="AI16" s="142"/>
-      <c r="AJ16" s="142"/>
-      <c r="AK16" s="142"/>
-      <c r="AL16" s="142"/>
-      <c r="AM16" s="142"/>
-      <c r="AN16" s="142"/>
-      <c r="AO16" s="142"/>
-      <c r="AP16" s="142"/>
-      <c r="AQ16" s="142"/>
-      <c r="AR16" s="143"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="143"/>
+      <c r="K16" s="143"/>
+      <c r="L16" s="143"/>
+      <c r="M16" s="143"/>
+      <c r="N16" s="143"/>
+      <c r="O16" s="143"/>
+      <c r="P16" s="143"/>
+      <c r="Q16" s="143"/>
+      <c r="R16" s="143"/>
+      <c r="S16" s="143"/>
+      <c r="T16" s="143"/>
+      <c r="U16" s="143"/>
+      <c r="V16" s="143"/>
+      <c r="W16" s="143"/>
+      <c r="X16" s="143"/>
+      <c r="Y16" s="143"/>
+      <c r="Z16" s="143"/>
+      <c r="AA16" s="143"/>
+      <c r="AB16" s="143"/>
+      <c r="AC16" s="143"/>
+      <c r="AD16" s="143"/>
+      <c r="AE16" s="143"/>
+      <c r="AF16" s="143"/>
+      <c r="AG16" s="143"/>
+      <c r="AH16" s="143"/>
+      <c r="AI16" s="143"/>
+      <c r="AJ16" s="143"/>
+      <c r="AK16" s="143"/>
+      <c r="AL16" s="143"/>
+      <c r="AM16" s="143"/>
+      <c r="AN16" s="143"/>
+      <c r="AO16" s="143"/>
+      <c r="AP16" s="143"/>
+      <c r="AQ16" s="143"/>
+      <c r="AR16" s="144"/>
       <c r="AS16" s="9"/>
       <c r="AT16" s="9"/>
       <c r="AU16" s="9"/>
@@ -5484,42 +5487,42 @@
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="141"/>
-      <c r="J17" s="142"/>
-      <c r="K17" s="142"/>
-      <c r="L17" s="142"/>
-      <c r="M17" s="142"/>
-      <c r="N17" s="142"/>
-      <c r="O17" s="142"/>
-      <c r="P17" s="142"/>
-      <c r="Q17" s="142"/>
-      <c r="R17" s="142"/>
-      <c r="S17" s="142"/>
-      <c r="T17" s="142"/>
-      <c r="U17" s="142"/>
-      <c r="V17" s="142"/>
-      <c r="W17" s="142"/>
-      <c r="X17" s="142"/>
-      <c r="Y17" s="142"/>
-      <c r="Z17" s="142"/>
-      <c r="AA17" s="142"/>
-      <c r="AB17" s="142"/>
-      <c r="AC17" s="142"/>
-      <c r="AD17" s="142"/>
-      <c r="AE17" s="142"/>
-      <c r="AF17" s="142"/>
-      <c r="AG17" s="142"/>
-      <c r="AH17" s="142"/>
-      <c r="AI17" s="142"/>
-      <c r="AJ17" s="142"/>
-      <c r="AK17" s="142"/>
-      <c r="AL17" s="142"/>
-      <c r="AM17" s="142"/>
-      <c r="AN17" s="142"/>
-      <c r="AO17" s="142"/>
-      <c r="AP17" s="142"/>
-      <c r="AQ17" s="142"/>
-      <c r="AR17" s="143"/>
+      <c r="I17" s="142"/>
+      <c r="J17" s="143"/>
+      <c r="K17" s="143"/>
+      <c r="L17" s="143"/>
+      <c r="M17" s="143"/>
+      <c r="N17" s="143"/>
+      <c r="O17" s="143"/>
+      <c r="P17" s="143"/>
+      <c r="Q17" s="143"/>
+      <c r="R17" s="143"/>
+      <c r="S17" s="143"/>
+      <c r="T17" s="143"/>
+      <c r="U17" s="143"/>
+      <c r="V17" s="143"/>
+      <c r="W17" s="143"/>
+      <c r="X17" s="143"/>
+      <c r="Y17" s="143"/>
+      <c r="Z17" s="143"/>
+      <c r="AA17" s="143"/>
+      <c r="AB17" s="143"/>
+      <c r="AC17" s="143"/>
+      <c r="AD17" s="143"/>
+      <c r="AE17" s="143"/>
+      <c r="AF17" s="143"/>
+      <c r="AG17" s="143"/>
+      <c r="AH17" s="143"/>
+      <c r="AI17" s="143"/>
+      <c r="AJ17" s="143"/>
+      <c r="AK17" s="143"/>
+      <c r="AL17" s="143"/>
+      <c r="AM17" s="143"/>
+      <c r="AN17" s="143"/>
+      <c r="AO17" s="143"/>
+      <c r="AP17" s="143"/>
+      <c r="AQ17" s="143"/>
+      <c r="AR17" s="144"/>
       <c r="AS17" s="9"/>
       <c r="AT17" s="9"/>
       <c r="AU17" s="9"/>
@@ -5538,42 +5541,42 @@
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
-      <c r="I18" s="141"/>
-      <c r="J18" s="142"/>
-      <c r="K18" s="142"/>
-      <c r="L18" s="142"/>
-      <c r="M18" s="142"/>
-      <c r="N18" s="142"/>
-      <c r="O18" s="142"/>
-      <c r="P18" s="142"/>
-      <c r="Q18" s="142"/>
-      <c r="R18" s="142"/>
-      <c r="S18" s="142"/>
-      <c r="T18" s="142"/>
-      <c r="U18" s="142"/>
-      <c r="V18" s="142"/>
-      <c r="W18" s="142"/>
-      <c r="X18" s="142"/>
-      <c r="Y18" s="142"/>
-      <c r="Z18" s="142"/>
-      <c r="AA18" s="142"/>
-      <c r="AB18" s="142"/>
-      <c r="AC18" s="142"/>
-      <c r="AD18" s="142"/>
-      <c r="AE18" s="142"/>
-      <c r="AF18" s="142"/>
-      <c r="AG18" s="142"/>
-      <c r="AH18" s="142"/>
-      <c r="AI18" s="142"/>
-      <c r="AJ18" s="142"/>
-      <c r="AK18" s="142"/>
-      <c r="AL18" s="142"/>
-      <c r="AM18" s="142"/>
-      <c r="AN18" s="142"/>
-      <c r="AO18" s="142"/>
-      <c r="AP18" s="142"/>
-      <c r="AQ18" s="142"/>
-      <c r="AR18" s="143"/>
+      <c r="I18" s="142"/>
+      <c r="J18" s="143"/>
+      <c r="K18" s="143"/>
+      <c r="L18" s="143"/>
+      <c r="M18" s="143"/>
+      <c r="N18" s="143"/>
+      <c r="O18" s="143"/>
+      <c r="P18" s="143"/>
+      <c r="Q18" s="143"/>
+      <c r="R18" s="143"/>
+      <c r="S18" s="143"/>
+      <c r="T18" s="143"/>
+      <c r="U18" s="143"/>
+      <c r="V18" s="143"/>
+      <c r="W18" s="143"/>
+      <c r="X18" s="143"/>
+      <c r="Y18" s="143"/>
+      <c r="Z18" s="143"/>
+      <c r="AA18" s="143"/>
+      <c r="AB18" s="143"/>
+      <c r="AC18" s="143"/>
+      <c r="AD18" s="143"/>
+      <c r="AE18" s="143"/>
+      <c r="AF18" s="143"/>
+      <c r="AG18" s="143"/>
+      <c r="AH18" s="143"/>
+      <c r="AI18" s="143"/>
+      <c r="AJ18" s="143"/>
+      <c r="AK18" s="143"/>
+      <c r="AL18" s="143"/>
+      <c r="AM18" s="143"/>
+      <c r="AN18" s="143"/>
+      <c r="AO18" s="143"/>
+      <c r="AP18" s="143"/>
+      <c r="AQ18" s="143"/>
+      <c r="AR18" s="144"/>
       <c r="AS18" s="9"/>
       <c r="AT18" s="9"/>
       <c r="AU18" s="9"/>
@@ -5592,42 +5595,42 @@
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
-      <c r="I19" s="141"/>
-      <c r="J19" s="142"/>
-      <c r="K19" s="142"/>
-      <c r="L19" s="142"/>
-      <c r="M19" s="142"/>
-      <c r="N19" s="142"/>
-      <c r="O19" s="142"/>
-      <c r="P19" s="142"/>
-      <c r="Q19" s="142"/>
-      <c r="R19" s="142"/>
-      <c r="S19" s="142"/>
-      <c r="T19" s="142"/>
-      <c r="U19" s="142"/>
-      <c r="V19" s="142"/>
-      <c r="W19" s="142"/>
-      <c r="X19" s="142"/>
-      <c r="Y19" s="142"/>
-      <c r="Z19" s="142"/>
-      <c r="AA19" s="142"/>
-      <c r="AB19" s="142"/>
-      <c r="AC19" s="142"/>
-      <c r="AD19" s="142"/>
-      <c r="AE19" s="142"/>
-      <c r="AF19" s="142"/>
-      <c r="AG19" s="142"/>
-      <c r="AH19" s="142"/>
-      <c r="AI19" s="142"/>
-      <c r="AJ19" s="142"/>
-      <c r="AK19" s="142"/>
-      <c r="AL19" s="142"/>
-      <c r="AM19" s="142"/>
-      <c r="AN19" s="142"/>
-      <c r="AO19" s="142"/>
-      <c r="AP19" s="142"/>
-      <c r="AQ19" s="142"/>
-      <c r="AR19" s="143"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
+      <c r="K19" s="143"/>
+      <c r="L19" s="143"/>
+      <c r="M19" s="143"/>
+      <c r="N19" s="143"/>
+      <c r="O19" s="143"/>
+      <c r="P19" s="143"/>
+      <c r="Q19" s="143"/>
+      <c r="R19" s="143"/>
+      <c r="S19" s="143"/>
+      <c r="T19" s="143"/>
+      <c r="U19" s="143"/>
+      <c r="V19" s="143"/>
+      <c r="W19" s="143"/>
+      <c r="X19" s="143"/>
+      <c r="Y19" s="143"/>
+      <c r="Z19" s="143"/>
+      <c r="AA19" s="143"/>
+      <c r="AB19" s="143"/>
+      <c r="AC19" s="143"/>
+      <c r="AD19" s="143"/>
+      <c r="AE19" s="143"/>
+      <c r="AF19" s="143"/>
+      <c r="AG19" s="143"/>
+      <c r="AH19" s="143"/>
+      <c r="AI19" s="143"/>
+      <c r="AJ19" s="143"/>
+      <c r="AK19" s="143"/>
+      <c r="AL19" s="143"/>
+      <c r="AM19" s="143"/>
+      <c r="AN19" s="143"/>
+      <c r="AO19" s="143"/>
+      <c r="AP19" s="143"/>
+      <c r="AQ19" s="143"/>
+      <c r="AR19" s="144"/>
       <c r="AS19" s="9"/>
       <c r="AT19" s="9"/>
       <c r="AU19" s="9"/>
@@ -5646,42 +5649,42 @@
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="141"/>
-      <c r="J20" s="142"/>
-      <c r="K20" s="142"/>
-      <c r="L20" s="142"/>
-      <c r="M20" s="142"/>
-      <c r="N20" s="142"/>
-      <c r="O20" s="142"/>
-      <c r="P20" s="142"/>
-      <c r="Q20" s="142"/>
-      <c r="R20" s="142"/>
-      <c r="S20" s="142"/>
-      <c r="T20" s="142"/>
-      <c r="U20" s="142"/>
-      <c r="V20" s="142"/>
-      <c r="W20" s="142"/>
-      <c r="X20" s="142"/>
-      <c r="Y20" s="142"/>
-      <c r="Z20" s="142"/>
-      <c r="AA20" s="142"/>
-      <c r="AB20" s="142"/>
-      <c r="AC20" s="142"/>
-      <c r="AD20" s="142"/>
-      <c r="AE20" s="142"/>
-      <c r="AF20" s="142"/>
-      <c r="AG20" s="142"/>
-      <c r="AH20" s="142"/>
-      <c r="AI20" s="142"/>
-      <c r="AJ20" s="142"/>
-      <c r="AK20" s="142"/>
-      <c r="AL20" s="142"/>
-      <c r="AM20" s="142"/>
-      <c r="AN20" s="142"/>
-      <c r="AO20" s="142"/>
-      <c r="AP20" s="142"/>
-      <c r="AQ20" s="142"/>
-      <c r="AR20" s="143"/>
+      <c r="I20" s="142"/>
+      <c r="J20" s="143"/>
+      <c r="K20" s="143"/>
+      <c r="L20" s="143"/>
+      <c r="M20" s="143"/>
+      <c r="N20" s="143"/>
+      <c r="O20" s="143"/>
+      <c r="P20" s="143"/>
+      <c r="Q20" s="143"/>
+      <c r="R20" s="143"/>
+      <c r="S20" s="143"/>
+      <c r="T20" s="143"/>
+      <c r="U20" s="143"/>
+      <c r="V20" s="143"/>
+      <c r="W20" s="143"/>
+      <c r="X20" s="143"/>
+      <c r="Y20" s="143"/>
+      <c r="Z20" s="143"/>
+      <c r="AA20" s="143"/>
+      <c r="AB20" s="143"/>
+      <c r="AC20" s="143"/>
+      <c r="AD20" s="143"/>
+      <c r="AE20" s="143"/>
+      <c r="AF20" s="143"/>
+      <c r="AG20" s="143"/>
+      <c r="AH20" s="143"/>
+      <c r="AI20" s="143"/>
+      <c r="AJ20" s="143"/>
+      <c r="AK20" s="143"/>
+      <c r="AL20" s="143"/>
+      <c r="AM20" s="143"/>
+      <c r="AN20" s="143"/>
+      <c r="AO20" s="143"/>
+      <c r="AP20" s="143"/>
+      <c r="AQ20" s="143"/>
+      <c r="AR20" s="144"/>
       <c r="AS20" s="9"/>
       <c r="AT20" s="9"/>
       <c r="AU20" s="9"/>
@@ -5700,42 +5703,42 @@
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="141"/>
-      <c r="J21" s="142"/>
-      <c r="K21" s="142"/>
-      <c r="L21" s="142"/>
-      <c r="M21" s="142"/>
-      <c r="N21" s="142"/>
-      <c r="O21" s="142"/>
-      <c r="P21" s="142"/>
-      <c r="Q21" s="142"/>
-      <c r="R21" s="142"/>
-      <c r="S21" s="142"/>
-      <c r="T21" s="142"/>
-      <c r="U21" s="142"/>
-      <c r="V21" s="142"/>
-      <c r="W21" s="142"/>
-      <c r="X21" s="142"/>
-      <c r="Y21" s="142"/>
-      <c r="Z21" s="142"/>
-      <c r="AA21" s="142"/>
-      <c r="AB21" s="142"/>
-      <c r="AC21" s="142"/>
-      <c r="AD21" s="142"/>
-      <c r="AE21" s="142"/>
-      <c r="AF21" s="142"/>
-      <c r="AG21" s="142"/>
-      <c r="AH21" s="142"/>
-      <c r="AI21" s="142"/>
-      <c r="AJ21" s="142"/>
-      <c r="AK21" s="142"/>
-      <c r="AL21" s="142"/>
-      <c r="AM21" s="142"/>
-      <c r="AN21" s="142"/>
-      <c r="AO21" s="142"/>
-      <c r="AP21" s="142"/>
-      <c r="AQ21" s="142"/>
-      <c r="AR21" s="143"/>
+      <c r="I21" s="142"/>
+      <c r="J21" s="143"/>
+      <c r="K21" s="143"/>
+      <c r="L21" s="143"/>
+      <c r="M21" s="143"/>
+      <c r="N21" s="143"/>
+      <c r="O21" s="143"/>
+      <c r="P21" s="143"/>
+      <c r="Q21" s="143"/>
+      <c r="R21" s="143"/>
+      <c r="S21" s="143"/>
+      <c r="T21" s="143"/>
+      <c r="U21" s="143"/>
+      <c r="V21" s="143"/>
+      <c r="W21" s="143"/>
+      <c r="X21" s="143"/>
+      <c r="Y21" s="143"/>
+      <c r="Z21" s="143"/>
+      <c r="AA21" s="143"/>
+      <c r="AB21" s="143"/>
+      <c r="AC21" s="143"/>
+      <c r="AD21" s="143"/>
+      <c r="AE21" s="143"/>
+      <c r="AF21" s="143"/>
+      <c r="AG21" s="143"/>
+      <c r="AH21" s="143"/>
+      <c r="AI21" s="143"/>
+      <c r="AJ21" s="143"/>
+      <c r="AK21" s="143"/>
+      <c r="AL21" s="143"/>
+      <c r="AM21" s="143"/>
+      <c r="AN21" s="143"/>
+      <c r="AO21" s="143"/>
+      <c r="AP21" s="143"/>
+      <c r="AQ21" s="143"/>
+      <c r="AR21" s="144"/>
       <c r="AS21" s="6"/>
       <c r="AT21" s="6"/>
       <c r="AU21" s="6"/>
@@ -5754,42 +5757,42 @@
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="144"/>
-      <c r="J22" s="145"/>
-      <c r="K22" s="145"/>
-      <c r="L22" s="145"/>
-      <c r="M22" s="145"/>
-      <c r="N22" s="145"/>
-      <c r="O22" s="145"/>
-      <c r="P22" s="145"/>
-      <c r="Q22" s="145"/>
-      <c r="R22" s="145"/>
-      <c r="S22" s="145"/>
-      <c r="T22" s="145"/>
-      <c r="U22" s="145"/>
-      <c r="V22" s="145"/>
-      <c r="W22" s="145"/>
-      <c r="X22" s="145"/>
-      <c r="Y22" s="145"/>
-      <c r="Z22" s="145"/>
-      <c r="AA22" s="145"/>
-      <c r="AB22" s="145"/>
-      <c r="AC22" s="145"/>
-      <c r="AD22" s="145"/>
-      <c r="AE22" s="145"/>
-      <c r="AF22" s="145"/>
-      <c r="AG22" s="145"/>
-      <c r="AH22" s="145"/>
-      <c r="AI22" s="145"/>
-      <c r="AJ22" s="145"/>
-      <c r="AK22" s="145"/>
-      <c r="AL22" s="145"/>
-      <c r="AM22" s="145"/>
-      <c r="AN22" s="145"/>
-      <c r="AO22" s="145"/>
-      <c r="AP22" s="145"/>
-      <c r="AQ22" s="145"/>
-      <c r="AR22" s="146"/>
+      <c r="I22" s="145"/>
+      <c r="J22" s="146"/>
+      <c r="K22" s="146"/>
+      <c r="L22" s="146"/>
+      <c r="M22" s="146"/>
+      <c r="N22" s="146"/>
+      <c r="O22" s="146"/>
+      <c r="P22" s="146"/>
+      <c r="Q22" s="146"/>
+      <c r="R22" s="146"/>
+      <c r="S22" s="146"/>
+      <c r="T22" s="146"/>
+      <c r="U22" s="146"/>
+      <c r="V22" s="146"/>
+      <c r="W22" s="146"/>
+      <c r="X22" s="146"/>
+      <c r="Y22" s="146"/>
+      <c r="Z22" s="146"/>
+      <c r="AA22" s="146"/>
+      <c r="AB22" s="146"/>
+      <c r="AC22" s="146"/>
+      <c r="AD22" s="146"/>
+      <c r="AE22" s="146"/>
+      <c r="AF22" s="146"/>
+      <c r="AG22" s="146"/>
+      <c r="AH22" s="146"/>
+      <c r="AI22" s="146"/>
+      <c r="AJ22" s="146"/>
+      <c r="AK22" s="146"/>
+      <c r="AL22" s="146"/>
+      <c r="AM22" s="146"/>
+      <c r="AN22" s="146"/>
+      <c r="AO22" s="146"/>
+      <c r="AP22" s="146"/>
+      <c r="AQ22" s="146"/>
+      <c r="AR22" s="147"/>
       <c r="AS22" s="6"/>
       <c r="AT22" s="6"/>
       <c r="AU22" s="6"/>
@@ -6797,28 +6800,28 @@
       <c r="AC41" s="6"/>
       <c r="AD41" s="6"/>
       <c r="AE41" s="6"/>
-      <c r="AF41" s="135" t="s">
+      <c r="AF41" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="AG41" s="135"/>
-      <c r="AH41" s="135"/>
-      <c r="AI41" s="135"/>
-      <c r="AJ41" s="135"/>
-      <c r="AK41" s="135"/>
-      <c r="AL41" s="136"/>
-      <c r="AM41" s="136"/>
-      <c r="AN41" s="136"/>
-      <c r="AO41" s="136"/>
-      <c r="AP41" s="136"/>
-      <c r="AQ41" s="136"/>
-      <c r="AR41" s="136"/>
-      <c r="AS41" s="136"/>
-      <c r="AT41" s="136"/>
-      <c r="AU41" s="136"/>
-      <c r="AV41" s="136"/>
-      <c r="AW41" s="136"/>
-      <c r="AX41" s="136"/>
-      <c r="AY41" s="136"/>
+      <c r="AG41" s="136"/>
+      <c r="AH41" s="136"/>
+      <c r="AI41" s="136"/>
+      <c r="AJ41" s="136"/>
+      <c r="AK41" s="136"/>
+      <c r="AL41" s="137"/>
+      <c r="AM41" s="137"/>
+      <c r="AN41" s="137"/>
+      <c r="AO41" s="137"/>
+      <c r="AP41" s="137"/>
+      <c r="AQ41" s="137"/>
+      <c r="AR41" s="137"/>
+      <c r="AS41" s="137"/>
+      <c r="AT41" s="137"/>
+      <c r="AU41" s="137"/>
+      <c r="AV41" s="137"/>
+      <c r="AW41" s="137"/>
+      <c r="AX41" s="137"/>
+      <c r="AY41" s="137"/>
       <c r="AZ41" s="7"/>
     </row>
     <row r="42" spans="1:52" ht="14.25" customHeight="1">
@@ -6853,26 +6856,26 @@
       <c r="AC42" s="6"/>
       <c r="AD42" s="6"/>
       <c r="AE42" s="6"/>
-      <c r="AF42" s="135"/>
-      <c r="AG42" s="135"/>
-      <c r="AH42" s="135"/>
-      <c r="AI42" s="135"/>
-      <c r="AJ42" s="135"/>
-      <c r="AK42" s="135"/>
-      <c r="AL42" s="136"/>
-      <c r="AM42" s="136"/>
-      <c r="AN42" s="136"/>
-      <c r="AO42" s="136"/>
-      <c r="AP42" s="136"/>
-      <c r="AQ42" s="136"/>
-      <c r="AR42" s="136"/>
-      <c r="AS42" s="136"/>
-      <c r="AT42" s="136"/>
-      <c r="AU42" s="136"/>
-      <c r="AV42" s="136"/>
-      <c r="AW42" s="136"/>
-      <c r="AX42" s="136"/>
-      <c r="AY42" s="136"/>
+      <c r="AF42" s="136"/>
+      <c r="AG42" s="136"/>
+      <c r="AH42" s="136"/>
+      <c r="AI42" s="136"/>
+      <c r="AJ42" s="136"/>
+      <c r="AK42" s="136"/>
+      <c r="AL42" s="137"/>
+      <c r="AM42" s="137"/>
+      <c r="AN42" s="137"/>
+      <c r="AO42" s="137"/>
+      <c r="AP42" s="137"/>
+      <c r="AQ42" s="137"/>
+      <c r="AR42" s="137"/>
+      <c r="AS42" s="137"/>
+      <c r="AT42" s="137"/>
+      <c r="AU42" s="137"/>
+      <c r="AV42" s="137"/>
+      <c r="AW42" s="137"/>
+      <c r="AX42" s="137"/>
+      <c r="AY42" s="137"/>
       <c r="AZ42" s="7"/>
     </row>
     <row r="43" spans="1:52" ht="10.5" customHeight="1">
@@ -6907,28 +6910,28 @@
       <c r="AC43" s="6"/>
       <c r="AD43" s="6"/>
       <c r="AE43" s="6"/>
-      <c r="AF43" s="135" t="s">
+      <c r="AF43" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="AG43" s="135"/>
-      <c r="AH43" s="135"/>
-      <c r="AI43" s="135"/>
-      <c r="AJ43" s="135"/>
-      <c r="AK43" s="135"/>
-      <c r="AL43" s="136"/>
-      <c r="AM43" s="136"/>
-      <c r="AN43" s="136"/>
-      <c r="AO43" s="136"/>
-      <c r="AP43" s="136"/>
-      <c r="AQ43" s="136"/>
-      <c r="AR43" s="136"/>
-      <c r="AS43" s="136"/>
-      <c r="AT43" s="136"/>
-      <c r="AU43" s="136"/>
-      <c r="AV43" s="136"/>
-      <c r="AW43" s="136"/>
-      <c r="AX43" s="136"/>
-      <c r="AY43" s="136"/>
+      <c r="AG43" s="136"/>
+      <c r="AH43" s="136"/>
+      <c r="AI43" s="136"/>
+      <c r="AJ43" s="136"/>
+      <c r="AK43" s="136"/>
+      <c r="AL43" s="137"/>
+      <c r="AM43" s="137"/>
+      <c r="AN43" s="137"/>
+      <c r="AO43" s="137"/>
+      <c r="AP43" s="137"/>
+      <c r="AQ43" s="137"/>
+      <c r="AR43" s="137"/>
+      <c r="AS43" s="137"/>
+      <c r="AT43" s="137"/>
+      <c r="AU43" s="137"/>
+      <c r="AV43" s="137"/>
+      <c r="AW43" s="137"/>
+      <c r="AX43" s="137"/>
+      <c r="AY43" s="137"/>
       <c r="AZ43" s="7"/>
     </row>
     <row r="44" spans="1:52" ht="10.5" customHeight="1">
@@ -6963,26 +6966,26 @@
       <c r="AC44" s="6"/>
       <c r="AD44" s="6"/>
       <c r="AE44" s="6"/>
-      <c r="AF44" s="135"/>
-      <c r="AG44" s="135"/>
-      <c r="AH44" s="135"/>
-      <c r="AI44" s="135"/>
-      <c r="AJ44" s="135"/>
-      <c r="AK44" s="135"/>
-      <c r="AL44" s="136"/>
-      <c r="AM44" s="136"/>
-      <c r="AN44" s="136"/>
-      <c r="AO44" s="136"/>
-      <c r="AP44" s="136"/>
-      <c r="AQ44" s="136"/>
-      <c r="AR44" s="136"/>
-      <c r="AS44" s="136"/>
-      <c r="AT44" s="136"/>
-      <c r="AU44" s="136"/>
-      <c r="AV44" s="136"/>
-      <c r="AW44" s="136"/>
-      <c r="AX44" s="136"/>
-      <c r="AY44" s="136"/>
+      <c r="AF44" s="136"/>
+      <c r="AG44" s="136"/>
+      <c r="AH44" s="136"/>
+      <c r="AI44" s="136"/>
+      <c r="AJ44" s="136"/>
+      <c r="AK44" s="136"/>
+      <c r="AL44" s="137"/>
+      <c r="AM44" s="137"/>
+      <c r="AN44" s="137"/>
+      <c r="AO44" s="137"/>
+      <c r="AP44" s="137"/>
+      <c r="AQ44" s="137"/>
+      <c r="AR44" s="137"/>
+      <c r="AS44" s="137"/>
+      <c r="AT44" s="137"/>
+      <c r="AU44" s="137"/>
+      <c r="AV44" s="137"/>
+      <c r="AW44" s="137"/>
+      <c r="AX44" s="137"/>
+      <c r="AY44" s="137"/>
       <c r="AZ44" s="7"/>
     </row>
     <row r="45" spans="1:52" ht="10.5" customHeight="1">
@@ -7017,28 +7020,28 @@
       <c r="AC45" s="6"/>
       <c r="AD45" s="6"/>
       <c r="AE45" s="6"/>
-      <c r="AF45" s="135" t="s">
+      <c r="AF45" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="AG45" s="135"/>
-      <c r="AH45" s="135"/>
-      <c r="AI45" s="135"/>
-      <c r="AJ45" s="135"/>
-      <c r="AK45" s="135"/>
-      <c r="AL45" s="136"/>
-      <c r="AM45" s="136"/>
-      <c r="AN45" s="136"/>
-      <c r="AO45" s="136"/>
-      <c r="AP45" s="136"/>
-      <c r="AQ45" s="136"/>
-      <c r="AR45" s="136"/>
-      <c r="AS45" s="136"/>
-      <c r="AT45" s="136"/>
-      <c r="AU45" s="136"/>
-      <c r="AV45" s="136"/>
-      <c r="AW45" s="136"/>
-      <c r="AX45" s="136"/>
-      <c r="AY45" s="136"/>
+      <c r="AG45" s="136"/>
+      <c r="AH45" s="136"/>
+      <c r="AI45" s="136"/>
+      <c r="AJ45" s="136"/>
+      <c r="AK45" s="136"/>
+      <c r="AL45" s="137"/>
+      <c r="AM45" s="137"/>
+      <c r="AN45" s="137"/>
+      <c r="AO45" s="137"/>
+      <c r="AP45" s="137"/>
+      <c r="AQ45" s="137"/>
+      <c r="AR45" s="137"/>
+      <c r="AS45" s="137"/>
+      <c r="AT45" s="137"/>
+      <c r="AU45" s="137"/>
+      <c r="AV45" s="137"/>
+      <c r="AW45" s="137"/>
+      <c r="AX45" s="137"/>
+      <c r="AY45" s="137"/>
       <c r="AZ45" s="7"/>
     </row>
     <row r="46" spans="1:52" ht="10.5" customHeight="1">
@@ -7073,26 +7076,26 @@
       <c r="AC46" s="6"/>
       <c r="AD46" s="6"/>
       <c r="AE46" s="6"/>
-      <c r="AF46" s="135"/>
-      <c r="AG46" s="135"/>
-      <c r="AH46" s="135"/>
-      <c r="AI46" s="135"/>
-      <c r="AJ46" s="135"/>
-      <c r="AK46" s="135"/>
-      <c r="AL46" s="136"/>
-      <c r="AM46" s="136"/>
-      <c r="AN46" s="136"/>
-      <c r="AO46" s="136"/>
-      <c r="AP46" s="136"/>
-      <c r="AQ46" s="136"/>
-      <c r="AR46" s="136"/>
-      <c r="AS46" s="136"/>
-      <c r="AT46" s="136"/>
-      <c r="AU46" s="136"/>
-      <c r="AV46" s="136"/>
-      <c r="AW46" s="136"/>
-      <c r="AX46" s="136"/>
-      <c r="AY46" s="136"/>
+      <c r="AF46" s="136"/>
+      <c r="AG46" s="136"/>
+      <c r="AH46" s="136"/>
+      <c r="AI46" s="136"/>
+      <c r="AJ46" s="136"/>
+      <c r="AK46" s="136"/>
+      <c r="AL46" s="137"/>
+      <c r="AM46" s="137"/>
+      <c r="AN46" s="137"/>
+      <c r="AO46" s="137"/>
+      <c r="AP46" s="137"/>
+      <c r="AQ46" s="137"/>
+      <c r="AR46" s="137"/>
+      <c r="AS46" s="137"/>
+      <c r="AT46" s="137"/>
+      <c r="AU46" s="137"/>
+      <c r="AV46" s="137"/>
+      <c r="AW46" s="137"/>
+      <c r="AX46" s="137"/>
+      <c r="AY46" s="137"/>
       <c r="AZ46" s="7"/>
     </row>
     <row r="47" spans="1:52" ht="14.25" customHeight="1">
@@ -7127,28 +7130,28 @@
       <c r="AC47" s="6"/>
       <c r="AD47" s="6"/>
       <c r="AE47" s="6"/>
-      <c r="AF47" s="135" t="s">
+      <c r="AF47" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="AG47" s="135"/>
-      <c r="AH47" s="135"/>
-      <c r="AI47" s="135"/>
-      <c r="AJ47" s="135"/>
-      <c r="AK47" s="135"/>
-      <c r="AL47" s="137"/>
-      <c r="AM47" s="137"/>
-      <c r="AN47" s="137"/>
-      <c r="AO47" s="137"/>
-      <c r="AP47" s="137"/>
-      <c r="AQ47" s="137"/>
-      <c r="AR47" s="137"/>
-      <c r="AS47" s="137"/>
-      <c r="AT47" s="137"/>
-      <c r="AU47" s="137"/>
-      <c r="AV47" s="137"/>
-      <c r="AW47" s="137"/>
-      <c r="AX47" s="137"/>
-      <c r="AY47" s="137"/>
+      <c r="AG47" s="136"/>
+      <c r="AH47" s="136"/>
+      <c r="AI47" s="136"/>
+      <c r="AJ47" s="136"/>
+      <c r="AK47" s="136"/>
+      <c r="AL47" s="138"/>
+      <c r="AM47" s="138"/>
+      <c r="AN47" s="138"/>
+      <c r="AO47" s="138"/>
+      <c r="AP47" s="138"/>
+      <c r="AQ47" s="138"/>
+      <c r="AR47" s="138"/>
+      <c r="AS47" s="138"/>
+      <c r="AT47" s="138"/>
+      <c r="AU47" s="138"/>
+      <c r="AV47" s="138"/>
+      <c r="AW47" s="138"/>
+      <c r="AX47" s="138"/>
+      <c r="AY47" s="138"/>
       <c r="AZ47" s="7"/>
     </row>
     <row r="48" spans="1:52" ht="14.25" customHeight="1">
@@ -7183,26 +7186,26 @@
       <c r="AC48" s="6"/>
       <c r="AD48" s="6"/>
       <c r="AE48" s="6"/>
-      <c r="AF48" s="135"/>
-      <c r="AG48" s="135"/>
-      <c r="AH48" s="135"/>
-      <c r="AI48" s="135"/>
-      <c r="AJ48" s="135"/>
-      <c r="AK48" s="135"/>
-      <c r="AL48" s="137"/>
-      <c r="AM48" s="137"/>
-      <c r="AN48" s="137"/>
-      <c r="AO48" s="137"/>
-      <c r="AP48" s="137"/>
-      <c r="AQ48" s="137"/>
-      <c r="AR48" s="137"/>
-      <c r="AS48" s="137"/>
-      <c r="AT48" s="137"/>
-      <c r="AU48" s="137"/>
-      <c r="AV48" s="137"/>
-      <c r="AW48" s="137"/>
-      <c r="AX48" s="137"/>
-      <c r="AY48" s="137"/>
+      <c r="AF48" s="136"/>
+      <c r="AG48" s="136"/>
+      <c r="AH48" s="136"/>
+      <c r="AI48" s="136"/>
+      <c r="AJ48" s="136"/>
+      <c r="AK48" s="136"/>
+      <c r="AL48" s="138"/>
+      <c r="AM48" s="138"/>
+      <c r="AN48" s="138"/>
+      <c r="AO48" s="138"/>
+      <c r="AP48" s="138"/>
+      <c r="AQ48" s="138"/>
+      <c r="AR48" s="138"/>
+      <c r="AS48" s="138"/>
+      <c r="AT48" s="138"/>
+      <c r="AU48" s="138"/>
+      <c r="AV48" s="138"/>
+      <c r="AW48" s="138"/>
+      <c r="AX48" s="138"/>
+      <c r="AY48" s="138"/>
       <c r="AZ48" s="7"/>
     </row>
     <row r="49" spans="1:52" ht="14.25" customHeight="1">
@@ -7237,28 +7240,28 @@
       <c r="AC49" s="6"/>
       <c r="AD49" s="6"/>
       <c r="AE49" s="6"/>
-      <c r="AF49" s="135" t="s">
+      <c r="AF49" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="AG49" s="135"/>
-      <c r="AH49" s="135"/>
-      <c r="AI49" s="135"/>
-      <c r="AJ49" s="135"/>
-      <c r="AK49" s="135"/>
-      <c r="AL49" s="136"/>
-      <c r="AM49" s="136"/>
-      <c r="AN49" s="136"/>
-      <c r="AO49" s="136"/>
-      <c r="AP49" s="136"/>
-      <c r="AQ49" s="136"/>
-      <c r="AR49" s="136"/>
-      <c r="AS49" s="136"/>
-      <c r="AT49" s="136"/>
-      <c r="AU49" s="136"/>
-      <c r="AV49" s="136"/>
-      <c r="AW49" s="136"/>
-      <c r="AX49" s="136"/>
-      <c r="AY49" s="136"/>
+      <c r="AG49" s="136"/>
+      <c r="AH49" s="136"/>
+      <c r="AI49" s="136"/>
+      <c r="AJ49" s="136"/>
+      <c r="AK49" s="136"/>
+      <c r="AL49" s="137"/>
+      <c r="AM49" s="137"/>
+      <c r="AN49" s="137"/>
+      <c r="AO49" s="137"/>
+      <c r="AP49" s="137"/>
+      <c r="AQ49" s="137"/>
+      <c r="AR49" s="137"/>
+      <c r="AS49" s="137"/>
+      <c r="AT49" s="137"/>
+      <c r="AU49" s="137"/>
+      <c r="AV49" s="137"/>
+      <c r="AW49" s="137"/>
+      <c r="AX49" s="137"/>
+      <c r="AY49" s="137"/>
       <c r="AZ49" s="7"/>
     </row>
     <row r="50" spans="1:52" ht="14.25" customHeight="1">
@@ -7293,26 +7296,26 @@
       <c r="AC50" s="6"/>
       <c r="AD50" s="6"/>
       <c r="AE50" s="6"/>
-      <c r="AF50" s="135"/>
-      <c r="AG50" s="135"/>
-      <c r="AH50" s="135"/>
-      <c r="AI50" s="135"/>
-      <c r="AJ50" s="135"/>
-      <c r="AK50" s="135"/>
-      <c r="AL50" s="136"/>
-      <c r="AM50" s="136"/>
-      <c r="AN50" s="136"/>
-      <c r="AO50" s="136"/>
-      <c r="AP50" s="136"/>
-      <c r="AQ50" s="136"/>
-      <c r="AR50" s="136"/>
-      <c r="AS50" s="136"/>
-      <c r="AT50" s="136"/>
-      <c r="AU50" s="136"/>
-      <c r="AV50" s="136"/>
-      <c r="AW50" s="136"/>
-      <c r="AX50" s="136"/>
-      <c r="AY50" s="136"/>
+      <c r="AF50" s="136"/>
+      <c r="AG50" s="136"/>
+      <c r="AH50" s="136"/>
+      <c r="AI50" s="136"/>
+      <c r="AJ50" s="136"/>
+      <c r="AK50" s="136"/>
+      <c r="AL50" s="137"/>
+      <c r="AM50" s="137"/>
+      <c r="AN50" s="137"/>
+      <c r="AO50" s="137"/>
+      <c r="AP50" s="137"/>
+      <c r="AQ50" s="137"/>
+      <c r="AR50" s="137"/>
+      <c r="AS50" s="137"/>
+      <c r="AT50" s="137"/>
+      <c r="AU50" s="137"/>
+      <c r="AV50" s="137"/>
+      <c r="AW50" s="137"/>
+      <c r="AX50" s="137"/>
+      <c r="AY50" s="137"/>
       <c r="AZ50" s="7"/>
     </row>
     <row r="51" spans="1:52">
@@ -7483,19 +7486,19 @@
         <v>47</v>
       </c>
       <c r="D1" s="114" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="15" customFormat="1">
       <c r="A2" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="153" t="s">
+      <c r="B2" s="154" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="154"/>
+      <c r="C2" s="155"/>
       <c r="D2" s="62" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E2" s="63"/>
       <c r="F2" s="63"/>
@@ -7507,44 +7510,44 @@
       <c r="A3" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="151" t="s">
+      <c r="B3" s="152" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="152"/>
+      <c r="C3" s="153"/>
       <c r="D3" s="64" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E3" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="149" t="s">
+      <c r="F3" s="150" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="150"/>
+      <c r="G3" s="151"/>
     </row>
     <row r="4" spans="1:24" s="15" customFormat="1" ht="18.75">
       <c r="A4" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="151" t="s">
+      <c r="B4" s="152" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="152"/>
+      <c r="C4" s="153"/>
       <c r="D4" s="91" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E4" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="147">
+      <c r="F4" s="148">
         <v>45448</v>
       </c>
-      <c r="G4" s="148"/>
+      <c r="G4" s="149"/>
     </row>
     <row r="5" spans="1:24" ht="8.25" customHeight="1"/>
     <row r="6" spans="1:24">
       <c r="L6" s="79" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M6" s="80"/>
       <c r="N6" s="80"/>
@@ -7589,34 +7592,34 @@
         <v>168</v>
       </c>
       <c r="J7" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="K7" s="78" t="s">
+        <v>178</v>
+      </c>
+      <c r="L7" s="89" t="s">
+        <v>190</v>
+      </c>
+      <c r="M7" s="89" t="s">
         <v>191</v>
       </c>
-      <c r="K7" s="78" t="s">
-        <v>180</v>
-      </c>
-      <c r="L7" s="89" t="s">
+      <c r="N7" s="89" t="s">
         <v>192</v>
       </c>
-      <c r="M7" s="89" t="s">
+      <c r="O7" s="89" t="s">
         <v>193</v>
       </c>
-      <c r="N7" s="89" t="s">
+      <c r="P7" s="89" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q7" s="89" t="s">
         <v>194</v>
-      </c>
-      <c r="O7" s="89" t="s">
-        <v>195</v>
-      </c>
-      <c r="P7" s="89" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q7" s="89" t="s">
-        <v>196</v>
       </c>
       <c r="R7" s="89" t="s">
         <v>176</v>
       </c>
       <c r="S7" s="90" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="T7" s="89" t="s">
         <v>1</v>
@@ -7648,7 +7651,7 @@
         <v>69</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>62</v>
@@ -7668,7 +7671,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="92" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="M8" s="93"/>
       <c r="N8" s="93"/>
@@ -7701,10 +7704,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>246</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>251</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>62</v>
@@ -7749,10 +7752,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="67" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D10" s="67" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E10" s="67" t="s">
         <v>62</v>
@@ -7893,7 +7896,7 @@
       <c r="B13" s="38"/>
       <c r="C13" s="39"/>
       <c r="D13" s="39" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
@@ -7924,11 +7927,11 @@
     </row>
     <row r="15" spans="1:24">
       <c r="C15" s="115" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D15" s="72"/>
       <c r="E15" s="72" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F15" s="72"/>
       <c r="G15" s="72"/>
@@ -7947,7 +7950,7 @@
     </row>
     <row r="19" spans="3:7">
       <c r="C19" s="115" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D19" s="72"/>
       <c r="E19" s="72"/>
@@ -7956,12 +7959,12 @@
     </row>
     <row r="20" spans="3:7">
       <c r="C20" s="134" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="22" spans="3:7">
       <c r="C22" s="115" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D22" s="72"/>
       <c r="E22" s="72" t="s">
@@ -7971,7 +7974,7 @@
     </row>
     <row r="23" spans="3:7">
       <c r="C23" s="134" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -8674,10 +8677,10 @@
     <tabColor theme="8" tint="0.79998168889431442"/>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A2:BG174"/>
+  <dimension ref="A2:BG170"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="J81" sqref="J81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="15.75" outlineLevelRow="1"/>
@@ -8771,7 +8774,7 @@
         <v>94</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:59" s="15" customFormat="1" ht="18.75" outlineLevel="1">
@@ -8801,13 +8804,13 @@
         <v>98</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
     </row>
     <row r="13" spans="1:59" s="15" customFormat="1" ht="18.75" outlineLevel="1"/>
     <row r="14" spans="1:59" s="15" customFormat="1" ht="18.75">
       <c r="A14" s="132" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133"/>
@@ -8871,23 +8874,23 @@
     <row r="15" spans="1:59" s="15" customFormat="1" ht="18.75" outlineLevel="1"/>
     <row r="16" spans="1:59" s="15" customFormat="1" ht="18.75" outlineLevel="1">
       <c r="B16" s="15" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:37" s="15" customFormat="1" ht="18.75" outlineLevel="1">
       <c r="B17" s="131" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" spans="1:37" s="15" customFormat="1" ht="18.75" outlineLevel="1">
       <c r="B18" s="15" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19" spans="1:37" s="15" customFormat="1" ht="18.75" outlineLevel="1"/>
     <row r="20" spans="1:37" ht="18.75">
       <c r="A20" s="132" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B20" s="77"/>
       <c r="C20" s="77"/>
@@ -8953,7 +8956,7 @@
     <row r="23" spans="1:37" outlineLevel="1"/>
     <row r="24" spans="1:37" outlineLevel="1">
       <c r="B24" s="122" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25" spans="1:37" outlineLevel="1">
@@ -9003,7 +9006,7 @@
     <row r="32" spans="1:37" outlineLevel="1"/>
     <row r="33" spans="2:20" outlineLevel="1">
       <c r="B33" s="122" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34" spans="2:20" outlineLevel="1">
@@ -9011,10 +9014,10 @@
         <v>117</v>
       </c>
       <c r="D34" s="76" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="M34" s="76" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35" spans="2:20" outlineLevel="1">
@@ -9022,7 +9025,7 @@
         <v>118</v>
       </c>
       <c r="D35" s="76" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="36" spans="2:20" outlineLevel="1">
@@ -9030,14 +9033,14 @@
         <v>171</v>
       </c>
       <c r="D36" s="76" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="37" spans="2:20" outlineLevel="1"/>
     <row r="38" spans="2:20" outlineLevel="1"/>
     <row r="39" spans="2:20" outlineLevel="1">
       <c r="B39" s="77" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C39" s="77"/>
       <c r="D39" s="77"/>
@@ -9060,12 +9063,12 @@
     </row>
     <row r="40" spans="2:20" outlineLevel="1">
       <c r="B40" s="76" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="2:20" outlineLevel="1">
       <c r="B41" s="76" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" spans="2:20" outlineLevel="1"/>
@@ -9129,7 +9132,7 @@
     <row r="57" spans="2:20" outlineLevel="1"/>
     <row r="58" spans="2:20" outlineLevel="1">
       <c r="B58" s="77" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C58" s="77"/>
       <c r="D58" s="77"/>
@@ -9152,12 +9155,12 @@
     </row>
     <row r="59" spans="2:20" outlineLevel="1">
       <c r="B59" s="76" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="60" spans="2:20" outlineLevel="1">
       <c r="B60" s="76" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61" spans="2:20" outlineLevel="1"/>
@@ -9186,222 +9189,367 @@
       <c r="T63" s="77"/>
     </row>
     <row r="64" spans="2:20" outlineLevel="1"/>
-    <row r="65" spans="2:10" outlineLevel="1">
-      <c r="B65" s="76" t="s">
+    <row r="65" spans="2:36" outlineLevel="1">
+      <c r="B65" s="135" t="s">
         <v>117</v>
       </c>
-      <c r="D65" s="76" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10" outlineLevel="1">
-      <c r="B66" s="76" t="s">
-        <v>178</v>
-      </c>
+      <c r="C65" s="135"/>
+      <c r="D65" s="135" t="s">
+        <v>342</v>
+      </c>
+      <c r="E65" s="135"/>
+      <c r="F65" s="135"/>
+      <c r="G65" s="135"/>
+      <c r="H65" s="135"/>
+      <c r="I65" s="135" t="s">
+        <v>344</v>
+      </c>
+      <c r="J65" s="135"/>
+      <c r="K65" s="135"/>
+      <c r="L65" s="135"/>
+      <c r="M65" s="135"/>
+      <c r="N65" s="135" t="s">
+        <v>343</v>
+      </c>
+      <c r="O65" s="135"/>
+      <c r="P65" s="135"/>
+      <c r="Q65" s="135"/>
+      <c r="R65" s="135"/>
+      <c r="S65" s="135"/>
+      <c r="T65" s="135"/>
+    </row>
+    <row r="66" spans="2:36" outlineLevel="1">
       <c r="D66" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="J66" s="76" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="67" spans="2:10" outlineLevel="1">
+      <c r="I66" s="76" t="s">
+        <v>348</v>
+      </c>
+      <c r="N66" s="76" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="67" spans="2:36" outlineLevel="1">
       <c r="D67" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="J67" s="76" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="68" spans="2:10" outlineLevel="1">
+      <c r="I67" s="76" t="s">
+        <v>349</v>
+      </c>
+      <c r="N67" s="76" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ67" s="156"/>
+    </row>
+    <row r="68" spans="2:36" outlineLevel="1">
       <c r="D68" s="76" t="s">
-        <v>213</v>
-      </c>
-      <c r="J68" s="76" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="69" spans="2:10" outlineLevel="1">
+        <v>208</v>
+      </c>
+      <c r="I68" s="76" t="s">
+        <v>349</v>
+      </c>
+      <c r="N68" s="76" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ68" s="156"/>
+    </row>
+    <row r="69" spans="2:36" outlineLevel="1">
       <c r="D69" s="76" t="s">
-        <v>212</v>
-      </c>
-      <c r="J69" s="76" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="70" spans="2:10" outlineLevel="1">
+        <v>207</v>
+      </c>
+      <c r="I69" s="76" t="s">
+        <v>349</v>
+      </c>
+      <c r="N69" s="76" t="s">
+        <v>224</v>
+      </c>
+      <c r="AJ69" s="156"/>
+    </row>
+    <row r="70" spans="2:36" outlineLevel="1">
       <c r="D70" s="76" t="s">
-        <v>214</v>
-      </c>
-      <c r="J70" s="76" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="71" spans="2:10" outlineLevel="1">
+        <v>209</v>
+      </c>
+      <c r="I70" s="76" t="s">
+        <v>349</v>
+      </c>
+      <c r="N70" s="76" t="s">
+        <v>231</v>
+      </c>
+      <c r="AJ70" s="156"/>
+    </row>
+    <row r="71" spans="2:36" outlineLevel="1">
       <c r="D71" s="76" t="s">
         <v>130</v>
       </c>
-      <c r="J71" s="76" t="s">
+      <c r="I71" s="76" t="s">
+        <v>349</v>
+      </c>
+      <c r="N71" s="76" t="s">
+        <v>225</v>
+      </c>
+      <c r="AJ71" s="156"/>
+    </row>
+    <row r="72" spans="2:36" outlineLevel="1">
+      <c r="D72" s="76" t="s">
+        <v>205</v>
+      </c>
+      <c r="I72" s="76" t="s">
+        <v>349</v>
+      </c>
+      <c r="N72" s="76" t="s">
+        <v>226</v>
+      </c>
+      <c r="AJ72" s="156"/>
+    </row>
+    <row r="73" spans="2:36" outlineLevel="1">
+      <c r="D73" s="76" t="s">
+        <v>133</v>
+      </c>
+      <c r="I73" s="76" t="s">
+        <v>349</v>
+      </c>
+      <c r="N73" s="76" t="s">
+        <v>227</v>
+      </c>
+      <c r="AJ73" s="156"/>
+    </row>
+    <row r="74" spans="2:36" outlineLevel="1">
+      <c r="D74" s="76" t="s">
+        <v>134</v>
+      </c>
+      <c r="I74" s="76" t="s">
+        <v>349</v>
+      </c>
+      <c r="N74" s="76" t="s">
+        <v>228</v>
+      </c>
+      <c r="AJ74" s="156"/>
+    </row>
+    <row r="75" spans="2:36" outlineLevel="1">
+      <c r="D75" s="76" t="s">
+        <v>137</v>
+      </c>
+      <c r="I75" s="76" t="s">
+        <v>345</v>
+      </c>
+      <c r="N75" s="76" t="s">
+        <v>339</v>
+      </c>
+      <c r="AJ75" s="156"/>
+    </row>
+    <row r="76" spans="2:36" outlineLevel="1">
+      <c r="D76" s="76" t="s">
+        <v>138</v>
+      </c>
+      <c r="I76" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="N76" s="76" t="s">
+        <v>338</v>
+      </c>
+      <c r="AJ76" s="156"/>
+    </row>
+    <row r="77" spans="2:36" outlineLevel="1">
+      <c r="D77" s="76" t="s">
+        <v>340</v>
+      </c>
+      <c r="I77" s="76" t="s">
+        <v>346</v>
+      </c>
+      <c r="N77" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="AJ77" s="156"/>
+    </row>
+    <row r="78" spans="2:36" outlineLevel="1">
+      <c r="D78" s="76" t="s">
+        <v>174</v>
+      </c>
+      <c r="I78" s="76" t="s">
+        <v>347</v>
+      </c>
+      <c r="N78" s="76" t="s">
+        <v>229</v>
+      </c>
+      <c r="AJ78" s="156"/>
+    </row>
+    <row r="79" spans="2:36" outlineLevel="1">
+      <c r="D79" s="76" t="s">
+        <v>175</v>
+      </c>
+      <c r="I79" s="76" t="s">
+        <v>349</v>
+      </c>
+      <c r="N79" s="76" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="72" spans="2:10" outlineLevel="1">
-      <c r="D72" s="76" t="s">
-        <v>210</v>
-      </c>
-      <c r="J72" s="76" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="73" spans="2:10" outlineLevel="1">
-      <c r="D73" s="76" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="74" spans="2:10" outlineLevel="1">
-      <c r="D74" s="76" t="s">
+      <c r="AJ79" s="156"/>
+    </row>
+    <row r="80" spans="2:36" outlineLevel="1">
+      <c r="D80" s="76" t="s">
+        <v>213</v>
+      </c>
+      <c r="I80" s="76" t="s">
+        <v>349</v>
+      </c>
+      <c r="N80" s="76" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ80" s="156"/>
+    </row>
+    <row r="81" spans="2:36" outlineLevel="1">
+      <c r="AJ81" s="156"/>
+    </row>
+    <row r="82" spans="2:36" outlineLevel="1">
+      <c r="AJ82" s="156"/>
+    </row>
+    <row r="83" spans="2:36" outlineLevel="1">
+      <c r="B83" s="76" t="s">
+        <v>171</v>
+      </c>
+      <c r="D83" s="76" t="s">
+        <v>177</v>
+      </c>
+      <c r="AJ83" s="156"/>
+    </row>
+    <row r="84" spans="2:36" outlineLevel="1">
+      <c r="AJ84" s="156"/>
+    </row>
+    <row r="85" spans="2:36" outlineLevel="1">
+      <c r="B85" s="77" t="s">
+        <v>219</v>
+      </c>
+      <c r="C85" s="77"/>
+      <c r="D85" s="77"/>
+      <c r="E85" s="77"/>
+      <c r="F85" s="77"/>
+      <c r="G85" s="77"/>
+      <c r="H85" s="77"/>
+      <c r="I85" s="77"/>
+      <c r="J85" s="77"/>
+      <c r="K85" s="77"/>
+      <c r="L85" s="77"/>
+      <c r="M85" s="77"/>
+      <c r="N85" s="77"/>
+      <c r="O85" s="77"/>
+      <c r="P85" s="77"/>
+      <c r="Q85" s="77"/>
+      <c r="R85" s="77"/>
+      <c r="S85" s="77"/>
+      <c r="T85" s="77"/>
+      <c r="AJ85" s="156"/>
+    </row>
+    <row r="86" spans="2:36" outlineLevel="1">
+      <c r="AJ86" s="156"/>
+    </row>
+    <row r="87" spans="2:36" outlineLevel="1">
+      <c r="B87" s="76" t="s">
+        <v>220</v>
+      </c>
+      <c r="F87" s="76" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="88" spans="2:36" outlineLevel="1"/>
+    <row r="89" spans="2:36" outlineLevel="1">
+      <c r="B89" s="76" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="90" spans="2:36" outlineLevel="1">
+      <c r="B90" s="119" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="75" spans="2:10" outlineLevel="1">
-      <c r="D75" s="76" t="s">
-        <v>133</v>
-      </c>
-      <c r="J75" s="76" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="76" spans="2:10" outlineLevel="1">
-      <c r="D76" s="76" t="s">
-        <v>134</v>
-      </c>
-      <c r="J76" s="76" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="77" spans="2:10" outlineLevel="1">
-      <c r="D77" s="76" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="78" spans="2:10" outlineLevel="1">
-      <c r="D78" s="76" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="79" spans="2:10" outlineLevel="1">
-      <c r="D79" s="76" t="s">
-        <v>174</v>
-      </c>
-      <c r="J79" s="76" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="80" spans="2:10" outlineLevel="1">
-      <c r="D80" s="76" t="s">
-        <v>175</v>
-      </c>
-      <c r="J80" s="76" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="81" spans="2:20" outlineLevel="1">
-      <c r="D81" s="76" t="s">
-        <v>218</v>
-      </c>
-      <c r="G81" s="76" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="82" spans="2:20" outlineLevel="1"/>
-    <row r="83" spans="2:20" outlineLevel="1"/>
-    <row r="84" spans="2:20" outlineLevel="1">
-      <c r="B84" s="76" t="s">
-        <v>171</v>
-      </c>
-      <c r="D84" s="76" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="85" spans="2:20" outlineLevel="1"/>
-    <row r="86" spans="2:20" outlineLevel="1">
-      <c r="B86" s="76" t="s">
-        <v>204</v>
-      </c>
-      <c r="D86" s="76" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="87" spans="2:20" outlineLevel="1">
-      <c r="D87" s="76" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="88" spans="2:20" outlineLevel="1"/>
-    <row r="89" spans="2:20" outlineLevel="1">
-      <c r="B89" s="77" t="s">
-        <v>224</v>
-      </c>
-      <c r="C89" s="77"/>
-      <c r="D89" s="77"/>
-      <c r="E89" s="77"/>
-      <c r="F89" s="77"/>
-      <c r="G89" s="77"/>
-      <c r="H89" s="77"/>
-      <c r="I89" s="77"/>
-      <c r="J89" s="77"/>
-      <c r="K89" s="77"/>
-      <c r="L89" s="77"/>
-      <c r="M89" s="77"/>
-      <c r="N89" s="77"/>
-      <c r="O89" s="77"/>
-      <c r="P89" s="77"/>
-      <c r="Q89" s="77"/>
-      <c r="R89" s="77"/>
-      <c r="S89" s="77"/>
-      <c r="T89" s="77"/>
-    </row>
-    <row r="90" spans="2:20" outlineLevel="1"/>
-    <row r="91" spans="2:20" outlineLevel="1">
-      <c r="B91" s="76" t="s">
-        <v>225</v>
-      </c>
-      <c r="F91" s="76" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="92" spans="2:20" outlineLevel="1"/>
-    <row r="93" spans="2:20" outlineLevel="1">
-      <c r="B93" s="76" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="94" spans="2:20" outlineLevel="1">
-      <c r="B94" s="119" t="s">
-        <v>262</v>
-      </c>
-      <c r="C94" s="120"/>
-      <c r="D94" s="120"/>
-      <c r="E94" s="121"/>
-      <c r="F94" s="119" t="s">
-        <v>263</v>
-      </c>
-      <c r="G94" s="120"/>
-      <c r="H94" s="120"/>
-      <c r="I94" s="120"/>
-      <c r="J94" s="120"/>
-      <c r="K94" s="120"/>
-      <c r="L94" s="121"/>
-    </row>
-    <row r="95" spans="2:20" outlineLevel="1">
+      <c r="C90" s="120"/>
+      <c r="D90" s="120"/>
+      <c r="E90" s="121"/>
+      <c r="F90" s="119" t="s">
+        <v>258</v>
+      </c>
+      <c r="G90" s="120"/>
+      <c r="H90" s="120"/>
+      <c r="I90" s="120"/>
+      <c r="J90" s="120"/>
+      <c r="K90" s="120"/>
+      <c r="L90" s="121"/>
+    </row>
+    <row r="91" spans="2:36" outlineLevel="1">
+      <c r="B91" s="116" t="s">
+        <v>260</v>
+      </c>
+      <c r="C91" s="117"/>
+      <c r="D91" s="117"/>
+      <c r="E91" s="118"/>
+      <c r="F91" s="116" t="s">
+        <v>253</v>
+      </c>
+      <c r="G91" s="117"/>
+      <c r="H91" s="117"/>
+      <c r="I91" s="117"/>
+      <c r="J91" s="117"/>
+      <c r="K91" s="117"/>
+      <c r="L91" s="118"/>
+    </row>
+    <row r="92" spans="2:36" outlineLevel="1">
+      <c r="B92" s="116" t="s">
+        <v>187</v>
+      </c>
+      <c r="C92" s="117"/>
+      <c r="D92" s="117"/>
+      <c r="E92" s="118"/>
+      <c r="F92" s="116" t="s">
+        <v>254</v>
+      </c>
+      <c r="G92" s="117"/>
+      <c r="H92" s="117"/>
+      <c r="I92" s="117"/>
+      <c r="J92" s="117"/>
+      <c r="K92" s="117"/>
+      <c r="L92" s="118"/>
+    </row>
+    <row r="93" spans="2:36" outlineLevel="1">
+      <c r="B93" s="116" t="s">
+        <v>188</v>
+      </c>
+      <c r="C93" s="117"/>
+      <c r="D93" s="117"/>
+      <c r="E93" s="118"/>
+      <c r="F93" s="116" t="s">
+        <v>255</v>
+      </c>
+      <c r="G93" s="117"/>
+      <c r="H93" s="117"/>
+      <c r="I93" s="117"/>
+      <c r="J93" s="117"/>
+      <c r="K93" s="117"/>
+      <c r="L93" s="118"/>
+    </row>
+    <row r="94" spans="2:36" outlineLevel="1">
+      <c r="B94" s="116" t="s">
+        <v>261</v>
+      </c>
+      <c r="C94" s="117"/>
+      <c r="D94" s="117"/>
+      <c r="E94" s="118"/>
+      <c r="F94" s="116" t="s">
+        <v>259</v>
+      </c>
+      <c r="G94" s="117"/>
+      <c r="H94" s="117"/>
+      <c r="I94" s="117"/>
+      <c r="J94" s="117"/>
+      <c r="K94" s="117"/>
+      <c r="L94" s="118"/>
+    </row>
+    <row r="95" spans="2:36" outlineLevel="1">
       <c r="B95" s="116" t="s">
-        <v>265</v>
+        <v>197</v>
       </c>
       <c r="C95" s="117"/>
       <c r="D95" s="117"/>
       <c r="E95" s="118"/>
       <c r="F95" s="116" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G95" s="117"/>
       <c r="H95" s="117"/>
@@ -9410,245 +9558,181 @@
       <c r="K95" s="117"/>
       <c r="L95" s="118"/>
     </row>
-    <row r="96" spans="2:20" outlineLevel="1">
-      <c r="B96" s="116" t="s">
-        <v>189</v>
-      </c>
-      <c r="C96" s="117"/>
-      <c r="D96" s="117"/>
-      <c r="E96" s="118"/>
-      <c r="F96" s="116" t="s">
-        <v>259</v>
-      </c>
-      <c r="G96" s="117"/>
-      <c r="H96" s="117"/>
-      <c r="I96" s="117"/>
-      <c r="J96" s="117"/>
-      <c r="K96" s="117"/>
-      <c r="L96" s="118"/>
-    </row>
-    <row r="97" spans="1:59" outlineLevel="1">
-      <c r="B97" s="116" t="s">
-        <v>190</v>
-      </c>
-      <c r="C97" s="117"/>
-      <c r="D97" s="117"/>
-      <c r="E97" s="118"/>
-      <c r="F97" s="116" t="s">
-        <v>260</v>
-      </c>
-      <c r="G97" s="117"/>
-      <c r="H97" s="117"/>
-      <c r="I97" s="117"/>
-      <c r="J97" s="117"/>
-      <c r="K97" s="117"/>
-      <c r="L97" s="118"/>
-    </row>
-    <row r="98" spans="1:59" outlineLevel="1">
-      <c r="B98" s="116" t="s">
-        <v>266</v>
-      </c>
-      <c r="C98" s="117"/>
-      <c r="D98" s="117"/>
-      <c r="E98" s="118"/>
-      <c r="F98" s="116" t="s">
-        <v>264</v>
-      </c>
-      <c r="G98" s="117"/>
-      <c r="H98" s="117"/>
-      <c r="I98" s="117"/>
-      <c r="J98" s="117"/>
-      <c r="K98" s="117"/>
-      <c r="L98" s="118"/>
-    </row>
-    <row r="99" spans="1:59" outlineLevel="1">
-      <c r="B99" s="116" t="s">
-        <v>199</v>
-      </c>
-      <c r="C99" s="117"/>
-      <c r="D99" s="117"/>
-      <c r="E99" s="118"/>
-      <c r="F99" s="116" t="s">
-        <v>261</v>
-      </c>
-      <c r="G99" s="117"/>
-      <c r="H99" s="117"/>
-      <c r="I99" s="117"/>
-      <c r="J99" s="117"/>
-      <c r="K99" s="117"/>
-      <c r="L99" s="118"/>
-    </row>
-    <row r="100" spans="1:59" outlineLevel="1"/>
-    <row r="102" spans="1:59" s="15" customFormat="1" ht="18.75">
-      <c r="A102" s="46" t="s">
-        <v>320</v>
-      </c>
-      <c r="B102" s="47"/>
-      <c r="C102" s="47"/>
-      <c r="D102" s="47"/>
-      <c r="E102" s="47"/>
-      <c r="F102" s="47"/>
-      <c r="G102" s="47"/>
-      <c r="H102" s="47"/>
-      <c r="I102" s="47"/>
-      <c r="J102" s="47"/>
-      <c r="K102" s="47"/>
-      <c r="L102" s="47"/>
-      <c r="M102" s="47"/>
-      <c r="N102" s="47"/>
-      <c r="O102" s="47"/>
-      <c r="P102" s="47"/>
-      <c r="Q102" s="47"/>
-      <c r="R102" s="47"/>
-      <c r="S102" s="47"/>
-      <c r="T102" s="47"/>
-      <c r="U102" s="47"/>
-      <c r="V102" s="47"/>
-      <c r="W102" s="47"/>
-      <c r="X102" s="47"/>
-      <c r="Y102" s="47"/>
-      <c r="Z102" s="47"/>
-      <c r="AA102" s="47"/>
-      <c r="AB102" s="47"/>
-      <c r="AC102" s="47"/>
-      <c r="AD102" s="47"/>
-      <c r="AE102" s="47"/>
-      <c r="AF102" s="47"/>
-      <c r="AG102" s="47"/>
-      <c r="AH102" s="47"/>
-      <c r="AI102" s="47"/>
-      <c r="AJ102" s="47"/>
-      <c r="AK102" s="47"/>
-      <c r="AL102" s="48"/>
-      <c r="AM102" s="48"/>
-      <c r="AN102" s="48"/>
-      <c r="AO102" s="48"/>
-      <c r="AP102" s="48"/>
-      <c r="AQ102" s="48"/>
-      <c r="AR102" s="48"/>
-      <c r="AS102" s="48"/>
-      <c r="AT102" s="48"/>
-      <c r="AU102" s="48"/>
-      <c r="AV102" s="48"/>
-      <c r="AW102" s="48"/>
-      <c r="AX102" s="48"/>
-      <c r="AY102" s="48"/>
-      <c r="AZ102" s="48"/>
-      <c r="BA102" s="48"/>
-      <c r="BB102" s="48"/>
-      <c r="BC102" s="48"/>
-      <c r="BD102" s="48"/>
-      <c r="BE102" s="48"/>
-      <c r="BF102" s="48"/>
-      <c r="BG102" s="48"/>
-    </row>
-    <row r="103" spans="1:59" outlineLevel="1"/>
-    <row r="104" spans="1:59" outlineLevel="1">
-      <c r="B104" s="77" t="s">
-        <v>328</v>
-      </c>
-      <c r="C104" s="77"/>
-      <c r="D104" s="77"/>
-      <c r="E104" s="77"/>
-      <c r="F104" s="77"/>
-      <c r="G104" s="77"/>
-      <c r="H104" s="77"/>
-      <c r="I104" s="77"/>
-      <c r="J104" s="77"/>
-      <c r="K104" s="77"/>
-      <c r="L104" s="77"/>
-      <c r="M104" s="77"/>
-      <c r="N104" s="77"/>
-      <c r="O104" s="77"/>
-      <c r="P104" s="77"/>
-      <c r="Q104" s="77"/>
-      <c r="R104" s="77"/>
-      <c r="S104" s="77"/>
-      <c r="T104" s="77"/>
-      <c r="U104" s="77"/>
-      <c r="V104" s="77"/>
-      <c r="W104" s="77"/>
-      <c r="X104" s="77"/>
-      <c r="Y104" s="77"/>
-      <c r="Z104" s="77"/>
-      <c r="AA104" s="77"/>
-      <c r="AB104" s="77"/>
-      <c r="AC104" s="77"/>
-      <c r="AD104" s="77"/>
-      <c r="AE104" s="77"/>
-      <c r="AF104" s="77"/>
-      <c r="AG104" s="77"/>
-      <c r="AH104" s="77"/>
-      <c r="AI104" s="77"/>
-      <c r="AJ104" s="77"/>
-      <c r="AK104" s="77"/>
-    </row>
+    <row r="96" spans="2:36" outlineLevel="1"/>
+    <row r="98" spans="1:59" s="15" customFormat="1" ht="18.75">
+      <c r="A98" s="46" t="s">
+        <v>314</v>
+      </c>
+      <c r="B98" s="47"/>
+      <c r="C98" s="47"/>
+      <c r="D98" s="47"/>
+      <c r="E98" s="47"/>
+      <c r="F98" s="47"/>
+      <c r="G98" s="47"/>
+      <c r="H98" s="47"/>
+      <c r="I98" s="47"/>
+      <c r="J98" s="47"/>
+      <c r="K98" s="47"/>
+      <c r="L98" s="47"/>
+      <c r="M98" s="47"/>
+      <c r="N98" s="47"/>
+      <c r="O98" s="47"/>
+      <c r="P98" s="47"/>
+      <c r="Q98" s="47"/>
+      <c r="R98" s="47"/>
+      <c r="S98" s="47"/>
+      <c r="T98" s="47"/>
+      <c r="U98" s="47"/>
+      <c r="V98" s="47"/>
+      <c r="W98" s="47"/>
+      <c r="X98" s="47"/>
+      <c r="Y98" s="47"/>
+      <c r="Z98" s="47"/>
+      <c r="AA98" s="47"/>
+      <c r="AB98" s="47"/>
+      <c r="AC98" s="47"/>
+      <c r="AD98" s="47"/>
+      <c r="AE98" s="47"/>
+      <c r="AF98" s="47"/>
+      <c r="AG98" s="47"/>
+      <c r="AH98" s="47"/>
+      <c r="AI98" s="47"/>
+      <c r="AJ98" s="47"/>
+      <c r="AK98" s="47"/>
+      <c r="AL98" s="48"/>
+      <c r="AM98" s="48"/>
+      <c r="AN98" s="48"/>
+      <c r="AO98" s="48"/>
+      <c r="AP98" s="48"/>
+      <c r="AQ98" s="48"/>
+      <c r="AR98" s="48"/>
+      <c r="AS98" s="48"/>
+      <c r="AT98" s="48"/>
+      <c r="AU98" s="48"/>
+      <c r="AV98" s="48"/>
+      <c r="AW98" s="48"/>
+      <c r="AX98" s="48"/>
+      <c r="AY98" s="48"/>
+      <c r="AZ98" s="48"/>
+      <c r="BA98" s="48"/>
+      <c r="BB98" s="48"/>
+      <c r="BC98" s="48"/>
+      <c r="BD98" s="48"/>
+      <c r="BE98" s="48"/>
+      <c r="BF98" s="48"/>
+      <c r="BG98" s="48"/>
+    </row>
+    <row r="99" spans="1:59" outlineLevel="1"/>
+    <row r="100" spans="1:59" outlineLevel="1">
+      <c r="B100" s="77" t="s">
+        <v>322</v>
+      </c>
+      <c r="C100" s="77"/>
+      <c r="D100" s="77"/>
+      <c r="E100" s="77"/>
+      <c r="F100" s="77"/>
+      <c r="G100" s="77"/>
+      <c r="H100" s="77"/>
+      <c r="I100" s="77"/>
+      <c r="J100" s="77"/>
+      <c r="K100" s="77"/>
+      <c r="L100" s="77"/>
+      <c r="M100" s="77"/>
+      <c r="N100" s="77"/>
+      <c r="O100" s="77"/>
+      <c r="P100" s="77"/>
+      <c r="Q100" s="77"/>
+      <c r="R100" s="77"/>
+      <c r="S100" s="77"/>
+      <c r="T100" s="77"/>
+      <c r="U100" s="77"/>
+      <c r="V100" s="77"/>
+      <c r="W100" s="77"/>
+      <c r="X100" s="77"/>
+      <c r="Y100" s="77"/>
+      <c r="Z100" s="77"/>
+      <c r="AA100" s="77"/>
+      <c r="AB100" s="77"/>
+      <c r="AC100" s="77"/>
+      <c r="AD100" s="77"/>
+      <c r="AE100" s="77"/>
+      <c r="AF100" s="77"/>
+      <c r="AG100" s="77"/>
+      <c r="AH100" s="77"/>
+      <c r="AI100" s="77"/>
+      <c r="AJ100" s="77"/>
+      <c r="AK100" s="77"/>
+    </row>
+    <row r="101" spans="1:59" outlineLevel="1">
+      <c r="B101" s="76" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="102" spans="1:59" outlineLevel="1">
+      <c r="C102" s="76" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="103" spans="1:59" ht="18.75" outlineLevel="1">
+      <c r="C103" s="48" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="104" spans="1:59" outlineLevel="1"/>
     <row r="105" spans="1:59" outlineLevel="1">
-      <c r="B105" s="76" t="s">
-        <v>322</v>
-      </c>
+      <c r="B105" s="77" t="s">
+        <v>323</v>
+      </c>
+      <c r="C105" s="77"/>
+      <c r="D105" s="77"/>
+      <c r="E105" s="77"/>
+      <c r="F105" s="77"/>
+      <c r="G105" s="77"/>
+      <c r="H105" s="77"/>
+      <c r="I105" s="77"/>
+      <c r="J105" s="77"/>
+      <c r="K105" s="77"/>
+      <c r="L105" s="77"/>
+      <c r="M105" s="77"/>
+      <c r="N105" s="77"/>
+      <c r="O105" s="77"/>
+      <c r="P105" s="77"/>
+      <c r="Q105" s="77"/>
+      <c r="R105" s="77"/>
+      <c r="S105" s="77"/>
+      <c r="T105" s="77"/>
+      <c r="U105" s="77"/>
+      <c r="V105" s="77"/>
+      <c r="W105" s="77"/>
+      <c r="X105" s="77"/>
+      <c r="Y105" s="77"/>
+      <c r="Z105" s="77"/>
+      <c r="AA105" s="77"/>
+      <c r="AB105" s="77"/>
+      <c r="AC105" s="77"/>
+      <c r="AD105" s="77"/>
+      <c r="AE105" s="77"/>
+      <c r="AF105" s="77"/>
+      <c r="AG105" s="77"/>
+      <c r="AH105" s="77"/>
+      <c r="AI105" s="77"/>
+      <c r="AJ105" s="77"/>
+      <c r="AK105" s="77"/>
     </row>
     <row r="106" spans="1:59" outlineLevel="1">
-      <c r="C106" s="76" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="107" spans="1:59" ht="18.75" outlineLevel="1">
-      <c r="C107" s="48" t="s">
-        <v>240</v>
+      <c r="B106" s="76" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="107" spans="1:59" outlineLevel="1">
+      <c r="B107" s="76" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="108" spans="1:59" outlineLevel="1"/>
-    <row r="109" spans="1:59" outlineLevel="1">
-      <c r="B109" s="77" t="s">
-        <v>329</v>
-      </c>
-      <c r="C109" s="77"/>
-      <c r="D109" s="77"/>
-      <c r="E109" s="77"/>
-      <c r="F109" s="77"/>
-      <c r="G109" s="77"/>
-      <c r="H109" s="77"/>
-      <c r="I109" s="77"/>
-      <c r="J109" s="77"/>
-      <c r="K109" s="77"/>
-      <c r="L109" s="77"/>
-      <c r="M109" s="77"/>
-      <c r="N109" s="77"/>
-      <c r="O109" s="77"/>
-      <c r="P109" s="77"/>
-      <c r="Q109" s="77"/>
-      <c r="R109" s="77"/>
-      <c r="S109" s="77"/>
-      <c r="T109" s="77"/>
-      <c r="U109" s="77"/>
-      <c r="V109" s="77"/>
-      <c r="W109" s="77"/>
-      <c r="X109" s="77"/>
-      <c r="Y109" s="77"/>
-      <c r="Z109" s="77"/>
-      <c r="AA109" s="77"/>
-      <c r="AB109" s="77"/>
-      <c r="AC109" s="77"/>
-      <c r="AD109" s="77"/>
-      <c r="AE109" s="77"/>
-      <c r="AF109" s="77"/>
-      <c r="AG109" s="77"/>
-      <c r="AH109" s="77"/>
-      <c r="AI109" s="77"/>
-      <c r="AJ109" s="77"/>
-      <c r="AK109" s="77"/>
-    </row>
-    <row r="110" spans="1:59" outlineLevel="1">
-      <c r="B110" s="76" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="111" spans="1:59" outlineLevel="1">
-      <c r="B111" s="76" t="s">
-        <v>321</v>
-      </c>
-    </row>
+    <row r="109" spans="1:59" outlineLevel="1"/>
+    <row r="110" spans="1:59" outlineLevel="1"/>
+    <row r="111" spans="1:59" outlineLevel="1"/>
     <row r="112" spans="1:59" outlineLevel="1"/>
     <row r="113" spans="2:2" outlineLevel="1"/>
     <row r="114" spans="2:2" outlineLevel="1"/>
@@ -9658,15 +9742,15 @@
     <row r="118" spans="2:2" outlineLevel="1"/>
     <row r="119" spans="2:2" outlineLevel="1"/>
     <row r="120" spans="2:2" outlineLevel="1"/>
-    <row r="121" spans="2:2" outlineLevel="1"/>
+    <row r="121" spans="2:2" outlineLevel="1">
+      <c r="B121" s="76" t="s">
+        <v>318</v>
+      </c>
+    </row>
     <row r="122" spans="2:2" outlineLevel="1"/>
     <row r="123" spans="2:2" outlineLevel="1"/>
     <row r="124" spans="2:2" outlineLevel="1"/>
-    <row r="125" spans="2:2" outlineLevel="1">
-      <c r="B125" s="76" t="s">
-        <v>324</v>
-      </c>
-    </row>
+    <row r="125" spans="2:2" outlineLevel="1"/>
     <row r="126" spans="2:2" outlineLevel="1"/>
     <row r="127" spans="2:2" outlineLevel="1"/>
     <row r="128" spans="2:2" outlineLevel="1"/>
@@ -9677,61 +9761,61 @@
     <row r="133" spans="2:37" outlineLevel="1"/>
     <row r="134" spans="2:37" outlineLevel="1"/>
     <row r="135" spans="2:37" outlineLevel="1"/>
-    <row r="136" spans="2:37" outlineLevel="1"/>
-    <row r="137" spans="2:37" outlineLevel="1"/>
+    <row r="136" spans="2:37" outlineLevel="1">
+      <c r="B136" s="77" t="s">
+        <v>325</v>
+      </c>
+      <c r="C136" s="77"/>
+      <c r="D136" s="77"/>
+      <c r="E136" s="77"/>
+      <c r="F136" s="77"/>
+      <c r="G136" s="77"/>
+      <c r="H136" s="77"/>
+      <c r="I136" s="77"/>
+      <c r="J136" s="77"/>
+      <c r="K136" s="77"/>
+      <c r="L136" s="77"/>
+      <c r="M136" s="77"/>
+      <c r="N136" s="77"/>
+      <c r="O136" s="77"/>
+      <c r="P136" s="77"/>
+      <c r="Q136" s="77"/>
+      <c r="R136" s="77"/>
+      <c r="S136" s="77"/>
+      <c r="T136" s="77"/>
+      <c r="U136" s="77"/>
+      <c r="V136" s="77"/>
+      <c r="W136" s="77"/>
+      <c r="X136" s="77"/>
+      <c r="Y136" s="77"/>
+      <c r="Z136" s="77"/>
+      <c r="AA136" s="77"/>
+      <c r="AB136" s="77"/>
+      <c r="AC136" s="77"/>
+      <c r="AD136" s="77"/>
+      <c r="AE136" s="77"/>
+      <c r="AF136" s="77"/>
+      <c r="AG136" s="77"/>
+      <c r="AH136" s="77"/>
+      <c r="AI136" s="77"/>
+      <c r="AJ136" s="77"/>
+      <c r="AK136" s="77"/>
+    </row>
+    <row r="137" spans="2:37" outlineLevel="1">
+      <c r="B137" s="76" t="s">
+        <v>326</v>
+      </c>
+    </row>
     <row r="138" spans="2:37" outlineLevel="1"/>
-    <row r="139" spans="2:37" outlineLevel="1"/>
-    <row r="140" spans="2:37" outlineLevel="1">
-      <c r="B140" s="77" t="s">
-        <v>331</v>
-      </c>
-      <c r="C140" s="77"/>
-      <c r="D140" s="77"/>
-      <c r="E140" s="77"/>
-      <c r="F140" s="77"/>
-      <c r="G140" s="77"/>
-      <c r="H140" s="77"/>
-      <c r="I140" s="77"/>
-      <c r="J140" s="77"/>
-      <c r="K140" s="77"/>
-      <c r="L140" s="77"/>
-      <c r="M140" s="77"/>
-      <c r="N140" s="77"/>
-      <c r="O140" s="77"/>
-      <c r="P140" s="77"/>
-      <c r="Q140" s="77"/>
-      <c r="R140" s="77"/>
-      <c r="S140" s="77"/>
-      <c r="T140" s="77"/>
-      <c r="U140" s="77"/>
-      <c r="V140" s="77"/>
-      <c r="W140" s="77"/>
-      <c r="X140" s="77"/>
-      <c r="Y140" s="77"/>
-      <c r="Z140" s="77"/>
-      <c r="AA140" s="77"/>
-      <c r="AB140" s="77"/>
-      <c r="AC140" s="77"/>
-      <c r="AD140" s="77"/>
-      <c r="AE140" s="77"/>
-      <c r="AF140" s="77"/>
-      <c r="AG140" s="77"/>
-      <c r="AH140" s="77"/>
-      <c r="AI140" s="77"/>
-      <c r="AJ140" s="77"/>
-      <c r="AK140" s="77"/>
-    </row>
-    <row r="141" spans="2:37" outlineLevel="1">
-      <c r="B141" s="76" t="s">
-        <v>332</v>
-      </c>
-    </row>
+    <row r="139" spans="2:37" outlineLevel="1">
+      <c r="B139" s="76" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="140" spans="2:37" outlineLevel="1"/>
+    <row r="141" spans="2:37" outlineLevel="1"/>
     <row r="142" spans="2:37" outlineLevel="1"/>
-    <row r="143" spans="2:37" outlineLevel="1">
-      <c r="B143" s="76" t="s">
-        <v>333</v>
-      </c>
-    </row>
+    <row r="143" spans="2:37" outlineLevel="1"/>
     <row r="144" spans="2:37" outlineLevel="1"/>
     <row r="145" outlineLevel="1"/>
     <row r="146" outlineLevel="1"/>
@@ -9753,63 +9837,59 @@
     <row r="162" spans="2:37" outlineLevel="1"/>
     <row r="163" spans="2:37" outlineLevel="1"/>
     <row r="164" spans="2:37" outlineLevel="1"/>
-    <row r="165" spans="2:37" outlineLevel="1"/>
+    <row r="165" spans="2:37" outlineLevel="1">
+      <c r="B165" s="77" t="s">
+        <v>328</v>
+      </c>
+      <c r="C165" s="77"/>
+      <c r="D165" s="77"/>
+      <c r="E165" s="77"/>
+      <c r="F165" s="77"/>
+      <c r="G165" s="77"/>
+      <c r="H165" s="77"/>
+      <c r="I165" s="77"/>
+      <c r="J165" s="77"/>
+      <c r="K165" s="77"/>
+      <c r="L165" s="77"/>
+      <c r="M165" s="77"/>
+      <c r="N165" s="77"/>
+      <c r="O165" s="77"/>
+      <c r="P165" s="77"/>
+      <c r="Q165" s="77"/>
+      <c r="R165" s="77"/>
+      <c r="S165" s="77"/>
+      <c r="T165" s="77"/>
+      <c r="U165" s="77"/>
+      <c r="V165" s="77"/>
+      <c r="W165" s="77"/>
+      <c r="X165" s="77"/>
+      <c r="Y165" s="77"/>
+      <c r="Z165" s="77"/>
+      <c r="AA165" s="77"/>
+      <c r="AB165" s="77"/>
+      <c r="AC165" s="77"/>
+      <c r="AD165" s="77"/>
+      <c r="AE165" s="77"/>
+      <c r="AF165" s="77"/>
+      <c r="AG165" s="77"/>
+      <c r="AH165" s="77"/>
+      <c r="AI165" s="77"/>
+      <c r="AJ165" s="77"/>
+      <c r="AK165" s="77"/>
+    </row>
     <row r="166" spans="2:37" outlineLevel="1"/>
-    <row r="167" spans="2:37" outlineLevel="1"/>
-    <row r="168" spans="2:37" outlineLevel="1"/>
-    <row r="169" spans="2:37" outlineLevel="1">
-      <c r="B169" s="77" t="s">
-        <v>334</v>
-      </c>
-      <c r="C169" s="77"/>
-      <c r="D169" s="77"/>
-      <c r="E169" s="77"/>
-      <c r="F169" s="77"/>
-      <c r="G169" s="77"/>
-      <c r="H169" s="77"/>
-      <c r="I169" s="77"/>
-      <c r="J169" s="77"/>
-      <c r="K169" s="77"/>
-      <c r="L169" s="77"/>
-      <c r="M169" s="77"/>
-      <c r="N169" s="77"/>
-      <c r="O169" s="77"/>
-      <c r="P169" s="77"/>
-      <c r="Q169" s="77"/>
-      <c r="R169" s="77"/>
-      <c r="S169" s="77"/>
-      <c r="T169" s="77"/>
-      <c r="U169" s="77"/>
-      <c r="V169" s="77"/>
-      <c r="W169" s="77"/>
-      <c r="X169" s="77"/>
-      <c r="Y169" s="77"/>
-      <c r="Z169" s="77"/>
-      <c r="AA169" s="77"/>
-      <c r="AB169" s="77"/>
-      <c r="AC169" s="77"/>
-      <c r="AD169" s="77"/>
-      <c r="AE169" s="77"/>
-      <c r="AF169" s="77"/>
-      <c r="AG169" s="77"/>
-      <c r="AH169" s="77"/>
-      <c r="AI169" s="77"/>
-      <c r="AJ169" s="77"/>
-      <c r="AK169" s="77"/>
-    </row>
+    <row r="167" spans="2:37" outlineLevel="1">
+      <c r="B167" s="76" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="168" spans="2:37" outlineLevel="1">
+      <c r="B168" s="76" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="169" spans="2:37" outlineLevel="1"/>
     <row r="170" spans="2:37" outlineLevel="1"/>
-    <row r="171" spans="2:37" outlineLevel="1">
-      <c r="B171" s="76" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="172" spans="2:37" outlineLevel="1">
-      <c r="B172" s="76" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="173" spans="2:37" outlineLevel="1"/>
-    <row r="174" spans="2:37" outlineLevel="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10191,7 +10271,7 @@
     </row>
     <row r="2" spans="2:59">
       <c r="B2" s="48" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
@@ -10394,7 +10474,7 @@
       <c r="Q5" s="48"/>
       <c r="R5" s="48"/>
       <c r="T5" s="15" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="U5" s="48"/>
       <c r="W5" s="48"/>
@@ -10498,7 +10578,7 @@
       <c r="D7" s="48"/>
       <c r="E7" s="48"/>
       <c r="F7" s="49" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G7" s="48"/>
       <c r="H7" s="48"/>
@@ -10560,7 +10640,7 @@
       <c r="D8" s="48"/>
       <c r="E8" s="48"/>
       <c r="F8" s="49" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="G8" s="48"/>
       <c r="H8" s="48"/>
@@ -10575,7 +10655,7 @@
       <c r="Q8" s="48"/>
       <c r="R8" s="48"/>
       <c r="T8" s="48" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="U8" s="48"/>
       <c r="V8" s="48"/>
@@ -10621,7 +10701,7 @@
       <c r="D9" s="48"/>
       <c r="E9" s="48"/>
       <c r="F9" s="49" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G9" s="48"/>
       <c r="H9" s="48"/>
@@ -10680,7 +10760,7 @@
       <c r="D10" s="48"/>
       <c r="E10" s="48"/>
       <c r="F10" s="49" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G10" s="48"/>
       <c r="H10" s="48"/>
@@ -10695,7 +10775,7 @@
       <c r="Q10" s="48"/>
       <c r="R10" s="48"/>
       <c r="T10" s="48" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="U10" s="48"/>
       <c r="V10" s="48"/>
@@ -10741,7 +10821,7 @@
       <c r="D11" s="48"/>
       <c r="E11" s="48"/>
       <c r="F11" s="49" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G11" s="48"/>
       <c r="H11" s="48"/>
@@ -10857,7 +10937,7 @@
     </row>
     <row r="13" spans="2:59">
       <c r="B13" s="55" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C13" s="48"/>
       <c r="D13" s="48"/>
@@ -10866,7 +10946,7 @@
         <v>41</v>
       </c>
       <c r="T13" s="15" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="U13" s="48"/>
       <c r="V13" s="48"/>
@@ -11088,7 +11168,7 @@
     </row>
     <row r="17" spans="2:59">
       <c r="B17" s="126" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C17" s="127"/>
       <c r="D17" s="127"/>
@@ -11179,13 +11259,13 @@
     </row>
     <row r="19" spans="2:59">
       <c r="B19" s="55" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C19" s="48"/>
       <c r="D19" s="48"/>
       <c r="E19" s="48"/>
       <c r="F19" s="48" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G19" s="48"/>
       <c r="H19" s="48"/>
@@ -11201,7 +11281,7 @@
       <c r="R19" s="48"/>
       <c r="S19" s="48"/>
       <c r="T19" s="48" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="U19" s="48"/>
       <c r="V19" s="48"/>
@@ -11243,13 +11323,13 @@
     </row>
     <row r="21" spans="2:59">
       <c r="B21" s="55" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C21" s="48"/>
       <c r="D21" s="48"/>
       <c r="E21" s="48"/>
       <c r="F21" s="48" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G21" s="48"/>
       <c r="H21" s="48"/>
@@ -11280,7 +11360,7 @@
       <c r="D22" s="48"/>
       <c r="E22" s="48"/>
       <c r="F22" s="48" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G22" s="48"/>
       <c r="H22" s="48"/>
@@ -11296,7 +11376,7 @@
       <c r="R22" s="48"/>
       <c r="S22" s="48"/>
       <c r="T22" s="48" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="V22" s="48"/>
       <c r="W22" s="48"/>
@@ -11312,7 +11392,7 @@
       <c r="D23" s="48"/>
       <c r="E23" s="48"/>
       <c r="F23" s="48" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G23" s="48"/>
       <c r="H23" s="48"/>
@@ -11343,7 +11423,7 @@
       <c r="D24" s="48"/>
       <c r="E24" s="48"/>
       <c r="F24" s="48" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G24" s="48"/>
       <c r="H24" s="48"/>
@@ -11359,7 +11439,7 @@
       <c r="R24" s="48"/>
       <c r="S24" s="48"/>
       <c r="T24" s="48" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="U24" s="48"/>
       <c r="V24" s="48"/>
@@ -11372,7 +11452,7 @@
     </row>
     <row r="25" spans="2:59">
       <c r="B25" s="55" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C25" s="48"/>
       <c r="D25" s="48"/>
@@ -11434,7 +11514,7 @@
     </row>
     <row r="28" spans="2:59">
       <c r="B28" s="114" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D28" s="48"/>
       <c r="E28" s="48"/>
@@ -11508,7 +11588,7 @@
       <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="D40" sqref="D40"/>
+      <selection pane="bottomRight" activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5"/>
@@ -11537,17 +11617,17 @@
         <v>47</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="15" customFormat="1">
       <c r="A2" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="153" t="s">
+      <c r="B2" s="154" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="154"/>
+      <c r="C2" s="155"/>
       <c r="D2" s="62" t="s">
         <v>76</v>
       </c>
@@ -11561,44 +11641,44 @@
       <c r="A3" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="151" t="s">
+      <c r="B3" s="152" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="152"/>
+      <c r="C3" s="153"/>
       <c r="D3" s="64" t="s">
         <v>78</v>
       </c>
       <c r="E3" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="149" t="s">
+      <c r="F3" s="150" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="150"/>
+      <c r="G3" s="151"/>
     </row>
     <row r="4" spans="1:24" s="15" customFormat="1" ht="18.75">
       <c r="A4" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="151" t="s">
+      <c r="B4" s="152" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="152"/>
+      <c r="C4" s="153"/>
       <c r="D4" s="64" t="s">
         <v>79</v>
       </c>
       <c r="E4" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="147">
+      <c r="F4" s="148">
         <v>45406</v>
       </c>
-      <c r="G4" s="148"/>
+      <c r="G4" s="149"/>
     </row>
     <row r="5" spans="1:24" ht="18" customHeight="1"/>
     <row r="6" spans="1:24">
       <c r="L6" s="79" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M6" s="80"/>
       <c r="N6" s="80"/>
@@ -11643,34 +11723,34 @@
         <v>168</v>
       </c>
       <c r="J7" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="K7" s="78" t="s">
+        <v>178</v>
+      </c>
+      <c r="L7" s="89" t="s">
+        <v>190</v>
+      </c>
+      <c r="M7" s="89" t="s">
         <v>191</v>
       </c>
-      <c r="K7" s="78" t="s">
-        <v>180</v>
-      </c>
-      <c r="L7" s="89" t="s">
+      <c r="N7" s="89" t="s">
         <v>192</v>
       </c>
-      <c r="M7" s="89" t="s">
+      <c r="O7" s="89" t="s">
         <v>193</v>
       </c>
-      <c r="N7" s="89" t="s">
+      <c r="P7" s="89" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q7" s="89" t="s">
         <v>194</v>
-      </c>
-      <c r="O7" s="89" t="s">
-        <v>195</v>
-      </c>
-      <c r="P7" s="89" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q7" s="89" t="s">
-        <v>196</v>
       </c>
       <c r="R7" s="89" t="s">
         <v>176</v>
       </c>
       <c r="S7" s="90" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="T7" s="89" t="s">
         <v>1</v>
@@ -11722,13 +11802,13 @@
         <v>18</v>
       </c>
       <c r="L8" s="35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M8" s="35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N8" s="35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O8" s="85" t="s">
         <v>13</v>
@@ -11788,13 +11868,13 @@
         <v>18</v>
       </c>
       <c r="L9" s="35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M9" s="35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N9" s="35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O9" s="86" t="s">
         <v>59</v>
@@ -11856,22 +11936,22 @@
         <v>18</v>
       </c>
       <c r="L10" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M10" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N10" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O10" s="87">
         <v>5</v>
       </c>
       <c r="P10" s="24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q10" s="82" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="R10" s="84"/>
       <c r="S10" s="74"/>
@@ -11922,22 +12002,22 @@
         <v>18</v>
       </c>
       <c r="L11" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M11" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N11" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O11" s="87">
         <v>1</v>
       </c>
       <c r="P11" s="24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q11" s="82" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="R11" s="83"/>
       <c r="S11" s="74"/>
@@ -11988,22 +12068,22 @@
         <v>18</v>
       </c>
       <c r="L12" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M12" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N12" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O12" s="87">
         <v>1</v>
       </c>
       <c r="P12" s="24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q12" s="82" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="R12" s="83"/>
       <c r="S12" s="74"/>
@@ -12054,22 +12134,22 @@
         <v>18</v>
       </c>
       <c r="L13" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M13" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N13" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O13" s="87">
         <v>1</v>
       </c>
       <c r="P13" s="24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q13" s="82" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="R13" s="83"/>
       <c r="S13" s="74"/>
@@ -12120,22 +12200,22 @@
         <v>18</v>
       </c>
       <c r="L14" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M14" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N14" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O14" s="87">
         <v>1</v>
       </c>
       <c r="P14" s="24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q14" s="82" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="R14" s="83"/>
       <c r="S14" s="74"/>
@@ -12182,22 +12262,22 @@
       <c r="J15" s="32"/>
       <c r="K15" s="34"/>
       <c r="L15" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M15" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="N15" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O15" s="87">
         <v>2</v>
       </c>
       <c r="P15" s="24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q15" s="82" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="R15" s="83" t="s">
         <v>125</v>
@@ -12246,22 +12326,22 @@
       <c r="J16" s="32"/>
       <c r="K16" s="34"/>
       <c r="L16" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M16" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="N16" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O16" s="87">
         <v>3</v>
       </c>
       <c r="P16" s="24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q16" s="82" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="R16" s="83" t="s">
         <v>127</v>
@@ -12291,10 +12371,10 @@
         <v>10</v>
       </c>
       <c r="C17" s="67" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D17" s="67" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E17" s="67" t="s">
         <v>147</v>
@@ -12310,25 +12390,25 @@
       <c r="J17" s="32"/>
       <c r="K17" s="34"/>
       <c r="L17" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M17" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="N17" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O17" s="87">
         <v>0</v>
       </c>
       <c r="P17" s="24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q17" s="82" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="R17" s="83" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="S17" s="74"/>
       <c r="T17" s="83"/>
@@ -12355,10 +12435,10 @@
         <v>11</v>
       </c>
       <c r="C18" s="67" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D18" s="67" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E18" s="67" t="s">
         <v>147</v>
@@ -12374,25 +12454,25 @@
       <c r="J18" s="32"/>
       <c r="K18" s="34"/>
       <c r="L18" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M18" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="N18" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O18" s="87">
         <v>0</v>
       </c>
       <c r="P18" s="24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q18" s="82" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="R18" s="83" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="S18" s="74"/>
       <c r="T18" s="83"/>
@@ -12419,10 +12499,10 @@
         <v>12</v>
       </c>
       <c r="C19" s="67" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D19" s="67" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E19" s="67" t="s">
         <v>147</v>
@@ -12438,25 +12518,25 @@
       <c r="J19" s="32"/>
       <c r="K19" s="34"/>
       <c r="L19" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M19" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="N19" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O19" s="87">
         <v>0</v>
       </c>
       <c r="P19" s="24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q19" s="82" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="R19" s="83" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="S19" s="74"/>
       <c r="T19" s="83"/>
@@ -12502,22 +12582,22 @@
       <c r="J20" s="32"/>
       <c r="K20" s="34"/>
       <c r="L20" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M20" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N20" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O20" s="87">
         <v>0</v>
       </c>
       <c r="P20" s="24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q20" s="82" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="R20" s="83" t="s">
         <v>130</v>
@@ -12547,10 +12627,10 @@
         <v>14</v>
       </c>
       <c r="C21" s="67" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D21" s="67" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E21" s="67" t="s">
         <v>147</v>
@@ -12566,25 +12646,25 @@
       <c r="J21" s="32"/>
       <c r="K21" s="34"/>
       <c r="L21" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M21" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N21" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O21" s="87">
         <v>0</v>
       </c>
       <c r="P21" s="24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q21" s="82" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="R21" s="83" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="S21" s="74"/>
       <c r="T21" s="83"/>
@@ -12630,28 +12710,26 @@
       <c r="J22" s="32"/>
       <c r="K22" s="34"/>
       <c r="L22" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M22" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N22" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O22" s="85" t="s">
         <v>13</v>
       </c>
       <c r="P22" s="24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q22" s="74" t="s">
-        <v>190</v>
-      </c>
-      <c r="R22" s="83" t="s">
-        <v>135</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="R22" s="83"/>
       <c r="S22" s="74" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="T22" s="35"/>
       <c r="U22" s="124" t="str">
@@ -12677,7 +12755,7 @@
         <v>16</v>
       </c>
       <c r="C23" s="67" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D23" s="67" t="s">
         <v>149</v>
@@ -12696,28 +12774,26 @@
       <c r="J23" s="32"/>
       <c r="K23" s="34"/>
       <c r="L23" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M23" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N23" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O23" s="85" t="s">
         <v>13</v>
       </c>
       <c r="P23" s="24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q23" s="74" t="s">
-        <v>190</v>
-      </c>
-      <c r="R23" s="83" t="s">
-        <v>257</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="R23" s="83"/>
       <c r="S23" s="74" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="T23" s="35"/>
       <c r="U23" s="124" t="str">
@@ -12743,13 +12819,13 @@
         <v>17</v>
       </c>
       <c r="C24" s="67" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D24" s="67" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E24" s="67" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F24" s="68" t="s">
         <v>59</v>
@@ -12762,26 +12838,24 @@
       <c r="J24" s="32"/>
       <c r="K24" s="34"/>
       <c r="L24" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M24" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N24" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O24" s="85" t="s">
         <v>13</v>
       </c>
       <c r="P24" s="24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q24" s="74" t="s">
-        <v>190</v>
-      </c>
-      <c r="R24" s="83" t="s">
-        <v>257</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="R24" s="83"/>
       <c r="S24" s="74"/>
       <c r="T24" s="35"/>
       <c r="U24" s="124" t="str">
@@ -12807,13 +12881,13 @@
         <v>18</v>
       </c>
       <c r="C25" s="67" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D25" s="67" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E25" s="67" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F25" s="68" t="s">
         <v>59</v>
@@ -12826,26 +12900,24 @@
       <c r="J25" s="32"/>
       <c r="K25" s="34"/>
       <c r="L25" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M25" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N25" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O25" s="85" t="s">
         <v>13</v>
       </c>
       <c r="P25" s="24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q25" s="74" t="s">
-        <v>190</v>
-      </c>
-      <c r="R25" s="83" t="s">
-        <v>257</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="R25" s="83"/>
       <c r="S25" s="74"/>
       <c r="T25" s="35"/>
       <c r="U25" s="124" t="str">
@@ -12890,22 +12962,22 @@
       <c r="J26" s="32"/>
       <c r="K26" s="34"/>
       <c r="L26" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M26" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N26" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O26" s="87">
         <v>0</v>
       </c>
       <c r="P26" s="24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q26" s="82" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="R26" s="83"/>
       <c r="S26" s="74"/>
@@ -12952,22 +13024,22 @@
       <c r="J27" s="32"/>
       <c r="K27" s="34"/>
       <c r="L27" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M27" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N27" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O27" s="87">
         <v>0</v>
       </c>
       <c r="P27" s="24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q27" s="82" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="R27" s="83" t="s">
         <v>133</v>
@@ -13016,22 +13088,22 @@
       <c r="J28" s="32"/>
       <c r="K28" s="34"/>
       <c r="L28" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M28" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N28" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O28" s="87">
         <v>0</v>
       </c>
       <c r="P28" s="24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q28" s="82" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="R28" s="83" t="s">
         <v>134</v>
@@ -13080,22 +13152,22 @@
       <c r="J29" s="32"/>
       <c r="K29" s="34"/>
       <c r="L29" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M29" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N29" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O29" s="85" t="s">
         <v>13</v>
       </c>
       <c r="P29" s="24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q29" s="82" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="R29" s="83" t="s">
         <v>137</v>
@@ -13144,22 +13216,22 @@
       <c r="J30" s="32"/>
       <c r="K30" s="34"/>
       <c r="L30" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M30" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N30" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O30" s="85" t="s">
         <v>13</v>
       </c>
       <c r="P30" s="24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q30" s="82" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="R30" s="83" t="s">
         <v>138</v>
@@ -13208,22 +13280,22 @@
       <c r="J31" s="32"/>
       <c r="K31" s="34"/>
       <c r="L31" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M31" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N31" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O31" s="87">
         <v>0</v>
       </c>
       <c r="P31" s="24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q31" s="74" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="R31" s="83" t="s">
         <v>174</v>
@@ -13274,22 +13346,22 @@
       <c r="J32" s="32"/>
       <c r="K32" s="34"/>
       <c r="L32" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M32" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N32" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O32" s="87">
         <v>0</v>
       </c>
       <c r="P32" s="24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q32" s="74" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="R32" s="83" t="s">
         <v>175</v>
@@ -13319,10 +13391,10 @@
         <v>26</v>
       </c>
       <c r="C33" s="67" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D33" s="67" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E33" s="67" t="s">
         <v>65</v>
@@ -13338,22 +13410,22 @@
       <c r="J33" s="32"/>
       <c r="K33" s="37"/>
       <c r="L33" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M33" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N33" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O33" s="85" t="s">
         <v>13</v>
       </c>
       <c r="P33" s="24" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="Q33" s="82" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="R33" s="83"/>
       <c r="S33" s="74"/>
@@ -13381,10 +13453,10 @@
         <v>27</v>
       </c>
       <c r="C34" s="67" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D34" s="67" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E34" s="67" t="s">
         <v>63</v>
@@ -13400,29 +13472,29 @@
       <c r="J34" s="32"/>
       <c r="K34" s="34"/>
       <c r="L34" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M34" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N34" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O34" s="87">
         <v>0</v>
       </c>
       <c r="P34" s="24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q34" s="74" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="R34" s="83" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="S34" s="74"/>
       <c r="T34" s="35" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="U34" s="124" t="str">
         <f t="shared" ref="U34" si="15">D34&amp;" " &amp;E34&amp;" "&amp;K34&amp;","</f>
@@ -13466,22 +13538,22 @@
       <c r="J35" s="32"/>
       <c r="K35" s="34"/>
       <c r="L35" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M35" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N35" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O35" s="87">
         <v>0</v>
       </c>
       <c r="P35" s="24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q35" s="74" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="R35" s="83"/>
       <c r="S35" s="75"/>
@@ -13530,22 +13602,22 @@
       <c r="J36" s="32"/>
       <c r="K36" s="34"/>
       <c r="L36" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M36" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N36" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O36" s="85" t="s">
         <v>13</v>
       </c>
       <c r="P36" s="24" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Q36" s="82" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="R36" s="83"/>
       <c r="S36" s="74" t="s">
@@ -13594,13 +13666,13 @@
       <c r="J37" s="32"/>
       <c r="K37" s="37"/>
       <c r="L37" s="35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M37" s="35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N37" s="35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O37" s="85" t="s">
         <v>13</v>
@@ -13658,13 +13730,13 @@
       <c r="J38" s="32"/>
       <c r="K38" s="37"/>
       <c r="L38" s="35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M38" s="35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N38" s="35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O38" s="85" t="s">
         <v>13</v>
@@ -13722,22 +13794,22 @@
       <c r="J39" s="32"/>
       <c r="K39" s="37"/>
       <c r="L39" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M39" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N39" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O39" s="85" t="s">
         <v>13</v>
       </c>
       <c r="P39" s="24" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Q39" s="82" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="R39" s="83"/>
       <c r="S39" s="74"/>
@@ -13797,11 +13869,11 @@
     </row>
     <row r="42" spans="2:24">
       <c r="C42" s="115" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D42" s="72"/>
       <c r="E42" s="72" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F42" s="72"/>
       <c r="G42" s="72"/>
@@ -13820,7 +13892,7 @@
     </row>
     <row r="46" spans="2:24">
       <c r="C46" s="115" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D46" s="72"/>
       <c r="E46" s="72"/>
@@ -13835,7 +13907,7 @@
     </row>
     <row r="49" spans="3:6">
       <c r="C49" s="115" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D49" s="72"/>
       <c r="E49" s="72" t="s">
@@ -13851,12 +13923,12 @@
     </row>
     <row r="51" spans="3:6">
       <c r="C51" s="30" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="52" spans="3:6">
       <c r="C52" s="30" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -13907,17 +13979,17 @@
         <v>47</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="15" customFormat="1">
       <c r="A2" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="153" t="s">
+      <c r="B2" s="154" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="154"/>
+      <c r="C2" s="155"/>
       <c r="D2" s="62" t="s">
         <v>107</v>
       </c>
@@ -13931,44 +14003,44 @@
       <c r="A3" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="151" t="s">
+      <c r="B3" s="152" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="152"/>
+      <c r="C3" s="153"/>
       <c r="D3" s="64" t="s">
         <v>105</v>
       </c>
       <c r="E3" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="149" t="s">
+      <c r="F3" s="150" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="150"/>
+      <c r="G3" s="151"/>
     </row>
     <row r="4" spans="1:24" s="15" customFormat="1" ht="18.75">
       <c r="A4" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="151" t="s">
+      <c r="B4" s="152" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="152"/>
+      <c r="C4" s="153"/>
       <c r="D4" s="64" t="s">
         <v>106</v>
       </c>
       <c r="E4" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="147">
+      <c r="F4" s="148">
         <v>45126</v>
       </c>
-      <c r="G4" s="148"/>
+      <c r="G4" s="149"/>
     </row>
     <row r="5" spans="1:24" ht="8.25" customHeight="1"/>
     <row r="6" spans="1:24">
       <c r="L6" s="79" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M6" s="80"/>
       <c r="N6" s="80"/>
@@ -14013,34 +14085,34 @@
         <v>168</v>
       </c>
       <c r="J7" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="K7" s="78" t="s">
+        <v>178</v>
+      </c>
+      <c r="L7" s="89" t="s">
+        <v>190</v>
+      </c>
+      <c r="M7" s="89" t="s">
         <v>191</v>
       </c>
-      <c r="K7" s="78" t="s">
-        <v>180</v>
-      </c>
-      <c r="L7" s="89" t="s">
+      <c r="N7" s="89" t="s">
         <v>192</v>
       </c>
-      <c r="M7" s="89" t="s">
+      <c r="O7" s="89" t="s">
         <v>193</v>
       </c>
-      <c r="N7" s="89" t="s">
+      <c r="P7" s="89" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q7" s="89" t="s">
         <v>194</v>
-      </c>
-      <c r="O7" s="89" t="s">
-        <v>195</v>
-      </c>
-      <c r="P7" s="89" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q7" s="89" t="s">
-        <v>196</v>
       </c>
       <c r="R7" s="89" t="s">
         <v>176</v>
       </c>
       <c r="S7" s="90" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="T7" s="89" t="s">
         <v>1</v>
@@ -14092,13 +14164,13 @@
         <v>18</v>
       </c>
       <c r="L8" s="35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M8" s="35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N8" s="35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O8" s="85" t="s">
         <v>13</v>
@@ -14158,13 +14230,13 @@
         <v>18</v>
       </c>
       <c r="L9" s="35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M9" s="35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N9" s="35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O9" s="86" t="s">
         <v>59</v>
@@ -14224,22 +14296,22 @@
       <c r="J10" s="32"/>
       <c r="K10" s="34"/>
       <c r="L10" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M10" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N10" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O10" s="87">
         <v>0</v>
       </c>
       <c r="P10" s="24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q10" s="82" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="R10" s="84"/>
       <c r="S10" s="74"/>
@@ -14288,13 +14360,13 @@
       <c r="J11" s="32"/>
       <c r="K11" s="37"/>
       <c r="L11" s="35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M11" s="35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N11" s="35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O11" s="85" t="s">
         <v>13</v>
@@ -14352,13 +14424,13 @@
       <c r="J12" s="32"/>
       <c r="K12" s="37"/>
       <c r="L12" s="35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M12" s="35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N12" s="35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O12" s="85" t="s">
         <v>13</v>
@@ -14416,22 +14488,22 @@
       <c r="J13" s="32"/>
       <c r="K13" s="37"/>
       <c r="L13" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M13" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N13" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O13" s="85" t="s">
         <v>13</v>
       </c>
       <c r="P13" s="24" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Q13" s="82" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="R13" s="83"/>
       <c r="S13" s="74"/>
@@ -14491,11 +14563,11 @@
     </row>
     <row r="16" spans="1:24">
       <c r="C16" s="115" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D16" s="72"/>
       <c r="E16" s="72" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F16" s="72"/>
       <c r="G16" s="72"/>
@@ -14515,7 +14587,7 @@
     </row>
     <row r="20" spans="3:8">
       <c r="C20" s="115" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D20" s="72"/>
       <c r="E20" s="72"/>
@@ -14531,7 +14603,7 @@
     </row>
     <row r="23" spans="3:8">
       <c r="C23" s="115" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D23" s="72" t="s">
         <v>124</v>
@@ -14567,7 +14639,7 @@
   </sheetPr>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -14602,12 +14674,12 @@
       <c r="A2" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="153" t="s">
+      <c r="B2" s="154" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="154"/>
+      <c r="C2" s="155"/>
       <c r="D2" s="62" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E2" s="63"/>
       <c r="F2" s="63"/>
@@ -14619,44 +14691,44 @@
       <c r="A3" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="151" t="s">
+      <c r="B3" s="152" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="152"/>
+      <c r="C3" s="153"/>
       <c r="D3" s="64" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E3" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="149" t="s">
+      <c r="F3" s="150" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="150"/>
+      <c r="G3" s="151"/>
     </row>
     <row r="4" spans="1:24" s="15" customFormat="1" ht="18.75">
       <c r="A4" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="151" t="s">
+      <c r="B4" s="152" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="152"/>
+      <c r="C4" s="153"/>
       <c r="D4" s="64" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E4" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="147">
+      <c r="F4" s="148">
         <v>45546</v>
       </c>
-      <c r="G4" s="148"/>
+      <c r="G4" s="149"/>
     </row>
     <row r="5" spans="1:24" ht="8.25" customHeight="1"/>
     <row r="6" spans="1:24">
       <c r="L6" s="79" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M6" s="80"/>
       <c r="N6" s="80"/>
@@ -14701,34 +14773,34 @@
         <v>168</v>
       </c>
       <c r="J7" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="K7" s="78" t="s">
+        <v>178</v>
+      </c>
+      <c r="L7" s="89" t="s">
+        <v>190</v>
+      </c>
+      <c r="M7" s="89" t="s">
         <v>191</v>
       </c>
-      <c r="K7" s="78" t="s">
-        <v>180</v>
-      </c>
-      <c r="L7" s="89" t="s">
+      <c r="N7" s="89" t="s">
         <v>192</v>
       </c>
-      <c r="M7" s="89" t="s">
+      <c r="O7" s="89" t="s">
         <v>193</v>
       </c>
-      <c r="N7" s="89" t="s">
+      <c r="P7" s="89" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q7" s="89" t="s">
         <v>194</v>
-      </c>
-      <c r="O7" s="89" t="s">
-        <v>195</v>
-      </c>
-      <c r="P7" s="89" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q7" s="89" t="s">
-        <v>196</v>
       </c>
       <c r="R7" s="89" t="s">
         <v>176</v>
       </c>
       <c r="S7" s="90" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="T7" s="89" t="s">
         <v>1</v>
@@ -14757,10 +14829,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E8" s="32" t="s">
         <v>61</v>
@@ -14780,13 +14852,13 @@
         <v>18</v>
       </c>
       <c r="L8" s="35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M8" s="35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N8" s="35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O8" s="85" t="s">
         <v>13</v>
@@ -14846,13 +14918,13 @@
         <v>18</v>
       </c>
       <c r="L9" s="35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M9" s="35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N9" s="35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O9" s="86" t="s">
         <v>59</v>
@@ -14891,10 +14963,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="67" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D10" s="67" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E10" s="67" t="s">
         <v>110</v>
@@ -14912,22 +14984,22 @@
       <c r="J10" s="32"/>
       <c r="K10" s="34"/>
       <c r="L10" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M10" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N10" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O10" s="87">
         <v>0</v>
       </c>
       <c r="P10" s="24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q10" s="82" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="R10" s="84"/>
       <c r="S10" s="74"/>
@@ -14957,13 +15029,13 @@
         <v>4</v>
       </c>
       <c r="C11" s="67" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D11" s="67" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E11" s="67" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F11" s="69"/>
       <c r="G11" s="32" t="s">
@@ -14974,22 +15046,22 @@
       <c r="J11" s="32"/>
       <c r="K11" s="34"/>
       <c r="L11" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M11" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N11" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O11" s="87">
         <v>0</v>
       </c>
       <c r="P11" s="24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q11" s="74" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="R11" s="84"/>
       <c r="S11" s="74"/>
@@ -15038,22 +15110,22 @@
       <c r="J12" s="32"/>
       <c r="K12" s="34"/>
       <c r="L12" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M12" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N12" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O12" s="87">
         <v>0</v>
       </c>
       <c r="P12" s="24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q12" s="74" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="R12" s="83"/>
       <c r="S12" s="75"/>
@@ -15102,13 +15174,13 @@
       <c r="J13" s="32"/>
       <c r="K13" s="37"/>
       <c r="L13" s="35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M13" s="35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N13" s="35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O13" s="85" t="s">
         <v>13</v>
@@ -15166,13 +15238,13 @@
       <c r="J14" s="32"/>
       <c r="K14" s="37"/>
       <c r="L14" s="35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M14" s="35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N14" s="35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O14" s="85" t="s">
         <v>13</v>
@@ -15230,22 +15302,22 @@
       <c r="J15" s="32"/>
       <c r="K15" s="37"/>
       <c r="L15" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M15" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N15" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O15" s="85" t="s">
         <v>13</v>
       </c>
       <c r="P15" s="24" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Q15" s="82" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="R15" s="83"/>
       <c r="S15" s="74"/>
@@ -15305,11 +15377,11 @@
     </row>
     <row r="18" spans="3:8">
       <c r="C18" s="115" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D18" s="72"/>
       <c r="E18" s="72" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F18" s="72"/>
       <c r="G18" s="72"/>
@@ -15329,7 +15401,7 @@
     </row>
     <row r="22" spans="3:8">
       <c r="C22" s="115" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D22" s="72"/>
       <c r="E22" s="72"/>
@@ -15345,7 +15417,7 @@
     </row>
     <row r="25" spans="3:8">
       <c r="C25" s="115" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D25" s="72" t="s">
         <v>124</v>
@@ -15411,19 +15483,19 @@
         <v>47</v>
       </c>
       <c r="D1" s="114" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="15" customFormat="1">
       <c r="A2" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="153" t="s">
+      <c r="B2" s="154" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="154"/>
+      <c r="C2" s="155"/>
       <c r="D2" s="62" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E2" s="63"/>
       <c r="F2" s="63"/>
@@ -15435,44 +15507,44 @@
       <c r="A3" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="151" t="s">
+      <c r="B3" s="152" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="152"/>
+      <c r="C3" s="153"/>
       <c r="D3" s="64" t="s">
         <v>103</v>
       </c>
       <c r="E3" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="149" t="s">
+      <c r="F3" s="150" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="150"/>
+      <c r="G3" s="151"/>
     </row>
     <row r="4" spans="1:24" s="15" customFormat="1" ht="18.75">
       <c r="A4" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="151" t="s">
+      <c r="B4" s="152" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="152"/>
+      <c r="C4" s="153"/>
       <c r="D4" s="64" t="s">
         <v>104</v>
       </c>
       <c r="E4" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="147">
+      <c r="F4" s="148">
         <v>45126</v>
       </c>
-      <c r="G4" s="148"/>
+      <c r="G4" s="149"/>
     </row>
     <row r="5" spans="1:24" ht="8.25" customHeight="1"/>
     <row r="6" spans="1:24">
       <c r="L6" s="79" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M6" s="80"/>
       <c r="N6" s="80"/>
@@ -15517,34 +15589,34 @@
         <v>168</v>
       </c>
       <c r="J7" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="K7" s="78" t="s">
+        <v>178</v>
+      </c>
+      <c r="L7" s="89" t="s">
+        <v>190</v>
+      </c>
+      <c r="M7" s="89" t="s">
         <v>191</v>
       </c>
-      <c r="K7" s="78" t="s">
-        <v>180</v>
-      </c>
-      <c r="L7" s="89" t="s">
+      <c r="N7" s="89" t="s">
         <v>192</v>
       </c>
-      <c r="M7" s="89" t="s">
+      <c r="O7" s="89" t="s">
         <v>193</v>
       </c>
-      <c r="N7" s="89" t="s">
+      <c r="P7" s="89" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q7" s="89" t="s">
         <v>194</v>
-      </c>
-      <c r="O7" s="89" t="s">
-        <v>195</v>
-      </c>
-      <c r="P7" s="89" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q7" s="89" t="s">
-        <v>196</v>
       </c>
       <c r="R7" s="89" t="s">
         <v>176</v>
       </c>
       <c r="S7" s="90" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="T7" s="89" t="s">
         <v>1</v>
@@ -15596,13 +15668,13 @@
         <v>18</v>
       </c>
       <c r="L8" s="35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M8" s="35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N8" s="35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O8" s="85" t="s">
         <v>13</v>
@@ -15641,10 +15713,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="67" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D9" s="67" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E9" s="67" t="s">
         <v>72</v>
@@ -15660,22 +15732,22 @@
       <c r="J9" s="32"/>
       <c r="K9" s="34"/>
       <c r="L9" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M9" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N9" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O9" s="86">
         <v>0</v>
       </c>
       <c r="P9" s="24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q9" s="82" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="R9" s="83"/>
       <c r="S9" s="74"/>
@@ -15703,10 +15775,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="67" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D10" s="67" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E10" s="67" t="s">
         <v>62</v>
@@ -15722,22 +15794,22 @@
       <c r="J10" s="32"/>
       <c r="K10" s="34"/>
       <c r="L10" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M10" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N10" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O10" s="85" t="s">
         <v>13</v>
       </c>
       <c r="P10" s="24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q10" s="74" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="R10" s="83" t="s">
         <v>135</v>
@@ -15786,13 +15858,13 @@
       <c r="J11" s="32"/>
       <c r="K11" s="34"/>
       <c r="L11" s="35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M11" s="35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N11" s="35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O11" s="85" t="s">
         <v>13</v>
@@ -15850,13 +15922,13 @@
       <c r="J12" s="32"/>
       <c r="K12" s="34"/>
       <c r="L12" s="35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M12" s="35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N12" s="35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O12" s="85" t="s">
         <v>13</v>
@@ -15924,11 +15996,11 @@
     </row>
     <row r="15" spans="1:24">
       <c r="C15" s="115" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D15" s="72"/>
       <c r="E15" s="72" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F15" s="72"/>
       <c r="G15" s="72"/>
